--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -230,7 +230,7 @@
     <t>Indicate the measure is required for meeting specified requirement or satisfying specified condition/constraint</t>
   </si>
   <si>
-    <t>Julian Flake, Georg P Krog, Harshvardhan J. Pandit</t>
+    <t>Julian Flake, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>hasNotice</t>
@@ -248,7 +248,7 @@
     <t>dpv:hasOrganisationalMeasure</t>
   </si>
   <si>
-    <t>Georg P Krog, Harshvardhan J. Pandit, Paul Ryan, Julian Flake</t>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan, Julian Flake</t>
   </si>
   <si>
     <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
@@ -690,7 +690,7 @@
     <t>Use of credentials or processes that enable using one set of credentials to authenticate multiple contexts.</t>
   </si>
   <si>
-    <t>Georg P Krog, Harshvardhan J. Pandit, Paul Ryan</t>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan</t>
   </si>
   <si>
     <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201104</t>
@@ -736,7 +736,7 @@
     <t>Protocols or plans for backing up of data</t>
   </si>
   <si>
-    <t>Georg P Krog</t>
+    <t>Georg P. Krog</t>
   </si>
   <si>
     <t>https://www.w3.org/2022/06/15-dpvcg-minutes.html</t>
@@ -1319,7 +1319,7 @@
     <t>dpv:ReviewProcedure,dpv:ImpactAssessment</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Georg P Krog</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog</t>
   </si>
   <si>
     <t>https://www.w3.org/2022/10/19-dpvcg-minutes.html</t>
@@ -1526,7 +1526,7 @@
     <t>A guidance document outlining any of: procedures, plans, principles, decisions, intent, or protocols.</t>
   </si>
   <si>
-    <t>Paul Ryan, David Hickey, Georg P Krog, Harshvardhan J. Pandit</t>
+    <t>Paul Ryan, David Hickey, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>InformationSecurityPolicy</t>
@@ -1640,7 +1640,7 @@
     <t>Deletion and Erasure are distinct activities where deletion refers to logical removal of data with the possibility of retrieval whereas erasure refers to destruction of data such that it cannot be retrieved. See dpv:DataErasurePolicy</t>
   </si>
   <si>
-    <t>Georg P Krog, Harshvardhan J. Pandit</t>
+    <t>Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>DataStoragePolicy</t>
@@ -1914,7 +1914,7 @@
     <t>Represents a notice or document outlining information regarding privacy</t>
   </si>
   <si>
-    <t>Georg P Krog, Paul Ryan, David Hickey, Harshvardhan J. Pandit</t>
+    <t>Georg P. Krog, Paul Ryan, David Hickey, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>ConsentNotice</t>
@@ -1953,7 +1953,7 @@
     <t>DGA 12.k, DGA 21.5 GDPR 33, GDPR 34</t>
   </si>
   <si>
-    <t>Georg P Krog, Paul Ryan, David Hickey, Beatriz Esteves, Harshvardhan J. Pandit</t>
+    <t>Georg P. Krog, Paul Ryan, David Hickey, Beatriz Esteves, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>DataTransferNotice</t>
@@ -2223,7 +2223,7 @@
     <t>This concept is relevant given the requirement to assert safeguards in cross-border data transfers</t>
   </si>
   <si>
-    <t>David Hickey, Paul Ryan, Georg P Krog, Harshvardhan J. Pandit</t>
+    <t>David Hickey, Paul Ryan, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>SafeguardForDataTransfer</t>
@@ -2247,7 +2247,7 @@
     <t>Methods associated with rights management where 'rights' refer to controlling who can do what with a resource</t>
   </si>
   <si>
-    <t>Beatriz Esteves, Harshvardhan J. Pandit, Georg P Krog</t>
+    <t>Beatriz Esteves, Harshvardhan J. Pandit, Georg P. Krog</t>
   </si>
   <si>
     <t>DataSubjectRightsManagement</t>
@@ -2517,7 +2517,7 @@
     <t>For specific role-based data processing agreements, see concepts for Processors and JointDataController agreements.</t>
   </si>
   <si>
-    <t>Georg P Krog, Harshvardhan J. Pandit, Beatriz Esteves, Paul Ryan, Julian Flake</t>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Beatriz Esteves, Paul Ryan, Julian Flake</t>
   </si>
   <si>
     <t>ControllerProcessorAgreement</t>
@@ -3168,7 +3168,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3455,9 +3455,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -17030,7 +17027,7 @@
       <c r="M4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>195</v>
       </c>
       <c r="O4" s="16" t="s">
@@ -17721,7 +17718,7 @@
       <c r="M18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="9" t="s">
         <v>402</v>
       </c>
       <c r="O18" s="16" t="s">
@@ -19698,7 +19695,7 @@
       <c r="M61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="99" t="s">
+      <c r="N61" s="17" t="s">
         <v>195</v>
       </c>
       <c r="O61" s="68" t="s">
@@ -19858,7 +19855,7 @@
       <c r="M64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="99" t="s">
+      <c r="N64" s="17" t="s">
         <v>195</v>
       </c>
       <c r="O64" s="31" t="s">
@@ -20639,7 +20636,7 @@
       <c r="M81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="100" t="s">
+      <c r="A82" s="99" t="s">
         <v>597</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -20666,7 +20663,7 @@
       <c r="M82" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="13" t="s">
+      <c r="N82" s="9" t="s">
         <v>600</v>
       </c>
       <c r="O82" s="53" t="s">
@@ -20718,7 +20715,7 @@
       <c r="M83" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N83" s="13" t="s">
+      <c r="N83" s="9" t="s">
         <v>600</v>
       </c>
       <c r="O83" s="53" t="s">
@@ -20802,7 +20799,7 @@
       <c r="AF86" s="19"/>
     </row>
     <row r="87">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="100" t="s">
         <v>609</v>
       </c>
       <c r="B87" s="91" t="s">
@@ -20811,7 +20808,7 @@
       <c r="C87" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="D87" s="101" t="s">
+      <c r="D87" s="100" t="s">
         <v>612</v>
       </c>
       <c r="E87" s="17" t="s">
@@ -20862,10 +20859,10 @@
       <c r="B88" s="91" t="s">
         <v>616</v>
       </c>
-      <c r="C88" s="102" t="s">
+      <c r="C88" s="101" t="s">
         <v>617</v>
       </c>
-      <c r="D88" s="101" t="s">
+      <c r="D88" s="100" t="s">
         <v>612</v>
       </c>
       <c r="E88" s="17" t="s">
@@ -20914,10 +20911,10 @@
       <c r="B89" s="91" t="s">
         <v>620</v>
       </c>
-      <c r="C89" s="103" t="s">
+      <c r="C89" s="102" t="s">
         <v>621</v>
       </c>
-      <c r="D89" s="101" t="s">
+      <c r="D89" s="100" t="s">
         <v>612</v>
       </c>
       <c r="E89" s="17" t="s">
@@ -20962,65 +20959,65 @@
       <c r="AF89" s="76"/>
     </row>
     <row r="90">
-      <c r="A90" s="104" t="s">
+      <c r="A90" s="103" t="s">
         <v>624</v>
       </c>
-      <c r="B90" s="105" t="s">
+      <c r="B90" s="104" t="s">
         <v>625</v>
       </c>
-      <c r="C90" s="103" t="s">
+      <c r="C90" s="102" t="s">
         <v>626</v>
       </c>
-      <c r="D90" s="106" t="s">
+      <c r="D90" s="105" t="s">
         <v>627</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="107"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="105" t="s">
+      <c r="F90" s="106"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="106"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="K90" s="108">
+      <c r="K90" s="107">
         <v>45396.0</v>
       </c>
-      <c r="L90" s="107"/>
+      <c r="L90" s="106"/>
       <c r="M90" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
         <v>608</v>
       </c>
-      <c r="O90" s="107"/>
-      <c r="P90" s="107"/>
-      <c r="Q90" s="107"/>
-      <c r="R90" s="107"/>
-      <c r="S90" s="107"/>
-      <c r="T90" s="107"/>
-      <c r="U90" s="107"/>
-      <c r="V90" s="107"/>
-      <c r="W90" s="107"/>
-      <c r="X90" s="107"/>
-      <c r="Y90" s="107"/>
-      <c r="Z90" s="107"/>
-      <c r="AA90" s="107"/>
-      <c r="AB90" s="107"/>
-      <c r="AC90" s="107"/>
-      <c r="AD90" s="107"/>
+      <c r="O90" s="106"/>
+      <c r="P90" s="106"/>
+      <c r="Q90" s="106"/>
+      <c r="R90" s="106"/>
+      <c r="S90" s="106"/>
+      <c r="T90" s="106"/>
+      <c r="U90" s="106"/>
+      <c r="V90" s="106"/>
+      <c r="W90" s="106"/>
+      <c r="X90" s="106"/>
+      <c r="Y90" s="106"/>
+      <c r="Z90" s="106"/>
+      <c r="AA90" s="106"/>
+      <c r="AB90" s="106"/>
+      <c r="AC90" s="106"/>
+      <c r="AD90" s="106"/>
       <c r="AE90" s="76"/>
       <c r="AF90" s="76"/>
     </row>
     <row r="92">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="99" t="s">
         <v>628</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="C92" s="109" t="s">
+      <c r="C92" s="108" t="s">
         <v>630</v>
       </c>
       <c r="D92" s="13" t="s">
@@ -21447,7 +21444,7 @@
       <c r="M100" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N100" s="110" t="s">
+      <c r="N100" s="109" t="s">
         <v>384</v>
       </c>
       <c r="O100" s="13"/>
@@ -21524,7 +21521,7 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103">
-      <c r="A103" s="100" t="s">
+      <c r="A103" s="99" t="s">
         <v>667</v>
       </c>
       <c r="B103" s="13" t="s">
@@ -21551,7 +21548,7 @@
       <c r="M103" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N103" s="110" t="s">
+      <c r="N103" s="109" t="s">
         <v>384</v>
       </c>
       <c r="O103" s="13"/>
@@ -21603,7 +21600,7 @@
       <c r="M104" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N104" s="110" t="s">
+      <c r="N104" s="109" t="s">
         <v>384</v>
       </c>
       <c r="O104" s="13"/>
@@ -21655,7 +21652,7 @@
       <c r="M105" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N105" s="110" t="s">
+      <c r="N105" s="109" t="s">
         <v>384</v>
       </c>
       <c r="O105" s="13"/>
@@ -21707,7 +21704,7 @@
       <c r="M106" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N106" s="110" t="s">
+      <c r="N106" s="109" t="s">
         <v>384</v>
       </c>
       <c r="O106" s="13"/>
@@ -21730,9 +21727,9 @@
       <c r="AF106" s="13"/>
     </row>
     <row r="108">
-      <c r="A108" s="101"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="91"/>
-      <c r="C108" s="102"/>
+      <c r="C108" s="101"/>
       <c r="D108" s="83"/>
       <c r="F108" s="76"/>
       <c r="G108" s="91"/>
@@ -21811,7 +21808,7 @@
       <c r="C110" s="82" t="s">
         <v>686</v>
       </c>
-      <c r="D110" s="111" t="s">
+      <c r="D110" s="110" t="s">
         <v>51</v>
       </c>
       <c r="E110" s="84" t="s">
@@ -21853,7 +21850,7 @@
     </row>
     <row r="111">
       <c r="B111" s="22"/>
-      <c r="N111" s="112"/>
+      <c r="N111" s="111"/>
     </row>
     <row r="117">
       <c r="B117" s="23"/>
@@ -24958,9 +24955,9 @@
       <c r="AE9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="101"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="91"/>
-      <c r="C10" s="102"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="83"/>
       <c r="E10" s="17"/>
       <c r="F10" s="76"/>
@@ -24991,7 +24988,7 @@
       <c r="AE10" s="76"/>
     </row>
     <row r="11">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="112" t="s">
         <v>712</v>
       </c>
       <c r="B11" s="83" t="s">
@@ -25038,7 +25035,7 @@
       <c r="AE11" s="76"/>
     </row>
     <row r="12">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="113" t="s">
         <v>716</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -25137,7 +25134,7 @@
       <c r="B14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="112" t="s">
         <v>722</v>
       </c>
       <c r="B15" s="83" t="s">
@@ -28747,7 +28744,7 @@
       <c r="B52" s="22"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="O52" s="115"/>
+      <c r="O52" s="114"/>
     </row>
     <row r="53">
       <c r="B53" s="18"/>
@@ -28765,8 +28762,8 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56">
-      <c r="A56" s="116"/>
-      <c r="B56" s="117"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
       <c r="F56" s="66"/>
@@ -28774,7 +28771,7 @@
       <c r="H56" s="66"/>
       <c r="I56" s="63"/>
       <c r="K56" s="67"/>
-      <c r="L56" s="118"/>
+      <c r="L56" s="117"/>
       <c r="M56" s="63"/>
       <c r="N56" s="28"/>
       <c r="O56" s="63"/>
@@ -28891,10 +28888,10 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70">
-      <c r="A70" s="101"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="91"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="100"/>
       <c r="F70" s="76"/>
       <c r="G70" s="91"/>
       <c r="H70" s="76"/>
@@ -28922,40 +28919,40 @@
       <c r="AE70" s="76"/>
     </row>
     <row r="71">
-      <c r="A71" s="104"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="104"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="107"/>
-      <c r="N71" s="107"/>
-      <c r="O71" s="107"/>
-      <c r="P71" s="107"/>
-      <c r="Q71" s="107"/>
-      <c r="R71" s="107"/>
-      <c r="S71" s="107"/>
-      <c r="T71" s="107"/>
-      <c r="U71" s="107"/>
-      <c r="V71" s="107"/>
-      <c r="W71" s="107"/>
-      <c r="X71" s="107"/>
-      <c r="Y71" s="107"/>
-      <c r="Z71" s="107"/>
-      <c r="AA71" s="107"/>
-      <c r="AB71" s="107"/>
-      <c r="AC71" s="107"/>
-      <c r="AD71" s="107"/>
+      <c r="A71" s="103"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="103"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="106"/>
+      <c r="I71" s="106"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="106"/>
+      <c r="N71" s="106"/>
+      <c r="O71" s="106"/>
+      <c r="P71" s="106"/>
+      <c r="Q71" s="106"/>
+      <c r="R71" s="106"/>
+      <c r="S71" s="106"/>
+      <c r="T71" s="106"/>
+      <c r="U71" s="106"/>
+      <c r="V71" s="106"/>
+      <c r="W71" s="106"/>
+      <c r="X71" s="106"/>
+      <c r="Y71" s="106"/>
+      <c r="Z71" s="106"/>
+      <c r="AA71" s="106"/>
+      <c r="AB71" s="106"/>
+      <c r="AC71" s="106"/>
+      <c r="AD71" s="106"/>
       <c r="AE71" s="76"/>
     </row>
     <row r="72">
-      <c r="A72" s="114"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="23"/>
-      <c r="D72" s="114"/>
+      <c r="D72" s="113"/>
     </row>
     <row r="73">
       <c r="A73" s="77"/>
@@ -28966,7 +28963,7 @@
       <c r="G73" s="76"/>
       <c r="H73" s="76"/>
       <c r="I73" s="76"/>
-      <c r="J73" s="120"/>
+      <c r="J73" s="119"/>
       <c r="K73" s="76"/>
       <c r="L73" s="76"/>
       <c r="N73" s="76"/>
@@ -28989,25 +28986,25 @@
     </row>
     <row r="74">
       <c r="B74" s="23"/>
-      <c r="N74" s="112"/>
+      <c r="N74" s="111"/>
     </row>
     <row r="75">
-      <c r="A75" s="114"/>
+      <c r="A75" s="113"/>
       <c r="B75" s="23"/>
-      <c r="D75" s="114"/>
+      <c r="D75" s="113"/>
     </row>
     <row r="76">
       <c r="B76" s="23"/>
-      <c r="N76" s="112"/>
+      <c r="N76" s="111"/>
     </row>
     <row r="77">
       <c r="B77" s="23"/>
-      <c r="N77" s="112"/>
+      <c r="N77" s="111"/>
     </row>
     <row r="78">
-      <c r="A78" s="101"/>
+      <c r="A78" s="100"/>
       <c r="B78" s="91"/>
-      <c r="C78" s="102"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="91"/>
       <c r="F78" s="76"/>
       <c r="G78" s="91"/>
@@ -29037,19 +29034,19 @@
       <c r="AE78" s="76"/>
     </row>
     <row r="79">
-      <c r="A79" s="114"/>
+      <c r="A79" s="113"/>
       <c r="B79" s="23"/>
-      <c r="D79" s="114"/>
+      <c r="D79" s="113"/>
     </row>
     <row r="80">
       <c r="B80" s="23"/>
-      <c r="N80" s="112"/>
+      <c r="N80" s="111"/>
     </row>
     <row r="81">
-      <c r="A81" s="101"/>
+      <c r="A81" s="100"/>
       <c r="B81" s="91"/>
-      <c r="C81" s="102"/>
-      <c r="D81" s="101"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="100"/>
       <c r="F81" s="76"/>
       <c r="G81" s="91"/>
       <c r="H81" s="76"/>
@@ -29140,10 +29137,10 @@
       <c r="AD84" s="76"/>
     </row>
     <row r="85">
-      <c r="A85" s="101"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="91"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="101"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="100"/>
       <c r="F85" s="76"/>
       <c r="G85" s="91"/>
       <c r="H85" s="76"/>
@@ -29203,7 +29200,7 @@
     <row r="87">
       <c r="A87" s="91"/>
       <c r="B87" s="91"/>
-      <c r="C87" s="102"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="91"/>
       <c r="F87" s="76"/>
       <c r="G87" s="91"/>
@@ -29231,10 +29228,10 @@
       <c r="AD87" s="76"/>
     </row>
     <row r="88">
-      <c r="A88" s="101"/>
+      <c r="A88" s="100"/>
       <c r="B88" s="91"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="101"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="100"/>
       <c r="F88" s="76"/>
       <c r="G88" s="91"/>
       <c r="H88" s="76"/>
@@ -29267,9 +29264,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90">
-      <c r="A90" s="114"/>
+      <c r="A90" s="113"/>
       <c r="B90" s="23"/>
-      <c r="D90" s="114"/>
+      <c r="D90" s="113"/>
     </row>
     <row r="91">
       <c r="B91" s="23"/>
@@ -32940,7 +32937,7 @@
       <c r="B54" s="22"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-      <c r="O54" s="115"/>
+      <c r="O54" s="114"/>
     </row>
     <row r="55">
       <c r="B55" s="18"/>
@@ -32958,8 +32955,8 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="116"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
       <c r="F58" s="66"/>
@@ -32967,7 +32964,7 @@
       <c r="H58" s="66"/>
       <c r="I58" s="63"/>
       <c r="K58" s="67"/>
-      <c r="L58" s="118"/>
+      <c r="L58" s="117"/>
       <c r="M58" s="63"/>
       <c r="N58" s="28"/>
       <c r="O58" s="63"/>
@@ -33084,10 +33081,10 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72">
-      <c r="A72" s="101"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="91"/>
-      <c r="C72" s="102"/>
-      <c r="D72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="100"/>
       <c r="F72" s="76"/>
       <c r="G72" s="91"/>
       <c r="H72" s="76"/>
@@ -33115,40 +33112,40 @@
       <c r="AE72" s="76"/>
     </row>
     <row r="73">
-      <c r="A73" s="104"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="104"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="105"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="107"/>
-      <c r="N73" s="107"/>
-      <c r="O73" s="107"/>
-      <c r="P73" s="107"/>
-      <c r="Q73" s="107"/>
-      <c r="R73" s="107"/>
-      <c r="S73" s="107"/>
-      <c r="T73" s="107"/>
-      <c r="U73" s="107"/>
-      <c r="V73" s="107"/>
-      <c r="W73" s="107"/>
-      <c r="X73" s="107"/>
-      <c r="Y73" s="107"/>
-      <c r="Z73" s="107"/>
-      <c r="AA73" s="107"/>
-      <c r="AB73" s="107"/>
-      <c r="AC73" s="107"/>
-      <c r="AD73" s="107"/>
+      <c r="A73" s="103"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="103"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="N73" s="106"/>
+      <c r="O73" s="106"/>
+      <c r="P73" s="106"/>
+      <c r="Q73" s="106"/>
+      <c r="R73" s="106"/>
+      <c r="S73" s="106"/>
+      <c r="T73" s="106"/>
+      <c r="U73" s="106"/>
+      <c r="V73" s="106"/>
+      <c r="W73" s="106"/>
+      <c r="X73" s="106"/>
+      <c r="Y73" s="106"/>
+      <c r="Z73" s="106"/>
+      <c r="AA73" s="106"/>
+      <c r="AB73" s="106"/>
+      <c r="AC73" s="106"/>
+      <c r="AD73" s="106"/>
       <c r="AE73" s="76"/>
     </row>
     <row r="74">
-      <c r="A74" s="114"/>
+      <c r="A74" s="113"/>
       <c r="B74" s="23"/>
-      <c r="D74" s="114"/>
+      <c r="D74" s="113"/>
     </row>
     <row r="75">
       <c r="A75" s="77"/>
@@ -33159,7 +33156,7 @@
       <c r="G75" s="76"/>
       <c r="H75" s="76"/>
       <c r="I75" s="76"/>
-      <c r="J75" s="120"/>
+      <c r="J75" s="119"/>
       <c r="K75" s="76"/>
       <c r="L75" s="76"/>
       <c r="N75" s="76"/>
@@ -33182,25 +33179,25 @@
     </row>
     <row r="76">
       <c r="B76" s="23"/>
-      <c r="N76" s="112"/>
+      <c r="N76" s="111"/>
     </row>
     <row r="77">
-      <c r="A77" s="114"/>
+      <c r="A77" s="113"/>
       <c r="B77" s="23"/>
-      <c r="D77" s="114"/>
+      <c r="D77" s="113"/>
     </row>
     <row r="78">
       <c r="B78" s="23"/>
-      <c r="N78" s="112"/>
+      <c r="N78" s="111"/>
     </row>
     <row r="79">
       <c r="B79" s="23"/>
-      <c r="N79" s="112"/>
+      <c r="N79" s="111"/>
     </row>
     <row r="80">
-      <c r="A80" s="101"/>
+      <c r="A80" s="100"/>
       <c r="B80" s="91"/>
-      <c r="C80" s="102"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="91"/>
       <c r="F80" s="76"/>
       <c r="G80" s="91"/>
@@ -33230,19 +33227,19 @@
       <c r="AE80" s="76"/>
     </row>
     <row r="81">
-      <c r="A81" s="114"/>
+      <c r="A81" s="113"/>
       <c r="B81" s="23"/>
-      <c r="D81" s="114"/>
+      <c r="D81" s="113"/>
     </row>
     <row r="82">
       <c r="B82" s="23"/>
-      <c r="N82" s="112"/>
+      <c r="N82" s="111"/>
     </row>
     <row r="83">
-      <c r="A83" s="101"/>
+      <c r="A83" s="100"/>
       <c r="B83" s="91"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="100"/>
       <c r="F83" s="76"/>
       <c r="G83" s="91"/>
       <c r="H83" s="76"/>
@@ -33333,10 +33330,10 @@
       <c r="AD86" s="76"/>
     </row>
     <row r="87">
-      <c r="A87" s="101"/>
+      <c r="A87" s="100"/>
       <c r="B87" s="91"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="100"/>
       <c r="F87" s="76"/>
       <c r="G87" s="91"/>
       <c r="H87" s="76"/>
@@ -33396,7 +33393,7 @@
     <row r="89">
       <c r="A89" s="91"/>
       <c r="B89" s="91"/>
-      <c r="C89" s="102"/>
+      <c r="C89" s="101"/>
       <c r="D89" s="91"/>
       <c r="F89" s="76"/>
       <c r="G89" s="91"/>
@@ -33424,10 +33421,10 @@
       <c r="AD89" s="76"/>
     </row>
     <row r="90">
-      <c r="A90" s="101"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="91"/>
-      <c r="C90" s="102"/>
-      <c r="D90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="100"/>
       <c r="F90" s="76"/>
       <c r="G90" s="91"/>
       <c r="H90" s="76"/>
@@ -33460,9 +33457,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92">
-      <c r="A92" s="114"/>
+      <c r="A92" s="113"/>
       <c r="B92" s="23"/>
-      <c r="D92" s="114"/>
+      <c r="D92" s="113"/>
     </row>
     <row r="93">
       <c r="B93" s="23"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="825">
   <si>
     <t>Term</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>dpv:Assessment</t>
+  </si>
+  <si>
+    <t>hasRecordOfActivity</t>
+  </si>
+  <si>
+    <t>has record of activity</t>
+  </si>
+  <si>
+    <t>Indicates a relevant record of activity</t>
+  </si>
+  <si>
+    <t>dpv:RecordsOfActivities</t>
   </si>
   <si>
     <t>AccessControlMethod</t>
@@ -1896,6 +1908,21 @@
     <t>Practices regarding incorporating data protection and privacy in the design of information and services (synonymous with Data Protection by Design)</t>
   </si>
   <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Practices that specify how activities must be conducted</t>
+  </si>
+  <si>
+    <t>Princple</t>
+  </si>
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>A representation of values or norms that must be taken into consideration when conducting activities</t>
+  </si>
+  <si>
     <t>Notice</t>
   </si>
   <si>
@@ -2010,6 +2037,9 @@
     <t>Records of activities within some context such as maintainence tasks or governance functions</t>
   </si>
   <si>
+    <t xml:space="preserve">Records can be any information associated with the activity e.g. logs, summaries. </t>
+  </si>
+  <si>
     <t>DataProcessingRecord</t>
   </si>
   <si>
@@ -2017,9 +2047,6 @@
   </si>
   <si>
     <t>Record of data processing, whether ex-ante or ex-post</t>
-  </si>
-  <si>
-    <t>dpv:RecordsOfActivities</t>
   </si>
   <si>
     <t>ConsentRecord</t>
@@ -7574,7 +7601,52 @@
       <c r="AB12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="22"/>
+      <c r="A13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20">
+        <v>45417.0</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
     </row>
     <row r="14">
       <c r="B14" s="23"/>
@@ -10587,13 +10659,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -10633,16 +10705,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>51</v>
@@ -10652,7 +10724,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K3" s="20">
         <v>44790.0</v>
@@ -10665,7 +10737,7 @@
         <v>53</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -10694,13 +10766,13 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -10711,7 +10783,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K5" s="20">
         <v>44790.0</v>
@@ -10724,7 +10796,7 @@
         <v>53</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -10755,13 +10827,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -10772,7 +10844,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K7" s="20">
         <v>44790.0</v>
@@ -10785,7 +10857,7 @@
         <v>53</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -10803,16 +10875,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>51</v>
@@ -10822,7 +10894,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K8" s="20">
         <v>44790.0</v>
@@ -10835,7 +10907,7 @@
         <v>53</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -10853,16 +10925,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>51</v>
@@ -10872,7 +10944,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K9" s="20">
         <v>44790.0</v>
@@ -10885,7 +10957,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -10903,16 +10975,16 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>51</v>
@@ -10922,7 +10994,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="31" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K10" s="20">
         <v>44790.0</v>
@@ -10935,7 +11007,7 @@
         <v>53</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -10953,16 +11025,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>51</v>
@@ -10972,7 +11044,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K11" s="20">
         <v>44790.0</v>
@@ -10985,7 +11057,7 @@
         <v>53</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -11003,16 +11075,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>51</v>
@@ -11022,7 +11094,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K12" s="20">
         <v>44790.0</v>
@@ -11035,7 +11107,7 @@
         <v>53</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -11053,16 +11125,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>51</v>
@@ -11072,7 +11144,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K13" s="20">
         <v>44790.0</v>
@@ -11085,7 +11157,7 @@
         <v>53</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -11103,16 +11175,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>51</v>
@@ -11122,7 +11194,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K14" s="20">
         <v>44790.0</v>
@@ -11135,7 +11207,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -11153,16 +11225,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>51</v>
@@ -11172,7 +11244,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K15" s="14">
         <v>44790.0</v>
@@ -11185,7 +11257,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -11203,16 +11275,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>51</v>
@@ -11222,7 +11294,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K16" s="14">
         <v>44790.0</v>
@@ -11235,7 +11307,7 @@
         <v>53</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -11253,16 +11325,16 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>51</v>
@@ -11272,7 +11344,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K17" s="14">
         <v>44790.0</v>
@@ -11285,7 +11357,7 @@
         <v>53</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -11303,16 +11375,16 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>51</v>
@@ -11322,7 +11394,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K18" s="14">
         <v>44790.0</v>
@@ -11335,7 +11407,7 @@
         <v>53</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -11353,16 +11425,16 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>51</v>
@@ -11372,7 +11444,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -11385,7 +11457,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -11403,16 +11475,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>51</v>
@@ -11422,7 +11494,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -11435,7 +11507,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -11453,16 +11525,16 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>51</v>
@@ -11472,7 +11544,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K21" s="14">
         <v>44790.0</v>
@@ -11485,7 +11557,7 @@
         <v>53</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -11503,16 +11575,16 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>51</v>
@@ -11522,7 +11594,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K22" s="14">
         <v>44790.0</v>
@@ -11537,7 +11609,7 @@
         <v>53</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -11567,13 +11639,13 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
@@ -11613,16 +11685,16 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>51</v>
@@ -11632,7 +11704,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K25" s="20">
         <v>44790.0</v>
@@ -11645,7 +11717,7 @@
         <v>53</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -11663,16 +11735,16 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>51</v>
@@ -11682,7 +11754,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K26" s="20">
         <v>44790.0</v>
@@ -11695,7 +11767,7 @@
         <v>53</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -11713,16 +11785,16 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>51</v>
@@ -11732,7 +11804,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K27" s="14">
         <v>44790.0</v>
@@ -11745,7 +11817,7 @@
         <v>53</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
@@ -11763,16 +11835,16 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>51</v>
@@ -11782,7 +11854,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K28" s="14">
         <v>44790.0</v>
@@ -11795,7 +11867,7 @@
         <v>53</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -11813,16 +11885,16 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>51</v>
@@ -11832,7 +11904,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="31" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K29" s="20">
         <v>44790.0</v>
@@ -11845,7 +11917,7 @@
         <v>53</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -11863,16 +11935,16 @@
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>51</v>
@@ -11882,7 +11954,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K30" s="20">
         <v>44790.0</v>
@@ -11895,7 +11967,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -11913,16 +11985,16 @@
     </row>
     <row r="31">
       <c r="A31" s="17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>51</v>
@@ -11932,7 +12004,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K31" s="20">
         <v>44790.0</v>
@@ -11945,7 +12017,7 @@
         <v>53</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -11963,16 +12035,16 @@
     </row>
     <row r="32">
       <c r="A32" s="17" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>51</v>
@@ -11982,7 +12054,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K32" s="20">
         <v>44790.0</v>
@@ -11995,7 +12067,7 @@
         <v>53</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -12013,16 +12085,16 @@
     </row>
     <row r="33">
       <c r="A33" s="37" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>51</v>
@@ -12040,10 +12112,10 @@
         <v>20</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O33" s="41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
@@ -12061,16 +12133,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>51</v>
@@ -12080,7 +12152,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K34" s="20">
         <v>44790.0</v>
@@ -12093,7 +12165,7 @@
         <v>53</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -12111,13 +12183,13 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="17" t="s">
@@ -12128,7 +12200,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K36" s="20">
         <v>44790.0</v>
@@ -12141,7 +12213,7 @@
         <v>53</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -12170,13 +12242,13 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="17" t="s">
@@ -12195,10 +12267,10 @@
         <v>20</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -12216,13 +12288,13 @@
     </row>
     <row r="40">
       <c r="A40" s="42" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="43" t="s">
@@ -12233,7 +12305,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K40" s="45">
         <v>44790.0</v>
@@ -12246,7 +12318,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
@@ -12264,16 +12336,16 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>51</v>
@@ -12310,16 +12382,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>51</v>
@@ -12329,7 +12401,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K42" s="20">
         <v>43560.0</v>
@@ -12338,7 +12410,7 @@
         <v>44889.0</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>28</v>
@@ -12362,16 +12434,16 @@
     </row>
     <row r="43">
       <c r="A43" s="17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>51</v>
@@ -12381,7 +12453,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="50" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K43" s="20">
         <v>43560.0</v>
@@ -12390,7 +12462,7 @@
         <v>44889.0</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N43" s="17" t="s">
         <v>28</v>
@@ -12414,16 +12486,16 @@
     </row>
     <row r="44">
       <c r="A44" s="17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>51</v>
@@ -12433,7 +12505,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="50" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K44" s="20">
         <v>43560.0</v>
@@ -12442,7 +12514,7 @@
         <v>44889.0</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N44" s="17" t="s">
         <v>28</v>
@@ -12466,16 +12538,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>51</v>
@@ -12485,7 +12557,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K45" s="20">
         <v>44790.0</v>
@@ -12498,7 +12570,7 @@
         <v>53</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -12516,16 +12588,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C46" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>51</v>
@@ -12535,7 +12607,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K46" s="20">
         <v>44790.0</v>
@@ -12548,7 +12620,7 @@
         <v>53</v>
       </c>
       <c r="O46" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -12566,16 +12638,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>51</v>
@@ -12585,7 +12657,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K47" s="20">
         <v>44790.0</v>
@@ -12594,13 +12666,13 @@
         <v>44847.0</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N47" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -12618,16 +12690,16 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>51</v>
@@ -12637,7 +12709,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K48" s="20">
         <v>44790.0</v>
@@ -12646,13 +12718,13 @@
         <v>44847.0</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N48" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -12670,16 +12742,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>51</v>
@@ -12689,7 +12761,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="31" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K49" s="20">
         <v>44790.0</v>
@@ -12702,7 +12774,7 @@
         <v>53</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -12731,13 +12803,13 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="17" t="s">
@@ -12748,7 +12820,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K51" s="20">
         <v>44790.0</v>
@@ -12761,7 +12833,7 @@
         <v>53</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -12779,13 +12851,13 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="17" t="s">
@@ -12825,16 +12897,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>51</v>
@@ -12873,16 +12945,16 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>51</v>
@@ -12921,16 +12993,16 @@
     </row>
     <row r="56">
       <c r="A56" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>51</v>
@@ -12967,16 +13039,16 @@
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>51</v>
@@ -12986,7 +13058,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K57" s="20">
         <v>44790.0</v>
@@ -12999,7 +13071,7 @@
         <v>53</v>
       </c>
       <c r="O57" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -13017,16 +13089,16 @@
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>51</v>
@@ -13036,7 +13108,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="31" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K58" s="20">
         <v>44790.0</v>
@@ -13049,7 +13121,7 @@
         <v>53</v>
       </c>
       <c r="O58" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -13067,16 +13139,16 @@
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -13086,7 +13158,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K59" s="20">
         <v>44790.0</v>
@@ -13099,7 +13171,7 @@
         <v>53</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -13128,13 +13200,13 @@
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="17" t="s">
@@ -13145,7 +13217,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K61" s="20">
         <v>44790.0</v>
@@ -13158,7 +13230,7 @@
         <v>53</v>
       </c>
       <c r="O61" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -13176,13 +13248,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
@@ -13220,16 +13292,16 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>51</v>
@@ -13239,7 +13311,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K64" s="14">
         <v>44790.0</v>
@@ -13252,7 +13324,7 @@
         <v>53</v>
       </c>
       <c r="O64" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -13270,16 +13342,16 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>51</v>
@@ -13289,7 +13361,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K65" s="14">
         <v>44790.0</v>
@@ -13302,7 +13374,7 @@
         <v>53</v>
       </c>
       <c r="O65" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
@@ -13320,16 +13392,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>51</v>
@@ -13339,7 +13411,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K66" s="20">
         <v>44790.0</v>
@@ -13352,7 +13424,7 @@
         <v>53</v>
       </c>
       <c r="O66" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
@@ -13370,16 +13442,16 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>51</v>
@@ -13389,7 +13461,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K67" s="14">
         <v>44790.0</v>
@@ -13402,7 +13474,7 @@
         <v>53</v>
       </c>
       <c r="O67" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
@@ -13420,16 +13492,16 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>51</v>
@@ -13439,7 +13511,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K68" s="14">
         <v>44790.0</v>
@@ -13452,7 +13524,7 @@
         <v>53</v>
       </c>
       <c r="O68" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
@@ -13470,16 +13542,16 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>51</v>
@@ -13489,7 +13561,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K69" s="14">
         <v>44790.0</v>
@@ -13502,7 +13574,7 @@
         <v>53</v>
       </c>
       <c r="O69" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
@@ -13520,16 +13592,16 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>51</v>
@@ -13539,7 +13611,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="54" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K70" s="14">
         <v>44790.0</v>
@@ -13552,7 +13624,7 @@
         <v>53</v>
       </c>
       <c r="O70" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
@@ -13570,16 +13642,16 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>51</v>
@@ -13589,7 +13661,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K71" s="14">
         <v>44790.0</v>
@@ -13602,7 +13674,7 @@
         <v>53</v>
       </c>
       <c r="O71" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
@@ -13620,16 +13692,16 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>51</v>
@@ -13639,7 +13711,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K72" s="14">
         <v>44790.0</v>
@@ -13652,7 +13724,7 @@
         <v>53</v>
       </c>
       <c r="O72" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -13670,16 +13742,16 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E73" s="52" t="s">
         <v>51</v>
@@ -13689,7 +13761,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K73" s="14">
         <v>44790.0</v>
@@ -13702,7 +13774,7 @@
         <v>53</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
@@ -13720,16 +13792,16 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E74" s="52" t="s">
         <v>51</v>
@@ -13739,7 +13811,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="54" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K74" s="14">
         <v>44790.0</v>
@@ -13752,7 +13824,7 @@
         <v>53</v>
       </c>
       <c r="O74" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
@@ -13770,16 +13842,16 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E75" s="52" t="s">
         <v>51</v>
@@ -13789,7 +13861,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K75" s="14">
         <v>44790.0</v>
@@ -13802,7 +13874,7 @@
         <v>53</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
@@ -13820,16 +13892,16 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E76" s="52" t="s">
         <v>51</v>
@@ -13839,7 +13911,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K76" s="14">
         <v>44790.0</v>
@@ -13852,7 +13924,7 @@
         <v>53</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
@@ -13870,16 +13942,16 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E77" s="52" t="s">
         <v>51</v>
@@ -13889,7 +13961,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K77" s="14">
         <v>44790.0</v>
@@ -13902,7 +13974,7 @@
         <v>53</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
@@ -13920,16 +13992,16 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E78" s="52" t="s">
         <v>51</v>
@@ -13939,7 +14011,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K78" s="14">
         <v>44790.0</v>
@@ -13952,7 +14024,7 @@
         <v>53</v>
       </c>
       <c r="O78" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
@@ -13970,16 +14042,16 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>51</v>
@@ -13989,7 +14061,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K79" s="14">
         <v>44790.0</v>
@@ -14002,7 +14074,7 @@
         <v>53</v>
       </c>
       <c r="O79" s="53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
@@ -14020,16 +14092,16 @@
     </row>
     <row r="81">
       <c r="A81" s="55" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E81" s="58" t="s">
         <v>51</v>
@@ -14044,7 +14116,7 @@
       </c>
       <c r="L81" s="59"/>
       <c r="M81" s="61" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N81" s="58" t="s">
         <v>53</v>
@@ -14066,16 +14138,16 @@
     </row>
     <row r="82">
       <c r="A82" s="55" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E82" s="58" t="s">
         <v>51</v>
@@ -14085,20 +14157,20 @@
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
       <c r="J82" s="61" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K82" s="60">
         <v>44790.0</v>
       </c>
       <c r="L82" s="59"/>
       <c r="M82" s="61" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N82" s="55" t="s">
         <v>53</v>
       </c>
       <c r="O82" s="62" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P82" s="59"/>
       <c r="Q82" s="59"/>
@@ -16897,13 +16969,13 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="17" t="s">
@@ -16925,7 +16997,7 @@
         <v>53</v>
       </c>
       <c r="O2" s="68" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
@@ -16947,13 +17019,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>93</v>
@@ -16966,7 +17038,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="31" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K3" s="20">
         <v>44790.0</v>
@@ -16979,7 +17051,7 @@
         <v>53</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -17001,13 +17073,13 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>93</v>
@@ -17028,10 +17100,10 @@
         <v>20</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -17053,16 +17125,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>58</v>
@@ -17080,10 +17152,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -17105,13 +17177,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>93</v>
@@ -17132,7 +17204,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="19"/>
@@ -17155,16 +17227,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>58</v>
@@ -17182,7 +17254,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="19"/>
@@ -17205,13 +17277,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>93</v>
@@ -17232,7 +17304,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="19"/>
@@ -17266,13 +17338,13 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -17283,7 +17355,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="31" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K10" s="20">
         <v>44790.0</v>
@@ -17296,7 +17368,7 @@
         <v>53</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -17318,16 +17390,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>58</v>
@@ -17337,7 +17409,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="31" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K11" s="20">
         <v>44790.0</v>
@@ -17350,7 +17422,7 @@
         <v>53</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -17372,16 +17444,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>374</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>58</v>
@@ -17391,7 +17463,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="31" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K12" s="20">
         <v>44790.0</v>
@@ -17404,7 +17476,7 @@
         <v>53</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -17426,16 +17498,16 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>58</v>
@@ -17445,7 +17517,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K13" s="36">
         <v>45396.0</v>
@@ -17455,7 +17527,7 @@
         <v>20</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -17478,16 +17550,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>58</v>
@@ -17497,7 +17569,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="31" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K14" s="20">
         <v>44790.0</v>
@@ -17510,7 +17582,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -17532,16 +17604,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>58</v>
@@ -17551,7 +17623,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="34" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K15" s="14">
         <v>44790.0</v>
@@ -17564,7 +17636,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -17586,16 +17658,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>58</v>
@@ -17605,7 +17677,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K16" s="14">
         <v>44790.0</v>
@@ -17618,7 +17690,7 @@
         <v>53</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -17640,16 +17712,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>58</v>
@@ -17667,10 +17739,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -17692,16 +17764,16 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>58</v>
@@ -17719,10 +17791,10 @@
         <v>20</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -17744,13 +17816,13 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>62</v>
@@ -17763,7 +17835,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -17778,7 +17850,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -17800,13 +17872,13 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>62</v>
@@ -17819,7 +17891,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="12"/>
       <c r="J20" s="34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -17834,7 +17906,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -17856,13 +17928,13 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>62</v>
@@ -17875,7 +17947,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="34" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K21" s="14">
         <v>44790.0</v>
@@ -17890,7 +17962,7 @@
         <v>53</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -17912,13 +17984,13 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>62</v>
@@ -17964,13 +18036,13 @@
     </row>
     <row r="23">
       <c r="A23" s="73" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>62</v>
@@ -17982,7 +18054,7 @@
       <c r="G23" s="76"/>
       <c r="H23" s="76"/>
       <c r="I23" s="74" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J23" s="77"/>
       <c r="K23" s="78">
@@ -18016,16 +18088,16 @@
     </row>
     <row r="24">
       <c r="A24" s="80" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>58</v>
@@ -18034,7 +18106,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="81" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J24" s="86"/>
       <c r="K24" s="78">
@@ -18045,7 +18117,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O24" s="86"/>
       <c r="P24" s="85"/>
@@ -18068,16 +18140,16 @@
     </row>
     <row r="25">
       <c r="A25" s="82" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B25" s="88" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="83" t="s">
         <v>429</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>425</v>
       </c>
       <c r="E25" s="84" t="s">
         <v>58</v>
@@ -18095,7 +18167,7 @@
         <v>20</v>
       </c>
       <c r="N25" s="82" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O25" s="86"/>
       <c r="P25" s="85"/>
@@ -18118,16 +18190,16 @@
     </row>
     <row r="26">
       <c r="A26" s="80" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>58</v>
@@ -18136,7 +18208,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="81" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J26" s="86"/>
       <c r="K26" s="78">
@@ -18147,7 +18219,7 @@
         <v>20</v>
       </c>
       <c r="N26" s="82" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O26" s="86"/>
       <c r="P26" s="85"/>
@@ -18170,16 +18242,16 @@
     </row>
     <row r="27">
       <c r="A27" s="89" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E27" s="84" t="s">
         <v>58</v>
@@ -18188,7 +18260,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="81" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J27" s="86"/>
       <c r="K27" s="78">
@@ -18222,16 +18294,16 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>58</v>
@@ -18240,7 +18312,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="81" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="78">
@@ -18274,16 +18346,16 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>58</v>
@@ -18292,7 +18364,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="90" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="78">
@@ -18339,13 +18411,13 @@
     </row>
     <row r="31">
       <c r="A31" s="71" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="32" t="s">
@@ -18387,16 +18459,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>58</v>
@@ -18406,7 +18478,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="34" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K32" s="14">
         <v>44790.0</v>
@@ -18419,7 +18491,7 @@
         <v>53</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -18441,16 +18513,16 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C33" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>453</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>58</v>
@@ -18459,7 +18531,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="90" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="20">
@@ -18495,16 +18567,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>58</v>
@@ -18514,7 +18586,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="31" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K34" s="20">
         <v>44790.0</v>
@@ -18527,7 +18599,7 @@
         <v>53</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -18549,16 +18621,16 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>58</v>
@@ -18576,10 +18648,10 @@
         <v>20</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -18601,16 +18673,16 @@
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>58</v>
@@ -18620,7 +18692,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K36" s="20">
         <v>44790.0</v>
@@ -18633,7 +18705,7 @@
         <v>53</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -18655,16 +18727,16 @@
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>58</v>
@@ -18674,7 +18746,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="31" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K37" s="20">
         <v>44790.0</v>
@@ -18687,7 +18759,7 @@
         <v>53</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -18709,16 +18781,16 @@
     </row>
     <row r="38">
       <c r="A38" s="91" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>58</v>
@@ -18728,7 +18800,7 @@
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K38" s="78">
         <v>45396.0</v>
@@ -18738,7 +18810,7 @@
         <v>20</v>
       </c>
       <c r="N38" s="74" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O38" s="76"/>
       <c r="P38" s="76"/>
@@ -18761,13 +18833,13 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="17" t="s">
@@ -18811,16 +18883,16 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>58</v>
@@ -18863,16 +18935,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>58</v>
@@ -18927,13 +18999,13 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="17" t="s">
@@ -18977,16 +19049,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>58</v>
@@ -19029,16 +19101,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>58</v>
@@ -19081,16 +19153,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>497</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19135,16 +19207,16 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>58</v>
@@ -19185,40 +19257,88 @@
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
     </row>
+    <row r="49">
+      <c r="A49" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="20">
+        <v>45424.0</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+    </row>
     <row r="50">
-      <c r="A50" s="92" t="s">
-        <v>501</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="17" t="s">
+      <c r="A50" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="E50" s="52" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="17" t="s">
-        <v>503</v>
-      </c>
+      <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="20">
-        <v>44447.0</v>
+        <v>45424.0</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="O50" s="68" t="s">
-        <v>343</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O50" s="19"/>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
@@ -19237,91 +19357,39 @@
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
     </row>
-    <row r="51">
-      <c r="A51" s="63" t="s">
-        <v>504</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>505</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="67">
-        <v>44447.0</v>
-      </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="O51" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
-      <c r="T51" s="66"/>
-      <c r="U51" s="66"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="66"/>
-      <c r="X51" s="66"/>
-      <c r="Y51" s="66"/>
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="66"/>
-      <c r="AB51" s="66"/>
-      <c r="AC51" s="66"/>
-      <c r="AD51" s="66"/>
-      <c r="AE51" s="66"/>
-      <c r="AF51" s="66"/>
-    </row>
     <row r="52">
-      <c r="A52" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="A52" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="B52" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>511</v>
       </c>
+      <c r="D52" s="19"/>
       <c r="E52" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="17" t="s">
+        <v>512</v>
+      </c>
       <c r="J52" s="19"/>
       <c r="K52" s="20">
-        <v>44733.0</v>
+        <v>44447.0</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>77</v>
+        <v>406</v>
+      </c>
+      <c r="O52" s="68" t="s">
+        <v>347</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -19342,115 +19410,117 @@
       <c r="AF52" s="19"/>
     </row>
     <row r="53">
-      <c r="A53" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="B53" s="74" t="s">
+      <c r="A53" s="63" t="s">
         <v>513</v>
       </c>
-      <c r="C53" s="93" t="s">
+      <c r="B53" s="65" t="s">
         <v>514</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="C53" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="D53" s="63" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="78">
-        <v>45396.0</v>
-      </c>
-      <c r="L53" s="76"/>
-      <c r="M53" s="74" t="s">
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="67">
+        <v>44447.0</v>
+      </c>
+      <c r="L53" s="20"/>
+      <c r="M53" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="O53" s="77"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="76"/>
-      <c r="U53" s="76"/>
-      <c r="V53" s="76"/>
-      <c r="W53" s="76"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="76"/>
-      <c r="Z53" s="76"/>
-      <c r="AA53" s="76"/>
-      <c r="AB53" s="76"/>
-      <c r="AC53" s="76"/>
-      <c r="AD53" s="76"/>
-      <c r="AE53" s="76"/>
-      <c r="AF53" s="76"/>
+      <c r="N53" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="O53" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="66"/>
+      <c r="Y53" s="66"/>
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="66"/>
+      <c r="AB53" s="66"/>
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="66"/>
+      <c r="AE53" s="66"/>
+      <c r="AF53" s="66"/>
     </row>
     <row r="54">
-      <c r="A54" s="82" t="s">
-        <v>515</v>
-      </c>
-      <c r="B54" s="82" t="s">
-        <v>516</v>
-      </c>
-      <c r="C54" s="94" t="s">
+      <c r="A54" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="B54" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="E54" s="84" t="s">
+      <c r="C54" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="K54" s="78">
-        <v>45396.0</v>
-      </c>
-      <c r="L54" s="85"/>
-      <c r="M54" s="74" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20">
+        <v>44733.0</v>
+      </c>
+      <c r="L54" s="19"/>
+      <c r="M54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="O54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="76"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="76"/>
-      <c r="U54" s="76"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="76"/>
-      <c r="X54" s="76"/>
-      <c r="Y54" s="76"/>
-      <c r="Z54" s="76"/>
-      <c r="AA54" s="76"/>
-      <c r="AB54" s="76"/>
-      <c r="AC54" s="76"/>
-      <c r="AD54" s="76"/>
-      <c r="AE54" s="76"/>
-      <c r="AF54" s="76"/>
+      <c r="N54" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="93" t="s">
         <v>523</v>
       </c>
       <c r="D55" s="77" t="s">
@@ -19463,9 +19533,7 @@
       <c r="G55" s="76"/>
       <c r="H55" s="76"/>
       <c r="I55" s="76"/>
-      <c r="J55" s="76" t="s">
-        <v>524</v>
-      </c>
+      <c r="J55" s="76"/>
       <c r="K55" s="78">
         <v>45396.0</v>
       </c>
@@ -19473,10 +19541,10 @@
       <c r="M55" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="O55" s="76"/>
+      <c r="N55" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="O55" s="77"/>
       <c r="P55" s="76"/>
       <c r="Q55" s="76"/>
       <c r="R55" s="76"/>
@@ -19492,318 +19560,322 @@
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
       <c r="AD55" s="76"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
+      <c r="AE55" s="76"/>
+      <c r="AF55" s="76"/>
     </row>
     <row r="56">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="K56" s="20"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
+      <c r="A56" s="82" t="s">
+        <v>524</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="E56" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="95" t="s">
+        <v>528</v>
+      </c>
+      <c r="K56" s="78">
+        <v>45396.0</v>
+      </c>
+      <c r="L56" s="85"/>
+      <c r="M56" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="O56" s="86"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="76"/>
+      <c r="AD56" s="76"/>
+      <c r="AE56" s="76"/>
+      <c r="AF56" s="76"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="D57" s="17"/>
+      <c r="A57" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>531</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>74</v>
+      </c>
       <c r="E57" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="J57" s="19"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76" t="s">
+        <v>533</v>
+      </c>
       <c r="K57" s="78">
         <v>45396.0</v>
       </c>
-      <c r="L57" s="19"/>
+      <c r="L57" s="76"/>
       <c r="M57" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O57" s="17"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
+      <c r="N57" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="76"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
     </row>
     <row r="58">
-      <c r="A58" s="77" t="s">
-        <v>528</v>
-      </c>
-      <c r="B58" s="77" t="s">
-        <v>529</v>
-      </c>
-      <c r="C58" s="97" t="s">
-        <v>530</v>
-      </c>
-      <c r="D58" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="E58" s="17" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="K58" s="20"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="78">
-        <v>45396.0</v>
-      </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="O58" s="77"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="76"/>
-      <c r="Y58" s="76"/>
-      <c r="Z58" s="76"/>
-      <c r="AA58" s="76"/>
-      <c r="AB58" s="76"/>
-      <c r="AC58" s="76"/>
-      <c r="AD58" s="76"/>
-      <c r="AE58" s="76"/>
-      <c r="AF58" s="76"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="80" t="s">
-        <v>532</v>
-      </c>
-      <c r="B59" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="C59" s="98" t="s">
-        <v>534</v>
-      </c>
-      <c r="D59" s="80" t="s">
-        <v>535</v>
-      </c>
-      <c r="E59" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="95" t="s">
-        <v>519</v>
-      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="J59" s="19"/>
       <c r="K59" s="78">
         <v>45396.0</v>
       </c>
-      <c r="L59" s="85"/>
+      <c r="L59" s="19"/>
       <c r="M59" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="81" t="s">
+      <c r="N59" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O59" s="86"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="85"/>
-      <c r="R59" s="76"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="76"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="76"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="76"/>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="76"/>
-      <c r="AC59" s="76"/>
-      <c r="AD59" s="76"/>
-      <c r="AE59" s="76"/>
-      <c r="AF59" s="76"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
     </row>
     <row r="60">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="K60" s="20"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
+      <c r="A60" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>538</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>539</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="78">
+        <v>45396.0</v>
+      </c>
+      <c r="L60" s="76"/>
+      <c r="M60" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="O60" s="77"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="17" t="s">
+      <c r="A61" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C61" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="E61" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L61" s="19"/>
-      <c r="M61" s="17" t="s">
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="95" t="s">
+        <v>528</v>
+      </c>
+      <c r="K61" s="78">
+        <v>45396.0</v>
+      </c>
+      <c r="L61" s="85"/>
+      <c r="M61" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="O61" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="19"/>
+      <c r="N61" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61" s="86"/>
+      <c r="P61" s="85"/>
+      <c r="Q61" s="85"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="76"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="76"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="76"/>
     </row>
     <row r="62">
-      <c r="A62" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L62" s="19"/>
-      <c r="M62" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O62" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="K62" s="20"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
     </row>
     <row r="63">
-      <c r="A63" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>544</v>
+      <c r="A63" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>546</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>546</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="I63" s="17" t="s">
+        <v>548</v>
+      </c>
       <c r="J63" s="19"/>
       <c r="K63" s="20">
-        <v>44734.0</v>
-      </c>
-      <c r="L63" s="19"/>
+        <v>44447.0</v>
+      </c>
+      <c r="L63" s="20">
+        <v>45417.0</v>
+      </c>
       <c r="M63" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>77</v>
+        <v>199</v>
+      </c>
+      <c r="O63" s="68" t="s">
+        <v>347</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -19825,16 +19897,16 @@
     </row>
     <row r="64">
       <c r="A64" s="17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>546</v>
+        <v>97</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>58</v>
@@ -19842,24 +19914,20 @@
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="31" t="s">
-        <v>550</v>
-      </c>
+      <c r="I64" s="19"/>
       <c r="J64" s="19"/>
       <c r="K64" s="20">
         <v>44447.0</v>
       </c>
-      <c r="L64" s="20">
-        <v>45396.0</v>
-      </c>
+      <c r="L64" s="19"/>
       <c r="M64" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="O64" s="31" t="s">
-        <v>343</v>
+        <v>53</v>
+      </c>
+      <c r="O64" s="68" t="s">
+        <v>347</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -19881,16 +19949,16 @@
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B65" s="22" t="s">
         <v>552</v>
       </c>
+      <c r="B65" s="17" t="s">
+        <v>553</v>
+      </c>
       <c r="C65" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>58</v>
@@ -19899,18 +19967,20 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="40">
-        <v>45396.0</v>
-      </c>
-      <c r="L65" s="20"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="20">
+        <v>44734.0</v>
+      </c>
+      <c r="L65" s="19"/>
       <c r="M65" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O65" s="17"/>
+      <c r="N65" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
@@ -19931,16 +20001,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B66" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>555</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>542</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>58</v>
@@ -19948,19 +20018,25 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="40">
+      <c r="I66" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="20">
+        <v>44447.0</v>
+      </c>
+      <c r="L66" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L66" s="20"/>
       <c r="M66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O66" s="17"/>
+      <c r="N66" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="O66" s="31" t="s">
+        <v>347</v>
+      </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
@@ -19981,16 +20057,16 @@
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>546</v>
+        <v>97</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>58</v>
@@ -20030,28 +20106,68 @@
       <c r="AF67" s="19"/>
     </row>
     <row r="68">
-      <c r="A68" s="8"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="A68" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="40"/>
+      <c r="K68" s="40">
+        <v>45396.0</v>
+      </c>
       <c r="L68" s="20"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="28"/>
+      <c r="M68" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="O68" s="17"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>560</v>
+      <c r="A69" s="17" t="s">
+        <v>566</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D69" s="19"/>
+        <v>568</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>555</v>
+      </c>
       <c r="E69" s="17" t="s">
         <v>58</v>
       </c>
@@ -20061,18 +20177,16 @@
       <c r="I69" s="19"/>
       <c r="J69" s="17"/>
       <c r="K69" s="40">
-        <v>44139.0</v>
+        <v>45396.0</v>
       </c>
       <c r="L69" s="20"/>
       <c r="M69" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N69" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>196</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O69" s="17"/>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
@@ -20092,70 +20206,28 @@
       <c r="AF69" s="19"/>
     </row>
     <row r="70">
-      <c r="A70" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="17"/>
+      <c r="E70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="40">
-        <v>44139.0</v>
-      </c>
+      <c r="K70" s="40"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="17"/>
     </row>
     <row r="71">
-      <c r="A71" s="17" t="s">
-        <v>566</v>
+      <c r="A71" s="8" t="s">
+        <v>569</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="C71" s="72" t="s">
-        <v>568</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>565</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D71" s="19"/>
       <c r="E71" s="17" t="s">
         <v>58</v>
       </c>
@@ -20164,18 +20236,18 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="20">
-        <v>44727.0</v>
+      <c r="K71" s="40">
+        <v>44139.0</v>
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>208</v>
+      <c r="N71" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
@@ -20197,16 +20269,16 @@
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C72" s="72" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>573</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>58</v>
@@ -20216,17 +20288,19 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="20">
-        <v>44856.0</v>
+      <c r="K72" s="40">
+        <v>44139.0</v>
       </c>
       <c r="L72" s="20"/>
-      <c r="M72" s="17" t="s">
+      <c r="M72" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="O72" s="30"/>
+      <c r="N72" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>200</v>
+      </c>
       <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
@@ -20247,16 +20321,16 @@
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B73" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>574</v>
-      </c>
-      <c r="C73" s="72" t="s">
-        <v>575</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>565</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>58</v>
@@ -20274,10 +20348,10 @@
         <v>20</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
@@ -20298,47 +20372,88 @@
       <c r="AF73" s="19"/>
     </row>
     <row r="74">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="K74" s="20"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
+      <c r="A74" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>580</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="20">
+        <v>44856.0</v>
+      </c>
+      <c r="L74" s="20"/>
+      <c r="M74" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="O74" s="30"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="D75" s="19"/>
+      <c r="A75" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>584</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>574</v>
+      </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="72"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="17"/>
       <c r="K75" s="20">
-        <v>43560.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L75" s="20"/>
       <c r="M75" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
@@ -20359,94 +20474,47 @@
       <c r="AF75" s="19"/>
     </row>
     <row r="76">
-      <c r="A76" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="K76" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L76" s="19"/>
-      <c r="M76" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="W76" s="19"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="19"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="19"/>
-      <c r="AB76" s="19"/>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="19"/>
-      <c r="AF76" s="19"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="K76" s="20"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
     </row>
     <row r="77">
-      <c r="A77" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B77" s="22" t="s">
+      <c r="A77" s="8" t="s">
         <v>585</v>
       </c>
+      <c r="B77" s="18" t="s">
+        <v>586</v>
+      </c>
       <c r="C77" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>582</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="D77" s="19"/>
       <c r="E77" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="I77" s="72"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L77" s="19"/>
-      <c r="M77" s="28" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L77" s="20"/>
+      <c r="M77" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
@@ -20468,16 +20536,16 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>58</v>
@@ -20486,8 +20554,8 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="17" t="s">
-        <v>101</v>
+      <c r="J78" s="31" t="s">
+        <v>592</v>
       </c>
       <c r="K78" s="20">
         <v>44790.0</v>
@@ -20500,7 +20568,7 @@
         <v>53</v>
       </c>
       <c r="O78" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P78" s="19"/>
       <c r="Q78" s="19"/>
@@ -20522,16 +20590,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B79" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -20540,8 +20608,8 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="31" t="s">
-        <v>593</v>
+      <c r="J79" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="K79" s="20">
         <v>44790.0</v>
@@ -20554,7 +20622,7 @@
         <v>53</v>
       </c>
       <c r="O79" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P79" s="19"/>
       <c r="Q79" s="19"/>
@@ -20576,16 +20644,16 @@
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>58</v>
@@ -20595,7 +20663,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K80" s="20">
         <v>44790.0</v>
@@ -20608,7 +20676,7 @@
         <v>53</v>
       </c>
       <c r="O80" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P80" s="19"/>
       <c r="Q80" s="19"/>
@@ -20629,293 +20697,295 @@
       <c r="AF80" s="19"/>
     </row>
     <row r="81">
-      <c r="B81" s="22"/>
-      <c r="C81" s="69"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="20"/>
-      <c r="M81" s="28"/>
+      <c r="A81" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="K81" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L81" s="19"/>
+      <c r="M81" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O81" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="19"/>
+      <c r="AF81" s="19"/>
     </row>
     <row r="82">
-      <c r="A82" s="99" t="s">
-        <v>597</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>598</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="52" t="s">
+      <c r="A82" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="J82" s="12"/>
-      <c r="K82" s="14">
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K82" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L82" s="19"/>
+      <c r="M82" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O82" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="19"/>
+      <c r="AF82" s="19"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="22"/>
+      <c r="C83" s="69"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="20"/>
+      <c r="M83" s="28"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="99" t="s">
+        <v>606</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="J84" s="12"/>
+      <c r="K84" s="14">
         <v>44461.0</v>
       </c>
-      <c r="L82" s="33"/>
-      <c r="M82" s="12" t="s">
+      <c r="L84" s="33"/>
+      <c r="M84" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="O82" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="13"/>
-      <c r="AC82" s="13"/>
-      <c r="AD82" s="13"/>
-      <c r="AE82" s="13"/>
-      <c r="AF82" s="13"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="B83" s="51" t="s">
-        <v>602</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="E83" s="52" t="s">
+      <c r="N84" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="O84" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>611</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E85" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="14">
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="14">
         <v>44461.0</v>
       </c>
-      <c r="L83" s="33"/>
-      <c r="M83" s="13" t="s">
+      <c r="L85" s="33"/>
+      <c r="M85" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N83" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="O83" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="13"/>
-      <c r="AC83" s="13"/>
-      <c r="AD83" s="13"/>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="22"/>
-      <c r="K84" s="20"/>
-      <c r="O84" s="63"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="22"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="20"/>
-      <c r="M85" s="28"/>
+      <c r="N85" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="O85" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="20">
-        <v>45396.0</v>
-      </c>
-      <c r="L86" s="20"/>
-      <c r="M86" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N86" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="O86" s="30"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="19"/>
-      <c r="AC86" s="19"/>
-      <c r="AD86" s="19"/>
-      <c r="AE86" s="19"/>
-      <c r="AF86" s="19"/>
+      <c r="B86" s="22"/>
+      <c r="K86" s="20"/>
+      <c r="O86" s="63"/>
     </row>
     <row r="87">
-      <c r="A87" s="100" t="s">
-        <v>609</v>
-      </c>
-      <c r="B87" s="91" t="s">
-        <v>610</v>
-      </c>
-      <c r="C87" s="75" t="s">
-        <v>611</v>
-      </c>
-      <c r="D87" s="100" t="s">
-        <v>612</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="76"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="74" t="s">
-        <v>613</v>
-      </c>
-      <c r="J87" s="91" t="s">
+      <c r="B87" s="22"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="20"/>
+      <c r="M87" s="28"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="K87" s="78">
-        <v>45396.0</v>
-      </c>
-      <c r="L87" s="76"/>
-      <c r="M87" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N87" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="O87" s="76"/>
-      <c r="P87" s="76"/>
-      <c r="Q87" s="76"/>
-      <c r="R87" s="76"/>
-      <c r="S87" s="76"/>
-      <c r="T87" s="76"/>
-      <c r="U87" s="76"/>
-      <c r="V87" s="76"/>
-      <c r="W87" s="76"/>
-      <c r="X87" s="76"/>
-      <c r="Y87" s="76"/>
-      <c r="Z87" s="76"/>
-      <c r="AA87" s="76"/>
-      <c r="AB87" s="76"/>
-      <c r="AC87" s="76"/>
-      <c r="AD87" s="76"/>
-      <c r="AE87" s="76"/>
-      <c r="AF87" s="76"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="83" t="s">
+      <c r="B88" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="B88" s="91" t="s">
+      <c r="C88" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C88" s="101" t="s">
-        <v>617</v>
-      </c>
-      <c r="D88" s="100" t="s">
-        <v>612</v>
-      </c>
+      <c r="D88" s="19"/>
       <c r="E88" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="76"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="91" t="s">
-        <v>618</v>
-      </c>
-      <c r="K88" s="78">
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L88" s="76"/>
+      <c r="L88" s="20"/>
       <c r="M88" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N88" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="O88" s="76"/>
-      <c r="P88" s="76"/>
-      <c r="Q88" s="76"/>
-      <c r="R88" s="76"/>
-      <c r="S88" s="76"/>
-      <c r="T88" s="76"/>
-      <c r="U88" s="76"/>
-      <c r="V88" s="76"/>
-      <c r="W88" s="76"/>
-      <c r="X88" s="76"/>
-      <c r="Y88" s="76"/>
-      <c r="Z88" s="76"/>
-      <c r="AA88" s="76"/>
-      <c r="AB88" s="76"/>
-      <c r="AC88" s="76"/>
-      <c r="AD88" s="76"/>
-      <c r="AE88" s="76"/>
-      <c r="AF88" s="76"/>
+        <v>617</v>
+      </c>
+      <c r="O88" s="30"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="19"/>
+      <c r="AF88" s="19"/>
     </row>
     <row r="89">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="100" t="s">
+        <v>618</v>
+      </c>
+      <c r="B89" s="91" t="s">
         <v>619</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="C89" s="75" t="s">
         <v>620</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="D89" s="100" t="s">
         <v>621</v>
-      </c>
-      <c r="D89" s="100" t="s">
-        <v>612</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>58</v>
@@ -20937,7 +21007,7 @@
         <v>20</v>
       </c>
       <c r="N89" s="74" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="O89" s="76"/>
       <c r="P89" s="76"/>
@@ -20959,167 +21029,171 @@
       <c r="AF89" s="76"/>
     </row>
     <row r="90">
-      <c r="A90" s="103" t="s">
+      <c r="A90" s="83" t="s">
         <v>624</v>
       </c>
-      <c r="B90" s="104" t="s">
+      <c r="B90" s="91" t="s">
         <v>625</v>
       </c>
-      <c r="C90" s="102" t="s">
+      <c r="C90" s="101" t="s">
         <v>626</v>
       </c>
-      <c r="D90" s="105" t="s">
-        <v>627</v>
+      <c r="D90" s="100" t="s">
+        <v>621</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="106"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
-      <c r="J90" s="104" t="s">
-        <v>623</v>
-      </c>
-      <c r="K90" s="107">
+      <c r="F90" s="76"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="91" t="s">
+        <v>627</v>
+      </c>
+      <c r="K90" s="78">
         <v>45396.0</v>
       </c>
-      <c r="L90" s="106"/>
+      <c r="L90" s="76"/>
       <c r="M90" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="O90" s="106"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="106"/>
-      <c r="R90" s="106"/>
-      <c r="S90" s="106"/>
-      <c r="T90" s="106"/>
-      <c r="U90" s="106"/>
-      <c r="V90" s="106"/>
-      <c r="W90" s="106"/>
-      <c r="X90" s="106"/>
-      <c r="Y90" s="106"/>
-      <c r="Z90" s="106"/>
-      <c r="AA90" s="106"/>
-      <c r="AB90" s="106"/>
-      <c r="AC90" s="106"/>
-      <c r="AD90" s="106"/>
+        <v>617</v>
+      </c>
+      <c r="O90" s="76"/>
+      <c r="P90" s="76"/>
+      <c r="Q90" s="76"/>
+      <c r="R90" s="76"/>
+      <c r="S90" s="76"/>
+      <c r="T90" s="76"/>
+      <c r="U90" s="76"/>
+      <c r="V90" s="76"/>
+      <c r="W90" s="76"/>
+      <c r="X90" s="76"/>
+      <c r="Y90" s="76"/>
+      <c r="Z90" s="76"/>
+      <c r="AA90" s="76"/>
+      <c r="AB90" s="76"/>
+      <c r="AC90" s="76"/>
+      <c r="AD90" s="76"/>
       <c r="AE90" s="76"/>
       <c r="AF90" s="76"/>
     </row>
+    <row r="91">
+      <c r="A91" s="73" t="s">
+        <v>628</v>
+      </c>
+      <c r="B91" s="91" t="s">
+        <v>629</v>
+      </c>
+      <c r="C91" s="102" t="s">
+        <v>630</v>
+      </c>
+      <c r="D91" s="100" t="s">
+        <v>621</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="76"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="74" t="s">
+        <v>631</v>
+      </c>
+      <c r="J91" s="91" t="s">
+        <v>632</v>
+      </c>
+      <c r="K91" s="78">
+        <v>45396.0</v>
+      </c>
+      <c r="L91" s="76"/>
+      <c r="M91" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="O91" s="76"/>
+      <c r="P91" s="76"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="76"/>
+      <c r="S91" s="76"/>
+      <c r="T91" s="76"/>
+      <c r="U91" s="76"/>
+      <c r="V91" s="76"/>
+      <c r="W91" s="76"/>
+      <c r="X91" s="76"/>
+      <c r="Y91" s="76"/>
+      <c r="Z91" s="76"/>
+      <c r="AA91" s="76"/>
+      <c r="AB91" s="76"/>
+      <c r="AC91" s="76"/>
+      <c r="AD91" s="76"/>
+      <c r="AE91" s="76"/>
+      <c r="AF91" s="76"/>
+    </row>
     <row r="92">
-      <c r="A92" s="99" t="s">
-        <v>628</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C92" s="108" t="s">
-        <v>630</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>631</v>
+      <c r="A92" s="103" t="s">
+        <v>633</v>
+      </c>
+      <c r="B92" s="104" t="s">
+        <v>634</v>
+      </c>
+      <c r="C92" s="102" t="s">
+        <v>635</v>
+      </c>
+      <c r="D92" s="105" t="s">
+        <v>636</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="36">
+      <c r="F92" s="106"/>
+      <c r="G92" s="104"/>
+      <c r="H92" s="106"/>
+      <c r="I92" s="106"/>
+      <c r="J92" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="K92" s="107">
         <v>45396.0</v>
       </c>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13" t="s">
+      <c r="L92" s="106"/>
+      <c r="M92" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N92" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="13"/>
-      <c r="AC92" s="13"/>
-      <c r="AD92" s="13"/>
-      <c r="AE92" s="13"/>
-      <c r="AF92" s="13"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="52" t="s">
-        <v>636</v>
-      </c>
-      <c r="J93" s="13"/>
-      <c r="K93" s="36">
-        <v>45396.0</v>
-      </c>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N93" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="13"/>
-      <c r="AA93" s="13"/>
-      <c r="AB93" s="13"/>
-      <c r="AC93" s="13"/>
-      <c r="AD93" s="13"/>
-      <c r="AE93" s="13"/>
-      <c r="AF93" s="13"/>
+      <c r="N92" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="O92" s="106"/>
+      <c r="P92" s="106"/>
+      <c r="Q92" s="106"/>
+      <c r="R92" s="106"/>
+      <c r="S92" s="106"/>
+      <c r="T92" s="106"/>
+      <c r="U92" s="106"/>
+      <c r="V92" s="106"/>
+      <c r="W92" s="106"/>
+      <c r="X92" s="106"/>
+      <c r="Y92" s="106"/>
+      <c r="Z92" s="106"/>
+      <c r="AA92" s="106"/>
+      <c r="AB92" s="106"/>
+      <c r="AC92" s="106"/>
+      <c r="AD92" s="106"/>
+      <c r="AE92" s="76"/>
+      <c r="AF92" s="76"/>
     </row>
     <row r="94">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="99" t="s">
         <v>637</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="108" t="s">
         <v>639</v>
       </c>
       <c r="D94" s="13" t="s">
@@ -21181,7 +21255,9 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
+      <c r="I95" s="52" t="s">
+        <v>645</v>
+      </c>
       <c r="J95" s="13"/>
       <c r="K95" s="36">
         <v>45396.0</v>
@@ -21214,16 +21290,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>58</v>
@@ -21264,16 +21340,16 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>640</v>
+        <v>652</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>58</v>
@@ -21281,9 +21357,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
-      <c r="I97" s="52" t="s">
-        <v>652</v>
-      </c>
+      <c r="I97" s="13"/>
       <c r="J97" s="13"/>
       <c r="K97" s="36">
         <v>45396.0</v>
@@ -21316,16 +21390,16 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>58</v>
@@ -21366,16 +21440,16 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>649</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>58</v>
@@ -21383,7 +21457,9 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
+      <c r="I99" s="52" t="s">
+        <v>661</v>
+      </c>
       <c r="J99" s="13"/>
       <c r="K99" s="36">
         <v>45396.0</v>
@@ -21416,16 +21492,16 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -21434,9 +21510,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-      <c r="J100" s="13" t="s">
-        <v>383</v>
-      </c>
+      <c r="J100" s="13"/>
       <c r="K100" s="36">
         <v>45396.0</v>
       </c>
@@ -21444,8 +21518,8 @@
       <c r="M100" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N100" s="109" t="s">
-        <v>384</v>
+      <c r="N100" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="O100" s="13"/>
       <c r="P100" s="13"/>
@@ -21467,174 +21541,172 @@
       <c r="AF100" s="13"/>
     </row>
     <row r="101">
-      <c r="A101" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="B101" s="17" t="s">
+      <c r="A101" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="B101" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>640</v>
+      <c r="C101" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>668</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="20">
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="36">
         <v>45396.0</v>
       </c>
-      <c r="L101" s="19"/>
-      <c r="M101" s="17" t="s">
+      <c r="L101" s="13"/>
+      <c r="M101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N101" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="19"/>
-      <c r="AB101" s="19"/>
-      <c r="AC101" s="19"/>
-      <c r="AD101" s="19"/>
-      <c r="AE101" s="19"/>
-      <c r="AF101" s="19"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
+      <c r="Y101" s="13"/>
+      <c r="Z101" s="13"/>
+      <c r="AA101" s="13"/>
+      <c r="AB101" s="13"/>
+      <c r="AC101" s="13"/>
+      <c r="AD101" s="13"/>
+      <c r="AE101" s="13"/>
+      <c r="AF101" s="13"/>
     </row>
     <row r="102">
-      <c r="B102" s="22"/>
-      <c r="K102" s="20"/>
+      <c r="A102" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K102" s="36">
+        <v>45396.0</v>
+      </c>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
+      <c r="AA102" s="13"/>
+      <c r="AB102" s="13"/>
+      <c r="AC102" s="13"/>
+      <c r="AD102" s="13"/>
+      <c r="AE102" s="13"/>
+      <c r="AF102" s="13"/>
     </row>
     <row r="103">
-      <c r="A103" s="99" t="s">
-        <v>667</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="C103" s="70" t="s">
-        <v>669</v>
-      </c>
-      <c r="D103" s="13"/>
+      <c r="A103" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>649</v>
+      </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="K103" s="36">
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13" t="s">
+      <c r="L103" s="19"/>
+      <c r="M103" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N103" s="109" t="s">
-        <v>384</v>
-      </c>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="13"/>
-      <c r="Y103" s="13"/>
-      <c r="Z103" s="13"/>
-      <c r="AA103" s="13"/>
-      <c r="AB103" s="13"/>
-      <c r="AC103" s="13"/>
-      <c r="AD103" s="13"/>
-      <c r="AE103" s="13"/>
-      <c r="AF103" s="13"/>
+      <c r="N103" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+      <c r="Y103" s="19"/>
+      <c r="Z103" s="19"/>
+      <c r="AA103" s="19"/>
+      <c r="AB103" s="19"/>
+      <c r="AC103" s="19"/>
+      <c r="AD103" s="19"/>
+      <c r="AE103" s="19"/>
+      <c r="AF103" s="19"/>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>672</v>
-      </c>
-      <c r="C104" s="70" t="s">
-        <v>673</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="K104" s="36">
-        <v>45396.0</v>
-      </c>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N104" s="109" t="s">
-        <v>384</v>
-      </c>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="13"/>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="13"/>
-      <c r="AA104" s="13"/>
-      <c r="AB104" s="13"/>
-      <c r="AC104" s="13"/>
-      <c r="AD104" s="13"/>
-      <c r="AE104" s="13"/>
-      <c r="AF104" s="13"/>
+      <c r="B104" s="22"/>
+      <c r="K104" s="20"/>
     </row>
     <row r="105">
-      <c r="A105" s="13" t="s">
-        <v>675</v>
+      <c r="A105" s="99" t="s">
+        <v>676</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C105" s="70" t="s">
-        <v>677</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>674</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="D105" s="13"/>
       <c r="E105" s="17" t="s">
         <v>58</v>
       </c>
@@ -21643,7 +21715,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="K105" s="36">
         <v>45396.0</v>
@@ -21653,7 +21725,7 @@
         <v>20</v>
       </c>
       <c r="N105" s="109" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
@@ -21676,16 +21748,16 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -21695,7 +21767,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -21705,7 +21777,7 @@
         <v>20</v>
       </c>
       <c r="N106" s="109" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
@@ -21726,112 +21798,126 @@
       <c r="AE106" s="13"/>
       <c r="AF106" s="13"/>
     </row>
+    <row r="107">
+      <c r="A107" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="K107" s="36">
+        <v>45396.0</v>
+      </c>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+      <c r="AD107" s="13"/>
+      <c r="AE107" s="13"/>
+      <c r="AF107" s="13"/>
+    </row>
     <row r="108">
-      <c r="A108" s="100"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="83"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="91"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
-      <c r="S108" s="76"/>
-      <c r="T108" s="76"/>
-      <c r="U108" s="76"/>
-      <c r="V108" s="76"/>
-      <c r="W108" s="76"/>
-      <c r="X108" s="76"/>
-      <c r="Y108" s="76"/>
-      <c r="Z108" s="76"/>
-      <c r="AA108" s="76"/>
-      <c r="AB108" s="76"/>
-      <c r="AC108" s="76"/>
-      <c r="AD108" s="76"/>
-      <c r="AE108" s="76"/>
-      <c r="AF108" s="76"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="76" t="s">
-        <v>681</v>
-      </c>
-      <c r="B109" s="76" t="s">
-        <v>682</v>
-      </c>
-      <c r="C109" s="96" t="s">
+      <c r="A108" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C108" s="70" t="s">
+        <v>689</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="D109" s="76"/>
-      <c r="E109" s="17" t="s">
+      <c r="E108" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
-      <c r="S109" s="76"/>
-      <c r="T109" s="76"/>
-      <c r="U109" s="76"/>
-      <c r="V109" s="76"/>
-      <c r="W109" s="76"/>
-      <c r="X109" s="76"/>
-      <c r="Y109" s="76"/>
-      <c r="Z109" s="76"/>
-      <c r="AA109" s="76"/>
-      <c r="AB109" s="76"/>
-      <c r="AC109" s="76"/>
-      <c r="AD109" s="76"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="K108" s="36">
+        <v>45396.0</v>
+      </c>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N108" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="13"/>
+      <c r="X108" s="13"/>
+      <c r="Y108" s="13"/>
+      <c r="Z108" s="13"/>
+      <c r="AA108" s="13"/>
+      <c r="AB108" s="13"/>
+      <c r="AC108" s="13"/>
+      <c r="AD108" s="13"/>
+      <c r="AE108" s="13"/>
+      <c r="AF108" s="13"/>
     </row>
     <row r="110">
-      <c r="A110" s="80" t="s">
-        <v>685</v>
-      </c>
-      <c r="B110" s="86"/>
-      <c r="C110" s="82" t="s">
-        <v>686</v>
-      </c>
-      <c r="D110" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="E110" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="86"/>
-      <c r="J110" s="86"/>
-      <c r="K110" s="78">
-        <v>45396.0</v>
-      </c>
-      <c r="L110" s="87"/>
-      <c r="M110" s="74" t="s">
-        <v>684</v>
-      </c>
-      <c r="N110" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="O110" s="86"/>
-      <c r="P110" s="85"/>
-      <c r="Q110" s="85"/>
+      <c r="A110" s="100"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="83"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="91"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="76"/>
+      <c r="N110" s="76"/>
+      <c r="O110" s="76"/>
+      <c r="P110" s="76"/>
+      <c r="Q110" s="76"/>
       <c r="R110" s="76"/>
       <c r="S110" s="76"/>
       <c r="T110" s="76"/>
@@ -21849,14 +21935,98 @@
       <c r="AF110" s="76"/>
     </row>
     <row r="111">
-      <c r="B111" s="22"/>
-      <c r="N111" s="111"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="23"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="23"/>
+      <c r="A111" s="76" t="s">
+        <v>690</v>
+      </c>
+      <c r="B111" s="76" t="s">
+        <v>691</v>
+      </c>
+      <c r="C111" s="96" t="s">
+        <v>692</v>
+      </c>
+      <c r="D111" s="76"/>
+      <c r="E111" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="76"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="76"/>
+      <c r="U111" s="76"/>
+      <c r="V111" s="76"/>
+      <c r="W111" s="76"/>
+      <c r="X111" s="76"/>
+      <c r="Y111" s="76"/>
+      <c r="Z111" s="76"/>
+      <c r="AA111" s="76"/>
+      <c r="AB111" s="76"/>
+      <c r="AC111" s="76"/>
+      <c r="AD111" s="76"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="80" t="s">
+        <v>694</v>
+      </c>
+      <c r="B112" s="86"/>
+      <c r="C112" s="82" t="s">
+        <v>695</v>
+      </c>
+      <c r="D112" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="86"/>
+      <c r="J112" s="86"/>
+      <c r="K112" s="78">
+        <v>45396.0</v>
+      </c>
+      <c r="L112" s="87"/>
+      <c r="M112" s="74" t="s">
+        <v>693</v>
+      </c>
+      <c r="N112" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="O112" s="86"/>
+      <c r="P112" s="85"/>
+      <c r="Q112" s="85"/>
+      <c r="R112" s="76"/>
+      <c r="S112" s="76"/>
+      <c r="T112" s="76"/>
+      <c r="U112" s="76"/>
+      <c r="V112" s="76"/>
+      <c r="W112" s="76"/>
+      <c r="X112" s="76"/>
+      <c r="Y112" s="76"/>
+      <c r="Z112" s="76"/>
+      <c r="AA112" s="76"/>
+      <c r="AB112" s="76"/>
+      <c r="AC112" s="76"/>
+      <c r="AD112" s="76"/>
+      <c r="AE112" s="76"/>
+      <c r="AF112" s="76"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="22"/>
+      <c r="N113" s="111"/>
     </row>
     <row r="119">
       <c r="B119" s="23"/>
@@ -24432,18 +24602,24 @@
     <row r="976">
       <c r="B976" s="23"/>
     </row>
+    <row r="977">
+      <c r="B977" s="23"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF206">
+  <conditionalFormatting sqref="A2:AF208">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q209">
+  <conditionalFormatting sqref="A1:Q211">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q209">
+  <conditionalFormatting sqref="A1:Q211">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -24492,28 +24668,28 @@
     <hyperlink r:id="rId41" ref="O46"/>
     <hyperlink r:id="rId42" ref="O47"/>
     <hyperlink r:id="rId43" ref="O48"/>
-    <hyperlink r:id="rId44" ref="O50"/>
-    <hyperlink r:id="rId45" ref="O51"/>
-    <hyperlink r:id="rId46" ref="O52"/>
-    <hyperlink r:id="rId47" ref="O61"/>
-    <hyperlink r:id="rId48" ref="O62"/>
-    <hyperlink r:id="rId49" ref="O63"/>
-    <hyperlink r:id="rId50" ref="I64"/>
-    <hyperlink r:id="rId51" ref="O64"/>
-    <hyperlink r:id="rId52" ref="O69"/>
-    <hyperlink r:id="rId53" ref="O70"/>
-    <hyperlink r:id="rId54" ref="O71"/>
-    <hyperlink r:id="rId55" ref="O73"/>
-    <hyperlink r:id="rId56" ref="O75"/>
-    <hyperlink r:id="rId57" ref="J76"/>
-    <hyperlink r:id="rId58" ref="O76"/>
-    <hyperlink r:id="rId59" ref="O77"/>
-    <hyperlink r:id="rId60" ref="O78"/>
-    <hyperlink r:id="rId61" ref="J79"/>
-    <hyperlink r:id="rId62" ref="O79"/>
-    <hyperlink r:id="rId63" ref="O80"/>
-    <hyperlink r:id="rId64" ref="O82"/>
-    <hyperlink r:id="rId65" ref="O83"/>
+    <hyperlink r:id="rId44" ref="O52"/>
+    <hyperlink r:id="rId45" ref="O53"/>
+    <hyperlink r:id="rId46" ref="O54"/>
+    <hyperlink r:id="rId47" ref="O63"/>
+    <hyperlink r:id="rId48" ref="O64"/>
+    <hyperlink r:id="rId49" ref="O65"/>
+    <hyperlink r:id="rId50" ref="I66"/>
+    <hyperlink r:id="rId51" ref="O66"/>
+    <hyperlink r:id="rId52" ref="O71"/>
+    <hyperlink r:id="rId53" ref="O72"/>
+    <hyperlink r:id="rId54" ref="O73"/>
+    <hyperlink r:id="rId55" ref="O75"/>
+    <hyperlink r:id="rId56" ref="O77"/>
+    <hyperlink r:id="rId57" ref="J78"/>
+    <hyperlink r:id="rId58" ref="O78"/>
+    <hyperlink r:id="rId59" ref="O79"/>
+    <hyperlink r:id="rId60" ref="O80"/>
+    <hyperlink r:id="rId61" ref="J81"/>
+    <hyperlink r:id="rId62" ref="O81"/>
+    <hyperlink r:id="rId63" ref="O82"/>
+    <hyperlink r:id="rId64" ref="O84"/>
+    <hyperlink r:id="rId65" ref="O85"/>
   </hyperlinks>
   <drawing r:id="rId66"/>
 </worksheet>
@@ -24587,13 +24763,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -24636,16 +24812,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -24699,16 +24875,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>81</v>
@@ -24717,7 +24893,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="17" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -24728,7 +24904,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>63</v>
@@ -24752,16 +24928,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>81</v>
@@ -24779,7 +24955,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="O6" s="68" t="s">
         <v>63</v>
@@ -24803,16 +24979,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>81</v>
@@ -24830,7 +25006,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="O7" s="68" t="s">
         <v>63</v>
@@ -24854,16 +25030,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>81</v>
@@ -24881,7 +25057,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>63</v>
@@ -24905,16 +25081,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>711</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>81</v>
@@ -24989,16 +25165,16 @@
     </row>
     <row r="11">
       <c r="A11" s="112" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -25008,7 +25184,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="K11" s="76"/>
       <c r="L11" s="76"/>
@@ -25036,16 +25212,16 @@
     </row>
     <row r="12">
       <c r="A12" s="113" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -25081,16 +25257,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -25135,30 +25311,30 @@
     </row>
     <row r="15">
       <c r="A15" s="112" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="91" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="91" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="K15" s="76"/>
       <c r="L15" s="76"/>
@@ -25166,7 +25342,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O15" s="76"/>
       <c r="P15" s="76"/>
@@ -27894,16 +28070,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>85</v>
@@ -27913,7 +28089,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -27923,10 +28099,10 @@
         <v>20</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -27947,13 +28123,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -27964,7 +28140,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="K3" s="67">
         <v>45396.0</v>
@@ -27996,13 +28172,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -28013,7 +28189,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="K4" s="67">
         <v>45396.0</v>
@@ -28045,13 +28221,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -28062,7 +28238,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="K5" s="67">
         <v>45396.0</v>
@@ -28094,13 +28270,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -28111,7 +28287,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="K6" s="67">
         <v>45396.0</v>
@@ -28143,13 +28319,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -28160,7 +28336,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="K7" s="67">
         <v>45396.0</v>
@@ -28192,13 +28368,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -28209,7 +28385,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="K8" s="67">
         <v>45396.0</v>
@@ -28241,13 +28417,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -28258,7 +28434,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="K9" s="67">
         <v>45396.0</v>
@@ -28290,13 +28466,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -28307,7 +28483,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="K10" s="67">
         <v>45396.0</v>
@@ -28339,13 +28515,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -28356,7 +28532,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="K11" s="67">
         <v>45396.0</v>
@@ -28388,13 +28564,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -28405,7 +28581,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="K12" s="67">
         <v>45396.0</v>
@@ -32007,13 +32183,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -32023,7 +32199,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -32056,13 +32232,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -32103,13 +32279,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -32119,7 +32295,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20">
@@ -32152,13 +32328,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -32168,7 +32344,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="90" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -32201,13 +32377,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -32217,7 +32393,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20">
@@ -32250,13 +32426,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -32266,7 +32442,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20">
@@ -32299,13 +32475,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -32315,7 +32491,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20">
@@ -32348,13 +32524,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -32395,13 +32571,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -32442,13 +32618,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -32489,13 +32665,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -32536,13 +32712,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
@@ -32583,13 +32759,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="868">
   <si>
     <t>Term</t>
   </si>
@@ -2265,6 +2265,28 @@
     <t>dpv:Safeguard</t>
   </si>
   <si>
+    <t>RegulatorySandbox</t>
+  </si>
+  <si>
+    <t>Regulatory Sandbox</t>
+  </si>
+  <si>
+    <t>Mechanism used by regulators and businesses for gauging the compatibility of regulations and innovative products, particularly in the context of digitalisation, in a controlled real-world environment with appropriate safeguards in place</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(EU Council Regulatory sandboxes and experimentation clauses as tools for better regulation,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.consilium.europa.eu/en/press/press-releases/2020/11/16/regulatory-sandboxes-and-experimentation-clauses-as-tools-for-better-regulation-council-adopts-conclusions/)</t>
+    </r>
+  </si>
+  <si>
     <t>RightsManagement</t>
   </si>
   <si>
@@ -2509,6 +2531,123 @@
   </si>
   <si>
     <t>???????</t>
+  </si>
+  <si>
+    <t>DigitalLiteracy</t>
+  </si>
+  <si>
+    <t>Digital Literacy</t>
+  </si>
+  <si>
+    <t>Providing skills, knowledge, and understanding to enable reading, writing, analysing, reasoning, and communicating regarding digital technologies and their implications</t>
+  </si>
+  <si>
+    <t>DataLiteracy</t>
+  </si>
+  <si>
+    <t>Data Literacy</t>
+  </si>
+  <si>
+    <t>Providing skills, knowledge, and understanding to enable reading, writing, analysing, reasoning, and communicating regarding data</t>
+  </si>
+  <si>
+    <t>dpv:DigitalLiteracy</t>
+  </si>
+  <si>
+    <t>AILiteracy</t>
+  </si>
+  <si>
+    <t>AI Literacy</t>
+  </si>
+  <si>
+    <t>Providing skills, knowledge, and understanding to enable reading, writing, analysing, reasoning, and communicating regarding AI</t>
+  </si>
+  <si>
+    <t>ISO 27001</t>
+  </si>
+  <si>
+    <t>org measure</t>
+  </si>
+  <si>
+    <t>Management functions</t>
+  </si>
+  <si>
+    <t>ResonsibilityAllocation</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>SegregatedDuties</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>ProjectManagementIntegration</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>DevicePolicy</t>
+  </si>
+  <si>
+    <t>TeleworkingPolicy</t>
+  </si>
+  <si>
+    <t>DisciplinaryProcess</t>
+  </si>
+  <si>
+    <t>EmployeeTerminationPolicy</t>
+  </si>
+  <si>
+    <t>VendorTerminationPolicy</t>
+  </si>
+  <si>
+    <t>AssetInventory</t>
+  </si>
+  <si>
+    <t>AssetUsagePolicy</t>
+  </si>
+  <si>
+    <t>InformationClassificationProcedures</t>
+  </si>
+  <si>
+    <t>AssetHandingProcedures</t>
+  </si>
+  <si>
+    <t>AccessControlPolicy</t>
+  </si>
+  <si>
+    <t>InformationAccessRestriction</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tech/org measure subclass</t>
+  </si>
+  <si>
+    <t>PhysicalAccessRestriction</t>
+  </si>
+  <si>
+    <t>PhysicalEnvironmentalProtection</t>
+  </si>
+  <si>
+    <t>PhysicalEquipmentProtection</t>
+  </si>
+  <si>
+    <t>PhysicalEquipmentMaintainence</t>
+  </si>
+  <si>
+    <t>PhysicalEquipmentSecureDisposal</t>
+  </si>
+  <si>
+    <t>ReviewRiskAssessment</t>
+  </si>
+  <si>
+    <t>Review an existing risk assessment for adequacy with changes</t>
   </si>
   <si>
     <t>LegalAgreement</t>
@@ -3195,7 +3334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3521,6 +3660,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -20916,9 +21058,56 @@
       <c r="AF85" s="13"/>
     </row>
     <row r="86">
-      <c r="B86" s="22"/>
-      <c r="K86" s="20"/>
+      <c r="A86" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="K86" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L86" s="19"/>
+      <c r="M86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="O86" s="63"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
     </row>
     <row r="87">
       <c r="B87" s="22"/>
@@ -20928,13 +21117,13 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="17" t="s">
@@ -20953,7 +21142,7 @@
         <v>20</v>
       </c>
       <c r="N88" s="74" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O88" s="30"/>
       <c r="P88" s="19"/>
@@ -20976,16 +21165,16 @@
     </row>
     <row r="89">
       <c r="A89" s="100" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C89" s="75" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D89" s="100" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>58</v>
@@ -20994,10 +21183,10 @@
       <c r="G89" s="91"/>
       <c r="H89" s="76"/>
       <c r="I89" s="74" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J89" s="91" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K89" s="78">
         <v>45396.0</v>
@@ -21007,7 +21196,7 @@
         <v>20</v>
       </c>
       <c r="N89" s="74" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O89" s="76"/>
       <c r="P89" s="76"/>
@@ -21030,16 +21219,16 @@
     </row>
     <row r="90">
       <c r="A90" s="83" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B90" s="91" t="s">
+        <v>629</v>
+      </c>
+      <c r="C90" s="101" t="s">
+        <v>630</v>
+      </c>
+      <c r="D90" s="100" t="s">
         <v>625</v>
-      </c>
-      <c r="C90" s="101" t="s">
-        <v>626</v>
-      </c>
-      <c r="D90" s="100" t="s">
-        <v>621</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21049,7 +21238,7 @@
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
       <c r="J90" s="91" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K90" s="78">
         <v>45396.0</v>
@@ -21059,7 +21248,7 @@
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O90" s="76"/>
       <c r="P90" s="76"/>
@@ -21082,16 +21271,16 @@
     </row>
     <row r="91">
       <c r="A91" s="73" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C91" s="102" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D91" s="100" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21100,10 +21289,10 @@
       <c r="G91" s="91"/>
       <c r="H91" s="76"/>
       <c r="I91" s="74" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J91" s="91" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K91" s="78">
         <v>45396.0</v>
@@ -21113,7 +21302,7 @@
         <v>20</v>
       </c>
       <c r="N91" s="74" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O91" s="76"/>
       <c r="P91" s="76"/>
@@ -21136,16 +21325,16 @@
     </row>
     <row r="92">
       <c r="A92" s="103" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B92" s="104" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C92" s="102" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D92" s="105" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21155,7 +21344,7 @@
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
       <c r="J92" s="104" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K92" s="107">
         <v>45396.0</v>
@@ -21165,7 +21354,7 @@
         <v>20</v>
       </c>
       <c r="N92" s="74" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O92" s="106"/>
       <c r="P92" s="106"/>
@@ -21188,16 +21377,16 @@
     </row>
     <row r="94">
       <c r="A94" s="99" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C94" s="108" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>58</v>
@@ -21238,16 +21427,16 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>58</v>
@@ -21256,7 +21445,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="52" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="36">
@@ -21290,16 +21479,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>58</v>
@@ -21340,16 +21529,16 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>58</v>
@@ -21390,16 +21579,16 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>58</v>
@@ -21440,16 +21629,16 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>58</v>
@@ -21458,7 +21647,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="52" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="36">
@@ -21492,16 +21681,16 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -21542,16 +21731,16 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -21592,16 +21781,16 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -21644,16 +21833,16 @@
     </row>
     <row r="103">
       <c r="A103" s="17" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
@@ -21698,13 +21887,13 @@
     </row>
     <row r="105">
       <c r="A105" s="99" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C105" s="70" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="17" t="s">
@@ -21715,7 +21904,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K105" s="36">
         <v>45396.0</v>
@@ -21748,16 +21937,16 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -21767,7 +21956,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -21800,16 +21989,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C107" s="70" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -21819,7 +22008,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -21852,16 +22041,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C108" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>687</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="C108" s="70" t="s">
-        <v>689</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>683</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -21871,7 +22060,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K108" s="36">
         <v>45396.0</v>
@@ -21936,13 +22125,13 @@
     </row>
     <row r="111">
       <c r="A111" s="76" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C111" s="96" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D111" s="76"/>
       <c r="E111" s="17" t="s">
@@ -21956,7 +22145,7 @@
       <c r="K111" s="76"/>
       <c r="L111" s="76"/>
       <c r="M111" s="17" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
@@ -21978,11 +22167,11 @@
     </row>
     <row r="112">
       <c r="A112" s="80" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B112" s="86"/>
       <c r="C112" s="82" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D112" s="110" t="s">
         <v>51</v>
@@ -22000,7 +22189,7 @@
       </c>
       <c r="L112" s="87"/>
       <c r="M112" s="74" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="N112" s="82" t="s">
         <v>211</v>
@@ -22028,77 +22217,1011 @@
       <c r="B113" s="22"/>
       <c r="N113" s="111"/>
     </row>
+    <row r="114">
+      <c r="A114" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L114" s="19"/>
+      <c r="M114" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N114" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="19"/>
+      <c r="X114" s="19"/>
+      <c r="Y114" s="19"/>
+      <c r="Z114" s="19"/>
+      <c r="AA114" s="19"/>
+      <c r="AB114" s="19"/>
+      <c r="AC114" s="19"/>
+      <c r="AD114" s="19"/>
+      <c r="AE114" s="19"/>
+      <c r="AF114" s="19"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="E115" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L115" s="19"/>
+      <c r="M115" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N115" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="19"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="19"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="E116" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L116" s="19"/>
+      <c r="M116" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N116" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="19"/>
+      <c r="X116" s="19"/>
+      <c r="Y116" s="19"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="19"/>
+      <c r="AB116" s="19"/>
+      <c r="AC116" s="19"/>
+      <c r="AD116" s="19"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+    </row>
     <row r="119">
-      <c r="B119" s="23"/>
+      <c r="A119" s="112" t="s">
+        <v>710</v>
+      </c>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="76"/>
+      <c r="K119" s="79"/>
+      <c r="L119" s="79"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="76"/>
+      <c r="P119" s="76"/>
+      <c r="Q119" s="76"/>
+      <c r="R119" s="76"/>
+      <c r="S119" s="76"/>
+      <c r="T119" s="76"/>
+      <c r="U119" s="76"/>
+      <c r="V119" s="76"/>
+      <c r="W119" s="76"/>
+      <c r="X119" s="76"/>
+      <c r="Y119" s="76"/>
+      <c r="Z119" s="76"/>
+      <c r="AA119" s="76"/>
+      <c r="AB119" s="76"/>
+      <c r="AC119" s="76"/>
+      <c r="AD119" s="76"/>
     </row>
     <row r="120">
-      <c r="B120" s="23"/>
+      <c r="A120" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="B120" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C120" s="76" t="s">
+        <v>712</v>
+      </c>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="79"/>
+      <c r="L120" s="79"/>
+      <c r="M120" s="76"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="76"/>
+      <c r="P120" s="76"/>
+      <c r="Q120" s="76"/>
+      <c r="R120" s="76"/>
+      <c r="S120" s="76"/>
+      <c r="T120" s="76"/>
+      <c r="U120" s="76"/>
+      <c r="V120" s="76"/>
+      <c r="W120" s="76"/>
+      <c r="X120" s="76"/>
+      <c r="Y120" s="76"/>
+      <c r="Z120" s="76"/>
+      <c r="AA120" s="76"/>
+      <c r="AB120" s="76"/>
+      <c r="AC120" s="76"/>
+      <c r="AD120" s="76"/>
     </row>
     <row r="121">
-      <c r="B121" s="23"/>
+      <c r="A121" s="76" t="s">
+        <v>713</v>
+      </c>
+      <c r="B121" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C121" s="76" t="s">
+        <v>714</v>
+      </c>
+      <c r="D121" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="76"/>
+      <c r="P121" s="76"/>
+      <c r="Q121" s="76"/>
+      <c r="R121" s="76"/>
+      <c r="S121" s="76"/>
+      <c r="T121" s="76"/>
+      <c r="U121" s="76"/>
+      <c r="V121" s="76"/>
+      <c r="W121" s="76"/>
+      <c r="X121" s="76"/>
+      <c r="Y121" s="76"/>
+      <c r="Z121" s="76"/>
+      <c r="AA121" s="76"/>
+      <c r="AB121" s="76"/>
+      <c r="AC121" s="76"/>
+      <c r="AD121" s="76"/>
     </row>
     <row r="122">
-      <c r="B122" s="23"/>
+      <c r="A122" s="76" t="s">
+        <v>715</v>
+      </c>
+      <c r="B122" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C122" s="76" t="s">
+        <v>716</v>
+      </c>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="79"/>
+      <c r="L122" s="79"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="76"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="76"/>
+      <c r="T122" s="76"/>
+      <c r="U122" s="76"/>
+      <c r="V122" s="76"/>
+      <c r="W122" s="76"/>
+      <c r="X122" s="76"/>
+      <c r="Y122" s="76"/>
+      <c r="Z122" s="76"/>
+      <c r="AA122" s="76"/>
+      <c r="AB122" s="76"/>
+      <c r="AC122" s="76"/>
+      <c r="AD122" s="76"/>
     </row>
     <row r="123">
-      <c r="B123" s="23"/>
+      <c r="A123" s="76" t="s">
+        <v>717</v>
+      </c>
+      <c r="B123" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C123" s="76" t="s">
+        <v>718</v>
+      </c>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="76"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="76"/>
+      <c r="K123" s="79"/>
+      <c r="L123" s="79"/>
+      <c r="M123" s="76"/>
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+      <c r="P123" s="76"/>
+      <c r="Q123" s="76"/>
+      <c r="R123" s="76"/>
+      <c r="S123" s="76"/>
+      <c r="T123" s="76"/>
+      <c r="U123" s="76"/>
+      <c r="V123" s="76"/>
+      <c r="W123" s="76"/>
+      <c r="X123" s="76"/>
+      <c r="Y123" s="76"/>
+      <c r="Z123" s="76"/>
+      <c r="AA123" s="76"/>
+      <c r="AB123" s="76"/>
+      <c r="AC123" s="76"/>
+      <c r="AD123" s="76"/>
     </row>
     <row r="124">
-      <c r="B124" s="23"/>
+      <c r="A124" s="76" t="s">
+        <v>719</v>
+      </c>
+      <c r="B124" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="76"/>
+      <c r="K124" s="79"/>
+      <c r="L124" s="79"/>
+      <c r="M124" s="76"/>
+      <c r="N124" s="76"/>
+      <c r="O124" s="76"/>
+      <c r="P124" s="76"/>
+      <c r="Q124" s="76"/>
+      <c r="R124" s="76"/>
+      <c r="S124" s="76"/>
+      <c r="T124" s="76"/>
+      <c r="U124" s="76"/>
+      <c r="V124" s="76"/>
+      <c r="W124" s="76"/>
+      <c r="X124" s="76"/>
+      <c r="Y124" s="76"/>
+      <c r="Z124" s="76"/>
+      <c r="AA124" s="76"/>
+      <c r="AB124" s="76"/>
+      <c r="AC124" s="76"/>
+      <c r="AD124" s="76"/>
     </row>
     <row r="125">
-      <c r="B125" s="23"/>
+      <c r="A125" s="76" t="s">
+        <v>720</v>
+      </c>
+      <c r="B125" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C125" s="76"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="76"/>
+      <c r="K125" s="79"/>
+      <c r="L125" s="79"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="76"/>
+      <c r="P125" s="76"/>
+      <c r="Q125" s="76"/>
+      <c r="R125" s="76"/>
+      <c r="S125" s="76"/>
+      <c r="T125" s="76"/>
+      <c r="U125" s="76"/>
+      <c r="V125" s="76"/>
+      <c r="W125" s="76"/>
+      <c r="X125" s="76"/>
+      <c r="Y125" s="76"/>
+      <c r="Z125" s="76"/>
+      <c r="AA125" s="76"/>
+      <c r="AB125" s="76"/>
+      <c r="AC125" s="76"/>
+      <c r="AD125" s="76"/>
     </row>
     <row r="126">
-      <c r="B126" s="23"/>
+      <c r="A126" s="76" t="s">
+        <v>721</v>
+      </c>
+      <c r="B126" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="79"/>
+      <c r="L126" s="79"/>
+      <c r="M126" s="76"/>
+      <c r="N126" s="76"/>
+      <c r="O126" s="76"/>
+      <c r="P126" s="76"/>
+      <c r="Q126" s="76"/>
+      <c r="R126" s="76"/>
+      <c r="S126" s="76"/>
+      <c r="T126" s="76"/>
+      <c r="U126" s="76"/>
+      <c r="V126" s="76"/>
+      <c r="W126" s="76"/>
+      <c r="X126" s="76"/>
+      <c r="Y126" s="76"/>
+      <c r="Z126" s="76"/>
+      <c r="AA126" s="76"/>
+      <c r="AB126" s="76"/>
+      <c r="AC126" s="76"/>
+      <c r="AD126" s="76"/>
     </row>
     <row r="127">
-      <c r="B127" s="23"/>
+      <c r="A127" s="76" t="s">
+        <v>722</v>
+      </c>
+      <c r="B127" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C127" s="76"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="76"/>
+      <c r="I127" s="76"/>
+      <c r="J127" s="76"/>
+      <c r="K127" s="79"/>
+      <c r="L127" s="79"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="76"/>
+      <c r="O127" s="76"/>
+      <c r="P127" s="76"/>
+      <c r="Q127" s="76"/>
+      <c r="R127" s="76"/>
+      <c r="S127" s="76"/>
+      <c r="T127" s="76"/>
+      <c r="U127" s="76"/>
+      <c r="V127" s="76"/>
+      <c r="W127" s="76"/>
+      <c r="X127" s="76"/>
+      <c r="Y127" s="76"/>
+      <c r="Z127" s="76"/>
+      <c r="AA127" s="76"/>
+      <c r="AB127" s="76"/>
+      <c r="AC127" s="76"/>
+      <c r="AD127" s="76"/>
     </row>
     <row r="128">
-      <c r="B128" s="23"/>
+      <c r="A128" s="76" t="s">
+        <v>723</v>
+      </c>
+      <c r="B128" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C128" s="76"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+      <c r="J128" s="76"/>
+      <c r="K128" s="79"/>
+      <c r="L128" s="79"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="76"/>
+      <c r="O128" s="76"/>
+      <c r="P128" s="76"/>
+      <c r="Q128" s="76"/>
+      <c r="R128" s="76"/>
+      <c r="S128" s="76"/>
+      <c r="T128" s="76"/>
+      <c r="U128" s="76"/>
+      <c r="V128" s="76"/>
+      <c r="W128" s="76"/>
+      <c r="X128" s="76"/>
+      <c r="Y128" s="76"/>
+      <c r="Z128" s="76"/>
+      <c r="AA128" s="76"/>
+      <c r="AB128" s="76"/>
+      <c r="AC128" s="76"/>
+      <c r="AD128" s="76"/>
     </row>
     <row r="129">
-      <c r="B129" s="23"/>
+      <c r="A129" s="76" t="s">
+        <v>724</v>
+      </c>
+      <c r="B129" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="79"/>
+      <c r="L129" s="79"/>
+      <c r="M129" s="76"/>
+      <c r="N129" s="76"/>
+      <c r="O129" s="76"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="76"/>
+      <c r="R129" s="76"/>
+      <c r="S129" s="76"/>
+      <c r="T129" s="76"/>
+      <c r="U129" s="76"/>
+      <c r="V129" s="76"/>
+      <c r="W129" s="76"/>
+      <c r="X129" s="76"/>
+      <c r="Y129" s="76"/>
+      <c r="Z129" s="76"/>
+      <c r="AA129" s="76"/>
+      <c r="AB129" s="76"/>
+      <c r="AC129" s="76"/>
+      <c r="AD129" s="76"/>
     </row>
     <row r="130">
-      <c r="B130" s="23"/>
+      <c r="A130" s="76" t="s">
+        <v>725</v>
+      </c>
+      <c r="B130" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
+      <c r="K130" s="79"/>
+      <c r="L130" s="79"/>
+      <c r="M130" s="76"/>
+      <c r="N130" s="76"/>
+      <c r="O130" s="76"/>
+      <c r="P130" s="76"/>
+      <c r="Q130" s="76"/>
+      <c r="R130" s="76"/>
+      <c r="S130" s="76"/>
+      <c r="T130" s="76"/>
+      <c r="U130" s="76"/>
+      <c r="V130" s="76"/>
+      <c r="W130" s="76"/>
+      <c r="X130" s="76"/>
+      <c r="Y130" s="76"/>
+      <c r="Z130" s="76"/>
+      <c r="AA130" s="76"/>
+      <c r="AB130" s="76"/>
+      <c r="AC130" s="76"/>
+      <c r="AD130" s="76"/>
     </row>
     <row r="131">
-      <c r="B131" s="23"/>
+      <c r="A131" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="B131" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="76"/>
+      <c r="K131" s="79"/>
+      <c r="L131" s="79"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="76"/>
+      <c r="O131" s="76"/>
+      <c r="P131" s="76"/>
+      <c r="Q131" s="76"/>
+      <c r="R131" s="76"/>
+      <c r="S131" s="76"/>
+      <c r="T131" s="76"/>
+      <c r="U131" s="76"/>
+      <c r="V131" s="76"/>
+      <c r="W131" s="76"/>
+      <c r="X131" s="76"/>
+      <c r="Y131" s="76"/>
+      <c r="Z131" s="76"/>
+      <c r="AA131" s="76"/>
+      <c r="AB131" s="76"/>
+      <c r="AC131" s="76"/>
+      <c r="AD131" s="76"/>
     </row>
     <row r="132">
-      <c r="B132" s="23"/>
+      <c r="A132" s="76" t="s">
+        <v>727</v>
+      </c>
+      <c r="B132" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="76"/>
+      <c r="F132" s="76"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
+      <c r="K132" s="79"/>
+      <c r="L132" s="79"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="76"/>
+      <c r="O132" s="76"/>
+      <c r="P132" s="76"/>
+      <c r="Q132" s="76"/>
+      <c r="R132" s="76"/>
+      <c r="S132" s="76"/>
+      <c r="T132" s="76"/>
+      <c r="U132" s="76"/>
+      <c r="V132" s="76"/>
+      <c r="W132" s="76"/>
+      <c r="X132" s="76"/>
+      <c r="Y132" s="76"/>
+      <c r="Z132" s="76"/>
+      <c r="AA132" s="76"/>
+      <c r="AB132" s="76"/>
+      <c r="AC132" s="76"/>
+      <c r="AD132" s="76"/>
     </row>
     <row r="133">
-      <c r="B133" s="23"/>
+      <c r="A133" s="76" t="s">
+        <v>728</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="79"/>
+      <c r="L133" s="79"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="76"/>
+      <c r="O133" s="76"/>
+      <c r="P133" s="76"/>
+      <c r="Q133" s="76"/>
+      <c r="R133" s="76"/>
+      <c r="S133" s="76"/>
+      <c r="T133" s="76"/>
+      <c r="U133" s="76"/>
+      <c r="V133" s="76"/>
+      <c r="W133" s="76"/>
+      <c r="X133" s="76"/>
+      <c r="Y133" s="76"/>
+      <c r="Z133" s="76"/>
+      <c r="AA133" s="76"/>
+      <c r="AB133" s="76"/>
+      <c r="AC133" s="76"/>
+      <c r="AD133" s="76"/>
     </row>
     <row r="134">
-      <c r="B134" s="23"/>
+      <c r="A134" s="76" t="s">
+        <v>729</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>730</v>
+      </c>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="76"/>
+      <c r="K134" s="79"/>
+      <c r="L134" s="79"/>
+      <c r="M134" s="76"/>
+      <c r="N134" s="76"/>
+      <c r="O134" s="76"/>
+      <c r="P134" s="76"/>
+      <c r="Q134" s="76"/>
+      <c r="R134" s="76"/>
+      <c r="S134" s="76"/>
+      <c r="T134" s="76"/>
+      <c r="U134" s="76"/>
+      <c r="V134" s="76"/>
+      <c r="W134" s="76"/>
+      <c r="X134" s="76"/>
+      <c r="Y134" s="76"/>
+      <c r="Z134" s="76"/>
+      <c r="AA134" s="76"/>
+      <c r="AB134" s="76"/>
+      <c r="AC134" s="76"/>
+      <c r="AD134" s="76"/>
     </row>
     <row r="135">
-      <c r="B135" s="23"/>
+      <c r="A135" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>731</v>
+      </c>
+      <c r="C135" s="76"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="76"/>
+      <c r="F135" s="76"/>
+      <c r="G135" s="76"/>
+      <c r="H135" s="76"/>
+      <c r="I135" s="76"/>
+      <c r="J135" s="76"/>
+      <c r="K135" s="79"/>
+      <c r="L135" s="79"/>
+      <c r="M135" s="76"/>
+      <c r="N135" s="76"/>
+      <c r="O135" s="76"/>
+      <c r="P135" s="76"/>
+      <c r="Q135" s="76"/>
+      <c r="R135" s="76"/>
+      <c r="S135" s="76"/>
+      <c r="T135" s="76"/>
+      <c r="U135" s="76"/>
+      <c r="V135" s="76"/>
+      <c r="W135" s="76"/>
+      <c r="X135" s="76"/>
+      <c r="Y135" s="76"/>
+      <c r="Z135" s="76"/>
+      <c r="AA135" s="76"/>
+      <c r="AB135" s="76"/>
+      <c r="AC135" s="76"/>
+      <c r="AD135" s="76"/>
     </row>
     <row r="136">
-      <c r="B136" s="23"/>
+      <c r="A136" s="76" t="s">
+        <v>732</v>
+      </c>
+      <c r="B136" s="76"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
+      <c r="K136" s="79"/>
+      <c r="L136" s="79"/>
+      <c r="M136" s="76"/>
+      <c r="N136" s="76"/>
+      <c r="O136" s="76"/>
+      <c r="P136" s="76"/>
+      <c r="Q136" s="76"/>
+      <c r="R136" s="76"/>
+      <c r="S136" s="76"/>
+      <c r="T136" s="76"/>
+      <c r="U136" s="76"/>
+      <c r="V136" s="76"/>
+      <c r="W136" s="76"/>
+      <c r="X136" s="76"/>
+      <c r="Y136" s="76"/>
+      <c r="Z136" s="76"/>
+      <c r="AA136" s="76"/>
+      <c r="AB136" s="76"/>
+      <c r="AC136" s="76"/>
+      <c r="AD136" s="76"/>
     </row>
     <row r="137">
-      <c r="B137" s="23"/>
+      <c r="A137" s="76" t="s">
+        <v>733</v>
+      </c>
+      <c r="B137" s="76"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="76"/>
+      <c r="I137" s="76"/>
+      <c r="J137" s="76"/>
+      <c r="K137" s="79"/>
+      <c r="L137" s="79"/>
+      <c r="M137" s="76"/>
+      <c r="N137" s="76"/>
+      <c r="O137" s="76"/>
+      <c r="P137" s="76"/>
+      <c r="Q137" s="76"/>
+      <c r="R137" s="76"/>
+      <c r="S137" s="76"/>
+      <c r="T137" s="76"/>
+      <c r="U137" s="76"/>
+      <c r="V137" s="76"/>
+      <c r="W137" s="76"/>
+      <c r="X137" s="76"/>
+      <c r="Y137" s="76"/>
+      <c r="Z137" s="76"/>
+      <c r="AA137" s="76"/>
+      <c r="AB137" s="76"/>
+      <c r="AC137" s="76"/>
+      <c r="AD137" s="76"/>
     </row>
     <row r="138">
-      <c r="B138" s="23"/>
+      <c r="A138" s="76" t="s">
+        <v>734</v>
+      </c>
+      <c r="B138" s="76"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="76"/>
+      <c r="I138" s="76"/>
+      <c r="J138" s="76"/>
+      <c r="K138" s="79"/>
+      <c r="L138" s="79"/>
+      <c r="M138" s="76"/>
+      <c r="N138" s="76"/>
+      <c r="O138" s="76"/>
+      <c r="P138" s="76"/>
+      <c r="Q138" s="76"/>
+      <c r="R138" s="76"/>
+      <c r="S138" s="76"/>
+      <c r="T138" s="76"/>
+      <c r="U138" s="76"/>
+      <c r="V138" s="76"/>
+      <c r="W138" s="76"/>
+      <c r="X138" s="76"/>
+      <c r="Y138" s="76"/>
+      <c r="Z138" s="76"/>
+      <c r="AA138" s="76"/>
+      <c r="AB138" s="76"/>
+      <c r="AC138" s="76"/>
+      <c r="AD138" s="76"/>
     </row>
     <row r="139">
-      <c r="B139" s="23"/>
+      <c r="A139" s="76" t="s">
+        <v>735</v>
+      </c>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="79"/>
+      <c r="L139" s="79"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="76"/>
+      <c r="O139" s="76"/>
+      <c r="P139" s="76"/>
+      <c r="Q139" s="76"/>
+      <c r="R139" s="76"/>
+      <c r="S139" s="76"/>
+      <c r="T139" s="76"/>
+      <c r="U139" s="76"/>
+      <c r="V139" s="76"/>
+      <c r="W139" s="76"/>
+      <c r="X139" s="76"/>
+      <c r="Y139" s="76"/>
+      <c r="Z139" s="76"/>
+      <c r="AA139" s="76"/>
+      <c r="AB139" s="76"/>
+      <c r="AC139" s="76"/>
+      <c r="AD139" s="76"/>
     </row>
     <row r="140">
-      <c r="B140" s="23"/>
+      <c r="A140" s="76" t="s">
+        <v>736</v>
+      </c>
+      <c r="B140" s="76"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="76"/>
+      <c r="K140" s="79"/>
+      <c r="L140" s="79"/>
+      <c r="M140" s="76"/>
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="76"/>
+      <c r="Q140" s="76"/>
+      <c r="R140" s="76"/>
+      <c r="S140" s="76"/>
+      <c r="T140" s="76"/>
+      <c r="U140" s="76"/>
+      <c r="V140" s="76"/>
+      <c r="W140" s="76"/>
+      <c r="X140" s="76"/>
+      <c r="Y140" s="76"/>
+      <c r="Z140" s="76"/>
+      <c r="AA140" s="76"/>
+      <c r="AB140" s="76"/>
+      <c r="AC140" s="76"/>
+      <c r="AD140" s="76"/>
     </row>
     <row r="141">
-      <c r="B141" s="23"/>
+      <c r="A141" s="76"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="79"/>
+      <c r="L141" s="79"/>
+      <c r="M141" s="76"/>
+      <c r="N141" s="76"/>
+      <c r="O141" s="76"/>
+      <c r="P141" s="76"/>
+      <c r="Q141" s="76"/>
+      <c r="R141" s="76"/>
+      <c r="S141" s="76"/>
+      <c r="T141" s="76"/>
+      <c r="U141" s="76"/>
+      <c r="V141" s="76"/>
+      <c r="W141" s="76"/>
+      <c r="X141" s="76"/>
+      <c r="Y141" s="76"/>
+      <c r="Z141" s="76"/>
+      <c r="AA141" s="76"/>
+      <c r="AB141" s="76"/>
+      <c r="AC141" s="76"/>
+      <c r="AD141" s="76"/>
     </row>
     <row r="142">
-      <c r="B142" s="23"/>
+      <c r="A142" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="B142" s="76"/>
+      <c r="C142" s="76" t="s">
+        <v>738</v>
+      </c>
+      <c r="D142" s="76"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="76"/>
+      <c r="J142" s="76"/>
+      <c r="K142" s="79"/>
+      <c r="L142" s="79"/>
+      <c r="M142" s="76"/>
+      <c r="N142" s="76"/>
+      <c r="O142" s="76"/>
+      <c r="P142" s="76"/>
+      <c r="Q142" s="76"/>
+      <c r="R142" s="76"/>
+      <c r="S142" s="76"/>
+      <c r="T142" s="76"/>
+      <c r="U142" s="76"/>
+      <c r="V142" s="76"/>
+      <c r="W142" s="76"/>
+      <c r="X142" s="76"/>
+      <c r="Y142" s="76"/>
+      <c r="Z142" s="76"/>
+      <c r="AA142" s="76"/>
+      <c r="AB142" s="76"/>
+      <c r="AC142" s="76"/>
+      <c r="AD142" s="76"/>
     </row>
     <row r="143">
       <c r="B143" s="23"/>
@@ -24690,8 +25813,9 @@
     <hyperlink r:id="rId63" ref="O82"/>
     <hyperlink r:id="rId64" ref="O84"/>
     <hyperlink r:id="rId65" ref="O85"/>
+    <hyperlink r:id="rId66" ref="J86"/>
   </hyperlinks>
-  <drawing r:id="rId66"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -24763,13 +25887,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -24812,16 +25936,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>699</v>
+        <v>742</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -24875,16 +25999,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>81</v>
@@ -24893,7 +26017,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="17" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -24904,7 +26028,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>63</v>
@@ -24928,16 +26052,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>81</v>
@@ -24955,7 +26079,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="O6" s="68" t="s">
         <v>63</v>
@@ -24979,16 +26103,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>81</v>
@@ -25006,7 +26130,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="O7" s="68" t="s">
         <v>63</v>
@@ -25030,16 +26154,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>81</v>
@@ -25057,7 +26181,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>63</v>
@@ -25081,16 +26205,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>81</v>
@@ -25164,17 +26288,17 @@
       <c r="AE10" s="76"/>
     </row>
     <row r="11">
-      <c r="A11" s="112" t="s">
-        <v>721</v>
+      <c r="A11" s="113" t="s">
+        <v>764</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -25184,7 +26308,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="K11" s="76"/>
       <c r="L11" s="76"/>
@@ -25211,17 +26335,17 @@
       <c r="AE11" s="76"/>
     </row>
     <row r="12">
-      <c r="A12" s="113" t="s">
-        <v>725</v>
+      <c r="A12" s="114" t="s">
+        <v>768</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -25257,16 +26381,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -25310,31 +26434,31 @@
       <c r="B14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="112" t="s">
-        <v>731</v>
+      <c r="A15" s="113" t="s">
+        <v>774</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="91" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="91" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="K15" s="76"/>
       <c r="L15" s="76"/>
@@ -28070,13 +29194,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>104</v>
@@ -28089,7 +29213,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -28123,13 +29247,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -28140,7 +29264,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="K3" s="67">
         <v>45396.0</v>
@@ -28172,13 +29296,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -28189,7 +29313,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
       <c r="K4" s="67">
         <v>45396.0</v>
@@ -28221,13 +29345,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -28238,7 +29362,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>752</v>
+        <v>795</v>
       </c>
       <c r="K5" s="67">
         <v>45396.0</v>
@@ -28270,13 +29394,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>755</v>
+        <v>798</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -28287,7 +29411,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="K6" s="67">
         <v>45396.0</v>
@@ -28319,13 +29443,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>759</v>
+        <v>802</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -28336,7 +29460,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>760</v>
+        <v>803</v>
       </c>
       <c r="K7" s="67">
         <v>45396.0</v>
@@ -28368,13 +29492,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -28385,7 +29509,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="K8" s="67">
         <v>45396.0</v>
@@ -28417,13 +29541,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -28434,7 +29558,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="K9" s="67">
         <v>45396.0</v>
@@ -28466,13 +29590,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>769</v>
+        <v>812</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -28483,7 +29607,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>772</v>
+        <v>815</v>
       </c>
       <c r="K10" s="67">
         <v>45396.0</v>
@@ -28515,13 +29639,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>774</v>
+        <v>817</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>775</v>
+        <v>818</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -28532,7 +29656,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
       <c r="K11" s="67">
         <v>45396.0</v>
@@ -28564,13 +29688,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -28581,7 +29705,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
       <c r="K12" s="67">
         <v>45396.0</v>
@@ -28920,7 +30044,7 @@
       <c r="B52" s="22"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="O52" s="114"/>
+      <c r="O52" s="115"/>
     </row>
     <row r="53">
       <c r="B53" s="18"/>
@@ -28938,8 +30062,8 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
       <c r="F56" s="66"/>
@@ -28947,7 +30071,7 @@
       <c r="H56" s="66"/>
       <c r="I56" s="63"/>
       <c r="K56" s="67"/>
-      <c r="L56" s="117"/>
+      <c r="L56" s="118"/>
       <c r="M56" s="63"/>
       <c r="N56" s="28"/>
       <c r="O56" s="63"/>
@@ -29097,7 +30221,7 @@
     <row r="71">
       <c r="A71" s="103"/>
       <c r="B71" s="104"/>
-      <c r="C71" s="118"/>
+      <c r="C71" s="119"/>
       <c r="D71" s="103"/>
       <c r="F71" s="106"/>
       <c r="G71" s="104"/>
@@ -29126,9 +30250,9 @@
       <c r="AE71" s="76"/>
     </row>
     <row r="72">
-      <c r="A72" s="113"/>
+      <c r="A72" s="114"/>
       <c r="B72" s="23"/>
-      <c r="D72" s="113"/>
+      <c r="D72" s="114"/>
     </row>
     <row r="73">
       <c r="A73" s="77"/>
@@ -29139,7 +30263,7 @@
       <c r="G73" s="76"/>
       <c r="H73" s="76"/>
       <c r="I73" s="76"/>
-      <c r="J73" s="119"/>
+      <c r="J73" s="120"/>
       <c r="K73" s="76"/>
       <c r="L73" s="76"/>
       <c r="N73" s="76"/>
@@ -29165,9 +30289,9 @@
       <c r="N74" s="111"/>
     </row>
     <row r="75">
-      <c r="A75" s="113"/>
+      <c r="A75" s="114"/>
       <c r="B75" s="23"/>
-      <c r="D75" s="113"/>
+      <c r="D75" s="114"/>
     </row>
     <row r="76">
       <c r="B76" s="23"/>
@@ -29210,9 +30334,9 @@
       <c r="AE78" s="76"/>
     </row>
     <row r="79">
-      <c r="A79" s="113"/>
+      <c r="A79" s="114"/>
       <c r="B79" s="23"/>
-      <c r="D79" s="113"/>
+      <c r="D79" s="114"/>
     </row>
     <row r="80">
       <c r="B80" s="23"/>
@@ -29440,9 +30564,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90">
-      <c r="A90" s="113"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="23"/>
-      <c r="D90" s="113"/>
+      <c r="D90" s="114"/>
     </row>
     <row r="91">
       <c r="B91" s="23"/>
@@ -32183,13 +33307,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>782</v>
+        <v>825</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -32199,7 +33323,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -32232,13 +33356,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>786</v>
+        <v>829</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -32279,13 +33403,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>787</v>
+        <v>830</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>788</v>
+        <v>831</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -32295,7 +33419,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20">
@@ -32328,13 +33452,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -32344,7 +33468,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="90" t="s">
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -32377,13 +33501,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>795</v>
+        <v>838</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>797</v>
+        <v>840</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -32393,7 +33517,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20">
@@ -32426,13 +33550,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -32442,7 +33566,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>802</v>
+        <v>845</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20">
@@ -32475,13 +33599,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>804</v>
+        <v>847</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -32491,7 +33615,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17" t="s">
-        <v>806</v>
+        <v>849</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20">
@@ -32524,13 +33648,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>807</v>
+        <v>850</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>809</v>
+        <v>852</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -32571,13 +33695,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>810</v>
+        <v>853</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>811</v>
+        <v>854</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>812</v>
+        <v>855</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -32618,13 +33742,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>813</v>
+        <v>856</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>815</v>
+        <v>858</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -32665,13 +33789,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>816</v>
+        <v>859</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -32712,13 +33836,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>821</v>
+        <v>864</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
@@ -32759,13 +33883,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>823</v>
+        <v>866</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>824</v>
+        <v>867</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">
@@ -33113,7 +34237,7 @@
       <c r="B54" s="22"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-      <c r="O54" s="114"/>
+      <c r="O54" s="115"/>
     </row>
     <row r="55">
       <c r="B55" s="18"/>
@@ -33131,8 +34255,8 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
       <c r="F58" s="66"/>
@@ -33140,7 +34264,7 @@
       <c r="H58" s="66"/>
       <c r="I58" s="63"/>
       <c r="K58" s="67"/>
-      <c r="L58" s="117"/>
+      <c r="L58" s="118"/>
       <c r="M58" s="63"/>
       <c r="N58" s="28"/>
       <c r="O58" s="63"/>
@@ -33290,7 +34414,7 @@
     <row r="73">
       <c r="A73" s="103"/>
       <c r="B73" s="104"/>
-      <c r="C73" s="118"/>
+      <c r="C73" s="119"/>
       <c r="D73" s="103"/>
       <c r="F73" s="106"/>
       <c r="G73" s="104"/>
@@ -33319,9 +34443,9 @@
       <c r="AE73" s="76"/>
     </row>
     <row r="74">
-      <c r="A74" s="113"/>
+      <c r="A74" s="114"/>
       <c r="B74" s="23"/>
-      <c r="D74" s="113"/>
+      <c r="D74" s="114"/>
     </row>
     <row r="75">
       <c r="A75" s="77"/>
@@ -33332,7 +34456,7 @@
       <c r="G75" s="76"/>
       <c r="H75" s="76"/>
       <c r="I75" s="76"/>
-      <c r="J75" s="119"/>
+      <c r="J75" s="120"/>
       <c r="K75" s="76"/>
       <c r="L75" s="76"/>
       <c r="N75" s="76"/>
@@ -33358,9 +34482,9 @@
       <c r="N76" s="111"/>
     </row>
     <row r="77">
-      <c r="A77" s="113"/>
+      <c r="A77" s="114"/>
       <c r="B77" s="23"/>
-      <c r="D77" s="113"/>
+      <c r="D77" s="114"/>
     </row>
     <row r="78">
       <c r="B78" s="23"/>
@@ -33403,9 +34527,9 @@
       <c r="AE80" s="76"/>
     </row>
     <row r="81">
-      <c r="A81" s="113"/>
+      <c r="A81" s="114"/>
       <c r="B81" s="23"/>
-      <c r="D81" s="113"/>
+      <c r="D81" s="114"/>
     </row>
     <row r="82">
       <c r="B82" s="23"/>
@@ -33633,9 +34757,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92">
-      <c r="A92" s="113"/>
+      <c r="A92" s="114"/>
       <c r="B92" s="23"/>
-      <c r="D92" s="113"/>
+      <c r="D92" s="114"/>
     </row>
     <row r="93">
       <c r="B93" s="23"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -33331,7 +33331,7 @@
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>53</v>
@@ -33350,9 +33350,6 @@
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
@@ -33378,7 +33375,7 @@
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>53</v>
@@ -33397,9 +33394,6 @@
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
@@ -33427,7 +33421,7 @@
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>53</v>
@@ -33435,20 +33429,6 @@
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
@@ -33476,7 +33456,7 @@
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>53</v>
@@ -33484,20 +33464,6 @@
       <c r="O5" s="30"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
@@ -33525,7 +33491,7 @@
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>53</v>
@@ -33533,20 +33499,6 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
@@ -33574,7 +33526,7 @@
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>53</v>
@@ -33582,20 +33534,6 @@
       <c r="O7" s="30"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
@@ -33623,7 +33561,7 @@
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>53</v>
@@ -33631,20 +33569,6 @@
       <c r="O8" s="30"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
@@ -33670,7 +33594,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>53</v>
@@ -33678,20 +33602,6 @@
       <c r="O9" s="30"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
@@ -33717,7 +33627,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>53</v>
@@ -33725,20 +33635,6 @@
       <c r="O10" s="30"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
@@ -33764,7 +33660,7 @@
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>53</v>
@@ -33772,20 +33668,6 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
@@ -33811,7 +33693,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>53</v>
@@ -33819,20 +33701,6 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
@@ -33858,7 +33726,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>53</v>
@@ -33866,20 +33734,6 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
@@ -33905,7 +33759,7 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="17" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>53</v>
@@ -33913,20 +33767,6 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
     </row>
     <row r="15">
       <c r="B15" s="22"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -2067,7 +2067,7 @@
     <t>Records of Processing Activities</t>
   </si>
   <si>
-    <t>A Register of Processing Activities (ROPA) is a document detailing processing activities</t>
+    <t>A Record of Processing Activities (ROPA) is a document detailing processing activities</t>
   </si>
   <si>
     <r>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="869">
   <si>
     <t>Term</t>
   </si>
@@ -1619,7 +1619,7 @@
     <t>RecertificationPolicy</t>
   </si>
   <si>
-    <t>Re-certification Policy</t>
+    <t>Recertification Policy</t>
   </si>
   <si>
     <t>Policy regarding repetition or renewal of existing certification(s)</t>
@@ -1866,6 +1866,9 @@
     <t>GuidelinesPrinciple</t>
   </si>
   <si>
+    <t>Guidelines Principle</t>
+  </si>
+  <si>
     <t>Guidelines or Principles regarding processing and operational measures</t>
   </si>
   <si>
@@ -2034,7 +2037,7 @@
     <t>Records of Activities</t>
   </si>
   <si>
-    <t>Records of activities within some context such as maintainence tasks or governance functions</t>
+    <t>Records of activities within some context such as maintenance tasks or governance functions</t>
   </si>
   <si>
     <t xml:space="preserve">Records can be any information associated with the activity e.g. logs, summaries. </t>
@@ -2335,7 +2338,7 @@
     <t>Permission Management</t>
   </si>
   <si>
-    <t>Methods to obtain, provide, modify, and withdraw permissions alongwith maintaining a record of permissions, retrieving records, and processing changes in permission states</t>
+    <t>Methods to obtain, provide, modify, and withdraw permissions along with maintaining a record of permissions, retrieving records, and processing changes in permission states</t>
   </si>
   <si>
     <t>Permission is a broader concept than '(Informed) Consent' as consent when used as a legal basis has specific requirements to be valid. For management of consent, see the concept dpv:ConsentManagement</t>
@@ -2350,7 +2353,7 @@
     <t>Consent Management</t>
   </si>
   <si>
-    <t>Methods to obtain, provide, modify, and withdraw consent alongwith maintaining a record of consent, retrieving records, and processing changes in consent states</t>
+    <t>Methods to obtain, provide, modify, and withdraw consent along with maintaining a record of consent, retrieving records, and processing changes in consent states</t>
   </si>
   <si>
     <t>dpv:PermissionManagement</t>
@@ -2437,7 +2440,7 @@
     <t>Data Interoperability Management</t>
   </si>
   <si>
-    <t>Measures associated with management of data interoperablity</t>
+    <t>Measures associated with management of data interoperability</t>
   </si>
   <si>
     <t>DataInteroperabilityAssessment</t>
@@ -2491,7 +2494,7 @@
     <t>Support Exchange of Views</t>
   </si>
   <si>
-    <t>Supporting inviduals and entities in exchanging views e.g. regarding data processing purposes for their best interests</t>
+    <t>Supporting individuals and entities in exchanging views e.g. regarding data processing purposes for their best interests</t>
   </si>
   <si>
     <t>dpv:SupportEntityDecisionMaking</t>
@@ -19143,11 +19146,11 @@
       <c r="A44" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>490</v>
+      <c r="B44" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="17" t="s">
@@ -19191,16 +19194,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>58</v>
@@ -19243,16 +19246,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>495</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>58</v>
@@ -19295,16 +19298,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19349,16 +19352,16 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>58</v>
@@ -19401,16 +19404,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>58</v>
@@ -19451,16 +19454,16 @@
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>58</v>
@@ -19501,13 +19504,13 @@
     </row>
     <row r="52">
       <c r="A52" s="92" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="17" t="s">
@@ -19517,7 +19520,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="20">
@@ -19553,13 +19556,13 @@
     </row>
     <row r="53">
       <c r="A53" s="63" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D53" s="63" t="s">
         <v>74</v>
@@ -19580,7 +19583,7 @@
         <v>20</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O53" s="68" t="s">
         <v>347</v>
@@ -19605,16 +19608,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -19657,13 +19660,13 @@
     </row>
     <row r="55">
       <c r="A55" s="74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D55" s="77" t="s">
         <v>74</v>
@@ -19707,16 +19710,16 @@
     </row>
     <row r="56">
       <c r="A56" s="82" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E56" s="84" t="s">
         <v>58</v>
@@ -19726,7 +19729,7 @@
       <c r="H56" s="85"/>
       <c r="I56" s="85"/>
       <c r="J56" s="95" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K56" s="78">
         <v>45396.0</v>
@@ -19736,7 +19739,7 @@
         <v>20</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O56" s="86"/>
       <c r="P56" s="85"/>
@@ -19759,13 +19762,13 @@
     </row>
     <row r="57">
       <c r="A57" s="77" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D57" s="77" t="s">
         <v>74</v>
@@ -19778,7 +19781,7 @@
       <c r="H57" s="76"/>
       <c r="I57" s="76"/>
       <c r="J57" s="76" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K57" s="78">
         <v>45396.0</v>
@@ -19788,7 +19791,7 @@
         <v>20</v>
       </c>
       <c r="N57" s="28" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
@@ -19822,13 +19825,13 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
@@ -19838,7 +19841,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J59" s="19"/>
       <c r="K59" s="78">
@@ -19872,16 +19875,16 @@
     </row>
     <row r="60">
       <c r="A60" s="77" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B60" s="77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>58</v>
@@ -19922,16 +19925,16 @@
     </row>
     <row r="61">
       <c r="A61" s="80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E61" s="84" t="s">
         <v>58</v>
@@ -19941,7 +19944,7 @@
       <c r="H61" s="85"/>
       <c r="I61" s="85"/>
       <c r="J61" s="95" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K61" s="78">
         <v>45396.0</v>
@@ -19985,13 +19988,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
@@ -20001,7 +20004,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="17" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J63" s="19"/>
       <c r="K63" s="20">
@@ -20039,13 +20042,13 @@
     </row>
     <row r="64">
       <c r="A64" s="17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>97</v>
@@ -20091,16 +20094,16 @@
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>58</v>
@@ -20143,16 +20146,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>556</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>555</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>58</v>
@@ -20161,7 +20164,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="20">
@@ -20199,13 +20202,13 @@
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>97</v>
@@ -20249,13 +20252,13 @@
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>97</v>
@@ -20299,16 +20302,16 @@
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>58</v>
@@ -20361,13 +20364,13 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="17" t="s">
@@ -20411,16 +20414,16 @@
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>58</v>
@@ -20463,16 +20466,16 @@
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>578</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>575</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="C73" s="72" t="s">
-        <v>577</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>574</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>58</v>
@@ -20515,16 +20518,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -20565,16 +20568,16 @@
     </row>
     <row r="75">
       <c r="A75" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C75" s="72" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
@@ -20628,13 +20631,13 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="17" t="s">
@@ -20678,16 +20681,16 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>58</v>
@@ -20697,7 +20700,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="31" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K78" s="20">
         <v>44790.0</v>
@@ -20732,16 +20735,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -20786,16 +20789,16 @@
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>58</v>
@@ -20840,16 +20843,16 @@
     </row>
     <row r="81">
       <c r="A81" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>58</v>
@@ -20859,7 +20862,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="31" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K81" s="20">
         <v>44790.0</v>
@@ -20894,16 +20897,16 @@
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>58</v>
@@ -20955,13 +20958,13 @@
     </row>
     <row r="84">
       <c r="A84" s="99" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="52" t="s">
@@ -20971,7 +20974,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="52" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="14">
@@ -20982,7 +20985,7 @@
         <v>20</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O84" s="53" t="s">
         <v>347</v>
@@ -21007,16 +21010,16 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E85" s="52" t="s">
         <v>58</v>
@@ -21034,7 +21037,7 @@
         <v>20</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O85" s="53" t="s">
         <v>347</v>
@@ -21059,16 +21062,16 @@
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>613</v>
       </c>
       <c r="E86" s="52" t="s">
         <v>58</v>
@@ -21078,7 +21081,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="31" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K86" s="20">
         <v>45429.0</v>
@@ -21117,13 +21120,13 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="17" t="s">
@@ -21142,7 +21145,7 @@
         <v>20</v>
       </c>
       <c r="N88" s="74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O88" s="30"/>
       <c r="P88" s="19"/>
@@ -21165,16 +21168,16 @@
     </row>
     <row r="89">
       <c r="A89" s="100" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C89" s="75" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D89" s="100" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>58</v>
@@ -21183,10 +21186,10 @@
       <c r="G89" s="91"/>
       <c r="H89" s="76"/>
       <c r="I89" s="74" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J89" s="91" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K89" s="78">
         <v>45396.0</v>
@@ -21196,7 +21199,7 @@
         <v>20</v>
       </c>
       <c r="N89" s="74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O89" s="76"/>
       <c r="P89" s="76"/>
@@ -21219,16 +21222,16 @@
     </row>
     <row r="90">
       <c r="A90" s="83" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C90" s="101" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D90" s="100" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21238,7 +21241,7 @@
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
       <c r="J90" s="91" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K90" s="78">
         <v>45396.0</v>
@@ -21248,7 +21251,7 @@
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O90" s="76"/>
       <c r="P90" s="76"/>
@@ -21271,16 +21274,16 @@
     </row>
     <row r="91">
       <c r="A91" s="73" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C91" s="102" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D91" s="100" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21289,10 +21292,10 @@
       <c r="G91" s="91"/>
       <c r="H91" s="76"/>
       <c r="I91" s="74" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J91" s="91" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K91" s="78">
         <v>45396.0</v>
@@ -21302,7 +21305,7 @@
         <v>20</v>
       </c>
       <c r="N91" s="74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O91" s="76"/>
       <c r="P91" s="76"/>
@@ -21325,16 +21328,16 @@
     </row>
     <row r="92">
       <c r="A92" s="103" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B92" s="104" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C92" s="102" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D92" s="105" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21344,7 +21347,7 @@
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
       <c r="J92" s="104" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K92" s="107">
         <v>45396.0</v>
@@ -21354,7 +21357,7 @@
         <v>20</v>
       </c>
       <c r="N92" s="74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O92" s="106"/>
       <c r="P92" s="106"/>
@@ -21377,16 +21380,16 @@
     </row>
     <row r="94">
       <c r="A94" s="99" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C94" s="108" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>58</v>
@@ -21427,16 +21430,16 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>58</v>
@@ -21445,7 +21448,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="52" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="36">
@@ -21479,16 +21482,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>58</v>
@@ -21529,16 +21532,16 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>58</v>
@@ -21579,16 +21582,16 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>58</v>
@@ -21629,16 +21632,16 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>58</v>
@@ -21647,7 +21650,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="52" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="36">
@@ -21681,16 +21684,16 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -21731,16 +21734,16 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -21781,16 +21784,16 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -21833,16 +21836,16 @@
     </row>
     <row r="103">
       <c r="A103" s="17" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
@@ -21887,13 +21890,13 @@
     </row>
     <row r="105">
       <c r="A105" s="99" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C105" s="70" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="17" t="s">
@@ -21904,7 +21907,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K105" s="36">
         <v>45396.0</v>
@@ -21937,16 +21940,16 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="C106" s="70" t="s">
         <v>686</v>
       </c>
+      <c r="C106" s="108" t="s">
+        <v>687</v>
+      </c>
       <c r="D106" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -21956,7 +21959,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -21989,16 +21992,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>688</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="C107" s="70" t="s">
-        <v>690</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>687</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22008,7 +22011,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -22041,16 +22044,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C108" s="70" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -22060,7 +22063,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K108" s="36">
         <v>45396.0</v>
@@ -22125,13 +22128,13 @@
     </row>
     <row r="111">
       <c r="A111" s="76" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C111" s="96" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D111" s="76"/>
       <c r="E111" s="17" t="s">
@@ -22145,7 +22148,7 @@
       <c r="K111" s="76"/>
       <c r="L111" s="76"/>
       <c r="M111" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
@@ -22167,11 +22170,11 @@
     </row>
     <row r="112">
       <c r="A112" s="80" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B112" s="86"/>
       <c r="C112" s="82" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D112" s="110" t="s">
         <v>51</v>
@@ -22189,7 +22192,7 @@
       </c>
       <c r="L112" s="87"/>
       <c r="M112" s="74" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N112" s="82" t="s">
         <v>211</v>
@@ -22219,13 +22222,13 @@
     </row>
     <row r="114">
       <c r="A114" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="84" t="s">
@@ -22267,16 +22270,16 @@
     </row>
     <row r="115">
       <c r="A115" s="17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E115" s="84" t="s">
         <v>58</v>
@@ -22317,16 +22320,16 @@
     </row>
     <row r="116">
       <c r="A116" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>707</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>706</v>
       </c>
       <c r="E116" s="84" t="s">
         <v>58</v>
@@ -22367,7 +22370,7 @@
     </row>
     <row r="119">
       <c r="A119" s="112" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B119" s="76"/>
       <c r="C119" s="76"/>
@@ -22404,10 +22407,10 @@
         <v>407</v>
       </c>
       <c r="B120" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C120" s="76" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D120" s="76"/>
       <c r="E120" s="76"/>
@@ -22439,16 +22442,16 @@
     </row>
     <row r="121">
       <c r="A121" s="76" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B121" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C121" s="76" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D121" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E121" s="76"/>
       <c r="F121" s="76"/>
@@ -22479,13 +22482,13 @@
     </row>
     <row r="122">
       <c r="A122" s="76" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B122" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C122" s="76" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D122" s="76"/>
       <c r="E122" s="76"/>
@@ -22517,13 +22520,13 @@
     </row>
     <row r="123">
       <c r="A123" s="76" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C123" s="76" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
@@ -22555,10 +22558,10 @@
     </row>
     <row r="124">
       <c r="A124" s="76" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C124" s="76"/>
       <c r="D124" s="76"/>
@@ -22591,10 +22594,10 @@
     </row>
     <row r="125">
       <c r="A125" s="76" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B125" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C125" s="76"/>
       <c r="D125" s="76"/>
@@ -22627,10 +22630,10 @@
     </row>
     <row r="126">
       <c r="A126" s="76" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C126" s="76"/>
       <c r="D126" s="76"/>
@@ -22663,10 +22666,10 @@
     </row>
     <row r="127">
       <c r="A127" s="76" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B127" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C127" s="76"/>
       <c r="D127" s="76"/>
@@ -22699,10 +22702,10 @@
     </row>
     <row r="128">
       <c r="A128" s="76" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C128" s="76"/>
       <c r="D128" s="76"/>
@@ -22735,10 +22738,10 @@
     </row>
     <row r="129">
       <c r="A129" s="76" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C129" s="76"/>
       <c r="D129" s="76"/>
@@ -22771,10 +22774,10 @@
     </row>
     <row r="130">
       <c r="A130" s="76" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C130" s="76"/>
       <c r="D130" s="76"/>
@@ -22807,10 +22810,10 @@
     </row>
     <row r="131">
       <c r="A131" s="76" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C131" s="76"/>
       <c r="D131" s="76"/>
@@ -22843,10 +22846,10 @@
     </row>
     <row r="132">
       <c r="A132" s="76" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C132" s="76"/>
       <c r="D132" s="76"/>
@@ -22879,10 +22882,10 @@
     </row>
     <row r="133">
       <c r="A133" s="76" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C133" s="76"/>
       <c r="D133" s="76"/>
@@ -22915,10 +22918,10 @@
     </row>
     <row r="134">
       <c r="A134" s="76" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C134" s="76"/>
       <c r="D134" s="76"/>
@@ -22954,7 +22957,7 @@
         <v>36</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C135" s="76"/>
       <c r="D135" s="76"/>
@@ -22987,7 +22990,7 @@
     </row>
     <row r="136">
       <c r="A136" s="76" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B136" s="76"/>
       <c r="C136" s="76"/>
@@ -23021,7 +23024,7 @@
     </row>
     <row r="137">
       <c r="A137" s="76" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B137" s="76"/>
       <c r="C137" s="76"/>
@@ -23055,7 +23058,7 @@
     </row>
     <row r="138">
       <c r="A138" s="76" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B138" s="76"/>
       <c r="C138" s="76"/>
@@ -23089,7 +23092,7 @@
     </row>
     <row r="139">
       <c r="A139" s="76" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B139" s="76"/>
       <c r="C139" s="76"/>
@@ -23123,7 +23126,7 @@
     </row>
     <row r="140">
       <c r="A140" s="76" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B140" s="76"/>
       <c r="C140" s="76"/>
@@ -23189,11 +23192,11 @@
     </row>
     <row r="142">
       <c r="A142" s="76" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B142" s="76"/>
       <c r="C142" s="76" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D142" s="76"/>
       <c r="E142" s="76"/>
@@ -25887,13 +25890,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -25936,16 +25939,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -25999,16 +26002,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>746</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>747</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>745</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>81</v>
@@ -26017,7 +26020,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -26028,7 +26031,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>63</v>
@@ -26052,16 +26055,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>81</v>
@@ -26079,7 +26082,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O6" s="68" t="s">
         <v>63</v>
@@ -26103,16 +26106,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>755</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>754</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>81</v>
@@ -26130,7 +26133,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O7" s="68" t="s">
         <v>63</v>
@@ -26154,16 +26157,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>81</v>
@@ -26181,7 +26184,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>63</v>
@@ -26205,16 +26208,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>81</v>
@@ -26289,16 +26292,16 @@
     </row>
     <row r="11">
       <c r="A11" s="113" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -26308,7 +26311,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K11" s="76"/>
       <c r="L11" s="76"/>
@@ -26336,16 +26339,16 @@
     </row>
     <row r="12">
       <c r="A12" s="114" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -26381,16 +26384,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -26435,30 +26438,30 @@
     </row>
     <row r="15">
       <c r="A15" s="113" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="91" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="91" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K15" s="76"/>
       <c r="L15" s="76"/>
@@ -29194,13 +29197,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>104</v>
@@ -29213,7 +29216,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -29247,13 +29250,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -29264,7 +29267,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K3" s="67">
         <v>45396.0</v>
@@ -29296,13 +29299,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -29313,7 +29316,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K4" s="67">
         <v>45396.0</v>
@@ -29345,13 +29348,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -29362,7 +29365,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K5" s="67">
         <v>45396.0</v>
@@ -29394,13 +29397,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -29411,7 +29414,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K6" s="67">
         <v>45396.0</v>
@@ -29443,13 +29446,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -29460,7 +29463,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K7" s="67">
         <v>45396.0</v>
@@ -29492,13 +29495,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -29509,7 +29512,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="K8" s="67">
         <v>45396.0</v>
@@ -29541,13 +29544,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -29558,7 +29561,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K9" s="67">
         <v>45396.0</v>
@@ -29590,13 +29593,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -29607,7 +29610,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K10" s="67">
         <v>45396.0</v>
@@ -29639,13 +29642,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -29656,7 +29659,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="K11" s="67">
         <v>45396.0</v>
@@ -29688,13 +29691,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -29705,7 +29708,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="K12" s="67">
         <v>45396.0</v>
@@ -33307,13 +33310,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -33323,7 +33326,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -33331,7 +33334,7 @@
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>53</v>
@@ -33353,13 +33356,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -33375,7 +33378,7 @@
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>53</v>
@@ -33397,13 +33400,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -33413,7 +33416,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20">
@@ -33421,7 +33424,7 @@
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>53</v>
@@ -33432,13 +33435,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -33448,7 +33451,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="90" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -33456,7 +33459,7 @@
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>53</v>
@@ -33467,13 +33470,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -33483,7 +33486,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20">
@@ -33491,7 +33494,7 @@
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>53</v>
@@ -33502,13 +33505,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -33518,7 +33521,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20">
@@ -33526,7 +33529,7 @@
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>53</v>
@@ -33537,13 +33540,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -33553,7 +33556,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20">
@@ -33561,7 +33564,7 @@
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>53</v>
@@ -33572,13 +33575,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -33594,7 +33597,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>53</v>
@@ -33605,13 +33608,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -33627,7 +33630,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>53</v>
@@ -33638,13 +33641,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -33660,7 +33663,7 @@
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>53</v>
@@ -33671,13 +33674,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -33693,7 +33696,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>53</v>
@@ -33704,13 +33707,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
@@ -33726,7 +33729,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>53</v>
@@ -33737,13 +33740,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">
@@ -33759,7 +33762,7 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>53</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="867">
   <si>
     <t>Term</t>
   </si>
@@ -795,9 +795,6 @@
       </rPr>
       <t>https://nvlpubs.nist.gov/nistpubs/ir/2015/NIST.IR.8053.pdf)</t>
     </r>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
   <si>
     <t>Anonymisation</t>
@@ -1917,9 +1914,6 @@
     <t>Practices that specify how activities must be conducted</t>
   </si>
   <si>
-    <t>Princple</t>
-  </si>
-  <si>
     <t>Principle</t>
   </si>
   <si>
@@ -1968,7 +1962,7 @@
     <t>A notice providing information about security incident(s)</t>
   </si>
   <si>
-    <t>DataBreachNotifice</t>
+    <t>DataBreachNotice</t>
   </si>
   <si>
     <t>Data Breach Notice</t>
@@ -12554,8 +12548,8 @@
       <c r="L42" s="20">
         <v>44889.0</v>
       </c>
-      <c r="M42" s="17" t="s">
-        <v>224</v>
+      <c r="M42" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>28</v>
@@ -12579,16 +12573,16 @@
     </row>
     <row r="43">
       <c r="A43" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="D43" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>51</v>
@@ -12598,7 +12592,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K43" s="20">
         <v>43560.0</v>
@@ -12606,8 +12600,8 @@
       <c r="L43" s="20">
         <v>44889.0</v>
       </c>
-      <c r="M43" s="17" t="s">
-        <v>224</v>
+      <c r="M43" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="N43" s="17" t="s">
         <v>28</v>
@@ -12631,16 +12625,16 @@
     </row>
     <row r="44">
       <c r="A44" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>230</v>
-      </c>
       <c r="D44" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>51</v>
@@ -12650,7 +12644,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K44" s="20">
         <v>43560.0</v>
@@ -12658,8 +12652,8 @@
       <c r="L44" s="20">
         <v>44889.0</v>
       </c>
-      <c r="M44" s="17" t="s">
-        <v>224</v>
+      <c r="M44" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="N44" s="17" t="s">
         <v>28</v>
@@ -12683,16 +12677,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="C45" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>51</v>
@@ -12702,7 +12696,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K45" s="20">
         <v>44790.0</v>
@@ -12733,16 +12727,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>239</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>51</v>
@@ -12752,7 +12746,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K46" s="20">
         <v>44790.0</v>
@@ -12783,16 +12777,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="C47" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="D47" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>51</v>
@@ -12802,7 +12796,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K47" s="20">
         <v>44790.0</v>
@@ -12811,7 +12805,7 @@
         <v>44847.0</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="N47" s="17" t="s">
         <v>53</v>
@@ -12835,16 +12829,16 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="C48" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>247</v>
-      </c>
       <c r="D48" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>51</v>
@@ -12854,7 +12848,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K48" s="20">
         <v>44790.0</v>
@@ -12863,7 +12857,7 @@
         <v>44847.0</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="N48" s="17" t="s">
         <v>53</v>
@@ -12887,16 +12881,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="C49" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="D49" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>51</v>
@@ -12906,7 +12900,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K49" s="20">
         <v>44790.0</v>
@@ -12948,13 +12942,13 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="C51" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="17" t="s">
@@ -12996,13 +12990,13 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="17" t="s">
@@ -13042,16 +13036,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="C54" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>51</v>
@@ -13090,16 +13084,16 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>264</v>
-      </c>
       <c r="D55" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>51</v>
@@ -13138,16 +13132,16 @@
     </row>
     <row r="56">
       <c r="A56" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="C56" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>267</v>
-      </c>
       <c r="D56" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>51</v>
@@ -13184,16 +13178,16 @@
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="C57" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>270</v>
-      </c>
       <c r="D57" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>51</v>
@@ -13203,7 +13197,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K57" s="20">
         <v>44790.0</v>
@@ -13234,16 +13228,16 @@
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="C58" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>274</v>
-      </c>
       <c r="D58" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>51</v>
@@ -13253,7 +13247,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K58" s="20">
         <v>44790.0</v>
@@ -13284,16 +13278,16 @@
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C59" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>278</v>
-      </c>
       <c r="D59" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -13303,7 +13297,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K59" s="20">
         <v>44790.0</v>
@@ -13345,13 +13339,13 @@
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="17" t="s">
@@ -13393,13 +13387,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
@@ -13437,16 +13431,16 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="C64" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>51</v>
@@ -13487,16 +13481,16 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="C65" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>292</v>
-      </c>
       <c r="D65" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>51</v>
@@ -13537,16 +13531,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="C66" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>295</v>
-      </c>
       <c r="D66" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>51</v>
@@ -13587,16 +13581,16 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="C67" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>298</v>
-      </c>
       <c r="D67" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>51</v>
@@ -13637,16 +13631,16 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="C68" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="D68" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>51</v>
@@ -13687,16 +13681,16 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="C69" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="D69" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>51</v>
@@ -13737,16 +13731,16 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="C70" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="D70" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>51</v>
@@ -13756,7 +13750,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K70" s="14">
         <v>44790.0</v>
@@ -13787,16 +13781,16 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="C71" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>311</v>
-      </c>
       <c r="D71" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>51</v>
@@ -13837,16 +13831,16 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="C72" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>314</v>
-      </c>
       <c r="D72" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>51</v>
@@ -13887,16 +13881,16 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="C73" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="D73" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E73" s="52" t="s">
         <v>51</v>
@@ -13937,16 +13931,16 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B74" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="C74" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="D74" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E74" s="52" t="s">
         <v>51</v>
@@ -13956,7 +13950,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K74" s="14">
         <v>44790.0</v>
@@ -13987,16 +13981,16 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="C75" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>324</v>
-      </c>
       <c r="D75" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E75" s="52" t="s">
         <v>51</v>
@@ -14037,16 +14031,16 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="C76" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>327</v>
-      </c>
       <c r="D76" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E76" s="52" t="s">
         <v>51</v>
@@ -14087,16 +14081,16 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B77" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="C77" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>330</v>
-      </c>
       <c r="D77" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E77" s="52" t="s">
         <v>51</v>
@@ -14137,16 +14131,16 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="C78" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>333</v>
-      </c>
       <c r="D78" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E78" s="52" t="s">
         <v>51</v>
@@ -14187,16 +14181,16 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="B79" s="51" t="s">
+      <c r="C79" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>336</v>
-      </c>
       <c r="D79" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>51</v>
@@ -14237,16 +14231,16 @@
     </row>
     <row r="81">
       <c r="A81" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="C81" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="D81" s="55" t="s">
         <v>339</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>340</v>
       </c>
       <c r="E81" s="58" t="s">
         <v>51</v>
@@ -14261,7 +14255,7 @@
       </c>
       <c r="L81" s="59"/>
       <c r="M81" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N81" s="58" t="s">
         <v>53</v>
@@ -14283,13 +14277,13 @@
     </row>
     <row r="82">
       <c r="A82" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="C82" s="55" t="s">
         <v>343</v>
-      </c>
-      <c r="C82" s="55" t="s">
-        <v>344</v>
       </c>
       <c r="D82" s="55" t="s">
         <v>219</v>
@@ -14309,7 +14303,7 @@
       </c>
       <c r="L82" s="59"/>
       <c r="M82" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N82" s="55" t="s">
         <v>53</v>
@@ -17114,13 +17108,13 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>345</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>346</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="17" t="s">
@@ -17142,7 +17136,7 @@
         <v>53</v>
       </c>
       <c r="O2" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
@@ -17164,13 +17158,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>350</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>93</v>
@@ -17183,7 +17177,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K3" s="20">
         <v>44790.0</v>
@@ -17218,13 +17212,13 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>93</v>
@@ -17248,7 +17242,7 @@
         <v>199</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -17270,16 +17264,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="D5" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>58</v>
@@ -17297,10 +17291,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>359</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>360</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -17322,13 +17316,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>93</v>
@@ -17349,7 +17343,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="19"/>
@@ -17372,16 +17366,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>58</v>
@@ -17399,7 +17393,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="19"/>
@@ -17422,13 +17416,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>93</v>
@@ -17449,7 +17443,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="19"/>
@@ -17483,13 +17477,13 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>372</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -17500,7 +17494,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K10" s="20">
         <v>44790.0</v>
@@ -17535,16 +17529,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>58</v>
@@ -17554,7 +17548,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K11" s="20">
         <v>44790.0</v>
@@ -17589,16 +17583,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>382</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>58</v>
@@ -17608,7 +17602,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K12" s="20">
         <v>44790.0</v>
@@ -17643,16 +17637,16 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>386</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>58</v>
@@ -17662,7 +17656,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K13" s="36">
         <v>45396.0</v>
@@ -17672,7 +17666,7 @@
         <v>20</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -17695,16 +17689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>391</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>58</v>
@@ -17714,7 +17708,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K14" s="20">
         <v>44790.0</v>
@@ -17749,16 +17743,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>58</v>
@@ -17768,7 +17762,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K15" s="14">
         <v>44790.0</v>
@@ -17803,16 +17797,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>399</v>
-      </c>
       <c r="D16" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>58</v>
@@ -17822,7 +17816,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K16" s="14">
         <v>44790.0</v>
@@ -17857,16 +17851,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>403</v>
-      </c>
       <c r="D17" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>58</v>
@@ -17884,10 +17878,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="O17" s="27" t="s">
         <v>359</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>360</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -17909,16 +17903,16 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>405</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>58</v>
@@ -17936,10 +17930,10 @@
         <v>20</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -17961,13 +17955,13 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>62</v>
@@ -17980,7 +17974,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -18017,13 +18011,13 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="C20" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>62</v>
@@ -18036,7 +18030,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="12"/>
       <c r="J20" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -18073,13 +18067,13 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="C21" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>62</v>
@@ -18092,7 +18086,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K21" s="14">
         <v>44790.0</v>
@@ -18129,13 +18123,13 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>62</v>
@@ -18181,13 +18175,13 @@
     </row>
     <row r="23">
       <c r="A23" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="74" t="s">
         <v>422</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="C23" s="75" t="s">
         <v>423</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>424</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>62</v>
@@ -18199,7 +18193,7 @@
       <c r="G23" s="76"/>
       <c r="H23" s="76"/>
       <c r="I23" s="74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J23" s="77"/>
       <c r="K23" s="78">
@@ -18233,16 +18227,16 @@
     </row>
     <row r="24">
       <c r="A24" s="80" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" s="81" t="s">
         <v>426</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="C24" s="82" t="s">
         <v>427</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="D24" s="83" t="s">
         <v>428</v>
-      </c>
-      <c r="D24" s="83" t="s">
-        <v>429</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>58</v>
@@ -18251,7 +18245,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="81" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J24" s="86"/>
       <c r="K24" s="78">
@@ -18262,7 +18256,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O24" s="86"/>
       <c r="P24" s="85"/>
@@ -18285,16 +18279,16 @@
     </row>
     <row r="25">
       <c r="A25" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="C25" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>434</v>
-      </c>
       <c r="D25" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E25" s="84" t="s">
         <v>58</v>
@@ -18312,7 +18306,7 @@
         <v>20</v>
       </c>
       <c r="N25" s="82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O25" s="86"/>
       <c r="P25" s="85"/>
@@ -18335,16 +18329,16 @@
     </row>
     <row r="26">
       <c r="A26" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="C26" s="81" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>437</v>
-      </c>
       <c r="D26" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>58</v>
@@ -18353,7 +18347,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J26" s="86"/>
       <c r="K26" s="78">
@@ -18364,7 +18358,7 @@
         <v>20</v>
       </c>
       <c r="N26" s="82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O26" s="86"/>
       <c r="P26" s="85"/>
@@ -18387,16 +18381,16 @@
     </row>
     <row r="27">
       <c r="A27" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" s="89" t="s">
         <v>439</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="C27" s="81" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="81" t="s">
-        <v>441</v>
-      </c>
       <c r="D27" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E27" s="84" t="s">
         <v>58</v>
@@ -18405,7 +18399,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J27" s="86"/>
       <c r="K27" s="78">
@@ -18439,16 +18433,16 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="81" t="s">
         <v>444</v>
       </c>
-      <c r="C28" s="81" t="s">
-        <v>445</v>
-      </c>
       <c r="D28" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>58</v>
@@ -18457,7 +18451,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="78">
@@ -18491,16 +18485,16 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>449</v>
-      </c>
       <c r="D29" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>58</v>
@@ -18509,7 +18503,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="78">
@@ -18556,13 +18550,13 @@
     </row>
     <row r="31">
       <c r="A31" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>453</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="32" t="s">
@@ -18604,16 +18598,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>457</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>58</v>
@@ -18623,7 +18617,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K32" s="14">
         <v>44790.0</v>
@@ -18658,16 +18652,16 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>461</v>
-      </c>
       <c r="D33" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>58</v>
@@ -18676,7 +18670,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="20">
@@ -18712,16 +18706,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="C34" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>465</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>58</v>
@@ -18731,7 +18725,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K34" s="20">
         <v>44790.0</v>
@@ -18766,16 +18760,16 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>469</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>470</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>58</v>
@@ -18818,16 +18812,16 @@
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="C36" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>473</v>
-      </c>
       <c r="D36" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>58</v>
@@ -18872,16 +18866,16 @@
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="C37" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>476</v>
-      </c>
       <c r="D37" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>58</v>
@@ -18891,7 +18885,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K37" s="20">
         <v>44790.0</v>
@@ -18926,16 +18920,16 @@
     </row>
     <row r="38">
       <c r="A38" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="B38" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="C38" s="77" t="s">
         <v>479</v>
       </c>
-      <c r="C38" s="77" t="s">
-        <v>480</v>
-      </c>
       <c r="D38" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>58</v>
@@ -18945,7 +18939,7 @@
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K38" s="78">
         <v>45396.0</v>
@@ -18955,7 +18949,7 @@
         <v>20</v>
       </c>
       <c r="N38" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O38" s="76"/>
       <c r="P38" s="76"/>
@@ -18978,13 +18972,13 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>483</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>484</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="17" t="s">
@@ -19028,16 +19022,16 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>486</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>487</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>58</v>
@@ -19080,16 +19074,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>489</v>
-      </c>
       <c r="D42" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>58</v>
@@ -19144,13 +19138,13 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="C44" s="17" t="s">
         <v>491</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>492</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="17" t="s">
@@ -19194,16 +19188,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>496</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>58</v>
@@ -19246,16 +19240,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>499</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>58</v>
@@ -19298,16 +19292,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="C47" s="52" t="s">
         <v>501</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>502</v>
-      </c>
       <c r="D47" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19352,16 +19346,16 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="C48" s="52" t="s">
         <v>504</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>505</v>
-      </c>
       <c r="D48" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>58</v>
@@ -19404,16 +19398,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>507</v>
-      </c>
       <c r="D49" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>58</v>
@@ -19454,16 +19448,16 @@
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>510</v>
-      </c>
       <c r="D50" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>58</v>
@@ -19504,13 +19498,13 @@
     </row>
     <row r="52">
       <c r="A52" s="92" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="17" t="s">
@@ -19520,7 +19514,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="20">
@@ -19531,10 +19525,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O52" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -19556,13 +19550,13 @@
     </row>
     <row r="53">
       <c r="A53" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>513</v>
+      </c>
+      <c r="C53" s="63" t="s">
         <v>514</v>
-      </c>
-      <c r="B53" s="65" t="s">
-        <v>515</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>516</v>
       </c>
       <c r="D53" s="63" t="s">
         <v>74</v>
@@ -19583,10 +19577,10 @@
         <v>20</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O53" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P53" s="66"/>
       <c r="Q53" s="66"/>
@@ -19608,16 +19602,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>519</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>521</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -19660,13 +19654,13 @@
     </row>
     <row r="55">
       <c r="A55" s="74" t="s">
+        <v>520</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>521</v>
+      </c>
+      <c r="C55" s="93" t="s">
         <v>522</v>
-      </c>
-      <c r="B55" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>524</v>
       </c>
       <c r="D55" s="77" t="s">
         <v>74</v>
@@ -19710,16 +19704,16 @@
     </row>
     <row r="56">
       <c r="A56" s="82" t="s">
+        <v>523</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>524</v>
+      </c>
+      <c r="C56" s="94" t="s">
         <v>525</v>
       </c>
-      <c r="B56" s="82" t="s">
+      <c r="D56" s="82" t="s">
         <v>526</v>
-      </c>
-      <c r="C56" s="94" t="s">
-        <v>527</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>528</v>
       </c>
       <c r="E56" s="84" t="s">
         <v>58</v>
@@ -19729,7 +19723,7 @@
       <c r="H56" s="85"/>
       <c r="I56" s="85"/>
       <c r="J56" s="95" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K56" s="78">
         <v>45396.0</v>
@@ -19739,7 +19733,7 @@
         <v>20</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O56" s="86"/>
       <c r="P56" s="85"/>
@@ -19762,13 +19756,13 @@
     </row>
     <row r="57">
       <c r="A57" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C57" s="96" t="s">
         <v>531</v>
-      </c>
-      <c r="B57" s="76" t="s">
-        <v>532</v>
-      </c>
-      <c r="C57" s="96" t="s">
-        <v>533</v>
       </c>
       <c r="D57" s="77" t="s">
         <v>74</v>
@@ -19781,7 +19775,7 @@
       <c r="H57" s="76"/>
       <c r="I57" s="76"/>
       <c r="J57" s="76" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K57" s="78">
         <v>45396.0</v>
@@ -19791,7 +19785,7 @@
         <v>20</v>
       </c>
       <c r="N57" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
@@ -19825,13 +19819,13 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
@@ -19841,7 +19835,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J59" s="19"/>
       <c r="K59" s="78">
@@ -19875,16 +19869,16 @@
     </row>
     <row r="60">
       <c r="A60" s="77" t="s">
+        <v>536</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="C60" s="97" t="s">
         <v>538</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="D60" s="74" t="s">
         <v>539</v>
-      </c>
-      <c r="C60" s="97" t="s">
-        <v>540</v>
-      </c>
-      <c r="D60" s="74" t="s">
-        <v>541</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>58</v>
@@ -19925,16 +19919,16 @@
     </row>
     <row r="61">
       <c r="A61" s="80" t="s">
+        <v>540</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C61" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="D61" s="80" t="s">
         <v>543</v>
-      </c>
-      <c r="C61" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="D61" s="80" t="s">
-        <v>545</v>
       </c>
       <c r="E61" s="84" t="s">
         <v>58</v>
@@ -19944,7 +19938,7 @@
       <c r="H61" s="85"/>
       <c r="I61" s="85"/>
       <c r="J61" s="95" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K61" s="78">
         <v>45396.0</v>
@@ -19988,13 +19982,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>546</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>548</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
@@ -20004,7 +19998,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J63" s="19"/>
       <c r="K63" s="20">
@@ -20020,7 +20014,7 @@
         <v>199</v>
       </c>
       <c r="O63" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -20042,13 +20036,13 @@
     </row>
     <row r="64">
       <c r="A64" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>550</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>552</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>97</v>
@@ -20072,7 +20066,7 @@
         <v>53</v>
       </c>
       <c r="O64" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -20094,16 +20088,16 @@
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="D65" s="17" t="s">
         <v>554</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>556</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>58</v>
@@ -20146,16 +20140,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>559</v>
-      </c>
       <c r="D66" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>58</v>
@@ -20164,7 +20158,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="20">
@@ -20180,7 +20174,7 @@
         <v>199</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
@@ -20202,13 +20196,13 @@
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>561</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>563</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>97</v>
@@ -20252,13 +20246,13 @@
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>564</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>566</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>97</v>
@@ -20302,16 +20296,16 @@
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="B69" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>569</v>
-      </c>
       <c r="D69" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>58</v>
@@ -20364,13 +20358,13 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="17" t="s">
@@ -20414,16 +20408,16 @@
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="D72" s="17" t="s">
         <v>573</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>575</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>58</v>
@@ -20466,16 +20460,16 @@
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C73" s="72" t="s">
         <v>576</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="C73" s="72" t="s">
-        <v>578</v>
-      </c>
       <c r="D73" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>58</v>
@@ -20493,7 +20487,7 @@
         <v>20</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O73" s="21" t="s">
         <v>212</v>
@@ -20518,16 +20512,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="C74" s="72" t="s">
         <v>579</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="D74" s="17" t="s">
         <v>580</v>
-      </c>
-      <c r="C74" s="72" t="s">
-        <v>581</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -20545,7 +20539,7 @@
         <v>20</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O74" s="30"/>
       <c r="P74" s="19"/>
@@ -20568,16 +20562,16 @@
     </row>
     <row r="75">
       <c r="A75" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="C75" s="72" t="s">
         <v>583</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="C75" s="72" t="s">
-        <v>585</v>
-      </c>
       <c r="D75" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
@@ -20595,7 +20589,7 @@
         <v>20</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O75" s="21" t="s">
         <v>212</v>
@@ -20631,13 +20625,13 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>586</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>588</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="17" t="s">
@@ -20681,16 +20675,16 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="D78" s="17" t="s">
         <v>590</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>592</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>58</v>
@@ -20700,7 +20694,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K78" s="20">
         <v>44790.0</v>
@@ -20735,16 +20729,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>596</v>
-      </c>
       <c r="D79" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -20789,16 +20783,16 @@
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>599</v>
-      </c>
       <c r="D80" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>58</v>
@@ -20843,16 +20837,16 @@
     </row>
     <row r="81">
       <c r="A81" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>602</v>
-      </c>
       <c r="D81" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>58</v>
@@ -20862,7 +20856,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K81" s="20">
         <v>44790.0</v>
@@ -20897,16 +20891,16 @@
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>606</v>
-      </c>
       <c r="D82" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>58</v>
@@ -20958,13 +20952,13 @@
     </row>
     <row r="84">
       <c r="A84" s="99" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="52" t="s">
@@ -20974,7 +20968,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="52" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="14">
@@ -20985,10 +20979,10 @@
         <v>20</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O84" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P84" s="13"/>
       <c r="Q84" s="13"/>
@@ -21010,16 +21004,16 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="D85" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>614</v>
       </c>
       <c r="E85" s="52" t="s">
         <v>58</v>
@@ -21037,10 +21031,10 @@
         <v>20</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O85" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
@@ -21062,16 +21056,16 @@
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>617</v>
-      </c>
       <c r="D86" s="13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E86" s="52" t="s">
         <v>58</v>
@@ -21081,7 +21075,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K86" s="20">
         <v>45429.0</v>
@@ -21120,13 +21114,13 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>619</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>621</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="17" t="s">
@@ -21145,7 +21139,7 @@
         <v>20</v>
       </c>
       <c r="N88" s="74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O88" s="30"/>
       <c r="P88" s="19"/>
@@ -21168,16 +21162,16 @@
     </row>
     <row r="89">
       <c r="A89" s="100" t="s">
+        <v>621</v>
+      </c>
+      <c r="B89" s="91" t="s">
+        <v>622</v>
+      </c>
+      <c r="C89" s="75" t="s">
         <v>623</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="D89" s="100" t="s">
         <v>624</v>
-      </c>
-      <c r="C89" s="75" t="s">
-        <v>625</v>
-      </c>
-      <c r="D89" s="100" t="s">
-        <v>626</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>58</v>
@@ -21186,10 +21180,10 @@
       <c r="G89" s="91"/>
       <c r="H89" s="76"/>
       <c r="I89" s="74" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J89" s="91" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K89" s="78">
         <v>45396.0</v>
@@ -21199,7 +21193,7 @@
         <v>20</v>
       </c>
       <c r="N89" s="74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O89" s="76"/>
       <c r="P89" s="76"/>
@@ -21222,16 +21216,16 @@
     </row>
     <row r="90">
       <c r="A90" s="83" t="s">
+        <v>627</v>
+      </c>
+      <c r="B90" s="91" t="s">
+        <v>628</v>
+      </c>
+      <c r="C90" s="101" t="s">
         <v>629</v>
       </c>
-      <c r="B90" s="91" t="s">
-        <v>630</v>
-      </c>
-      <c r="C90" s="101" t="s">
-        <v>631</v>
-      </c>
       <c r="D90" s="100" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21241,7 +21235,7 @@
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
       <c r="J90" s="91" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K90" s="78">
         <v>45396.0</v>
@@ -21251,7 +21245,7 @@
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O90" s="76"/>
       <c r="P90" s="76"/>
@@ -21274,16 +21268,16 @@
     </row>
     <row r="91">
       <c r="A91" s="73" t="s">
+        <v>631</v>
+      </c>
+      <c r="B91" s="91" t="s">
+        <v>632</v>
+      </c>
+      <c r="C91" s="102" t="s">
         <v>633</v>
       </c>
-      <c r="B91" s="91" t="s">
-        <v>634</v>
-      </c>
-      <c r="C91" s="102" t="s">
-        <v>635</v>
-      </c>
       <c r="D91" s="100" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21292,10 +21286,10 @@
       <c r="G91" s="91"/>
       <c r="H91" s="76"/>
       <c r="I91" s="74" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J91" s="91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K91" s="78">
         <v>45396.0</v>
@@ -21305,7 +21299,7 @@
         <v>20</v>
       </c>
       <c r="N91" s="74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O91" s="76"/>
       <c r="P91" s="76"/>
@@ -21328,16 +21322,16 @@
     </row>
     <row r="92">
       <c r="A92" s="103" t="s">
+        <v>636</v>
+      </c>
+      <c r="B92" s="104" t="s">
+        <v>637</v>
+      </c>
+      <c r="C92" s="102" t="s">
         <v>638</v>
       </c>
-      <c r="B92" s="104" t="s">
+      <c r="D92" s="105" t="s">
         <v>639</v>
-      </c>
-      <c r="C92" s="102" t="s">
-        <v>640</v>
-      </c>
-      <c r="D92" s="105" t="s">
-        <v>641</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21347,7 +21341,7 @@
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
       <c r="J92" s="104" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K92" s="107">
         <v>45396.0</v>
@@ -21357,7 +21351,7 @@
         <v>20</v>
       </c>
       <c r="N92" s="74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O92" s="106"/>
       <c r="P92" s="106"/>
@@ -21380,16 +21374,16 @@
     </row>
     <row r="94">
       <c r="A94" s="99" t="s">
+        <v>640</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C94" s="108" t="s">
         <v>642</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="D94" s="13" t="s">
         <v>643</v>
-      </c>
-      <c r="C94" s="108" t="s">
-        <v>644</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>645</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>58</v>
@@ -21430,16 +21424,16 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="D95" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>649</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>58</v>
@@ -21448,7 +21442,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="52" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="36">
@@ -21482,16 +21476,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="D96" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>654</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>58</v>
@@ -21532,16 +21526,16 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="D97" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>658</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>58</v>
@@ -21582,16 +21576,16 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="D98" s="13" t="s">
         <v>660</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>58</v>
@@ -21632,16 +21626,16 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="D99" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>58</v>
@@ -21650,7 +21644,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="52" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="36">
@@ -21684,16 +21678,16 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="D100" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -21734,16 +21728,16 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="D101" s="9" t="s">
         <v>671</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>673</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -21784,16 +21778,16 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="D102" s="13" t="s">
         <v>675</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>677</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -21803,7 +21797,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K102" s="36">
         <v>45396.0</v>
@@ -21813,7 +21807,7 @@
         <v>20</v>
       </c>
       <c r="N102" s="109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
@@ -21836,16 +21830,16 @@
     </row>
     <row r="103">
       <c r="A103" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>680</v>
-      </c>
       <c r="D103" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
@@ -21890,13 +21884,13 @@
     </row>
     <row r="105">
       <c r="A105" s="99" t="s">
+        <v>679</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C105" s="70" t="s">
         <v>681</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="C105" s="70" t="s">
-        <v>683</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="17" t="s">
@@ -21907,7 +21901,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K105" s="36">
         <v>45396.0</v>
@@ -21917,7 +21911,7 @@
         <v>20</v>
       </c>
       <c r="N105" s="109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
@@ -21940,16 +21934,16 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C106" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="D106" s="13" t="s">
         <v>686</v>
-      </c>
-      <c r="C106" s="108" t="s">
-        <v>687</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>688</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -21959,7 +21953,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -21969,7 +21963,7 @@
         <v>20</v>
       </c>
       <c r="N106" s="109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
@@ -21992,16 +21986,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C107" s="70" t="s">
         <v>689</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="C107" s="70" t="s">
-        <v>691</v>
-      </c>
       <c r="D107" s="13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22011,7 +22005,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -22021,7 +22015,7 @@
         <v>20</v>
       </c>
       <c r="N107" s="109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
@@ -22044,16 +22038,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C108" s="70" t="s">
         <v>692</v>
       </c>
-      <c r="B108" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="C108" s="70" t="s">
-        <v>694</v>
-      </c>
       <c r="D108" s="13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -22063,7 +22057,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K108" s="36">
         <v>45396.0</v>
@@ -22073,7 +22067,7 @@
         <v>20</v>
       </c>
       <c r="N108" s="109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
@@ -22128,13 +22122,13 @@
     </row>
     <row r="111">
       <c r="A111" s="76" t="s">
+        <v>693</v>
+      </c>
+      <c r="B111" s="76" t="s">
+        <v>694</v>
+      </c>
+      <c r="C111" s="96" t="s">
         <v>695</v>
-      </c>
-      <c r="B111" s="76" t="s">
-        <v>696</v>
-      </c>
-      <c r="C111" s="96" t="s">
-        <v>697</v>
       </c>
       <c r="D111" s="76"/>
       <c r="E111" s="17" t="s">
@@ -22148,7 +22142,7 @@
       <c r="K111" s="76"/>
       <c r="L111" s="76"/>
       <c r="M111" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
@@ -22170,11 +22164,11 @@
     </row>
     <row r="112">
       <c r="A112" s="80" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B112" s="86"/>
       <c r="C112" s="82" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D112" s="110" t="s">
         <v>51</v>
@@ -22192,7 +22186,7 @@
       </c>
       <c r="L112" s="87"/>
       <c r="M112" s="74" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N112" s="82" t="s">
         <v>211</v>
@@ -22222,13 +22216,13 @@
     </row>
     <row r="114">
       <c r="A114" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>701</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>703</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="84" t="s">
@@ -22270,16 +22264,16 @@
     </row>
     <row r="115">
       <c r="A115" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="D115" s="17" t="s">
         <v>705</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>707</v>
       </c>
       <c r="E115" s="84" t="s">
         <v>58</v>
@@ -22320,16 +22314,16 @@
     </row>
     <row r="116">
       <c r="A116" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>710</v>
-      </c>
       <c r="D116" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E116" s="84" t="s">
         <v>58</v>
@@ -22370,7 +22364,7 @@
     </row>
     <row r="119">
       <c r="A119" s="112" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B119" s="76"/>
       <c r="C119" s="76"/>
@@ -22404,13 +22398,13 @@
     </row>
     <row r="120">
       <c r="A120" s="76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B120" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C120" s="76" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D120" s="76"/>
       <c r="E120" s="76"/>
@@ -22442,16 +22436,16 @@
     </row>
     <row r="121">
       <c r="A121" s="76" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B121" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C121" s="76" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D121" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E121" s="76"/>
       <c r="F121" s="76"/>
@@ -22482,13 +22476,13 @@
     </row>
     <row r="122">
       <c r="A122" s="76" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B122" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C122" s="76" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D122" s="76"/>
       <c r="E122" s="76"/>
@@ -22520,13 +22514,13 @@
     </row>
     <row r="123">
       <c r="A123" s="76" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C123" s="76" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
@@ -22558,10 +22552,10 @@
     </row>
     <row r="124">
       <c r="A124" s="76" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C124" s="76"/>
       <c r="D124" s="76"/>
@@ -22594,10 +22588,10 @@
     </row>
     <row r="125">
       <c r="A125" s="76" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B125" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C125" s="76"/>
       <c r="D125" s="76"/>
@@ -22630,10 +22624,10 @@
     </row>
     <row r="126">
       <c r="A126" s="76" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C126" s="76"/>
       <c r="D126" s="76"/>
@@ -22666,10 +22660,10 @@
     </row>
     <row r="127">
       <c r="A127" s="76" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B127" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C127" s="76"/>
       <c r="D127" s="76"/>
@@ -22702,10 +22696,10 @@
     </row>
     <row r="128">
       <c r="A128" s="76" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C128" s="76"/>
       <c r="D128" s="76"/>
@@ -22738,10 +22732,10 @@
     </row>
     <row r="129">
       <c r="A129" s="76" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C129" s="76"/>
       <c r="D129" s="76"/>
@@ -22774,10 +22768,10 @@
     </row>
     <row r="130">
       <c r="A130" s="76" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C130" s="76"/>
       <c r="D130" s="76"/>
@@ -22810,10 +22804,10 @@
     </row>
     <row r="131">
       <c r="A131" s="76" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C131" s="76"/>
       <c r="D131" s="76"/>
@@ -22846,10 +22840,10 @@
     </row>
     <row r="132">
       <c r="A132" s="76" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C132" s="76"/>
       <c r="D132" s="76"/>
@@ -22882,10 +22876,10 @@
     </row>
     <row r="133">
       <c r="A133" s="76" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C133" s="76"/>
       <c r="D133" s="76"/>
@@ -22918,10 +22912,10 @@
     </row>
     <row r="134">
       <c r="A134" s="76" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C134" s="76"/>
       <c r="D134" s="76"/>
@@ -22957,7 +22951,7 @@
         <v>36</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C135" s="76"/>
       <c r="D135" s="76"/>
@@ -22990,7 +22984,7 @@
     </row>
     <row r="136">
       <c r="A136" s="76" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B136" s="76"/>
       <c r="C136" s="76"/>
@@ -23024,7 +23018,7 @@
     </row>
     <row r="137">
       <c r="A137" s="76" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B137" s="76"/>
       <c r="C137" s="76"/>
@@ -23058,7 +23052,7 @@
     </row>
     <row r="138">
       <c r="A138" s="76" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B138" s="76"/>
       <c r="C138" s="76"/>
@@ -23092,7 +23086,7 @@
     </row>
     <row r="139">
       <c r="A139" s="76" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B139" s="76"/>
       <c r="C139" s="76"/>
@@ -23126,7 +23120,7 @@
     </row>
     <row r="140">
       <c r="A140" s="76" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B140" s="76"/>
       <c r="C140" s="76"/>
@@ -23192,11 +23186,11 @@
     </row>
     <row r="142">
       <c r="A142" s="76" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B142" s="76"/>
       <c r="C142" s="76" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D142" s="76"/>
       <c r="E142" s="76"/>
@@ -25890,13 +25884,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>740</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>742</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -25939,16 +25933,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>743</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>744</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>745</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>746</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -26002,16 +25996,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>747</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>749</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>81</v>
@@ -26020,7 +26014,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -26031,7 +26025,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>63</v>
@@ -26055,16 +26049,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>753</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>755</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>81</v>
@@ -26082,7 +26076,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="O6" s="68" t="s">
         <v>63</v>
@@ -26106,16 +26100,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>758</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>81</v>
@@ -26133,7 +26127,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="O7" s="68" t="s">
         <v>63</v>
@@ -26157,16 +26151,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>761</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>81</v>
@@ -26184,7 +26178,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>63</v>
@@ -26208,16 +26202,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>764</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>81</v>
@@ -26292,16 +26286,16 @@
     </row>
     <row r="11">
       <c r="A11" s="113" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>764</v>
+      </c>
+      <c r="C11" s="75" t="s">
         <v>765</v>
       </c>
-      <c r="B11" s="83" t="s">
-        <v>766</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>767</v>
-      </c>
       <c r="D11" s="83" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -26311,9 +26305,11 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>768</v>
-      </c>
-      <c r="K11" s="76"/>
+        <v>766</v>
+      </c>
+      <c r="K11" s="20">
+        <v>44601.0</v>
+      </c>
       <c r="L11" s="76"/>
       <c r="M11" s="17" t="s">
         <v>20</v>
@@ -26339,16 +26335,16 @@
     </row>
     <row r="12">
       <c r="A12" s="114" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>771</v>
-      </c>
       <c r="D12" s="83" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -26358,7 +26354,9 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="20">
+        <v>44601.0</v>
+      </c>
       <c r="L12" s="19"/>
       <c r="M12" s="17" t="s">
         <v>20</v>
@@ -26384,16 +26382,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>774</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -26438,38 +26436,40 @@
     </row>
     <row r="15">
       <c r="A15" s="113" t="s">
+        <v>773</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>773</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>774</v>
+      </c>
+      <c r="D15" s="91" t="s">
         <v>775</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>776</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>777</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="91" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="91" t="s">
-        <v>780</v>
-      </c>
-      <c r="K15" s="76"/>
+        <v>778</v>
+      </c>
+      <c r="K15" s="20">
+        <v>44601.0</v>
+      </c>
       <c r="L15" s="76"/>
       <c r="M15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O15" s="76"/>
       <c r="P15" s="76"/>
@@ -29197,13 +29197,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>782</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>783</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>104</v>
@@ -29216,7 +29216,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -29250,13 +29250,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>785</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>787</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -29267,7 +29267,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K3" s="67">
         <v>45396.0</v>
@@ -29299,13 +29299,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>789</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>791</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -29316,7 +29316,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K4" s="67">
         <v>45396.0</v>
@@ -29348,13 +29348,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>793</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>795</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -29365,7 +29365,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="K5" s="67">
         <v>45396.0</v>
@@ -29397,13 +29397,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>797</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -29414,7 +29414,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K6" s="67">
         <v>45396.0</v>
@@ -29446,13 +29446,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>801</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>803</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -29463,7 +29463,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K7" s="67">
         <v>45396.0</v>
@@ -29495,13 +29495,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>805</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>807</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -29512,7 +29512,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K8" s="67">
         <v>45396.0</v>
@@ -29544,13 +29544,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>809</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>811</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -29561,7 +29561,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K9" s="67">
         <v>45396.0</v>
@@ -29593,13 +29593,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>813</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>815</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -29610,7 +29610,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K10" s="67">
         <v>45396.0</v>
@@ -29642,13 +29642,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>817</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>819</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -29659,7 +29659,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K11" s="67">
         <v>45396.0</v>
@@ -29691,13 +29691,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>821</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>823</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -29708,7 +29708,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K12" s="67">
         <v>45396.0</v>
@@ -33310,13 +33310,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>824</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>826</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -33326,7 +33326,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -33334,7 +33334,7 @@
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>53</v>
@@ -33356,13 +33356,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>828</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>830</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -33378,7 +33378,7 @@
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>53</v>
@@ -33400,13 +33400,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>831</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>833</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -33416,7 +33416,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20">
@@ -33424,7 +33424,7 @@
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>53</v>
@@ -33435,13 +33435,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>835</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>837</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -33451,7 +33451,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="90" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -33459,7 +33459,7 @@
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>53</v>
@@ -33470,13 +33470,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>839</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>841</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -33486,7 +33486,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20">
@@ -33494,7 +33494,7 @@
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>53</v>
@@ -33505,13 +33505,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>843</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>845</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -33521,7 +33521,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20">
@@ -33529,7 +33529,7 @@
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>53</v>
@@ -33540,13 +33540,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>847</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>849</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -33556,7 +33556,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20">
@@ -33564,7 +33564,7 @@
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>53</v>
@@ -33575,13 +33575,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>851</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>853</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -33597,7 +33597,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>53</v>
@@ -33608,13 +33608,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>854</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>856</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -33630,7 +33630,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>53</v>
@@ -33641,13 +33641,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>857</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>859</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -33663,7 +33663,7 @@
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>53</v>
@@ -33674,13 +33674,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>860</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>862</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -33696,7 +33696,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>53</v>
@@ -33707,13 +33707,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>863</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>865</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
@@ -33729,7 +33729,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>53</v>
@@ -33740,13 +33740,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>866</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>867</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>868</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">
@@ -33762,7 +33762,7 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>53</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="872">
   <si>
     <t>Term</t>
   </si>
@@ -2059,6 +2059,18 @@
   </si>
   <si>
     <t>dpv:DataProcessingRecord</t>
+  </si>
+  <si>
+    <t>ConsentReceipt</t>
+  </si>
+  <si>
+    <t>Consent Receipt</t>
+  </si>
+  <si>
+    <t>A record of consent or consent related activities that is provided to another entity</t>
+  </si>
+  <si>
+    <t>dpv:ConsentRecord</t>
   </si>
   <si>
     <t>ROPA</t>
@@ -20152,7 +20164,7 @@
         <v>558</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>58</v>
@@ -20160,24 +20172,20 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="31" t="s">
-        <v>559</v>
-      </c>
+      <c r="I66" s="49"/>
       <c r="J66" s="19"/>
       <c r="K66" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L66" s="20">
-        <v>45396.0</v>
-      </c>
+        <v>44734.0</v>
+      </c>
+      <c r="L66" s="20"/>
       <c r="M66" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="O66" s="31" t="s">
-        <v>347</v>
+        <v>53</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
@@ -20208,7 +20216,7 @@
         <v>562</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>97</v>
+        <v>555</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>58</v>
@@ -20216,19 +20224,25 @@
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="40">
+      <c r="I67" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="20">
+        <v>44447.0</v>
+      </c>
+      <c r="L67" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L67" s="20"/>
       <c r="M67" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O67" s="17"/>
+      <c r="N67" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="O67" s="31" t="s">
+        <v>347</v>
+      </c>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
@@ -20249,13 +20263,13 @@
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>97</v>
@@ -20299,16 +20313,16 @@
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>555</v>
+        <v>97</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>58</v>
@@ -20348,80 +20362,78 @@
       <c r="AF69" s="19"/>
     </row>
     <row r="70">
-      <c r="A70" s="8"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="A70" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="40"/>
+      <c r="K70" s="40">
+        <v>45396.0</v>
+      </c>
       <c r="L70" s="20"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="28"/>
+      <c r="M70" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="O70" s="17"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+      <c r="AF70" s="19"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="17"/>
+      <c r="E71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="40">
-        <v>44139.0</v>
-      </c>
+      <c r="K71" s="40"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="17" t="s">
-        <v>571</v>
+      <c r="A72" s="8" t="s">
+        <v>573</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="D72" s="17" t="s">
         <v>574</v>
       </c>
+      <c r="D72" s="19"/>
       <c r="E72" s="17" t="s">
         <v>58</v>
       </c>
@@ -20434,7 +20446,7 @@
         <v>44139.0</v>
       </c>
       <c r="L72" s="20"/>
-      <c r="M72" s="19" t="s">
+      <c r="M72" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N72" s="28" t="s">
@@ -20468,11 +20480,11 @@
       <c r="B73" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="C73" s="72" t="s">
+      <c r="C73" s="17" t="s">
         <v>577</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>58</v>
@@ -20482,18 +20494,18 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="20">
-        <v>44727.0</v>
+      <c r="K73" s="40">
+        <v>44139.0</v>
       </c>
       <c r="L73" s="20"/>
-      <c r="M73" s="17" t="s">
+      <c r="M73" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="O73" s="21" t="s">
-        <v>212</v>
+      <c r="N73" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
@@ -20515,16 +20527,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>581</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>578</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="C74" s="72" t="s">
-        <v>580</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>581</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -20535,7 +20547,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="17"/>
       <c r="K74" s="20">
-        <v>44856.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="17" t="s">
@@ -20544,7 +20556,9 @@
       <c r="N74" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="O74" s="30"/>
+      <c r="O74" s="21" t="s">
+        <v>212</v>
+      </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
@@ -20574,7 +20588,7 @@
         <v>584</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
@@ -20585,7 +20599,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="17"/>
       <c r="K75" s="20">
-        <v>44727.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L75" s="20"/>
       <c r="M75" s="17" t="s">
@@ -20594,9 +20608,7 @@
       <c r="N75" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="O75" s="21" t="s">
-        <v>212</v>
-      </c>
+      <c r="O75" s="30"/>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
@@ -20616,101 +20628,99 @@
       <c r="AF75" s="19"/>
     </row>
     <row r="76">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="K76" s="20"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
+      <c r="A76" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C76" s="72" t="s">
+        <v>588</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="20">
+        <v>44727.0</v>
+      </c>
+      <c r="L76" s="20"/>
+      <c r="M76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="19"/>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L77" s="20"/>
-      <c r="M77" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N77" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O77" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="19"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="19"/>
-      <c r="AB77" s="19"/>
-      <c r="AC77" s="19"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="19"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="K77" s="20"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
     </row>
     <row r="78">
-      <c r="A78" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="8" t="s">
         <v>589</v>
       </c>
+      <c r="B78" s="18" t="s">
+        <v>590</v>
+      </c>
       <c r="C78" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D78" s="17" t="s">
         <v>591</v>
       </c>
+      <c r="D78" s="19"/>
       <c r="E78" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="31" t="s">
-        <v>592</v>
-      </c>
+      <c r="I78" s="72"/>
+      <c r="J78" s="17"/>
       <c r="K78" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L78" s="19"/>
-      <c r="M78" s="28" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L78" s="20"/>
+      <c r="M78" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>106</v>
+        <v>28</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="P78" s="19"/>
       <c r="Q78" s="19"/>
@@ -20732,16 +20742,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="C79" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="D79" s="17" t="s">
         <v>595</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>591</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -20750,8 +20760,8 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="17" t="s">
-        <v>105</v>
+      <c r="J79" s="31" t="s">
+        <v>596</v>
       </c>
       <c r="K79" s="20">
         <v>44790.0</v>
@@ -20786,16 +20796,16 @@
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>58</v>
@@ -20840,16 +20850,16 @@
     </row>
     <row r="81">
       <c r="A81" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>58</v>
@@ -20858,8 +20868,8 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
-      <c r="J81" s="31" t="s">
-        <v>602</v>
+      <c r="J81" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="K81" s="20">
         <v>44790.0</v>
@@ -20903,7 +20913,7 @@
         <v>605</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>58</v>
@@ -20912,8 +20922,8 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
-      <c r="J82" s="17" t="s">
-        <v>105</v>
+      <c r="J82" s="31" t="s">
+        <v>606</v>
       </c>
       <c r="K82" s="20">
         <v>44790.0</v>
@@ -20947,94 +20957,96 @@
       <c r="AF82" s="19"/>
     </row>
     <row r="83">
-      <c r="B83" s="22"/>
-      <c r="C83" s="69"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="20"/>
-      <c r="M83" s="28"/>
+      <c r="A83" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K83" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L83" s="19"/>
+      <c r="M83" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O83" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="19"/>
+      <c r="AF83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="99" t="s">
-        <v>606</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>607</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="52" t="s">
-        <v>608</v>
-      </c>
-      <c r="J84" s="12"/>
-      <c r="K84" s="14">
-        <v>44461.0</v>
-      </c>
-      <c r="L84" s="33"/>
-      <c r="M84" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="O84" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="13"/>
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="13"/>
-      <c r="AC84" s="13"/>
-      <c r="AD84" s="13"/>
-      <c r="AE84" s="13"/>
-      <c r="AF84" s="13"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="69"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="20"/>
+      <c r="M84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="99" t="s">
         <v>610</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C85" s="52" t="s">
         <v>611</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>613</v>
-      </c>
+      <c r="D85" s="13"/>
       <c r="E85" s="52" t="s">
         <v>58</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="I85" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="J85" s="12"/>
       <c r="K85" s="14">
         <v>44461.0</v>
       </c>
       <c r="L85" s="33"/>
-      <c r="M85" s="13" t="s">
+      <c r="M85" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="O85" s="53" t="s">
         <v>347</v>
@@ -21058,177 +21070,175 @@
       <c r="AF85" s="13"/>
     </row>
     <row r="86">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="13" t="s">
         <v>616</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E86" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="31" t="s">
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="14">
+        <v>44461.0</v>
+      </c>
+      <c r="L86" s="33"/>
+      <c r="M86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="O86" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="13"/>
+      <c r="AE86" s="13"/>
+      <c r="AF86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="K86" s="20">
+      <c r="E87" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="K87" s="20">
         <v>45429.0</v>
       </c>
-      <c r="L86" s="19"/>
-      <c r="M86" s="17" t="s">
+      <c r="L87" s="19"/>
+      <c r="M87" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N86" s="17" t="s">
+      <c r="N87" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O86" s="63"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="19"/>
-      <c r="AC86" s="19"/>
-      <c r="AD86" s="19"/>
-      <c r="AE86" s="19"/>
-      <c r="AF86" s="19"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="22"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="20"/>
-      <c r="M87" s="28"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19"/>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="20">
-        <v>45396.0</v>
-      </c>
-      <c r="L88" s="20"/>
-      <c r="M88" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" s="74" t="s">
-        <v>621</v>
-      </c>
-      <c r="O88" s="30"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
-      <c r="AB88" s="19"/>
-      <c r="AC88" s="19"/>
-      <c r="AD88" s="19"/>
-      <c r="AE88" s="19"/>
-      <c r="AF88" s="19"/>
+      <c r="B88" s="22"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="20"/>
+      <c r="M88" s="28"/>
     </row>
     <row r="89">
-      <c r="A89" s="100" t="s">
+      <c r="A89" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="B89" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C89" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="D89" s="100" t="s">
-        <v>625</v>
-      </c>
+      <c r="D89" s="19"/>
       <c r="E89" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="76"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="J89" s="91" t="s">
-        <v>627</v>
-      </c>
-      <c r="K89" s="78">
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L89" s="76"/>
+      <c r="L89" s="20"/>
       <c r="M89" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N89" s="74" t="s">
-        <v>621</v>
-      </c>
-      <c r="O89" s="76"/>
-      <c r="P89" s="76"/>
-      <c r="Q89" s="76"/>
-      <c r="R89" s="76"/>
-      <c r="S89" s="76"/>
-      <c r="T89" s="76"/>
-      <c r="U89" s="76"/>
-      <c r="V89" s="76"/>
-      <c r="W89" s="76"/>
-      <c r="X89" s="76"/>
-      <c r="Y89" s="76"/>
-      <c r="Z89" s="76"/>
-      <c r="AA89" s="76"/>
-      <c r="AB89" s="76"/>
-      <c r="AC89" s="76"/>
-      <c r="AD89" s="76"/>
-      <c r="AE89" s="76"/>
-      <c r="AF89" s="76"/>
+        <v>625</v>
+      </c>
+      <c r="O89" s="30"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="19"/>
+      <c r="AE89" s="19"/>
+      <c r="AF89" s="19"/>
     </row>
     <row r="90">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="100" t="s">
+        <v>626</v>
+      </c>
+      <c r="B90" s="91" t="s">
+        <v>627</v>
+      </c>
+      <c r="C90" s="75" t="s">
         <v>628</v>
       </c>
-      <c r="B90" s="91" t="s">
+      <c r="D90" s="100" t="s">
         <v>629</v>
-      </c>
-      <c r="C90" s="101" t="s">
-        <v>630</v>
-      </c>
-      <c r="D90" s="100" t="s">
-        <v>625</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21236,7 +21246,9 @@
       <c r="F90" s="76"/>
       <c r="G90" s="91"/>
       <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
+      <c r="I90" s="74" t="s">
+        <v>630</v>
+      </c>
       <c r="J90" s="91" t="s">
         <v>631</v>
       </c>
@@ -21248,7 +21260,7 @@
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="O90" s="76"/>
       <c r="P90" s="76"/>
@@ -21270,17 +21282,17 @@
       <c r="AF90" s="76"/>
     </row>
     <row r="91">
-      <c r="A91" s="73" t="s">
+      <c r="A91" s="83" t="s">
         <v>632</v>
       </c>
       <c r="B91" s="91" t="s">
         <v>633</v>
       </c>
-      <c r="C91" s="102" t="s">
+      <c r="C91" s="101" t="s">
         <v>634</v>
       </c>
       <c r="D91" s="100" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21288,11 +21300,9 @@
       <c r="F91" s="76"/>
       <c r="G91" s="91"/>
       <c r="H91" s="76"/>
-      <c r="I91" s="74" t="s">
+      <c r="I91" s="76"/>
+      <c r="J91" s="91" t="s">
         <v>635</v>
-      </c>
-      <c r="J91" s="91" t="s">
-        <v>636</v>
       </c>
       <c r="K91" s="78">
         <v>45396.0</v>
@@ -21302,7 +21312,7 @@
         <v>20</v>
       </c>
       <c r="N91" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="O91" s="76"/>
       <c r="P91" s="76"/>
@@ -21324,118 +21334,122 @@
       <c r="AF91" s="76"/>
     </row>
     <row r="92">
-      <c r="A92" s="103" t="s">
+      <c r="A92" s="73" t="s">
+        <v>636</v>
+      </c>
+      <c r="B92" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="B92" s="104" t="s">
+      <c r="C92" s="102" t="s">
         <v>638</v>
       </c>
-      <c r="C92" s="102" t="s">
-        <v>639</v>
-      </c>
-      <c r="D92" s="105" t="s">
-        <v>640</v>
+      <c r="D92" s="100" t="s">
+        <v>629</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="106"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="106"/>
-      <c r="I92" s="106"/>
-      <c r="J92" s="104" t="s">
-        <v>636</v>
-      </c>
-      <c r="K92" s="107">
+      <c r="F92" s="76"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="74" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" s="91" t="s">
+        <v>640</v>
+      </c>
+      <c r="K92" s="78">
         <v>45396.0</v>
       </c>
-      <c r="L92" s="106"/>
+      <c r="L92" s="76"/>
       <c r="M92" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N92" s="74" t="s">
-        <v>621</v>
-      </c>
-      <c r="O92" s="106"/>
-      <c r="P92" s="106"/>
-      <c r="Q92" s="106"/>
-      <c r="R92" s="106"/>
-      <c r="S92" s="106"/>
-      <c r="T92" s="106"/>
-      <c r="U92" s="106"/>
-      <c r="V92" s="106"/>
-      <c r="W92" s="106"/>
-      <c r="X92" s="106"/>
-      <c r="Y92" s="106"/>
-      <c r="Z92" s="106"/>
-      <c r="AA92" s="106"/>
-      <c r="AB92" s="106"/>
-      <c r="AC92" s="106"/>
-      <c r="AD92" s="106"/>
+        <v>625</v>
+      </c>
+      <c r="O92" s="76"/>
+      <c r="P92" s="76"/>
+      <c r="Q92" s="76"/>
+      <c r="R92" s="76"/>
+      <c r="S92" s="76"/>
+      <c r="T92" s="76"/>
+      <c r="U92" s="76"/>
+      <c r="V92" s="76"/>
+      <c r="W92" s="76"/>
+      <c r="X92" s="76"/>
+      <c r="Y92" s="76"/>
+      <c r="Z92" s="76"/>
+      <c r="AA92" s="76"/>
+      <c r="AB92" s="76"/>
+      <c r="AC92" s="76"/>
+      <c r="AD92" s="76"/>
       <c r="AE92" s="76"/>
       <c r="AF92" s="76"/>
     </row>
-    <row r="94">
-      <c r="A94" s="99" t="s">
+    <row r="93">
+      <c r="A93" s="103" t="s">
         <v>641</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B93" s="104" t="s">
         <v>642</v>
       </c>
-      <c r="C94" s="108" t="s">
+      <c r="C93" s="102" t="s">
         <v>643</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D93" s="105" t="s">
         <v>644</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E93" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="36">
+      <c r="F93" s="106"/>
+      <c r="G93" s="104"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="104" t="s">
+        <v>640</v>
+      </c>
+      <c r="K93" s="107">
         <v>45396.0</v>
       </c>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13" t="s">
+      <c r="L93" s="106"/>
+      <c r="M93" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N94" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="13"/>
-      <c r="Z94" s="13"/>
-      <c r="AA94" s="13"/>
-      <c r="AB94" s="13"/>
-      <c r="AC94" s="13"/>
-      <c r="AD94" s="13"/>
-      <c r="AE94" s="13"/>
-      <c r="AF94" s="13"/>
+      <c r="N93" s="74" t="s">
+        <v>625</v>
+      </c>
+      <c r="O93" s="106"/>
+      <c r="P93" s="106"/>
+      <c r="Q93" s="106"/>
+      <c r="R93" s="106"/>
+      <c r="S93" s="106"/>
+      <c r="T93" s="106"/>
+      <c r="U93" s="106"/>
+      <c r="V93" s="106"/>
+      <c r="W93" s="106"/>
+      <c r="X93" s="106"/>
+      <c r="Y93" s="106"/>
+      <c r="Z93" s="106"/>
+      <c r="AA93" s="106"/>
+      <c r="AB93" s="106"/>
+      <c r="AC93" s="106"/>
+      <c r="AD93" s="106"/>
+      <c r="AE93" s="76"/>
+      <c r="AF93" s="76"/>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="99" t="s">
         <v>645</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="108" t="s">
         <v>647</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="13" t="s">
         <v>648</v>
       </c>
       <c r="E95" s="17" t="s">
@@ -21444,9 +21458,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="52" t="s">
-        <v>649</v>
-      </c>
+      <c r="I95" s="13"/>
       <c r="J95" s="13"/>
       <c r="K95" s="36">
         <v>45396.0</v>
@@ -21479,16 +21491,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="C96" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>653</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>58</v>
@@ -21496,7 +21508,9 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
+      <c r="I96" s="52" t="s">
+        <v>653</v>
+      </c>
       <c r="J96" s="13"/>
       <c r="K96" s="36">
         <v>45396.0</v>
@@ -21537,7 +21551,7 @@
       <c r="C97" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="13" t="s">
         <v>657</v>
       </c>
       <c r="E97" s="17" t="s">
@@ -21587,7 +21601,7 @@
       <c r="C98" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="9" t="s">
         <v>661</v>
       </c>
       <c r="E98" s="17" t="s">
@@ -21638,7 +21652,7 @@
         <v>664</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>58</v>
@@ -21646,9 +21660,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
-      <c r="I99" s="52" t="s">
-        <v>665</v>
-      </c>
+      <c r="I99" s="13"/>
       <c r="J99" s="13"/>
       <c r="K99" s="36">
         <v>45396.0</v>
@@ -21690,7 +21702,7 @@
         <v>668</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -21698,7 +21710,9 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="I100" s="52" t="s">
+        <v>669</v>
+      </c>
       <c r="J100" s="13"/>
       <c r="K100" s="36">
         <v>45396.0</v>
@@ -21731,16 +21745,16 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="D101" s="9" t="s">
         <v>672</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>657</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -21789,7 +21803,7 @@
       <c r="C102" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="9" t="s">
         <v>676</v>
       </c>
       <c r="E102" s="17" t="s">
@@ -21799,9 +21813,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
-      <c r="J102" s="13" t="s">
-        <v>387</v>
-      </c>
+      <c r="J102" s="13"/>
       <c r="K102" s="36">
         <v>45396.0</v>
       </c>
@@ -21809,8 +21821,8 @@
       <c r="M102" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N102" s="109" t="s">
-        <v>388</v>
+      <c r="N102" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
@@ -21832,122 +21844,122 @@
       <c r="AF102" s="13"/>
     </row>
     <row r="103">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="9" t="s">
         <v>679</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="20">
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K103" s="36">
         <v>45396.0</v>
       </c>
-      <c r="L103" s="19"/>
-      <c r="M103" s="17" t="s">
+      <c r="L103" s="13"/>
+      <c r="M103" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N103" s="52" t="s">
+      <c r="N103" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="13"/>
+      <c r="X103" s="13"/>
+      <c r="Y103" s="13"/>
+      <c r="Z103" s="13"/>
+      <c r="AA103" s="13"/>
+      <c r="AB103" s="13"/>
+      <c r="AC103" s="13"/>
+      <c r="AD103" s="13"/>
+      <c r="AE103" s="13"/>
+      <c r="AF103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="20">
+        <v>45396.0</v>
+      </c>
+      <c r="L104" s="19"/>
+      <c r="M104" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="19"/>
-      <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="19"/>
-      <c r="AB103" s="19"/>
-      <c r="AC103" s="19"/>
-      <c r="AD103" s="19"/>
-      <c r="AE103" s="19"/>
-      <c r="AF103" s="19"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="22"/>
-      <c r="K104" s="20"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="19"/>
+      <c r="X104" s="19"/>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="19"/>
+      <c r="AA104" s="19"/>
+      <c r="AB104" s="19"/>
+      <c r="AC104" s="19"/>
+      <c r="AD104" s="19"/>
+      <c r="AE104" s="19"/>
+      <c r="AF104" s="19"/>
     </row>
     <row r="105">
-      <c r="A105" s="99" t="s">
-        <v>680</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="C105" s="70" t="s">
-        <v>682</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="K105" s="36">
-        <v>45396.0</v>
-      </c>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N105" s="109" t="s">
-        <v>388</v>
-      </c>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="13"/>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="13"/>
-      <c r="AC105" s="13"/>
-      <c r="AD105" s="13"/>
-      <c r="AE105" s="13"/>
-      <c r="AF105" s="13"/>
+      <c r="B105" s="22"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="99" t="s">
         <v>684</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="C106" s="108" t="s">
+      <c r="C106" s="70" t="s">
         <v>686</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>687</v>
-      </c>
+      <c r="D106" s="13"/>
       <c r="E106" s="17" t="s">
         <v>58</v>
       </c>
@@ -21956,7 +21968,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -21994,11 +22006,11 @@
       <c r="B107" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="C107" s="70" t="s">
+      <c r="C107" s="108" t="s">
         <v>690</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22008,7 +22020,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -22041,16 +22053,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C108" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>691</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="C108" s="70" t="s">
-        <v>693</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>687</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -22060,7 +22072,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K108" s="36">
         <v>45396.0</v>
@@ -22091,62 +22103,70 @@
       <c r="AE108" s="13"/>
       <c r="AF108" s="13"/>
     </row>
-    <row r="110">
-      <c r="A110" s="100"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="83"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="91"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-      <c r="S110" s="76"/>
-      <c r="T110" s="76"/>
-      <c r="U110" s="76"/>
-      <c r="V110" s="76"/>
-      <c r="W110" s="76"/>
-      <c r="X110" s="76"/>
-      <c r="Y110" s="76"/>
-      <c r="Z110" s="76"/>
-      <c r="AA110" s="76"/>
-      <c r="AB110" s="76"/>
-      <c r="AC110" s="76"/>
-      <c r="AD110" s="76"/>
-      <c r="AE110" s="76"/>
-      <c r="AF110" s="76"/>
+    <row r="109">
+      <c r="A109" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C109" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="K109" s="36">
+        <v>45396.0</v>
+      </c>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="13"/>
+      <c r="X109" s="13"/>
+      <c r="Y109" s="13"/>
+      <c r="Z109" s="13"/>
+      <c r="AA109" s="13"/>
+      <c r="AB109" s="13"/>
+      <c r="AC109" s="13"/>
+      <c r="AD109" s="13"/>
+      <c r="AE109" s="13"/>
+      <c r="AF109" s="13"/>
     </row>
     <row r="111">
-      <c r="A111" s="76" t="s">
-        <v>694</v>
-      </c>
-      <c r="B111" s="76" t="s">
-        <v>695</v>
-      </c>
-      <c r="C111" s="96" t="s">
-        <v>696</v>
-      </c>
-      <c r="D111" s="76"/>
-      <c r="E111" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A111" s="100"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="83"/>
       <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
+      <c r="G111" s="91"/>
       <c r="H111" s="76"/>
       <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
+      <c r="J111" s="91"/>
       <c r="K111" s="76"/>
       <c r="L111" s="76"/>
-      <c r="M111" s="17" t="s">
-        <v>697</v>
-      </c>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
       <c r="P111" s="76"/>
@@ -22164,39 +22184,37 @@
       <c r="AB111" s="76"/>
       <c r="AC111" s="76"/>
       <c r="AD111" s="76"/>
+      <c r="AE111" s="76"/>
+      <c r="AF111" s="76"/>
     </row>
     <row r="112">
-      <c r="A112" s="80" t="s">
+      <c r="A112" s="76" t="s">
         <v>698</v>
       </c>
-      <c r="B112" s="86"/>
-      <c r="C112" s="82" t="s">
+      <c r="B112" s="76" t="s">
         <v>699</v>
       </c>
-      <c r="D112" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="84" t="s">
+      <c r="C112" s="96" t="s">
+        <v>700</v>
+      </c>
+      <c r="D112" s="76"/>
+      <c r="E112" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F112" s="85"/>
-      <c r="G112" s="85"/>
-      <c r="H112" s="85"/>
-      <c r="I112" s="86"/>
-      <c r="J112" s="86"/>
-      <c r="K112" s="78">
-        <v>45396.0</v>
-      </c>
-      <c r="L112" s="87"/>
-      <c r="M112" s="74" t="s">
-        <v>697</v>
-      </c>
-      <c r="N112" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="O112" s="86"/>
-      <c r="P112" s="85"/>
-      <c r="Q112" s="85"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="N112" s="76"/>
+      <c r="O112" s="76"/>
+      <c r="P112" s="76"/>
+      <c r="Q112" s="76"/>
       <c r="R112" s="76"/>
       <c r="S112" s="76"/>
       <c r="T112" s="76"/>
@@ -22210,74 +22228,70 @@
       <c r="AB112" s="76"/>
       <c r="AC112" s="76"/>
       <c r="AD112" s="76"/>
-      <c r="AE112" s="76"/>
-      <c r="AF112" s="76"/>
     </row>
     <row r="113">
-      <c r="B113" s="22"/>
-      <c r="N113" s="111"/>
+      <c r="A113" s="80" t="s">
+        <v>702</v>
+      </c>
+      <c r="B113" s="86"/>
+      <c r="C113" s="82" t="s">
+        <v>703</v>
+      </c>
+      <c r="D113" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="86"/>
+      <c r="J113" s="86"/>
+      <c r="K113" s="78">
+        <v>45396.0</v>
+      </c>
+      <c r="L113" s="87"/>
+      <c r="M113" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="N113" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="O113" s="86"/>
+      <c r="P113" s="85"/>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="76"/>
+      <c r="S113" s="76"/>
+      <c r="T113" s="76"/>
+      <c r="U113" s="76"/>
+      <c r="V113" s="76"/>
+      <c r="W113" s="76"/>
+      <c r="X113" s="76"/>
+      <c r="Y113" s="76"/>
+      <c r="Z113" s="76"/>
+      <c r="AA113" s="76"/>
+      <c r="AB113" s="76"/>
+      <c r="AC113" s="76"/>
+      <c r="AD113" s="76"/>
+      <c r="AE113" s="76"/>
+      <c r="AF113" s="76"/>
     </row>
     <row r="114">
-      <c r="A114" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="20">
-        <v>45429.0</v>
-      </c>
-      <c r="L114" s="19"/>
-      <c r="M114" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N114" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
-      <c r="V114" s="19"/>
-      <c r="W114" s="19"/>
-      <c r="X114" s="19"/>
-      <c r="Y114" s="19"/>
-      <c r="Z114" s="19"/>
-      <c r="AA114" s="19"/>
-      <c r="AB114" s="19"/>
-      <c r="AC114" s="19"/>
-      <c r="AD114" s="19"/>
-      <c r="AE114" s="19"/>
-      <c r="AF114" s="19"/>
+      <c r="B114" s="22"/>
+      <c r="N114" s="111"/>
     </row>
     <row r="115">
       <c r="A115" s="17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="D115" s="17" t="s">
         <v>706</v>
       </c>
+      <c r="D115" s="19"/>
       <c r="E115" s="84" t="s">
         <v>58</v>
       </c>
@@ -22326,7 +22340,7 @@
         <v>709</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="E116" s="84" t="s">
         <v>58</v>
@@ -22365,50 +22379,62 @@
       <c r="AE116" s="19"/>
       <c r="AF116" s="19"/>
     </row>
-    <row r="119">
-      <c r="A119" s="112" t="s">
+    <row r="117">
+      <c r="A117" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="B119" s="76"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="76"/>
-      <c r="N119" s="76"/>
-      <c r="O119" s="76"/>
-      <c r="P119" s="76"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="76"/>
-      <c r="S119" s="76"/>
-      <c r="T119" s="76"/>
-      <c r="U119" s="76"/>
-      <c r="V119" s="76"/>
-      <c r="W119" s="76"/>
-      <c r="X119" s="76"/>
-      <c r="Y119" s="76"/>
-      <c r="Z119" s="76"/>
-      <c r="AA119" s="76"/>
-      <c r="AB119" s="76"/>
-      <c r="AC119" s="76"/>
-      <c r="AD119" s="76"/>
+      <c r="E117" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L117" s="19"/>
+      <c r="M117" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N117" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
     </row>
     <row r="120">
-      <c r="A120" s="76" t="s">
-        <v>407</v>
-      </c>
-      <c r="B120" s="76" t="s">
-        <v>711</v>
-      </c>
-      <c r="C120" s="76" t="s">
-        <v>712</v>
-      </c>
+      <c r="A120" s="112" t="s">
+        <v>714</v>
+      </c>
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="76"/>
       <c r="E120" s="76"/>
       <c r="F120" s="76"/>
@@ -22439,17 +22465,15 @@
     </row>
     <row r="121">
       <c r="A121" s="76" t="s">
-        <v>713</v>
+        <v>407</v>
       </c>
       <c r="B121" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C121" s="76" t="s">
-        <v>714</v>
-      </c>
-      <c r="D121" s="76" t="s">
-        <v>711</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="D121" s="76"/>
       <c r="E121" s="76"/>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
@@ -22479,15 +22503,17 @@
     </row>
     <row r="122">
       <c r="A122" s="76" t="s">
+        <v>717</v>
+      </c>
+      <c r="B122" s="76" t="s">
         <v>715</v>
       </c>
-      <c r="B122" s="76" t="s">
-        <v>711</v>
-      </c>
       <c r="C122" s="76" t="s">
-        <v>716</v>
-      </c>
-      <c r="D122" s="76"/>
+        <v>718</v>
+      </c>
+      <c r="D122" s="76" t="s">
+        <v>715</v>
+      </c>
       <c r="E122" s="76"/>
       <c r="F122" s="76"/>
       <c r="G122" s="76"/>
@@ -22517,13 +22543,13 @@
     </row>
     <row r="123">
       <c r="A123" s="76" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C123" s="76" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
@@ -22555,12 +22581,14 @@
     </row>
     <row r="124">
       <c r="A124" s="76" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>711</v>
-      </c>
-      <c r="C124" s="76"/>
+        <v>715</v>
+      </c>
+      <c r="C124" s="76" t="s">
+        <v>722</v>
+      </c>
       <c r="D124" s="76"/>
       <c r="E124" s="76"/>
       <c r="F124" s="76"/>
@@ -22591,10 +22619,10 @@
     </row>
     <row r="125">
       <c r="A125" s="76" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B125" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C125" s="76"/>
       <c r="D125" s="76"/>
@@ -22627,10 +22655,10 @@
     </row>
     <row r="126">
       <c r="A126" s="76" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C126" s="76"/>
       <c r="D126" s="76"/>
@@ -22663,10 +22691,10 @@
     </row>
     <row r="127">
       <c r="A127" s="76" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B127" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C127" s="76"/>
       <c r="D127" s="76"/>
@@ -22699,10 +22727,10 @@
     </row>
     <row r="128">
       <c r="A128" s="76" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C128" s="76"/>
       <c r="D128" s="76"/>
@@ -22735,10 +22763,10 @@
     </row>
     <row r="129">
       <c r="A129" s="76" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C129" s="76"/>
       <c r="D129" s="76"/>
@@ -22771,10 +22799,10 @@
     </row>
     <row r="130">
       <c r="A130" s="76" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C130" s="76"/>
       <c r="D130" s="76"/>
@@ -22807,10 +22835,10 @@
     </row>
     <row r="131">
       <c r="A131" s="76" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C131" s="76"/>
       <c r="D131" s="76"/>
@@ -22843,10 +22871,10 @@
     </row>
     <row r="132">
       <c r="A132" s="76" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C132" s="76"/>
       <c r="D132" s="76"/>
@@ -22879,10 +22907,10 @@
     </row>
     <row r="133">
       <c r="A133" s="76" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C133" s="76"/>
       <c r="D133" s="76"/>
@@ -22915,10 +22943,10 @@
     </row>
     <row r="134">
       <c r="A134" s="76" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="C134" s="76"/>
       <c r="D134" s="76"/>
@@ -22951,10 +22979,10 @@
     </row>
     <row r="135">
       <c r="A135" s="76" t="s">
-        <v>36</v>
+        <v>733</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C135" s="76"/>
       <c r="D135" s="76"/>
@@ -22987,9 +23015,11 @@
     </row>
     <row r="136">
       <c r="A136" s="76" t="s">
-        <v>732</v>
-      </c>
-      <c r="B136" s="76"/>
+        <v>36</v>
+      </c>
+      <c r="B136" s="76" t="s">
+        <v>735</v>
+      </c>
       <c r="C136" s="76"/>
       <c r="D136" s="76"/>
       <c r="E136" s="76"/>
@@ -23021,7 +23051,7 @@
     </row>
     <row r="137">
       <c r="A137" s="76" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B137" s="76"/>
       <c r="C137" s="76"/>
@@ -23055,7 +23085,7 @@
     </row>
     <row r="138">
       <c r="A138" s="76" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B138" s="76"/>
       <c r="C138" s="76"/>
@@ -23089,7 +23119,7 @@
     </row>
     <row r="139">
       <c r="A139" s="76" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B139" s="76"/>
       <c r="C139" s="76"/>
@@ -23123,7 +23153,7 @@
     </row>
     <row r="140">
       <c r="A140" s="76" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B140" s="76"/>
       <c r="C140" s="76"/>
@@ -23156,7 +23186,9 @@
       <c r="AD140" s="76"/>
     </row>
     <row r="141">
-      <c r="A141" s="76"/>
+      <c r="A141" s="76" t="s">
+        <v>740</v>
+      </c>
       <c r="B141" s="76"/>
       <c r="C141" s="76"/>
       <c r="D141" s="76"/>
@@ -23188,13 +23220,9 @@
       <c r="AD141" s="76"/>
     </row>
     <row r="142">
-      <c r="A142" s="76" t="s">
-        <v>737</v>
-      </c>
+      <c r="A142" s="76"/>
       <c r="B142" s="76"/>
-      <c r="C142" s="76" t="s">
-        <v>738</v>
-      </c>
+      <c r="C142" s="76"/>
       <c r="D142" s="76"/>
       <c r="E142" s="76"/>
       <c r="F142" s="76"/>
@@ -23224,7 +23252,40 @@
       <c r="AD142" s="76"/>
     </row>
     <row r="143">
-      <c r="B143" s="23"/>
+      <c r="A143" s="76" t="s">
+        <v>741</v>
+      </c>
+      <c r="B143" s="76"/>
+      <c r="C143" s="76" t="s">
+        <v>742</v>
+      </c>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="79"/>
+      <c r="L143" s="79"/>
+      <c r="M143" s="76"/>
+      <c r="N143" s="76"/>
+      <c r="O143" s="76"/>
+      <c r="P143" s="76"/>
+      <c r="Q143" s="76"/>
+      <c r="R143" s="76"/>
+      <c r="S143" s="76"/>
+      <c r="T143" s="76"/>
+      <c r="U143" s="76"/>
+      <c r="V143" s="76"/>
+      <c r="W143" s="76"/>
+      <c r="X143" s="76"/>
+      <c r="Y143" s="76"/>
+      <c r="Z143" s="76"/>
+      <c r="AA143" s="76"/>
+      <c r="AB143" s="76"/>
+      <c r="AC143" s="76"/>
+      <c r="AD143" s="76"/>
     </row>
     <row r="144">
       <c r="B144" s="23"/>
@@ -25731,18 +25792,21 @@
     <row r="978">
       <c r="B978" s="23"/>
     </row>
+    <row r="979">
+      <c r="B979" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF208">
+  <conditionalFormatting sqref="A2:AF209">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q211">
+  <conditionalFormatting sqref="A1:Q212">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q211">
+  <conditionalFormatting sqref="A1:Q212">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -25797,25 +25861,26 @@
     <hyperlink r:id="rId47" ref="O63"/>
     <hyperlink r:id="rId48" ref="O64"/>
     <hyperlink r:id="rId49" ref="O65"/>
-    <hyperlink r:id="rId50" ref="I66"/>
-    <hyperlink r:id="rId51" ref="O66"/>
-    <hyperlink r:id="rId52" ref="O71"/>
+    <hyperlink r:id="rId50" ref="O66"/>
+    <hyperlink r:id="rId51" ref="I67"/>
+    <hyperlink r:id="rId52" ref="O67"/>
     <hyperlink r:id="rId53" ref="O72"/>
     <hyperlink r:id="rId54" ref="O73"/>
-    <hyperlink r:id="rId55" ref="O75"/>
-    <hyperlink r:id="rId56" ref="O77"/>
-    <hyperlink r:id="rId57" ref="J78"/>
-    <hyperlink r:id="rId58" ref="O78"/>
+    <hyperlink r:id="rId55" ref="O74"/>
+    <hyperlink r:id="rId56" ref="O76"/>
+    <hyperlink r:id="rId57" ref="O78"/>
+    <hyperlink r:id="rId58" ref="J79"/>
     <hyperlink r:id="rId59" ref="O79"/>
     <hyperlink r:id="rId60" ref="O80"/>
-    <hyperlink r:id="rId61" ref="J81"/>
-    <hyperlink r:id="rId62" ref="O81"/>
+    <hyperlink r:id="rId61" ref="O81"/>
+    <hyperlink r:id="rId62" ref="J82"/>
     <hyperlink r:id="rId63" ref="O82"/>
-    <hyperlink r:id="rId64" ref="O84"/>
+    <hyperlink r:id="rId64" ref="O83"/>
     <hyperlink r:id="rId65" ref="O85"/>
-    <hyperlink r:id="rId66" ref="J86"/>
+    <hyperlink r:id="rId66" ref="O86"/>
+    <hyperlink r:id="rId67" ref="J87"/>
   </hyperlinks>
-  <drawing r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -25887,13 +25952,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -25936,16 +26001,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -25999,16 +26064,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>81</v>
@@ -26017,7 +26082,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="17" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -26028,7 +26093,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>63</v>
@@ -26052,16 +26117,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>81</v>
@@ -26079,7 +26144,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="O6" s="68" t="s">
         <v>63</v>
@@ -26103,16 +26168,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>81</v>
@@ -26130,7 +26195,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="O7" s="68" t="s">
         <v>63</v>
@@ -26154,16 +26219,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>758</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>754</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>81</v>
@@ -26181,7 +26246,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>63</v>
@@ -26205,16 +26270,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>81</v>
@@ -26289,16 +26354,16 @@
     </row>
     <row r="11">
       <c r="A11" s="113" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -26308,7 +26373,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -26338,16 +26403,16 @@
     </row>
     <row r="12">
       <c r="A12" s="114" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -26385,16 +26450,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -26439,30 +26504,30 @@
     </row>
     <row r="15">
       <c r="A15" s="113" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="91" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="91" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="K15" s="20">
         <v>44601.0</v>
@@ -29200,13 +29265,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>104</v>
@@ -29219,7 +29284,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -29253,13 +29318,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -29270,7 +29335,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="K3" s="67">
         <v>45396.0</v>
@@ -29302,13 +29367,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -29319,7 +29384,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="K4" s="67">
         <v>45396.0</v>
@@ -29351,13 +29416,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -29368,7 +29433,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="K5" s="67">
         <v>45396.0</v>
@@ -29400,13 +29465,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -29417,7 +29482,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K6" s="67">
         <v>45396.0</v>
@@ -29449,13 +29514,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -29466,7 +29531,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="K7" s="67">
         <v>45396.0</v>
@@ -29498,13 +29563,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -29515,7 +29580,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="K8" s="67">
         <v>45396.0</v>
@@ -29547,13 +29612,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -29564,7 +29629,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="K9" s="67">
         <v>45396.0</v>
@@ -29596,13 +29661,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -29613,7 +29678,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="K10" s="67">
         <v>45396.0</v>
@@ -29645,13 +29710,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -29662,7 +29727,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="K11" s="67">
         <v>45396.0</v>
@@ -29694,13 +29759,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -29711,7 +29776,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="K12" s="67">
         <v>45396.0</v>
@@ -33313,13 +33378,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -33329,7 +33394,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -33337,7 +33402,7 @@
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>53</v>
@@ -33359,13 +33424,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -33381,7 +33446,7 @@
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>53</v>
@@ -33403,13 +33468,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -33419,7 +33484,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20">
@@ -33427,7 +33492,7 @@
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>53</v>
@@ -33438,13 +33503,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -33454,7 +33519,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="90" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -33462,7 +33527,7 @@
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>53</v>
@@ -33473,13 +33538,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -33489,7 +33554,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20">
@@ -33497,7 +33562,7 @@
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>53</v>
@@ -33508,13 +33573,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -33524,7 +33589,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20">
@@ -33532,7 +33597,7 @@
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>53</v>
@@ -33543,13 +33608,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -33559,7 +33624,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20">
@@ -33567,7 +33632,7 @@
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>53</v>
@@ -33578,13 +33643,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -33600,7 +33665,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>53</v>
@@ -33611,13 +33676,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -33633,7 +33698,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>53</v>
@@ -33644,13 +33709,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -33666,7 +33731,7 @@
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>53</v>
@@ -33677,13 +33742,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -33699,7 +33764,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>53</v>
@@ -33710,13 +33775,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
@@ -33732,7 +33797,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>53</v>
@@ -33743,13 +33808,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">
@@ -33765,7 +33830,7 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="17" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>53</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="893">
   <si>
     <t>Term</t>
   </si>
@@ -2717,6 +2717,9 @@
     <t>A notice that contains layered elements</t>
   </si>
   <si>
+    <t>(ICO - What methods can we use to provide privacy information?,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/the-right-to-be-informed/what-methods-can-we-use-to-provide-privacy-information/)</t>
+  </si>
+  <si>
     <t>GraphicalNotice</t>
   </si>
   <si>
@@ -2798,6 +2801,27 @@
     <t>An icon within a notice associated with specific information or elements</t>
   </si>
   <si>
+    <t>NoticeStatus</t>
+  </si>
+  <si>
+    <t>NoticeGenerated</t>
+  </si>
+  <si>
+    <t>NoticeCommunicated</t>
+  </si>
+  <si>
+    <t>NoticeUnused</t>
+  </si>
+  <si>
+    <t>NoticeUsed</t>
+  </si>
+  <si>
+    <t>NoticeUpdated</t>
+  </si>
+  <si>
+    <t>NoticeLatest</t>
+  </si>
+  <si>
     <t>hasNoticeLayer</t>
   </si>
   <si>
@@ -2834,6 +2858,9 @@
     <t>A legally binding agreement</t>
   </si>
   <si>
+    <t>sunset</t>
+  </si>
+  <si>
     <t>ContractualTerms</t>
   </si>
   <si>
@@ -2843,18 +2870,30 @@
     <t>Contractual terms governing data handling within or with an entity</t>
   </si>
   <si>
+    <t>DataHandlingClause</t>
+  </si>
+  <si>
+    <t>Data Handling Clause</t>
+  </si>
+  <si>
+    <t>Conctractual clauses governing handling of data within or by an entity</t>
+  </si>
+  <si>
+    <t>dpv:ContractualTerms</t>
+  </si>
+  <si>
+    <t>DataProcessingAgreement</t>
+  </si>
+  <si>
+    <t>Data Processing Agreement</t>
+  </si>
+  <si>
+    <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data</t>
+  </si>
+  <si>
     <t>dpv:LegalAgreement</t>
   </si>
   <si>
-    <t>DataProcessingAgreement</t>
-  </si>
-  <si>
-    <t>Data Processing Agreement</t>
-  </si>
-  <si>
-    <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data</t>
-  </si>
-  <si>
     <t>For specific role-based data processing agreements, see concepts for Processors and JointDataController agreements.</t>
   </si>
   <si>
@@ -2934,9 +2973,6 @@
   </si>
   <si>
     <t>A Legal Document providing permission to utilise data or resource and outlining the conditions under which such use is considered valid</t>
-  </si>
-  <si>
-    <t>dpv:ContractualTerms</t>
   </si>
   <si>
     <t>odrl:Offer</t>
@@ -3084,7 +3120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="47">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3284,6 +3320,45 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <strike/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <color rgb="FF073763"/>
+    </font>
+    <font>
+      <strike/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3379,7 +3454,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3712,14 +3787,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -3739,11 +3814,48 @@
     <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="42" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -26701,7 +26813,9 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K10" s="78">
         <v>45521.0</v>
       </c>
@@ -26731,13 +26845,13 @@
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D11" s="77" t="s">
         <v>74</v>
@@ -26749,7 +26863,9 @@
       <c r="G11" s="76"/>
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="J11" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K11" s="78">
         <v>45521.0</v>
       </c>
@@ -26779,13 +26895,13 @@
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D12" s="77" t="s">
         <v>74</v>
@@ -26797,7 +26913,9 @@
       <c r="G12" s="76"/>
       <c r="H12" s="76"/>
       <c r="I12" s="76"/>
-      <c r="J12" s="114"/>
+      <c r="J12" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K12" s="78">
         <v>45521.0</v>
       </c>
@@ -26827,13 +26945,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D13" s="77" t="s">
         <v>74</v>
@@ -26845,7 +26963,9 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="J13" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K13" s="78">
         <v>45521.0</v>
       </c>
@@ -26875,13 +26995,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D14" s="77" t="s">
         <v>74</v>
@@ -26893,7 +27013,9 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K14" s="78">
         <v>45521.0</v>
       </c>
@@ -26923,13 +27045,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D15" s="77" t="s">
         <v>74</v>
@@ -26941,7 +27063,9 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="J15" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K15" s="78">
         <v>45521.0</v>
       </c>
@@ -26971,13 +27095,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D16" s="77" t="s">
         <v>74</v>
@@ -26989,7 +27113,9 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="J16" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K16" s="78">
         <v>45521.0</v>
       </c>
@@ -27019,13 +27145,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D17" s="77" t="s">
         <v>74</v>
@@ -27037,7 +27163,9 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="19"/>
+      <c r="J17" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K17" s="78">
         <v>45521.0</v>
       </c>
@@ -27071,17 +27199,17 @@
       <c r="I18" s="49"/>
       <c r="K18" s="78"/>
       <c r="L18" s="20"/>
-      <c r="O18" s="115"/>
+      <c r="O18" s="114"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
@@ -27093,7 +27221,9 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K19" s="78">
         <v>45521.0</v>
       </c>
@@ -27123,13 +27253,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>18</v>
@@ -27141,7 +27271,9 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="17" t="s">
+        <v>761</v>
+      </c>
       <c r="K20" s="78">
         <v>45521.0</v>
       </c>
@@ -27176,26 +27308,36 @@
       <c r="N21" s="29"/>
     </row>
     <row r="22">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>789</v>
+      </c>
       <c r="B22" s="22"/>
       <c r="K22" s="40"/>
       <c r="L22" s="20"/>
       <c r="N22" s="29"/>
     </row>
     <row r="23">
-      <c r="A23" s="8"/>
+      <c r="A23" s="17" t="s">
+        <v>790</v>
+      </c>
       <c r="B23" s="22"/>
       <c r="K23" s="40"/>
       <c r="L23" s="20"/>
       <c r="N23" s="29"/>
     </row>
     <row r="24">
+      <c r="A24" s="17" t="s">
+        <v>791</v>
+      </c>
       <c r="B24" s="22"/>
       <c r="K24" s="40"/>
       <c r="L24" s="20"/>
       <c r="N24" s="29"/>
     </row>
     <row r="25">
+      <c r="A25" s="17" t="s">
+        <v>792</v>
+      </c>
       <c r="B25" s="22"/>
       <c r="C25" s="72"/>
       <c r="K25" s="20"/>
@@ -27203,6 +27345,9 @@
       <c r="O25" s="28"/>
     </row>
     <row r="26">
+      <c r="A26" s="17" t="s">
+        <v>793</v>
+      </c>
       <c r="B26" s="22"/>
       <c r="C26" s="72"/>
       <c r="K26" s="20"/>
@@ -27210,6 +27355,9 @@
       <c r="O26" s="28"/>
     </row>
     <row r="27">
+      <c r="A27" s="17" t="s">
+        <v>794</v>
+      </c>
       <c r="B27" s="22"/>
       <c r="C27" s="72"/>
       <c r="K27" s="20"/>
@@ -27217,24 +27365,29 @@
       <c r="O27" s="28"/>
     </row>
     <row r="28">
+      <c r="A28" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="72"/>
       <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="18"/>
-      <c r="I29" s="72"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="O29" s="28"/>
     </row>
     <row r="30">
-      <c r="B30" s="22"/>
-      <c r="J30" s="49"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
+      <c r="I30" s="72"/>
       <c r="K30" s="20"/>
-      <c r="M30" s="29"/>
+      <c r="L30" s="20"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31">
       <c r="B31" s="22"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="20"/>
       <c r="M31" s="29"/>
     </row>
@@ -27245,70 +27398,41 @@
     </row>
     <row r="33">
       <c r="B33" s="22"/>
-      <c r="J33" s="49"/>
       <c r="K33" s="20"/>
       <c r="M33" s="29"/>
     </row>
     <row r="34">
       <c r="B34" s="22"/>
+      <c r="J34" s="49"/>
       <c r="K34" s="20"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35">
       <c r="B35" s="22"/>
-      <c r="C35" s="69"/>
-      <c r="J35" s="49"/>
       <c r="K35" s="20"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36">
-      <c r="A36" s="112"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="69"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="20"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37">
-      <c r="A37" s="76"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="76"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="76"/>
-      <c r="E37" s="114"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="76"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="77"/>
       <c r="K37" s="117"/>
       <c r="L37" s="79"/>
-      <c r="M37" s="76"/>
+      <c r="M37" s="77"/>
       <c r="N37" s="74"/>
       <c r="O37" s="118"/>
       <c r="P37" s="76"/>
@@ -27330,68 +27454,70 @@
       <c r="AF37" s="76"/>
     </row>
     <row r="38">
-      <c r="B38" s="22"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="E38" s="114"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="20"/>
-      <c r="O38" s="63"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
     </row>
     <row r="39">
       <c r="B39" s="22"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="116"/>
       <c r="J39" s="49"/>
       <c r="K39" s="20"/>
-      <c r="M39" s="29"/>
+      <c r="O39" s="63"/>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
       <c r="B40" s="22"/>
+      <c r="J40" s="49"/>
       <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="28"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41">
-      <c r="A41" s="100"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="100"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="76"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="22"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
       <c r="N41" s="74"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="76"/>
-      <c r="AB41" s="76"/>
-      <c r="AC41" s="76"/>
-      <c r="AD41" s="76"/>
-      <c r="AE41" s="76"/>
-      <c r="AF41" s="76"/>
+      <c r="O41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="83"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="91"/>
-      <c r="C42" s="101"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="100"/>
       <c r="F42" s="76"/>
       <c r="G42" s="91"/>
       <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="91"/>
       <c r="K42" s="78"/>
       <c r="L42" s="76"/>
@@ -27416,14 +27542,14 @@
       <c r="AF42" s="76"/>
     </row>
     <row r="43">
-      <c r="A43" s="73"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="91"/>
-      <c r="C43" s="75"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="100"/>
       <c r="F43" s="76"/>
       <c r="G43" s="91"/>
       <c r="H43" s="76"/>
-      <c r="I43" s="74"/>
+      <c r="I43" s="76"/>
       <c r="J43" s="91"/>
       <c r="K43" s="78"/>
       <c r="L43" s="76"/>
@@ -27448,14 +27574,14 @@
       <c r="AF43" s="76"/>
     </row>
     <row r="44">
-      <c r="A44" s="100"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="91"/>
       <c r="C44" s="75"/>
-      <c r="D44" s="83"/>
+      <c r="D44" s="100"/>
       <c r="F44" s="76"/>
       <c r="G44" s="91"/>
       <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="91"/>
       <c r="K44" s="78"/>
       <c r="L44" s="76"/>
@@ -27479,53 +27605,52 @@
       <c r="AE44" s="76"/>
       <c r="AF44" s="76"/>
     </row>
-    <row r="46">
-      <c r="A46" s="112"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="76"/>
-      <c r="AC46" s="76"/>
-      <c r="AD46" s="76"/>
-      <c r="AE46" s="76"/>
-      <c r="AF46" s="76"/>
+    <row r="45">
+      <c r="A45" s="100"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="83"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="76"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
     </row>
     <row r="47">
-      <c r="A47" s="76"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="76"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="76"/>
       <c r="F47" s="76"/>
       <c r="G47" s="76"/>
       <c r="H47" s="76"/>
-      <c r="I47" s="114"/>
+      <c r="I47" s="76"/>
       <c r="J47" s="76"/>
       <c r="K47" s="78"/>
       <c r="L47" s="76"/>
       <c r="M47" s="76"/>
-      <c r="N47" s="114"/>
+      <c r="N47" s="116"/>
       <c r="O47" s="76"/>
       <c r="P47" s="76"/>
       <c r="Q47" s="76"/>
@@ -27549,16 +27674,16 @@
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="74"/>
-      <c r="D48" s="76"/>
+      <c r="D48" s="74"/>
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
       <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
+      <c r="I48" s="116"/>
       <c r="J48" s="76"/>
       <c r="K48" s="78"/>
       <c r="L48" s="76"/>
       <c r="M48" s="76"/>
-      <c r="N48" s="114"/>
+      <c r="N48" s="116"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
@@ -27582,7 +27707,7 @@
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
+      <c r="D49" s="76"/>
       <c r="F49" s="76"/>
       <c r="G49" s="76"/>
       <c r="H49" s="76"/>
@@ -27591,7 +27716,7 @@
       <c r="K49" s="78"/>
       <c r="L49" s="76"/>
       <c r="M49" s="76"/>
-      <c r="N49" s="114"/>
+      <c r="N49" s="116"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
@@ -27615,7 +27740,7 @@
       <c r="A50" s="76"/>
       <c r="B50" s="76"/>
       <c r="C50" s="74"/>
-      <c r="D50" s="76"/>
+      <c r="D50" s="74"/>
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
       <c r="H50" s="76"/>
@@ -27624,7 +27749,7 @@
       <c r="K50" s="78"/>
       <c r="L50" s="76"/>
       <c r="M50" s="76"/>
-      <c r="N50" s="114"/>
+      <c r="N50" s="116"/>
       <c r="O50" s="76"/>
       <c r="P50" s="76"/>
       <c r="Q50" s="76"/>
@@ -27652,12 +27777,12 @@
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
       <c r="H51" s="76"/>
-      <c r="I51" s="114"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="76"/>
       <c r="K51" s="78"/>
       <c r="L51" s="76"/>
       <c r="M51" s="76"/>
-      <c r="N51" s="114"/>
+      <c r="N51" s="116"/>
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
       <c r="Q51" s="76"/>
@@ -27685,12 +27810,12 @@
       <c r="F52" s="76"/>
       <c r="G52" s="76"/>
       <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
+      <c r="I52" s="116"/>
       <c r="J52" s="76"/>
       <c r="K52" s="78"/>
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
-      <c r="N52" s="114"/>
+      <c r="N52" s="116"/>
       <c r="O52" s="76"/>
       <c r="P52" s="76"/>
       <c r="Q52" s="76"/>
@@ -27714,7 +27839,7 @@
       <c r="A53" s="76"/>
       <c r="B53" s="76"/>
       <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
+      <c r="D53" s="76"/>
       <c r="F53" s="76"/>
       <c r="G53" s="76"/>
       <c r="H53" s="76"/>
@@ -27723,7 +27848,7 @@
       <c r="K53" s="78"/>
       <c r="L53" s="76"/>
       <c r="M53" s="76"/>
-      <c r="N53" s="114"/>
+      <c r="N53" s="116"/>
       <c r="O53" s="76"/>
       <c r="P53" s="76"/>
       <c r="Q53" s="76"/>
@@ -27747,7 +27872,7 @@
       <c r="A54" s="76"/>
       <c r="B54" s="76"/>
       <c r="C54" s="74"/>
-      <c r="D54" s="76"/>
+      <c r="D54" s="74"/>
       <c r="F54" s="76"/>
       <c r="G54" s="76"/>
       <c r="H54" s="76"/>
@@ -27756,7 +27881,7 @@
       <c r="K54" s="78"/>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
-      <c r="N54" s="120"/>
+      <c r="N54" s="116"/>
       <c r="O54" s="76"/>
       <c r="P54" s="76"/>
       <c r="Q54" s="76"/>
@@ -27777,51 +27902,51 @@
       <c r="AF54" s="76"/>
     </row>
     <row r="55">
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="76"/>
-      <c r="K55" s="20"/>
-      <c r="N55" s="114"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="76"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="76"/>
+      <c r="AA55" s="76"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="76"/>
+      <c r="AD55" s="76"/>
+      <c r="AE55" s="76"/>
+      <c r="AF55" s="76"/>
     </row>
     <row r="56">
-      <c r="B56" s="22"/>
+      <c r="D56" s="76"/>
       <c r="K56" s="20"/>
+      <c r="N56" s="116"/>
     </row>
     <row r="57">
-      <c r="A57" s="112"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
+      <c r="B57" s="22"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="76"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="76"/>
-      <c r="C58" s="113"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="76"/>
       <c r="F58" s="76"/>
       <c r="G58" s="76"/>
@@ -27854,7 +27979,7 @@
     <row r="59">
       <c r="A59" s="76"/>
       <c r="B59" s="76"/>
-      <c r="C59" s="96"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="76"/>
       <c r="F59" s="76"/>
       <c r="G59" s="76"/>
@@ -27917,48 +28042,49 @@
       <c r="AE60" s="76"/>
       <c r="AF60" s="76"/>
     </row>
-    <row r="62">
-      <c r="A62" s="100"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="83"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="76"/>
-      <c r="V62" s="76"/>
-      <c r="W62" s="76"/>
-      <c r="X62" s="76"/>
-      <c r="Y62" s="76"/>
-      <c r="Z62" s="76"/>
-      <c r="AA62" s="76"/>
-      <c r="AB62" s="76"/>
-      <c r="AC62" s="76"/>
-      <c r="AD62" s="76"/>
-      <c r="AE62" s="76"/>
-      <c r="AF62" s="76"/>
+    <row r="61">
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="76"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="76"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="76"/>
     </row>
     <row r="63">
-      <c r="A63" s="76"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="76"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="83"/>
       <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="76"/>
       <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
+      <c r="J63" s="91"/>
       <c r="K63" s="76"/>
       <c r="L63" s="76"/>
       <c r="N63" s="76"/>
@@ -27978,23 +28104,23 @@
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
       <c r="AD63" s="76"/>
+      <c r="AE63" s="76"/>
+      <c r="AF63" s="76"/>
     </row>
     <row r="64">
-      <c r="A64" s="97"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="122"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="76"/>
       <c r="F64" s="76"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="77"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
       <c r="P64" s="76"/>
       <c r="Q64" s="76"/>
       <c r="R64" s="76"/>
@@ -28010,16 +28136,44 @@
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
       <c r="AD64" s="76"/>
-      <c r="AE64" s="76"/>
-      <c r="AF64" s="76"/>
     </row>
     <row r="65">
-      <c r="B65" s="22"/>
-      <c r="N65" s="111"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="76"/>
+      <c r="T65" s="76"/>
+      <c r="U65" s="76"/>
+      <c r="V65" s="76"/>
+      <c r="W65" s="76"/>
+      <c r="X65" s="76"/>
+      <c r="Y65" s="76"/>
+      <c r="Z65" s="76"/>
+      <c r="AA65" s="76"/>
+      <c r="AB65" s="76"/>
+      <c r="AC65" s="76"/>
+      <c r="AD65" s="76"/>
+      <c r="AE65" s="76"/>
+      <c r="AF65" s="76"/>
     </row>
     <row r="66">
-      <c r="E66" s="122"/>
-      <c r="K66" s="20"/>
+      <c r="B66" s="22"/>
+      <c r="N66" s="111"/>
     </row>
     <row r="67">
       <c r="E67" s="122"/>
@@ -28029,40 +28183,12 @@
       <c r="E68" s="122"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="71">
-      <c r="A71" s="112"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="76"/>
-      <c r="S71" s="76"/>
-      <c r="T71" s="76"/>
-      <c r="U71" s="76"/>
-      <c r="V71" s="76"/>
-      <c r="W71" s="76"/>
-      <c r="X71" s="76"/>
-      <c r="Y71" s="76"/>
-      <c r="Z71" s="76"/>
-      <c r="AA71" s="76"/>
-      <c r="AB71" s="76"/>
-      <c r="AC71" s="76"/>
-      <c r="AD71" s="76"/>
+    <row r="69">
+      <c r="E69" s="122"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="72">
-      <c r="A72" s="76"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="76"/>
       <c r="C72" s="76"/>
       <c r="D72" s="76"/>
@@ -28798,7 +28924,36 @@
       <c r="AD94" s="76"/>
     </row>
     <row r="95">
-      <c r="B95" s="23"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="79"/>
+      <c r="M95" s="76"/>
+      <c r="N95" s="76"/>
+      <c r="O95" s="76"/>
+      <c r="P95" s="76"/>
+      <c r="Q95" s="76"/>
+      <c r="R95" s="76"/>
+      <c r="S95" s="76"/>
+      <c r="T95" s="76"/>
+      <c r="U95" s="76"/>
+      <c r="V95" s="76"/>
+      <c r="W95" s="76"/>
+      <c r="X95" s="76"/>
+      <c r="Y95" s="76"/>
+      <c r="Z95" s="76"/>
+      <c r="AA95" s="76"/>
+      <c r="AB95" s="76"/>
+      <c r="AC95" s="76"/>
+      <c r="AD95" s="76"/>
     </row>
     <row r="96">
       <c r="B96" s="23"/>
@@ -31305,18 +31460,21 @@
     <row r="930">
       <c r="B930" s="23"/>
     </row>
+    <row r="931">
+      <c r="B931" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF160">
+  <conditionalFormatting sqref="A2:AF161">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q163">
+  <conditionalFormatting sqref="A1:Q164">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q163">
+  <conditionalFormatting sqref="A1:Q164">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -31448,19 +31606,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -31492,19 +31650,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -34529,29 +34687,26 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="D2" s="19"/>
+        <v>807</v>
+      </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
       <c r="J2" s="17"/>
       <c r="K2" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="15">
+        <v>45531.0</v>
+      </c>
       <c r="M2" s="17" t="s">
-        <v>20</v>
+        <v>808</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -34559,50 +34714,29 @@
       <c r="O2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>802</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
       <c r="J3" s="17"/>
       <c r="K3" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="15">
+        <v>45531.0</v>
+      </c>
       <c r="M3" s="17" t="s">
-        <v>20</v>
+        <v>808</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -34610,291 +34744,300 @@
       <c r="O3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="17"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="15">
+        <v>45531.0</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N4" s="17"/>
       <c r="O4" s="63"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="A5" s="123" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>819</v>
+      </c>
+      <c r="E5" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20">
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="125" t="s">
+        <v>820</v>
+      </c>
+      <c r="J5" s="126"/>
+      <c r="K5" s="127">
         <v>44587.0</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="O5" s="68" t="s">
+      <c r="L5" s="126"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125" t="s">
+        <v>821</v>
+      </c>
+      <c r="O5" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="A6" s="125" t="s">
+        <v>822</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>823</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>824</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="E6" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20">
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127">
         <v>44587.0</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="O6" s="68" t="s">
+      <c r="L6" s="126"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125" t="s">
+        <v>821</v>
+      </c>
+      <c r="O6" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>814</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="A7" s="125" t="s">
+        <v>826</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>827</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>828</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="E7" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20">
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127">
         <v>44587.0</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="O7" s="68" t="s">
+      <c r="L7" s="126"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125" t="s">
+        <v>821</v>
+      </c>
+      <c r="O7" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>816</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>817</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="125" t="s">
+        <v>829</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>830</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>831</v>
+      </c>
+      <c r="D8" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="E8" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20">
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="127">
         <v>44587.0</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="O8" s="68" t="s">
+      <c r="L8" s="126"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125" t="s">
+        <v>821</v>
+      </c>
+      <c r="O8" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="A9" s="125" t="s">
+        <v>832</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>833</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>834</v>
+      </c>
+      <c r="D9" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="E9" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20">
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="127">
         <v>44601.0</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="17" t="s">
+      <c r="L9" s="126"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
     </row>
     <row r="10">
       <c r="A10" s="100"/>
@@ -34930,17 +35073,17 @@
       <c r="AE10" s="76"/>
     </row>
     <row r="11">
-      <c r="A11" s="123" t="s">
-        <v>822</v>
+      <c r="A11" s="130" t="s">
+        <v>835</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -34950,12 +35093,14 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
       </c>
-      <c r="L11" s="76"/>
+      <c r="L11" s="15">
+        <v>45531.0</v>
+      </c>
       <c r="M11" s="17" t="s">
         <v>20</v>
       </c>
@@ -34979,17 +35124,17 @@
       <c r="AE11" s="76"/>
     </row>
     <row r="12">
-      <c r="A12" s="124" t="s">
-        <v>826</v>
+      <c r="A12" s="131" t="s">
+        <v>839</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -35002,7 +35147,9 @@
       <c r="K12" s="20">
         <v>44601.0</v>
       </c>
-      <c r="L12" s="19"/>
+      <c r="L12" s="15">
+        <v>45531.0</v>
+      </c>
       <c r="M12" s="17" t="s">
         <v>20</v>
       </c>
@@ -35027,16 +35174,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>803</v>
+        <v>844</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>819</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -35049,7 +35196,9 @@
       <c r="K13" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="15">
+        <v>45531.0</v>
+      </c>
       <c r="M13" s="17" t="s">
         <v>20</v>
       </c>
@@ -35080,59 +35229,57 @@
       <c r="B14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="123" t="s">
-        <v>832</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>832</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>833</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>834</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="A15" s="132" t="s">
+        <v>845</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>845</v>
+      </c>
+      <c r="C15" s="134" t="s">
+        <v>846</v>
+      </c>
+      <c r="D15" s="135" t="s">
+        <v>815</v>
+      </c>
+      <c r="E15" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="91" t="s">
-        <v>835</v>
-      </c>
-      <c r="H15" s="91" t="s">
-        <v>836</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="91" t="s">
-        <v>837</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="F15" s="136"/>
+      <c r="G15" s="135" t="s">
+        <v>847</v>
+      </c>
+      <c r="H15" s="135" t="s">
+        <v>848</v>
+      </c>
+      <c r="I15" s="136"/>
+      <c r="J15" s="135" t="s">
+        <v>849</v>
+      </c>
+      <c r="K15" s="127">
         <v>44601.0</v>
       </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="74" t="s">
+      <c r="L15" s="136"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="137" t="s">
         <v>402</v>
       </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="19"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="126"/>
     </row>
     <row r="16">
       <c r="B16" s="22"/>
@@ -37842,13 +37989,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>113</v>
@@ -37861,7 +38008,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -37895,13 +38042,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -37912,7 +38059,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -37944,13 +38091,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -37961,7 +38108,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -37993,13 +38140,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -38010,7 +38157,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -38042,13 +38189,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -38059,7 +38206,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -38091,13 +38238,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -38108,7 +38255,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -38140,13 +38287,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -38157,7 +38304,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -38189,13 +38336,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -38206,7 +38353,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -38238,13 +38385,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -38255,7 +38402,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -38287,13 +38434,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -38304,7 +38451,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -38336,13 +38483,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -38353,7 +38500,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>
@@ -38692,7 +38839,7 @@
       <c r="B52" s="22"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="O52" s="115"/>
+      <c r="O52" s="114"/>
     </row>
     <row r="53">
       <c r="B53" s="18"/>
@@ -38710,8 +38857,8 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56">
-      <c r="A56" s="125"/>
-      <c r="B56" s="126"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
       <c r="F56" s="65"/>
@@ -38719,7 +38866,7 @@
       <c r="H56" s="65"/>
       <c r="I56" s="63"/>
       <c r="K56" s="66"/>
-      <c r="L56" s="127"/>
+      <c r="L56" s="140"/>
       <c r="M56" s="63"/>
       <c r="N56" s="29"/>
       <c r="O56" s="63"/>
@@ -38869,7 +39016,7 @@
     <row r="71">
       <c r="A71" s="103"/>
       <c r="B71" s="104"/>
-      <c r="C71" s="128"/>
+      <c r="C71" s="141"/>
       <c r="D71" s="103"/>
       <c r="F71" s="106"/>
       <c r="G71" s="104"/>
@@ -38898,9 +39045,9 @@
       <c r="AE71" s="76"/>
     </row>
     <row r="72">
-      <c r="A72" s="124"/>
+      <c r="A72" s="131"/>
       <c r="B72" s="23"/>
-      <c r="D72" s="124"/>
+      <c r="D72" s="131"/>
     </row>
     <row r="73">
       <c r="A73" s="77"/>
@@ -38911,7 +39058,7 @@
       <c r="G73" s="76"/>
       <c r="H73" s="76"/>
       <c r="I73" s="76"/>
-      <c r="J73" s="114"/>
+      <c r="J73" s="116"/>
       <c r="K73" s="76"/>
       <c r="L73" s="76"/>
       <c r="N73" s="76"/>
@@ -38937,9 +39084,9 @@
       <c r="N74" s="111"/>
     </row>
     <row r="75">
-      <c r="A75" s="124"/>
+      <c r="A75" s="131"/>
       <c r="B75" s="23"/>
-      <c r="D75" s="124"/>
+      <c r="D75" s="131"/>
     </row>
     <row r="76">
       <c r="B76" s="23"/>
@@ -38982,9 +39129,9 @@
       <c r="AE78" s="76"/>
     </row>
     <row r="79">
-      <c r="A79" s="124"/>
+      <c r="A79" s="131"/>
       <c r="B79" s="23"/>
-      <c r="D79" s="124"/>
+      <c r="D79" s="131"/>
     </row>
     <row r="80">
       <c r="B80" s="23"/>
@@ -39212,9 +39359,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90">
-      <c r="A90" s="124"/>
+      <c r="A90" s="131"/>
       <c r="B90" s="23"/>
-      <c r="D90" s="124"/>
+      <c r="D90" s="131"/>
     </row>
     <row r="91">
       <c r="B91" s="23"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="947">
   <si>
     <t>Term</t>
   </si>
@@ -2610,6 +2610,60 @@
   </si>
   <si>
     <t>Supporting entities, including individuals, with negotiating a contract and its terms and conditions</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>An audit is a systematic examination or evaluation of records, processes, or systems towards a specific objective such as to assess accuracy, compliance, effectiveness, or performance</t>
+  </si>
+  <si>
+    <t>SecurityAudit</t>
+  </si>
+  <si>
+    <t>Security Audit</t>
+  </si>
+  <si>
+    <t>An audit that systematically examines the existence and use of security risks and measures within information systems, networks, and security policies to identify vulnerabilities, risks, and gaps</t>
+  </si>
+  <si>
+    <t>dpv:Audit</t>
+  </si>
+  <si>
+    <t>LegalComplianceAudit</t>
+  </si>
+  <si>
+    <t>Legal Compliance Audit</t>
+  </si>
+  <si>
+    <t>An audit that systematically examines the state of legal compliance by reviewing policies and procedures related to obligations and compliance requirements for specific laws and regulations</t>
+  </si>
+  <si>
+    <t>InformationAudit</t>
+  </si>
+  <si>
+    <t>Information Audit</t>
+  </si>
+  <si>
+    <t>An audit that systematically examines the existence and use of information along with its associated resources (e.g. where it is stored) and flows (e.g. where it originates and with whom it is being shared)</t>
+  </si>
+  <si>
+    <t>Paul Ryan, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>PersonalDataAudit</t>
+  </si>
+  <si>
+    <t>Personal Data Audit</t>
+  </si>
+  <si>
+    <t>An audit that systematically examines the existence and use of personal data along with its associated resources (e.g. where it is stored) and flows (e.g. where it originates and with whom it is being shared)</t>
+  </si>
+  <si>
+    <t>dpv:InformationAudit</t>
+  </si>
+  <si>
+    <t>This concept is the same as "Data Mapping" and "Data Flow Mapping Exercise" used by the Information Comissioner's Office as "to document the data that flows in, around, and out of information processing systems or services"</t>
   </si>
   <si>
     <t>EnforceTransferControl</t>
@@ -23107,18 +23161,34 @@
       <c r="AF119" s="13"/>
     </row>
     <row r="121">
-      <c r="A121" s="103"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="104"/>
+      <c r="A121" s="86" t="s">
+        <v>726</v>
+      </c>
+      <c r="B121" s="86" t="s">
+        <v>726</v>
+      </c>
+      <c r="C121" s="81" t="s">
+        <v>727</v>
+      </c>
       <c r="D121" s="86"/>
+      <c r="E121" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F121" s="73"/>
       <c r="G121" s="94"/>
       <c r="H121" s="73"/>
       <c r="I121" s="73"/>
       <c r="J121" s="94"/>
-      <c r="K121" s="73"/>
+      <c r="K121" s="82">
+        <v>45643.0</v>
+      </c>
       <c r="L121" s="73"/>
-      <c r="N121" s="73"/>
+      <c r="M121" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N121" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="O121" s="73"/>
       <c r="P121" s="73"/>
       <c r="Q121" s="73"/>
@@ -23139,30 +23209,36 @@
       <c r="AF121" s="73"/>
     </row>
     <row r="122">
-      <c r="A122" s="73" t="s">
-        <v>726</v>
-      </c>
-      <c r="B122" s="73" t="s">
-        <v>727</v>
-      </c>
-      <c r="C122" s="99" t="s">
+      <c r="A122" s="86" t="s">
         <v>728</v>
       </c>
-      <c r="D122" s="73"/>
+      <c r="B122" s="86" t="s">
+        <v>729</v>
+      </c>
+      <c r="C122" s="81" t="s">
+        <v>730</v>
+      </c>
+      <c r="D122" s="86" t="s">
+        <v>731</v>
+      </c>
       <c r="E122" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
+      <c r="G122" s="94"/>
       <c r="H122" s="73"/>
       <c r="I122" s="73"/>
-      <c r="J122" s="73"/>
-      <c r="K122" s="73"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="82">
+        <v>45643.0</v>
+      </c>
       <c r="L122" s="73"/>
       <c r="M122" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="N122" s="73"/>
+        <v>20</v>
+      </c>
+      <c r="N122" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="O122" s="73"/>
       <c r="P122" s="73"/>
       <c r="Q122" s="73"/>
@@ -23179,39 +23255,43 @@
       <c r="AB122" s="73"/>
       <c r="AC122" s="73"/>
       <c r="AD122" s="73"/>
+      <c r="AE122" s="73"/>
+      <c r="AF122" s="73"/>
     </row>
     <row r="123">
-      <c r="A123" s="83" t="s">
-        <v>730</v>
-      </c>
-      <c r="B123" s="89"/>
-      <c r="C123" s="85" t="s">
+      <c r="A123" s="86" t="s">
+        <v>732</v>
+      </c>
+      <c r="B123" s="86" t="s">
+        <v>733</v>
+      </c>
+      <c r="C123" s="81" t="s">
+        <v>734</v>
+      </c>
+      <c r="D123" s="86" t="s">
         <v>731</v>
       </c>
-      <c r="D123" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123" s="87" t="s">
+      <c r="E123" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F123" s="88"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="88"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
+      <c r="F123" s="73"/>
+      <c r="G123" s="94"/>
+      <c r="H123" s="73"/>
+      <c r="I123" s="73"/>
+      <c r="J123" s="94"/>
       <c r="K123" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L123" s="90"/>
-      <c r="M123" s="71" t="s">
-        <v>729</v>
-      </c>
-      <c r="N123" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="O123" s="89"/>
-      <c r="P123" s="88"/>
-      <c r="Q123" s="88"/>
+        <v>45643.0</v>
+      </c>
+      <c r="L123" s="73"/>
+      <c r="M123" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N123" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="O123" s="73"/>
+      <c r="P123" s="73"/>
+      <c r="Q123" s="73"/>
       <c r="R123" s="73"/>
       <c r="S123" s="73"/>
       <c r="T123" s="73"/>
@@ -23229,357 +23309,391 @@
       <c r="AF123" s="73"/>
     </row>
     <row r="124">
-      <c r="B124" s="22"/>
-      <c r="N124" s="114"/>
+      <c r="A124" s="86" t="s">
+        <v>735</v>
+      </c>
+      <c r="B124" s="86" t="s">
+        <v>736</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="D124" s="86" t="s">
+        <v>731</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124" s="73"/>
+      <c r="G124" s="94"/>
+      <c r="H124" s="73"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="94"/>
+      <c r="K124" s="82">
+        <v>45643.0</v>
+      </c>
+      <c r="L124" s="73"/>
+      <c r="M124" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N124" s="71" t="s">
+        <v>738</v>
+      </c>
+      <c r="O124" s="73"/>
+      <c r="P124" s="73"/>
+      <c r="Q124" s="73"/>
+      <c r="R124" s="73"/>
+      <c r="S124" s="73"/>
+      <c r="T124" s="73"/>
+      <c r="U124" s="73"/>
+      <c r="V124" s="73"/>
+      <c r="W124" s="73"/>
+      <c r="X124" s="73"/>
+      <c r="Y124" s="73"/>
+      <c r="Z124" s="73"/>
+      <c r="AA124" s="73"/>
+      <c r="AB124" s="73"/>
+      <c r="AC124" s="73"/>
+      <c r="AD124" s="73"/>
+      <c r="AE124" s="73"/>
+      <c r="AF124" s="73"/>
     </row>
     <row r="125">
-      <c r="A125" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="87" t="s">
+      <c r="A125" s="86" t="s">
+        <v>739</v>
+      </c>
+      <c r="B125" s="86" t="s">
+        <v>740</v>
+      </c>
+      <c r="C125" s="81" t="s">
+        <v>741</v>
+      </c>
+      <c r="D125" s="86" t="s">
+        <v>742</v>
+      </c>
+      <c r="E125" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="20">
-        <v>45429.0</v>
-      </c>
-      <c r="L125" s="19"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="94"/>
+      <c r="H125" s="73"/>
+      <c r="I125" s="71" t="s">
+        <v>743</v>
+      </c>
+      <c r="J125" s="94"/>
+      <c r="K125" s="82">
+        <v>45643.0</v>
+      </c>
+      <c r="L125" s="73"/>
       <c r="M125" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N125" s="17" t="s">
+      <c r="N125" s="71" t="s">
+        <v>738</v>
+      </c>
+      <c r="O125" s="73"/>
+      <c r="P125" s="73"/>
+      <c r="Q125" s="73"/>
+      <c r="R125" s="73"/>
+      <c r="S125" s="73"/>
+      <c r="T125" s="73"/>
+      <c r="U125" s="73"/>
+      <c r="V125" s="73"/>
+      <c r="W125" s="73"/>
+      <c r="X125" s="73"/>
+      <c r="Y125" s="73"/>
+      <c r="Z125" s="73"/>
+      <c r="AA125" s="73"/>
+      <c r="AB125" s="73"/>
+      <c r="AC125" s="73"/>
+      <c r="AD125" s="73"/>
+      <c r="AE125" s="73"/>
+      <c r="AF125" s="73"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="103"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="104"/>
+      <c r="D126" s="86"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="94"/>
+      <c r="H126" s="73"/>
+      <c r="I126" s="73"/>
+      <c r="J126" s="94"/>
+      <c r="K126" s="73"/>
+      <c r="L126" s="73"/>
+      <c r="N126" s="73"/>
+      <c r="O126" s="73"/>
+      <c r="P126" s="73"/>
+      <c r="Q126" s="73"/>
+      <c r="R126" s="73"/>
+      <c r="S126" s="73"/>
+      <c r="T126" s="73"/>
+      <c r="U126" s="73"/>
+      <c r="V126" s="73"/>
+      <c r="W126" s="73"/>
+      <c r="X126" s="73"/>
+      <c r="Y126" s="73"/>
+      <c r="Z126" s="73"/>
+      <c r="AA126" s="73"/>
+      <c r="AB126" s="73"/>
+      <c r="AC126" s="73"/>
+      <c r="AD126" s="73"/>
+      <c r="AE126" s="73"/>
+      <c r="AF126" s="73"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="73" t="s">
+        <v>744</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>745</v>
+      </c>
+      <c r="C127" s="99" t="s">
+        <v>746</v>
+      </c>
+      <c r="D127" s="73"/>
+      <c r="E127" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="73"/>
+      <c r="G127" s="73"/>
+      <c r="H127" s="73"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="73"/>
+      <c r="K127" s="73"/>
+      <c r="L127" s="73"/>
+      <c r="M127" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="N127" s="73"/>
+      <c r="O127" s="73"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="73"/>
+      <c r="S127" s="73"/>
+      <c r="T127" s="73"/>
+      <c r="U127" s="73"/>
+      <c r="V127" s="73"/>
+      <c r="W127" s="73"/>
+      <c r="X127" s="73"/>
+      <c r="Y127" s="73"/>
+      <c r="Z127" s="73"/>
+      <c r="AA127" s="73"/>
+      <c r="AB127" s="73"/>
+      <c r="AC127" s="73"/>
+      <c r="AD127" s="73"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="83" t="s">
+        <v>748</v>
+      </c>
+      <c r="B128" s="89"/>
+      <c r="C128" s="85" t="s">
+        <v>749</v>
+      </c>
+      <c r="D128" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F128" s="88"/>
+      <c r="G128" s="88"/>
+      <c r="H128" s="88"/>
+      <c r="I128" s="89"/>
+      <c r="J128" s="89"/>
+      <c r="K128" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L128" s="90"/>
+      <c r="M128" s="71" t="s">
+        <v>747</v>
+      </c>
+      <c r="N128" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="O128" s="89"/>
+      <c r="P128" s="88"/>
+      <c r="Q128" s="88"/>
+      <c r="R128" s="73"/>
+      <c r="S128" s="73"/>
+      <c r="T128" s="73"/>
+      <c r="U128" s="73"/>
+      <c r="V128" s="73"/>
+      <c r="W128" s="73"/>
+      <c r="X128" s="73"/>
+      <c r="Y128" s="73"/>
+      <c r="Z128" s="73"/>
+      <c r="AA128" s="73"/>
+      <c r="AB128" s="73"/>
+      <c r="AC128" s="73"/>
+      <c r="AD128" s="73"/>
+      <c r="AE128" s="73"/>
+      <c r="AF128" s="73"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="22"/>
+      <c r="N129" s="114"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L130" s="19"/>
+      <c r="M130" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N130" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O125" s="19"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-      <c r="R125" s="19"/>
-      <c r="S125" s="19"/>
-      <c r="T125" s="19"/>
-      <c r="U125" s="19"/>
-      <c r="V125" s="19"/>
-      <c r="W125" s="19"/>
-      <c r="X125" s="19"/>
-      <c r="Y125" s="19"/>
-      <c r="Z125" s="19"/>
-      <c r="AA125" s="19"/>
-      <c r="AB125" s="19"/>
-      <c r="AC125" s="19"/>
-      <c r="AD125" s="19"/>
-      <c r="AE125" s="19"/>
-      <c r="AF125" s="19"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="E126" s="87" t="s">
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="19"/>
+      <c r="Z130" s="19"/>
+      <c r="AA130" s="19"/>
+      <c r="AB130" s="19"/>
+      <c r="AC130" s="19"/>
+      <c r="AD130" s="19"/>
+      <c r="AE130" s="19"/>
+      <c r="AF130" s="19"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="E131" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="20">
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="20">
         <v>45429.0</v>
       </c>
-      <c r="L126" s="19"/>
-      <c r="M126" s="17" t="s">
+      <c r="L131" s="19"/>
+      <c r="M131" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N126" s="17" t="s">
+      <c r="N131" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="19"/>
-      <c r="W126" s="19"/>
-      <c r="X126" s="19"/>
-      <c r="Y126" s="19"/>
-      <c r="Z126" s="19"/>
-      <c r="AA126" s="19"/>
-      <c r="AB126" s="19"/>
-      <c r="AC126" s="19"/>
-      <c r="AD126" s="19"/>
-      <c r="AE126" s="19"/>
-      <c r="AF126" s="19"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="E127" s="87" t="s">
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="19"/>
+      <c r="V131" s="19"/>
+      <c r="W131" s="19"/>
+      <c r="X131" s="19"/>
+      <c r="Y131" s="19"/>
+      <c r="Z131" s="19"/>
+      <c r="AA131" s="19"/>
+      <c r="AB131" s="19"/>
+      <c r="AC131" s="19"/>
+      <c r="AD131" s="19"/>
+      <c r="AE131" s="19"/>
+      <c r="AF131" s="19"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="E132" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="20">
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="20">
         <v>45429.0</v>
       </c>
-      <c r="L127" s="19"/>
-      <c r="M127" s="17" t="s">
+      <c r="L132" s="19"/>
+      <c r="M132" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N127" s="17" t="s">
+      <c r="N132" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O127" s="19"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
-      <c r="S127" s="19"/>
-      <c r="T127" s="19"/>
-      <c r="U127" s="19"/>
-      <c r="V127" s="19"/>
-      <c r="W127" s="19"/>
-      <c r="X127" s="19"/>
-      <c r="Y127" s="19"/>
-      <c r="Z127" s="19"/>
-      <c r="AA127" s="19"/>
-      <c r="AB127" s="19"/>
-      <c r="AC127" s="19"/>
-      <c r="AD127" s="19"/>
-      <c r="AE127" s="19"/>
-      <c r="AF127" s="19"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="115" t="s">
-        <v>743</v>
-      </c>
-      <c r="B130" s="73"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="73"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="73"/>
-      <c r="H130" s="73"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="73"/>
-      <c r="K130" s="76"/>
-      <c r="L130" s="76"/>
-      <c r="M130" s="73"/>
-      <c r="N130" s="73"/>
-      <c r="O130" s="73"/>
-      <c r="P130" s="73"/>
-      <c r="Q130" s="73"/>
-      <c r="R130" s="73"/>
-      <c r="S130" s="73"/>
-      <c r="T130" s="73"/>
-      <c r="U130" s="73"/>
-      <c r="V130" s="73"/>
-      <c r="W130" s="73"/>
-      <c r="X130" s="73"/>
-      <c r="Y130" s="73"/>
-      <c r="Z130" s="73"/>
-      <c r="AA130" s="73"/>
-      <c r="AB130" s="73"/>
-      <c r="AC130" s="73"/>
-      <c r="AD130" s="73"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="73" t="s">
-        <v>425</v>
-      </c>
-      <c r="B131" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C131" s="73" t="s">
-        <v>745</v>
-      </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="73"/>
-      <c r="H131" s="73"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="73"/>
-      <c r="K131" s="76"/>
-      <c r="L131" s="76"/>
-      <c r="M131" s="73"/>
-      <c r="N131" s="73"/>
-      <c r="O131" s="73"/>
-      <c r="P131" s="73"/>
-      <c r="Q131" s="73"/>
-      <c r="R131" s="73"/>
-      <c r="S131" s="73"/>
-      <c r="T131" s="73"/>
-      <c r="U131" s="73"/>
-      <c r="V131" s="73"/>
-      <c r="W131" s="73"/>
-      <c r="X131" s="73"/>
-      <c r="Y131" s="73"/>
-      <c r="Z131" s="73"/>
-      <c r="AA131" s="73"/>
-      <c r="AB131" s="73"/>
-      <c r="AC131" s="73"/>
-      <c r="AD131" s="73"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="73" t="s">
-        <v>746</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C132" s="73" t="s">
-        <v>747</v>
-      </c>
-      <c r="D132" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="E132" s="73"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="73"/>
-      <c r="H132" s="73"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="73"/>
-      <c r="K132" s="76"/>
-      <c r="L132" s="76"/>
-      <c r="M132" s="73"/>
-      <c r="N132" s="73"/>
-      <c r="O132" s="73"/>
-      <c r="P132" s="73"/>
-      <c r="Q132" s="73"/>
-      <c r="R132" s="73"/>
-      <c r="S132" s="73"/>
-      <c r="T132" s="73"/>
-      <c r="U132" s="73"/>
-      <c r="V132" s="73"/>
-      <c r="W132" s="73"/>
-      <c r="X132" s="73"/>
-      <c r="Y132" s="73"/>
-      <c r="Z132" s="73"/>
-      <c r="AA132" s="73"/>
-      <c r="AB132" s="73"/>
-      <c r="AC132" s="73"/>
-      <c r="AD132" s="73"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="73" t="s">
-        <v>748</v>
-      </c>
-      <c r="B133" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C133" s="73" t="s">
-        <v>749</v>
-      </c>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="73"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
-      <c r="K133" s="76"/>
-      <c r="L133" s="76"/>
-      <c r="M133" s="73"/>
-      <c r="N133" s="73"/>
-      <c r="O133" s="73"/>
-      <c r="P133" s="73"/>
-      <c r="Q133" s="73"/>
-      <c r="R133" s="73"/>
-      <c r="S133" s="73"/>
-      <c r="T133" s="73"/>
-      <c r="U133" s="73"/>
-      <c r="V133" s="73"/>
-      <c r="W133" s="73"/>
-      <c r="X133" s="73"/>
-      <c r="Y133" s="73"/>
-      <c r="Z133" s="73"/>
-      <c r="AA133" s="73"/>
-      <c r="AB133" s="73"/>
-      <c r="AC133" s="73"/>
-      <c r="AD133" s="73"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
+      <c r="V132" s="19"/>
+      <c r="W132" s="19"/>
+      <c r="X132" s="19"/>
+      <c r="Y132" s="19"/>
+      <c r="Z132" s="19"/>
+      <c r="AA132" s="19"/>
+      <c r="AB132" s="19"/>
+      <c r="AC132" s="19"/>
+      <c r="AD132" s="19"/>
+      <c r="AE132" s="19"/>
+      <c r="AF132" s="19"/>
     </row>
     <row r="134">
-      <c r="A134" s="73" t="s">
-        <v>750</v>
-      </c>
-      <c r="B134" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C134" s="73" t="s">
-        <v>751</v>
-      </c>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="73"/>
-      <c r="H134" s="73"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="73"/>
-      <c r="K134" s="76"/>
-      <c r="L134" s="76"/>
-      <c r="M134" s="73"/>
-      <c r="N134" s="73"/>
-      <c r="O134" s="73"/>
-      <c r="P134" s="73"/>
-      <c r="Q134" s="73"/>
-      <c r="R134" s="73"/>
-      <c r="S134" s="73"/>
-      <c r="T134" s="73"/>
-      <c r="U134" s="73"/>
-      <c r="V134" s="73"/>
-      <c r="W134" s="73"/>
-      <c r="X134" s="73"/>
-      <c r="Y134" s="73"/>
-      <c r="Z134" s="73"/>
-      <c r="AA134" s="73"/>
-      <c r="AB134" s="73"/>
-      <c r="AC134" s="73"/>
-      <c r="AD134" s="73"/>
+      <c r="A134" s="8" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="73" t="s">
-        <v>752</v>
-      </c>
-      <c r="B135" s="73" t="s">
-        <v>744</v>
-      </c>
+      <c r="A135" s="115" t="s">
+        <v>761</v>
+      </c>
+      <c r="B135" s="73"/>
       <c r="C135" s="73"/>
       <c r="D135" s="73"/>
       <c r="E135" s="73"/>
@@ -23611,12 +23725,14 @@
     </row>
     <row r="136">
       <c r="A136" s="73" t="s">
-        <v>753</v>
+        <v>425</v>
       </c>
       <c r="B136" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C136" s="73"/>
+        <v>762</v>
+      </c>
+      <c r="C136" s="73" t="s">
+        <v>763</v>
+      </c>
       <c r="D136" s="73"/>
       <c r="E136" s="73"/>
       <c r="F136" s="73"/>
@@ -23647,13 +23763,17 @@
     </row>
     <row r="137">
       <c r="A137" s="73" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B137" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C137" s="73"/>
-      <c r="D137" s="73"/>
+        <v>762</v>
+      </c>
+      <c r="C137" s="73" t="s">
+        <v>765</v>
+      </c>
+      <c r="D137" s="73" t="s">
+        <v>762</v>
+      </c>
       <c r="E137" s="73"/>
       <c r="F137" s="73"/>
       <c r="G137" s="73"/>
@@ -23683,12 +23803,14 @@
     </row>
     <row r="138">
       <c r="A138" s="73" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="B138" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C138" s="73"/>
+        <v>762</v>
+      </c>
+      <c r="C138" s="73" t="s">
+        <v>767</v>
+      </c>
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="73"/>
@@ -23719,12 +23841,14 @@
     </row>
     <row r="139">
       <c r="A139" s="73" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="B139" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C139" s="73"/>
+        <v>762</v>
+      </c>
+      <c r="C139" s="73" t="s">
+        <v>769</v>
+      </c>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
       <c r="F139" s="73"/>
@@ -23755,10 +23879,10 @@
     </row>
     <row r="140">
       <c r="A140" s="73" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="B140" s="73" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
@@ -23791,10 +23915,10 @@
     </row>
     <row r="141">
       <c r="A141" s="73" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
@@ -23827,10 +23951,10 @@
     </row>
     <row r="142">
       <c r="A142" s="73" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
@@ -23863,10 +23987,10 @@
     </row>
     <row r="143">
       <c r="A143" s="73" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C143" s="73"/>
       <c r="D143" s="73"/>
@@ -23899,10 +24023,10 @@
     </row>
     <row r="144">
       <c r="A144" s="73" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="B144" s="73" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C144" s="73"/>
       <c r="D144" s="73"/>
@@ -23935,10 +24059,10 @@
     </row>
     <row r="145">
       <c r="A145" s="73" t="s">
+        <v>775</v>
+      </c>
+      <c r="B145" s="73" t="s">
         <v>762</v>
-      </c>
-      <c r="B145" s="73" t="s">
-        <v>763</v>
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -23971,10 +24095,10 @@
     </row>
     <row r="146">
       <c r="A146" s="73" t="s">
-        <v>36</v>
+        <v>776</v>
       </c>
       <c r="B146" s="73" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C146" s="73"/>
       <c r="D146" s="73"/>
@@ -24007,9 +24131,11 @@
     </row>
     <row r="147">
       <c r="A147" s="73" t="s">
-        <v>765</v>
-      </c>
-      <c r="B147" s="73"/>
+        <v>777</v>
+      </c>
+      <c r="B147" s="73" t="s">
+        <v>762</v>
+      </c>
       <c r="C147" s="73"/>
       <c r="D147" s="73"/>
       <c r="E147" s="73"/>
@@ -24041,9 +24167,11 @@
     </row>
     <row r="148">
       <c r="A148" s="73" t="s">
-        <v>766</v>
-      </c>
-      <c r="B148" s="73"/>
+        <v>778</v>
+      </c>
+      <c r="B148" s="73" t="s">
+        <v>762</v>
+      </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
       <c r="E148" s="73"/>
@@ -24075,9 +24203,11 @@
     </row>
     <row r="149">
       <c r="A149" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="B149" s="73"/>
+        <v>779</v>
+      </c>
+      <c r="B149" s="73" t="s">
+        <v>762</v>
+      </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
       <c r="E149" s="73"/>
@@ -24109,9 +24239,11 @@
     </row>
     <row r="150">
       <c r="A150" s="73" t="s">
-        <v>768</v>
-      </c>
-      <c r="B150" s="73"/>
+        <v>780</v>
+      </c>
+      <c r="B150" s="73" t="s">
+        <v>781</v>
+      </c>
       <c r="C150" s="73"/>
       <c r="D150" s="73"/>
       <c r="E150" s="73"/>
@@ -24143,9 +24275,11 @@
     </row>
     <row r="151">
       <c r="A151" s="73" t="s">
-        <v>769</v>
-      </c>
-      <c r="B151" s="73"/>
+        <v>36</v>
+      </c>
+      <c r="B151" s="73" t="s">
+        <v>782</v>
+      </c>
       <c r="C151" s="73"/>
       <c r="D151" s="73"/>
       <c r="E151" s="73"/>
@@ -24176,7 +24310,9 @@
       <c r="AD151" s="73"/>
     </row>
     <row r="152">
-      <c r="A152" s="73"/>
+      <c r="A152" s="73" t="s">
+        <v>783</v>
+      </c>
       <c r="B152" s="73"/>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
@@ -24209,12 +24345,10 @@
     </row>
     <row r="153">
       <c r="A153" s="73" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="B153" s="73"/>
-      <c r="C153" s="73" t="s">
-        <v>771</v>
-      </c>
+      <c r="C153" s="73"/>
       <c r="D153" s="73"/>
       <c r="E153" s="73"/>
       <c r="F153" s="73"/>
@@ -24244,19 +24378,174 @@
       <c r="AD153" s="73"/>
     </row>
     <row r="154">
-      <c r="B154" s="23"/>
+      <c r="A154" s="73" t="s">
+        <v>785</v>
+      </c>
+      <c r="B154" s="73"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="73"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="73"/>
+      <c r="H154" s="73"/>
+      <c r="I154" s="73"/>
+      <c r="J154" s="73"/>
+      <c r="K154" s="76"/>
+      <c r="L154" s="76"/>
+      <c r="M154" s="73"/>
+      <c r="N154" s="73"/>
+      <c r="O154" s="73"/>
+      <c r="P154" s="73"/>
+      <c r="Q154" s="73"/>
+      <c r="R154" s="73"/>
+      <c r="S154" s="73"/>
+      <c r="T154" s="73"/>
+      <c r="U154" s="73"/>
+      <c r="V154" s="73"/>
+      <c r="W154" s="73"/>
+      <c r="X154" s="73"/>
+      <c r="Y154" s="73"/>
+      <c r="Z154" s="73"/>
+      <c r="AA154" s="73"/>
+      <c r="AB154" s="73"/>
+      <c r="AC154" s="73"/>
+      <c r="AD154" s="73"/>
     </row>
     <row r="155">
-      <c r="B155" s="23"/>
+      <c r="A155" s="73" t="s">
+        <v>786</v>
+      </c>
+      <c r="B155" s="73"/>
+      <c r="C155" s="73"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="73"/>
+      <c r="H155" s="73"/>
+      <c r="I155" s="73"/>
+      <c r="J155" s="73"/>
+      <c r="K155" s="76"/>
+      <c r="L155" s="76"/>
+      <c r="M155" s="73"/>
+      <c r="N155" s="73"/>
+      <c r="O155" s="73"/>
+      <c r="P155" s="73"/>
+      <c r="Q155" s="73"/>
+      <c r="R155" s="73"/>
+      <c r="S155" s="73"/>
+      <c r="T155" s="73"/>
+      <c r="U155" s="73"/>
+      <c r="V155" s="73"/>
+      <c r="W155" s="73"/>
+      <c r="X155" s="73"/>
+      <c r="Y155" s="73"/>
+      <c r="Z155" s="73"/>
+      <c r="AA155" s="73"/>
+      <c r="AB155" s="73"/>
+      <c r="AC155" s="73"/>
+      <c r="AD155" s="73"/>
     </row>
     <row r="156">
-      <c r="B156" s="23"/>
+      <c r="A156" s="73" t="s">
+        <v>787</v>
+      </c>
+      <c r="B156" s="73"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="73"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="73"/>
+      <c r="H156" s="73"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="73"/>
+      <c r="K156" s="76"/>
+      <c r="L156" s="76"/>
+      <c r="M156" s="73"/>
+      <c r="N156" s="73"/>
+      <c r="O156" s="73"/>
+      <c r="P156" s="73"/>
+      <c r="Q156" s="73"/>
+      <c r="R156" s="73"/>
+      <c r="S156" s="73"/>
+      <c r="T156" s="73"/>
+      <c r="U156" s="73"/>
+      <c r="V156" s="73"/>
+      <c r="W156" s="73"/>
+      <c r="X156" s="73"/>
+      <c r="Y156" s="73"/>
+      <c r="Z156" s="73"/>
+      <c r="AA156" s="73"/>
+      <c r="AB156" s="73"/>
+      <c r="AC156" s="73"/>
+      <c r="AD156" s="73"/>
     </row>
     <row r="157">
-      <c r="B157" s="23"/>
+      <c r="A157" s="73"/>
+      <c r="B157" s="73"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="73"/>
+      <c r="E157" s="73"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="73"/>
+      <c r="H157" s="73"/>
+      <c r="I157" s="73"/>
+      <c r="J157" s="73"/>
+      <c r="K157" s="76"/>
+      <c r="L157" s="76"/>
+      <c r="M157" s="73"/>
+      <c r="N157" s="73"/>
+      <c r="O157" s="73"/>
+      <c r="P157" s="73"/>
+      <c r="Q157" s="73"/>
+      <c r="R157" s="73"/>
+      <c r="S157" s="73"/>
+      <c r="T157" s="73"/>
+      <c r="U157" s="73"/>
+      <c r="V157" s="73"/>
+      <c r="W157" s="73"/>
+      <c r="X157" s="73"/>
+      <c r="Y157" s="73"/>
+      <c r="Z157" s="73"/>
+      <c r="AA157" s="73"/>
+      <c r="AB157" s="73"/>
+      <c r="AC157" s="73"/>
+      <c r="AD157" s="73"/>
     </row>
     <row r="158">
-      <c r="B158" s="23"/>
+      <c r="A158" s="73" t="s">
+        <v>788</v>
+      </c>
+      <c r="B158" s="73"/>
+      <c r="C158" s="73" t="s">
+        <v>789</v>
+      </c>
+      <c r="D158" s="73"/>
+      <c r="E158" s="73"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="73"/>
+      <c r="H158" s="73"/>
+      <c r="I158" s="73"/>
+      <c r="J158" s="73"/>
+      <c r="K158" s="76"/>
+      <c r="L158" s="76"/>
+      <c r="M158" s="73"/>
+      <c r="N158" s="73"/>
+      <c r="O158" s="73"/>
+      <c r="P158" s="73"/>
+      <c r="Q158" s="73"/>
+      <c r="R158" s="73"/>
+      <c r="S158" s="73"/>
+      <c r="T158" s="73"/>
+      <c r="U158" s="73"/>
+      <c r="V158" s="73"/>
+      <c r="W158" s="73"/>
+      <c r="X158" s="73"/>
+      <c r="Y158" s="73"/>
+      <c r="Z158" s="73"/>
+      <c r="AA158" s="73"/>
+      <c r="AB158" s="73"/>
+      <c r="AC158" s="73"/>
+      <c r="AD158" s="73"/>
     </row>
     <row r="159">
       <c r="B159" s="23"/>
@@ -26750,6 +27039,21 @@
     </row>
     <row r="989">
       <c r="B989" s="23"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="23"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="23"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="23"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="23"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AF3">
@@ -26762,17 +27066,17 @@
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:AF219">
+  <conditionalFormatting sqref="A4:AF224">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M4="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q1 A4:Q222">
+  <conditionalFormatting sqref="A1:Q1 A4:Q227">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q1 A4:Q222">
+  <conditionalFormatting sqref="A1:Q1 A4:Q227">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -27232,7 +27536,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -27241,13 +27545,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>74</v>
@@ -27260,7 +27564,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K10" s="82">
         <v>45521.0</v>
@@ -27291,13 +27595,13 @@
     </row>
     <row r="11">
       <c r="A11" s="71" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>74</v>
@@ -27310,7 +27614,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K11" s="82">
         <v>45521.0</v>
@@ -27341,13 +27645,13 @@
     </row>
     <row r="12">
       <c r="A12" s="71" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>74</v>
@@ -27360,7 +27664,7 @@
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
       <c r="J12" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K12" s="82">
         <v>45521.0</v>
@@ -27391,13 +27695,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>74</v>
@@ -27410,7 +27714,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K13" s="82">
         <v>45521.0</v>
@@ -27441,13 +27745,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>74</v>
@@ -27460,7 +27764,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K14" s="82">
         <v>45521.0</v>
@@ -27491,13 +27795,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>74</v>
@@ -27510,7 +27814,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K15" s="82">
         <v>45521.0</v>
@@ -27541,13 +27845,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="D16" s="74" t="s">
         <v>74</v>
@@ -27560,7 +27864,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K16" s="82">
         <v>45521.0</v>
@@ -27591,13 +27895,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>74</v>
@@ -27610,7 +27914,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="49"/>
       <c r="J17" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K17" s="82">
         <v>45521.0</v>
@@ -27649,13 +27953,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
@@ -27668,7 +27972,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K19" s="82">
         <v>45521.0</v>
@@ -27699,13 +28003,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>18</v>
@@ -27718,7 +28022,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="17" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K20" s="82">
         <v>45521.0</v>
@@ -27755,13 +28059,13 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>74</v>
@@ -27805,17 +28109,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -27853,17 +28157,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -27901,17 +28205,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -27949,17 +28253,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -27997,17 +28301,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -28045,17 +28349,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -28093,17 +28397,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -32368,19 +32672,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -32412,19 +32716,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -32456,19 +32760,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -35492,13 +35796,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
@@ -35511,7 +35815,7 @@
         <v>45531.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -35522,13 +35826,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -35541,7 +35845,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -35552,16 +35856,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>81</v>
@@ -35599,16 +35903,16 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>81</v>
@@ -35617,7 +35921,7 @@
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
       <c r="I5" s="128" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="130">
@@ -35626,7 +35930,7 @@
       <c r="L5" s="129"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="O5" s="131" t="s">
         <v>63</v>
@@ -35650,16 +35954,16 @@
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="E6" s="128" t="s">
         <v>81</v>
@@ -35675,7 +35979,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="O6" s="131" t="s">
         <v>63</v>
@@ -35699,16 +36003,16 @@
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>81</v>
@@ -35724,7 +36028,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="O7" s="131" t="s">
         <v>63</v>
@@ -35748,16 +36052,16 @@
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>81</v>
@@ -35773,7 +36077,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="O8" s="131" t="s">
         <v>63</v>
@@ -35797,16 +36101,16 @@
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>81</v>
@@ -35879,16 +36183,16 @@
     </row>
     <row r="11">
       <c r="A11" s="133" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="C11" s="81" t="s">
+        <v>891</v>
+      </c>
+      <c r="D11" s="86" t="s">
         <v>873</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>855</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -35898,7 +36202,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="94" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -35930,16 +36234,16 @@
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -35979,16 +36283,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -36035,30 +36339,30 @@
     </row>
     <row r="15">
       <c r="A15" s="135" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="138" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="138" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="K15" s="130">
         <v>44601.0</v>
@@ -38794,13 +39098,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>113</v>
@@ -38813,7 +39117,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -38847,13 +39151,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -38864,7 +39168,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -38896,13 +39200,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -38913,7 +39217,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="93"/>
       <c r="J4" s="17" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -38945,13 +39249,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -38962,7 +39266,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -38994,13 +39298,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -39011,7 +39315,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -39043,13 +39347,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -39060,7 +39364,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -39092,13 +39396,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -39109,7 +39413,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -39141,13 +39445,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -39158,7 +39462,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -39190,13 +39494,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -39207,7 +39511,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -39239,13 +39543,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -39256,7 +39560,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -39288,13 +39592,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -39305,7 +39609,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="948">
   <si>
     <t>Term</t>
   </si>
@@ -2907,6 +2907,9 @@
   </si>
   <si>
     <t>Status associated with notice provision, use, and management</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
   </si>
   <si>
     <t>NoticeGenerated</t>
@@ -28068,7 +28071,7 @@
         <v>824</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>74</v>
+        <v>825</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>27</v>
@@ -28109,17 +28112,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -28157,17 +28160,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -28205,17 +28208,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -28253,17 +28256,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -28301,17 +28304,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -28349,17 +28352,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -28397,17 +28400,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -32672,19 +32675,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -32716,19 +32719,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -32760,19 +32763,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -35796,13 +35799,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
@@ -35815,7 +35818,7 @@
         <v>45531.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -35826,13 +35829,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -35845,7 +35848,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -35856,16 +35859,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>81</v>
@@ -35903,16 +35906,16 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>81</v>
@@ -35921,7 +35924,7 @@
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
       <c r="I5" s="128" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="130">
@@ -35930,7 +35933,7 @@
       <c r="L5" s="129"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O5" s="131" t="s">
         <v>63</v>
@@ -35954,16 +35957,16 @@
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E6" s="128" t="s">
         <v>81</v>
@@ -35979,7 +35982,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O6" s="131" t="s">
         <v>63</v>
@@ -36003,16 +36006,16 @@
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
+        <v>881</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>882</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>883</v>
+      </c>
+      <c r="D7" s="128" t="s">
         <v>880</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>881</v>
-      </c>
-      <c r="C7" s="128" t="s">
-        <v>882</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>879</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>81</v>
@@ -36028,7 +36031,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O7" s="131" t="s">
         <v>63</v>
@@ -36052,16 +36055,16 @@
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>81</v>
@@ -36077,7 +36080,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O8" s="131" t="s">
         <v>63</v>
@@ -36101,16 +36104,16 @@
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>81</v>
@@ -36183,16 +36186,16 @@
     </row>
     <row r="11">
       <c r="A11" s="133" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -36202,7 +36205,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="94" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -36234,16 +36237,16 @@
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -36283,16 +36286,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -36339,30 +36342,30 @@
     </row>
     <row r="15">
       <c r="A15" s="135" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="138" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="138" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="K15" s="130">
         <v>44601.0</v>
@@ -39098,13 +39101,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>113</v>
@@ -39117,7 +39120,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -39151,13 +39154,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -39168,7 +39171,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -39200,13 +39203,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -39217,7 +39220,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="93"/>
       <c r="J4" s="17" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -39249,13 +39252,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -39266,7 +39269,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -39298,13 +39301,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -39315,7 +39318,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -39347,13 +39350,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -39364,7 +39367,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -39396,13 +39399,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -39413,7 +39416,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -39445,13 +39448,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -39462,7 +39465,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -39494,13 +39497,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -39511,7 +39514,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -39543,13 +39546,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -39560,7 +39563,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -39592,13 +39595,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -39609,7 +39612,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="953">
   <si>
     <t>Term</t>
   </si>
@@ -1942,6 +1942,12 @@
     <t>Standard</t>
   </si>
   <si>
+    <t>A set of requirements or norms that are agreed upon i.e. they are considered a 'standard'</t>
+  </si>
+  <si>
+    <t>DPV does not restrict the notion of 'standard' to those published by specific or 'formal' bodies</t>
+  </si>
+  <si>
     <t>Delaram Golpayegani, Harshvardhan J. Pandit</t>
   </si>
   <si>
@@ -1963,12 +1969,18 @@
     <t>Technical Standard</t>
   </si>
   <si>
+    <t>A technical standard is a standard that establishes norms or requirements regarding technology or technical processes</t>
+  </si>
+  <si>
     <t>ManagementStandard</t>
   </si>
   <si>
     <t>Management Standard</t>
   </si>
   <si>
+    <t>A management standard is a standard that establishes norms or requirements regarding the management operations and processes e.g. in an organisation</t>
+  </si>
+  <si>
     <t>PrivacyByDefault</t>
   </si>
   <si>
@@ -2072,6 +2084,9 @@
   </si>
   <si>
     <t>AINotice</t>
+  </si>
+  <si>
+    <t>AI Notice</t>
   </si>
   <si>
     <t>A notice providing information regarding the particulars of an AI system such as its intended purpose and proper use</t>
@@ -3902,6 +3917,9 @@
     <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3950,9 +3968,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -20061,7 +20076,9 @@
       <c r="B51" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>516</v>
+      </c>
       <c r="D51" s="17" t="s">
         <v>514</v>
       </c>
@@ -20071,7 +20088,9 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="J51" s="17"/>
       <c r="K51" s="20">
         <v>45627.0</v>
@@ -20081,7 +20100,7 @@
         <v>20</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="O51" s="28"/>
       <c r="P51" s="19"/>
@@ -20104,16 +20123,16 @@
     </row>
     <row r="52">
       <c r="A52" s="17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>58</v>
@@ -20156,14 +20175,16 @@
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>522</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="17" t="s">
-        <v>520</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>58</v>
@@ -20204,14 +20225,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="C54" s="52"/>
+        <v>527</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>528</v>
+      </c>
       <c r="D54" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -20252,13 +20275,13 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>514</v>
@@ -20306,13 +20329,13 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>514</v>
@@ -20358,13 +20381,13 @@
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>514</v>
@@ -20408,13 +20431,13 @@
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>514</v>
@@ -20457,14 +20480,14 @@
       <c r="AF58" s="19"/>
     </row>
     <row r="60">
-      <c r="A60" s="95" t="s">
-        <v>535</v>
+      <c r="A60" s="96" t="s">
+        <v>539</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="17" t="s">
@@ -20474,7 +20497,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="17" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="20">
@@ -20510,13 +20533,13 @@
     </row>
     <row r="61">
       <c r="A61" s="63" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D61" s="63" t="s">
         <v>74</v>
@@ -20537,7 +20560,7 @@
         <v>20</v>
       </c>
       <c r="N61" s="29" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="O61" s="68" t="s">
         <v>361</v>
@@ -20562,16 +20585,16 @@
     </row>
     <row r="62">
       <c r="A62" s="17" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>58</v>
@@ -20614,13 +20637,13 @@
     </row>
     <row r="63">
       <c r="A63" s="71" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="C63" s="96" t="s">
-        <v>548</v>
+        <v>551</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>552</v>
       </c>
       <c r="D63" s="74" t="s">
         <v>74</v>
@@ -20664,16 +20687,16 @@
     </row>
     <row r="64">
       <c r="A64" s="85" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="C64" s="98" t="s">
+        <v>555</v>
       </c>
       <c r="D64" s="85" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E64" s="87" t="s">
         <v>58</v>
@@ -20682,8 +20705,8 @@
       <c r="G64" s="88"/>
       <c r="H64" s="88"/>
       <c r="I64" s="88"/>
-      <c r="J64" s="98" t="s">
-        <v>553</v>
+      <c r="J64" s="99" t="s">
+        <v>557</v>
       </c>
       <c r="K64" s="82">
         <v>45396.0</v>
@@ -20693,7 +20716,7 @@
         <v>20</v>
       </c>
       <c r="N64" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O64" s="89"/>
       <c r="P64" s="88"/>
@@ -20716,13 +20739,13 @@
     </row>
     <row r="65">
       <c r="A65" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B65" s="73" t="s">
-        <v>556</v>
-      </c>
-      <c r="C65" s="99" t="s">
-        <v>557</v>
+        <v>560</v>
+      </c>
+      <c r="C65" s="100" t="s">
+        <v>561</v>
       </c>
       <c r="D65" s="74" t="s">
         <v>74</v>
@@ -20735,7 +20758,7 @@
       <c r="H65" s="73"/>
       <c r="I65" s="73"/>
       <c r="J65" s="73" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K65" s="82">
         <v>45396.0</v>
@@ -20745,7 +20768,7 @@
         <v>20</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O65" s="73"/>
       <c r="P65" s="73"/>
@@ -20768,11 +20791,13 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B66" s="17"/>
+        <v>563</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>564</v>
+      </c>
       <c r="C66" s="17" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D66" s="74" t="s">
         <v>74</v>
@@ -20827,13 +20852,13 @@
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
@@ -20843,7 +20868,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="17" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="J68" s="19"/>
       <c r="K68" s="82">
@@ -20877,16 +20902,16 @@
     </row>
     <row r="69">
       <c r="A69" s="74" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>565</v>
-      </c>
-      <c r="C69" s="100" t="s">
-        <v>566</v>
+        <v>570</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>571</v>
       </c>
       <c r="D69" s="71" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>58</v>
@@ -20927,16 +20952,16 @@
     </row>
     <row r="70">
       <c r="A70" s="83" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>569</v>
-      </c>
-      <c r="C70" s="101" t="s">
-        <v>570</v>
+        <v>574</v>
+      </c>
+      <c r="C70" s="102" t="s">
+        <v>575</v>
       </c>
       <c r="D70" s="83" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E70" s="87" t="s">
         <v>58</v>
@@ -20945,8 +20970,8 @@
       <c r="G70" s="88"/>
       <c r="H70" s="88"/>
       <c r="I70" s="88"/>
-      <c r="J70" s="98" t="s">
-        <v>553</v>
+      <c r="J70" s="99" t="s">
+        <v>557</v>
       </c>
       <c r="K70" s="82">
         <v>45396.0</v>
@@ -20990,13 +21015,13 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="17" t="s">
@@ -21006,7 +21031,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="17" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="J72" s="19"/>
       <c r="K72" s="20">
@@ -21044,13 +21069,13 @@
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>97</v>
@@ -21096,16 +21121,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -21148,16 +21173,16 @@
     </row>
     <row r="75">
       <c r="A75" s="17" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
@@ -21200,16 +21225,16 @@
     </row>
     <row r="76">
       <c r="A76" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>587</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>58</v>
@@ -21218,7 +21243,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="31" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="J76" s="19"/>
       <c r="K76" s="20">
@@ -21256,13 +21281,13 @@
     </row>
     <row r="77">
       <c r="A77" s="17" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>97</v>
@@ -21306,13 +21331,13 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>97</v>
@@ -21356,16 +21381,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -21418,13 +21443,13 @@
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="17" t="s">
@@ -21468,16 +21493,16 @@
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>58</v>
@@ -21520,16 +21545,16 @@
     </row>
     <row r="83">
       <c r="A83" s="17" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>58</v>
@@ -21572,16 +21597,16 @@
     </row>
     <row r="84">
       <c r="A84" s="17" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C84" s="79" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>58</v>
@@ -21622,16 +21647,16 @@
     </row>
     <row r="85">
       <c r="A85" s="17" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C85" s="79" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>58</v>
@@ -21685,7 +21710,7 @@
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
@@ -21700,13 +21725,13 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="17" t="s">
@@ -21750,16 +21775,16 @@
     </row>
     <row r="89">
       <c r="A89" s="17" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>58</v>
@@ -21769,7 +21794,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="31" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K89" s="20">
         <v>44790.0</v>
@@ -21804,16 +21829,16 @@
     </row>
     <row r="90">
       <c r="A90" s="17" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21858,16 +21883,16 @@
     </row>
     <row r="91">
       <c r="A91" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>628</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>623</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21912,16 +21937,16 @@
     </row>
     <row r="92">
       <c r="A92" s="17" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21931,7 +21956,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="31" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="K92" s="20">
         <v>44790.0</v>
@@ -21966,16 +21991,16 @@
     </row>
     <row r="93">
       <c r="A93" s="17" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>58</v>
@@ -22026,14 +22051,14 @@
       <c r="M94" s="29"/>
     </row>
     <row r="95">
-      <c r="A95" s="102" t="s">
-        <v>638</v>
+      <c r="A95" s="103" t="s">
+        <v>643</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="52" t="s">
@@ -22043,7 +22068,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="52" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="J95" s="12"/>
       <c r="K95" s="14">
@@ -22054,7 +22079,7 @@
         <v>20</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="O95" s="53" t="s">
         <v>361</v>
@@ -22079,16 +22104,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="E96" s="52" t="s">
         <v>58</v>
@@ -22106,7 +22131,7 @@
         <v>20</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="O96" s="53" t="s">
         <v>361</v>
@@ -22131,16 +22156,16 @@
     </row>
     <row r="97">
       <c r="A97" s="17" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="E97" s="52" t="s">
         <v>58</v>
@@ -22150,7 +22175,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="31" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K97" s="20">
         <v>45429.0</v>
@@ -22189,13 +22214,13 @@
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="17" t="s">
@@ -22214,7 +22239,7 @@
         <v>20</v>
       </c>
       <c r="N99" s="71" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O99" s="28"/>
       <c r="P99" s="19"/>
@@ -22236,17 +22261,17 @@
       <c r="AF99" s="19"/>
     </row>
     <row r="100">
-      <c r="A100" s="103" t="s">
-        <v>654</v>
+      <c r="A100" s="104" t="s">
+        <v>659</v>
       </c>
       <c r="B100" s="94" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C100" s="81" t="s">
-        <v>656</v>
-      </c>
-      <c r="D100" s="103" t="s">
-        <v>657</v>
+        <v>661</v>
+      </c>
+      <c r="D100" s="104" t="s">
+        <v>662</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -22255,10 +22280,10 @@
       <c r="G100" s="94"/>
       <c r="H100" s="73"/>
       <c r="I100" s="71" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="J100" s="94" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K100" s="82">
         <v>45396.0</v>
@@ -22268,7 +22293,7 @@
         <v>20</v>
       </c>
       <c r="N100" s="71" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O100" s="73"/>
       <c r="P100" s="73"/>
@@ -22291,16 +22316,16 @@
     </row>
     <row r="101">
       <c r="A101" s="86" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B101" s="94" t="s">
-        <v>661</v>
-      </c>
-      <c r="C101" s="104" t="s">
+        <v>666</v>
+      </c>
+      <c r="C101" s="105" t="s">
+        <v>667</v>
+      </c>
+      <c r="D101" s="104" t="s">
         <v>662</v>
-      </c>
-      <c r="D101" s="103" t="s">
-        <v>657</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -22310,7 +22335,7 @@
       <c r="H101" s="73"/>
       <c r="I101" s="73"/>
       <c r="J101" s="94" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K101" s="82">
         <v>45396.0</v>
@@ -22320,7 +22345,7 @@
         <v>20</v>
       </c>
       <c r="N101" s="71" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O101" s="73"/>
       <c r="P101" s="73"/>
@@ -22343,16 +22368,16 @@
     </row>
     <row r="102">
       <c r="A102" s="80" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B102" s="94" t="s">
-        <v>665</v>
-      </c>
-      <c r="C102" s="105" t="s">
-        <v>666</v>
-      </c>
-      <c r="D102" s="103" t="s">
-        <v>657</v>
+        <v>670</v>
+      </c>
+      <c r="C102" s="106" t="s">
+        <v>671</v>
+      </c>
+      <c r="D102" s="104" t="s">
+        <v>662</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -22361,10 +22386,10 @@
       <c r="G102" s="94"/>
       <c r="H102" s="73"/>
       <c r="I102" s="71" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="J102" s="94" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="K102" s="82">
         <v>45396.0</v>
@@ -22374,7 +22399,7 @@
         <v>20</v>
       </c>
       <c r="N102" s="71" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O102" s="73"/>
       <c r="P102" s="73"/>
@@ -22396,69 +22421,69 @@
       <c r="AF102" s="73"/>
     </row>
     <row r="103">
-      <c r="A103" s="106" t="s">
-        <v>669</v>
-      </c>
-      <c r="B103" s="107" t="s">
-        <v>670</v>
-      </c>
-      <c r="C103" s="105" t="s">
-        <v>671</v>
-      </c>
-      <c r="D103" s="108" t="s">
-        <v>672</v>
+      <c r="A103" s="107" t="s">
+        <v>674</v>
+      </c>
+      <c r="B103" s="108" t="s">
+        <v>675</v>
+      </c>
+      <c r="C103" s="106" t="s">
+        <v>676</v>
+      </c>
+      <c r="D103" s="109" t="s">
+        <v>677</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="109"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="109"/>
-      <c r="I103" s="109"/>
-      <c r="J103" s="107" t="s">
-        <v>668</v>
-      </c>
-      <c r="K103" s="110">
+      <c r="F103" s="110"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="110"/>
+      <c r="J103" s="108" t="s">
+        <v>673</v>
+      </c>
+      <c r="K103" s="111">
         <v>45396.0</v>
       </c>
-      <c r="L103" s="109"/>
+      <c r="L103" s="110"/>
       <c r="M103" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N103" s="71" t="s">
-        <v>653</v>
-      </c>
-      <c r="O103" s="109"/>
-      <c r="P103" s="109"/>
-      <c r="Q103" s="109"/>
-      <c r="R103" s="109"/>
-      <c r="S103" s="109"/>
-      <c r="T103" s="109"/>
-      <c r="U103" s="109"/>
-      <c r="V103" s="109"/>
-      <c r="W103" s="109"/>
-      <c r="X103" s="109"/>
-      <c r="Y103" s="109"/>
-      <c r="Z103" s="109"/>
-      <c r="AA103" s="109"/>
-      <c r="AB103" s="109"/>
-      <c r="AC103" s="109"/>
-      <c r="AD103" s="109"/>
+        <v>658</v>
+      </c>
+      <c r="O103" s="110"/>
+      <c r="P103" s="110"/>
+      <c r="Q103" s="110"/>
+      <c r="R103" s="110"/>
+      <c r="S103" s="110"/>
+      <c r="T103" s="110"/>
+      <c r="U103" s="110"/>
+      <c r="V103" s="110"/>
+      <c r="W103" s="110"/>
+      <c r="X103" s="110"/>
+      <c r="Y103" s="110"/>
+      <c r="Z103" s="110"/>
+      <c r="AA103" s="110"/>
+      <c r="AB103" s="110"/>
+      <c r="AC103" s="110"/>
+      <c r="AD103" s="110"/>
       <c r="AE103" s="73"/>
       <c r="AF103" s="73"/>
     </row>
     <row r="105">
-      <c r="A105" s="102" t="s">
-        <v>673</v>
+      <c r="A105" s="103" t="s">
+        <v>678</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="C105" s="111" t="s">
-        <v>675</v>
+        <v>679</v>
+      </c>
+      <c r="C105" s="112" t="s">
+        <v>680</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>58</v>
@@ -22499,16 +22524,16 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -22517,7 +22542,7 @@
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
       <c r="I106" s="52" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="J106" s="13"/>
       <c r="K106" s="36">
@@ -22551,16 +22576,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22601,16 +22626,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -22651,16 +22676,16 @@
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>58</v>
@@ -22701,16 +22726,16 @@
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>58</v>
@@ -22719,7 +22744,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
       <c r="I110" s="52" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="36">
@@ -22753,16 +22778,16 @@
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>58</v>
@@ -22803,16 +22828,16 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>58</v>
@@ -22853,16 +22878,16 @@
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>58</v>
@@ -22881,7 +22906,7 @@
       <c r="M113" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N113" s="112" t="s">
+      <c r="N113" s="95" t="s">
         <v>402</v>
       </c>
       <c r="O113" s="13"/>
@@ -22905,16 +22930,16 @@
     </row>
     <row r="114">
       <c r="A114" s="17" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>58</v>
@@ -22958,14 +22983,14 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116">
-      <c r="A116" s="102" t="s">
-        <v>712</v>
+      <c r="A116" s="103" t="s">
+        <v>717</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="17" t="s">
@@ -22976,7 +23001,7 @@
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="K116" s="36">
         <v>45396.0</v>
@@ -22985,7 +23010,7 @@
       <c r="M116" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N116" s="112" t="s">
+      <c r="N116" s="95" t="s">
         <v>402</v>
       </c>
       <c r="O116" s="13"/>
@@ -23009,16 +23034,16 @@
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="C117" s="111" t="s">
-        <v>718</v>
+        <v>722</v>
+      </c>
+      <c r="C117" s="112" t="s">
+        <v>723</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>58</v>
@@ -23028,7 +23053,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="K117" s="36">
         <v>45396.0</v>
@@ -23037,7 +23062,7 @@
       <c r="M117" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N117" s="112" t="s">
+      <c r="N117" s="95" t="s">
         <v>402</v>
       </c>
       <c r="O117" s="13"/>
@@ -23061,16 +23086,16 @@
     </row>
     <row r="118">
       <c r="A118" s="13" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C118" s="70" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>58</v>
@@ -23080,7 +23105,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="K118" s="36">
         <v>45396.0</v>
@@ -23089,7 +23114,7 @@
       <c r="M118" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N118" s="112" t="s">
+      <c r="N118" s="95" t="s">
         <v>402</v>
       </c>
       <c r="O118" s="13"/>
@@ -23113,16 +23138,16 @@
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B119" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>730</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>724</v>
-      </c>
-      <c r="C119" s="70" t="s">
-        <v>725</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>719</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>58</v>
@@ -23132,7 +23157,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="K119" s="36">
         <v>45396.0</v>
@@ -23141,7 +23166,7 @@
       <c r="M119" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N119" s="112" t="s">
+      <c r="N119" s="95" t="s">
         <v>402</v>
       </c>
       <c r="O119" s="13"/>
@@ -23165,13 +23190,13 @@
     </row>
     <row r="121">
       <c r="A121" s="86" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B121" s="86" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C121" s="81" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D121" s="86"/>
       <c r="E121" s="17" t="s">
@@ -23213,16 +23238,16 @@
     </row>
     <row r="122">
       <c r="A122" s="86" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B122" s="86" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C122" s="81" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D122" s="86" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>58</v>
@@ -23263,16 +23288,16 @@
     </row>
     <row r="123">
       <c r="A123" s="86" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B123" s="86" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D123" s="86" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>58</v>
@@ -23313,16 +23338,16 @@
     </row>
     <row r="124">
       <c r="A124" s="86" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B124" s="86" t="s">
+        <v>741</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="D124" s="86" t="s">
         <v>736</v>
-      </c>
-      <c r="C124" s="81" t="s">
-        <v>737</v>
-      </c>
-      <c r="D124" s="86" t="s">
-        <v>731</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>58</v>
@@ -23340,7 +23365,7 @@
         <v>20</v>
       </c>
       <c r="N124" s="71" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="O124" s="73"/>
       <c r="P124" s="73"/>
@@ -23363,16 +23388,16 @@
     </row>
     <row r="125">
       <c r="A125" s="86" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B125" s="86" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C125" s="81" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D125" s="86" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>58</v>
@@ -23381,7 +23406,7 @@
       <c r="G125" s="94"/>
       <c r="H125" s="73"/>
       <c r="I125" s="71" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="J125" s="94"/>
       <c r="K125" s="82">
@@ -23392,7 +23417,7 @@
         <v>20</v>
       </c>
       <c r="N125" s="71" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="O125" s="73"/>
       <c r="P125" s="73"/>
@@ -23414,9 +23439,9 @@
       <c r="AF125" s="73"/>
     </row>
     <row r="126">
-      <c r="A126" s="103"/>
+      <c r="A126" s="104"/>
       <c r="B126" s="94"/>
-      <c r="C126" s="104"/>
+      <c r="C126" s="105"/>
       <c r="D126" s="86"/>
       <c r="F126" s="73"/>
       <c r="G126" s="94"/>
@@ -23447,13 +23472,13 @@
     </row>
     <row r="127">
       <c r="A127" s="73" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B127" s="73" t="s">
-        <v>745</v>
-      </c>
-      <c r="C127" s="99" t="s">
-        <v>746</v>
+        <v>750</v>
+      </c>
+      <c r="C127" s="100" t="s">
+        <v>751</v>
       </c>
       <c r="D127" s="73"/>
       <c r="E127" s="17" t="s">
@@ -23467,7 +23492,7 @@
       <c r="K127" s="73"/>
       <c r="L127" s="73"/>
       <c r="M127" s="17" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="N127" s="73"/>
       <c r="O127" s="73"/>
@@ -23489,11 +23514,11 @@
     </row>
     <row r="128">
       <c r="A128" s="83" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B128" s="89"/>
       <c r="C128" s="85" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D128" s="113" t="s">
         <v>51</v>
@@ -23511,7 +23536,7 @@
       </c>
       <c r="L128" s="90"/>
       <c r="M128" s="71" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="N128" s="85" t="s">
         <v>220</v>
@@ -23541,13 +23566,13 @@
     </row>
     <row r="130">
       <c r="A130" s="17" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="87" t="s">
@@ -23589,16 +23614,16 @@
     </row>
     <row r="131">
       <c r="A131" s="17" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E131" s="87" t="s">
         <v>58</v>
@@ -23639,16 +23664,16 @@
     </row>
     <row r="132">
       <c r="A132" s="17" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E132" s="87" t="s">
         <v>58</v>
@@ -23689,12 +23714,12 @@
     </row>
     <row r="134">
       <c r="A134" s="8" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="115" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B135" s="73"/>
       <c r="C135" s="73"/>
@@ -23731,10 +23756,10 @@
         <v>425</v>
       </c>
       <c r="B136" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C136" s="73" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D136" s="73"/>
       <c r="E136" s="73"/>
@@ -23766,16 +23791,16 @@
     </row>
     <row r="137">
       <c r="A137" s="73" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B137" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C137" s="73" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D137" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E137" s="73"/>
       <c r="F137" s="73"/>
@@ -23806,13 +23831,13 @@
     </row>
     <row r="138">
       <c r="A138" s="73" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B138" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C138" s="73" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
@@ -23844,13 +23869,13 @@
     </row>
     <row r="139">
       <c r="A139" s="73" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B139" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C139" s="73" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
@@ -23882,10 +23907,10 @@
     </row>
     <row r="140">
       <c r="A140" s="73" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B140" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
@@ -23918,10 +23943,10 @@
     </row>
     <row r="141">
       <c r="A141" s="73" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
@@ -23954,10 +23979,10 @@
     </row>
     <row r="142">
       <c r="A142" s="73" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
@@ -23990,10 +24015,10 @@
     </row>
     <row r="143">
       <c r="A143" s="73" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C143" s="73"/>
       <c r="D143" s="73"/>
@@ -24026,10 +24051,10 @@
     </row>
     <row r="144">
       <c r="A144" s="73" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B144" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C144" s="73"/>
       <c r="D144" s="73"/>
@@ -24062,10 +24087,10 @@
     </row>
     <row r="145">
       <c r="A145" s="73" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B145" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -24098,10 +24123,10 @@
     </row>
     <row r="146">
       <c r="A146" s="73" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="B146" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C146" s="73"/>
       <c r="D146" s="73"/>
@@ -24134,10 +24159,10 @@
     </row>
     <row r="147">
       <c r="A147" s="73" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B147" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C147" s="73"/>
       <c r="D147" s="73"/>
@@ -24170,10 +24195,10 @@
     </row>
     <row r="148">
       <c r="A148" s="73" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B148" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
@@ -24206,10 +24231,10 @@
     </row>
     <row r="149">
       <c r="A149" s="73" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
@@ -24242,10 +24267,10 @@
     </row>
     <row r="150">
       <c r="A150" s="73" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B150" s="73" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C150" s="73"/>
       <c r="D150" s="73"/>
@@ -24281,7 +24306,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="73" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="73"/>
@@ -24314,7 +24339,7 @@
     </row>
     <row r="152">
       <c r="A152" s="73" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B152" s="73"/>
       <c r="C152" s="73"/>
@@ -24348,7 +24373,7 @@
     </row>
     <row r="153">
       <c r="A153" s="73" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B153" s="73"/>
       <c r="C153" s="73"/>
@@ -24382,7 +24407,7 @@
     </row>
     <row r="154">
       <c r="A154" s="73" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B154" s="73"/>
       <c r="C154" s="73"/>
@@ -24416,7 +24441,7 @@
     </row>
     <row r="155">
       <c r="A155" s="73" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B155" s="73"/>
       <c r="C155" s="73"/>
@@ -24450,7 +24475,7 @@
     </row>
     <row r="156">
       <c r="A156" s="73" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B156" s="73"/>
       <c r="C156" s="73"/>
@@ -24516,11 +24541,11 @@
     </row>
     <row r="158">
       <c r="A158" s="73" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B158" s="73"/>
       <c r="C158" s="73" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D158" s="73"/>
       <c r="E158" s="73"/>
@@ -27225,14 +27250,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="95" t="s">
-        <v>535</v>
+      <c r="A2" s="96" t="s">
+        <v>539</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -27242,7 +27267,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -27278,13 +27303,13 @@
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>74</v>
@@ -27305,7 +27330,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="O3" s="68" t="s">
         <v>361</v>
@@ -27330,16 +27355,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>58</v>
@@ -27382,13 +27407,13 @@
     </row>
     <row r="5">
       <c r="A5" s="71" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>548</v>
+        <v>551</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>552</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>74</v>
@@ -27432,16 +27457,16 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>555</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>58</v>
@@ -27450,8 +27475,8 @@
       <c r="G6" s="88"/>
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
-      <c r="J6" s="98" t="s">
-        <v>553</v>
+      <c r="J6" s="99" t="s">
+        <v>557</v>
       </c>
       <c r="K6" s="82">
         <v>45396.0</v>
@@ -27461,7 +27486,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O6" s="89"/>
       <c r="P6" s="88"/>
@@ -27484,13 +27509,13 @@
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>557</v>
+        <v>560</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>561</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>74</v>
@@ -27503,7 +27528,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K7" s="82">
         <v>45396.0</v>
@@ -27513,7 +27538,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
@@ -27539,7 +27564,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -27548,13 +27573,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>74</v>
@@ -27567,7 +27592,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K10" s="82">
         <v>45521.0</v>
@@ -27598,13 +27623,13 @@
     </row>
     <row r="11">
       <c r="A11" s="71" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>74</v>
@@ -27617,7 +27642,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K11" s="82">
         <v>45521.0</v>
@@ -27648,13 +27673,13 @@
     </row>
     <row r="12">
       <c r="A12" s="71" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>74</v>
@@ -27667,7 +27692,7 @@
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
       <c r="J12" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K12" s="82">
         <v>45521.0</v>
@@ -27698,13 +27723,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>74</v>
@@ -27717,7 +27742,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K13" s="82">
         <v>45521.0</v>
@@ -27748,13 +27773,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>74</v>
@@ -27767,7 +27792,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K14" s="82">
         <v>45521.0</v>
@@ -27798,13 +27823,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>74</v>
@@ -27817,7 +27842,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K15" s="82">
         <v>45521.0</v>
@@ -27848,13 +27873,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D16" s="74" t="s">
         <v>74</v>
@@ -27867,7 +27892,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K16" s="82">
         <v>45521.0</v>
@@ -27898,13 +27923,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>74</v>
@@ -27917,7 +27942,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="49"/>
       <c r="J17" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K17" s="82">
         <v>45521.0</v>
@@ -27956,13 +27981,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
@@ -27975,7 +28000,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K19" s="82">
         <v>45521.0</v>
@@ -28006,13 +28031,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>18</v>
@@ -28025,7 +28050,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="17" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K20" s="82">
         <v>45521.0</v>
@@ -28062,16 +28087,16 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>27</v>
@@ -28112,17 +28137,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -28160,17 +28185,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -28208,17 +28233,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -28256,17 +28281,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -28304,17 +28329,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -28352,17 +28377,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -28400,17 +28425,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -28579,10 +28604,10 @@
       <c r="O41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="103"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="94"/>
       <c r="C42" s="81"/>
-      <c r="D42" s="103"/>
+      <c r="D42" s="104"/>
       <c r="F42" s="73"/>
       <c r="G42" s="94"/>
       <c r="H42" s="73"/>
@@ -28613,8 +28638,8 @@
     <row r="43">
       <c r="A43" s="86"/>
       <c r="B43" s="94"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="103"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="104"/>
       <c r="F43" s="73"/>
       <c r="G43" s="94"/>
       <c r="H43" s="73"/>
@@ -28646,7 +28671,7 @@
       <c r="A44" s="80"/>
       <c r="B44" s="94"/>
       <c r="C44" s="81"/>
-      <c r="D44" s="103"/>
+      <c r="D44" s="104"/>
       <c r="F44" s="73"/>
       <c r="G44" s="94"/>
       <c r="H44" s="73"/>
@@ -28675,7 +28700,7 @@
       <c r="AF44" s="73"/>
     </row>
     <row r="45">
-      <c r="A45" s="103"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="94"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86"/>
@@ -29015,7 +29040,7 @@
     <row r="58">
       <c r="A58" s="115"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="99"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="73"/>
       <c r="F58" s="73"/>
       <c r="G58" s="73"/>
@@ -29081,7 +29106,7 @@
     <row r="60">
       <c r="A60" s="73"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="99"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="73"/>
       <c r="F60" s="73"/>
       <c r="G60" s="73"/>
@@ -29114,7 +29139,7 @@
     <row r="61">
       <c r="A61" s="73"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="99"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="73"/>
@@ -29145,9 +29170,9 @@
       <c r="AF61" s="73"/>
     </row>
     <row r="63">
-      <c r="A63" s="103"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="94"/>
-      <c r="C63" s="104"/>
+      <c r="C63" s="105"/>
       <c r="D63" s="86"/>
       <c r="F63" s="73"/>
       <c r="G63" s="94"/>
@@ -29179,7 +29204,7 @@
     <row r="64">
       <c r="A64" s="73"/>
       <c r="B64" s="73"/>
-      <c r="C64" s="99"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="73"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -29207,9 +29232,9 @@
       <c r="AD64" s="73"/>
     </row>
     <row r="65">
-      <c r="A65" s="100"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="74"/>
-      <c r="C65" s="96"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="124"/>
       <c r="E65" s="125"/>
       <c r="F65" s="73"/>
@@ -29220,7 +29245,7 @@
       <c r="K65" s="82"/>
       <c r="L65" s="76"/>
       <c r="M65" s="71"/>
-      <c r="N65" s="96"/>
+      <c r="N65" s="97"/>
       <c r="O65" s="74"/>
       <c r="P65" s="73"/>
       <c r="Q65" s="73"/>
@@ -32675,19 +32700,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -32719,19 +32744,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -32763,19 +32788,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -35799,13 +35824,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
@@ -35818,7 +35843,7 @@
         <v>45531.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -35829,13 +35854,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -35848,7 +35873,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -35859,16 +35884,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>81</v>
@@ -35906,16 +35931,16 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>81</v>
@@ -35924,7 +35949,7 @@
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
       <c r="I5" s="128" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="130">
@@ -35933,7 +35958,7 @@
       <c r="L5" s="129"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="O5" s="131" t="s">
         <v>63</v>
@@ -35957,16 +35982,16 @@
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="E6" s="128" t="s">
         <v>81</v>
@@ -35982,7 +36007,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="O6" s="131" t="s">
         <v>63</v>
@@ -36006,16 +36031,16 @@
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>81</v>
@@ -36031,7 +36056,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="O7" s="131" t="s">
         <v>63</v>
@@ -36055,16 +36080,16 @@
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B8" s="127" t="s">
+        <v>890</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>891</v>
+      </c>
+      <c r="D8" s="128" t="s">
         <v>885</v>
-      </c>
-      <c r="C8" s="128" t="s">
-        <v>886</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>880</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>81</v>
@@ -36080,7 +36105,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="O8" s="131" t="s">
         <v>63</v>
@@ -36104,16 +36129,16 @@
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>81</v>
@@ -36152,9 +36177,9 @@
       <c r="AE9" s="129"/>
     </row>
     <row r="10">
-      <c r="A10" s="103"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="94"/>
-      <c r="C10" s="104"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="86"/>
       <c r="E10" s="17"/>
       <c r="F10" s="73"/>
@@ -36186,16 +36211,16 @@
     </row>
     <row r="11">
       <c r="A11" s="133" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -36205,7 +36230,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="94" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -36237,16 +36262,16 @@
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -36286,16 +36311,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -36342,30 +36367,30 @@
     </row>
     <row r="15">
       <c r="A15" s="135" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="138" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="138" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="K15" s="130">
         <v>44601.0</v>
@@ -39101,13 +39126,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>113</v>
@@ -39120,7 +39145,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -39154,13 +39179,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -39171,7 +39196,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -39203,13 +39228,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -39220,7 +39245,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="93"/>
       <c r="J4" s="17" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -39252,13 +39277,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -39269,7 +39294,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -39301,13 +39326,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -39318,7 +39343,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -39350,13 +39375,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -39367,7 +39392,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -39399,13 +39424,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -39416,7 +39441,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -39448,13 +39473,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -39465,7 +39490,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -39497,13 +39522,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -39514,7 +39539,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -39546,13 +39571,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -39563,7 +39588,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -39595,13 +39620,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -39612,7 +39637,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>
@@ -40095,10 +40120,10 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70">
-      <c r="A70" s="103"/>
+      <c r="A70" s="104"/>
       <c r="B70" s="94"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="103"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="104"/>
       <c r="F70" s="73"/>
       <c r="G70" s="94"/>
       <c r="H70" s="73"/>
@@ -40126,34 +40151,34 @@
       <c r="AE70" s="73"/>
     </row>
     <row r="71">
-      <c r="A71" s="106"/>
-      <c r="B71" s="107"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="144"/>
-      <c r="D71" s="106"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="109"/>
-      <c r="L71" s="109"/>
-      <c r="N71" s="109"/>
-      <c r="O71" s="109"/>
-      <c r="P71" s="109"/>
-      <c r="Q71" s="109"/>
-      <c r="R71" s="109"/>
-      <c r="S71" s="109"/>
-      <c r="T71" s="109"/>
-      <c r="U71" s="109"/>
-      <c r="V71" s="109"/>
-      <c r="W71" s="109"/>
-      <c r="X71" s="109"/>
-      <c r="Y71" s="109"/>
-      <c r="Z71" s="109"/>
-      <c r="AA71" s="109"/>
-      <c r="AB71" s="109"/>
-      <c r="AC71" s="109"/>
-      <c r="AD71" s="109"/>
+      <c r="D71" s="107"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="110"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="110"/>
+      <c r="S71" s="110"/>
+      <c r="T71" s="110"/>
+      <c r="U71" s="110"/>
+      <c r="V71" s="110"/>
+      <c r="W71" s="110"/>
+      <c r="X71" s="110"/>
+      <c r="Y71" s="110"/>
+      <c r="Z71" s="110"/>
+      <c r="AA71" s="110"/>
+      <c r="AB71" s="110"/>
+      <c r="AC71" s="110"/>
+      <c r="AD71" s="110"/>
       <c r="AE71" s="73"/>
     </row>
     <row r="72">
@@ -40164,7 +40189,7 @@
     <row r="73">
       <c r="A73" s="74"/>
       <c r="B73" s="73"/>
-      <c r="C73" s="99"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="74"/>
       <c r="F73" s="73"/>
       <c r="G73" s="73"/>
@@ -40209,9 +40234,9 @@
       <c r="N77" s="114"/>
     </row>
     <row r="78">
-      <c r="A78" s="103"/>
+      <c r="A78" s="104"/>
       <c r="B78" s="94"/>
-      <c r="C78" s="104"/>
+      <c r="C78" s="105"/>
       <c r="D78" s="94"/>
       <c r="F78" s="73"/>
       <c r="G78" s="94"/>
@@ -40250,10 +40275,10 @@
       <c r="N80" s="114"/>
     </row>
     <row r="81">
-      <c r="A81" s="103"/>
+      <c r="A81" s="104"/>
       <c r="B81" s="94"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="103"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="104"/>
       <c r="F81" s="73"/>
       <c r="G81" s="94"/>
       <c r="H81" s="73"/>
@@ -40283,7 +40308,7 @@
     <row r="82">
       <c r="A82" s="74"/>
       <c r="B82" s="73"/>
-      <c r="C82" s="99"/>
+      <c r="C82" s="100"/>
       <c r="D82" s="74"/>
       <c r="F82" s="73"/>
       <c r="G82" s="73"/>
@@ -40316,7 +40341,7 @@
     <row r="84">
       <c r="A84" s="73"/>
       <c r="B84" s="73"/>
-      <c r="C84" s="99"/>
+      <c r="C84" s="100"/>
       <c r="D84" s="73"/>
       <c r="F84" s="73"/>
       <c r="G84" s="73"/>
@@ -40344,10 +40369,10 @@
       <c r="AD84" s="73"/>
     </row>
     <row r="85">
-      <c r="A85" s="103"/>
+      <c r="A85" s="104"/>
       <c r="B85" s="94"/>
-      <c r="C85" s="104"/>
-      <c r="D85" s="103"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="104"/>
       <c r="F85" s="73"/>
       <c r="G85" s="94"/>
       <c r="H85" s="73"/>
@@ -40377,7 +40402,7 @@
     <row r="86">
       <c r="A86" s="73"/>
       <c r="B86" s="73"/>
-      <c r="C86" s="99"/>
+      <c r="C86" s="100"/>
       <c r="D86" s="73"/>
       <c r="F86" s="73"/>
       <c r="G86" s="73"/>
@@ -40407,7 +40432,7 @@
     <row r="87">
       <c r="A87" s="94"/>
       <c r="B87" s="94"/>
-      <c r="C87" s="104"/>
+      <c r="C87" s="105"/>
       <c r="D87" s="94"/>
       <c r="F87" s="73"/>
       <c r="G87" s="94"/>
@@ -40435,10 +40460,10 @@
       <c r="AD87" s="73"/>
     </row>
     <row r="88">
-      <c r="A88" s="103"/>
+      <c r="A88" s="104"/>
       <c r="B88" s="94"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="103"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="104"/>
       <c r="F88" s="73"/>
       <c r="G88" s="94"/>
       <c r="H88" s="73"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="957">
   <si>
     <t>Term</t>
   </si>
@@ -1678,6 +1678,18 @@
   </si>
   <si>
     <t>Policy regarding repetition or renewal of existing certification(s)</t>
+  </si>
+  <si>
+    <t>AcceptableUsePolicy</t>
+  </si>
+  <si>
+    <t>Acceptable Use Policy</t>
+  </si>
+  <si>
+    <t>Acceptable Use Policy (AUP) refers to conditions, contexts, or uses which are considered acceptable with the implication that those not covered by such a policy are to be considered unacceptable</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Fernandez</t>
   </si>
   <si>
     <t>DataProcessingPolicy</t>
@@ -3471,12 +3483,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3873,13 +3885,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3888,9 +3903,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3914,7 +3926,7 @@
     <xf borderId="0" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3942,22 +3954,22 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4027,7 +4039,7 @@
     <xf borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4056,7 +4068,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19017,25 +19029,23 @@
       <c r="D28" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
       <c r="H28" s="73"/>
-      <c r="I28" s="71" t="s">
-        <v>443</v>
-      </c>
+      <c r="I28" s="71"/>
       <c r="J28" s="74"/>
       <c r="K28" s="82">
-        <v>45396.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L28" s="76"/>
       <c r="M28" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N28" s="71" t="s">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="O28" s="74"/>
       <c r="P28" s="73"/>
@@ -19060,38 +19070,38 @@
       <c r="A29" s="83" t="s">
         <v>444</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="84" t="s">
-        <v>448</v>
-      </c>
-      <c r="J29" s="89"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="76"/>
       <c r="M29" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="85" t="s">
-        <v>449</v>
-      </c>
-      <c r="O29" s="89"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
+      <c r="N29" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="74"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="73"/>
       <c r="T29" s="73"/>
@@ -19109,17 +19119,17 @@
       <c r="AF29" s="73"/>
     </row>
     <row r="30">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="D30" s="80" t="s">
         <v>451</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>447</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>58</v>
@@ -19127,7 +19137,9 @@
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
-      <c r="I30" s="84"/>
+      <c r="I30" s="85" t="s">
+        <v>452</v>
+      </c>
       <c r="J30" s="89"/>
       <c r="K30" s="82">
         <v>45396.0</v>
@@ -19136,8 +19148,8 @@
       <c r="M30" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="85" t="s">
-        <v>449</v>
+      <c r="N30" s="86" t="s">
+        <v>453</v>
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="88"/>
@@ -19159,17 +19171,17 @@
       <c r="AF30" s="73"/>
     </row>
     <row r="31">
-      <c r="A31" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="B31" s="91" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>447</v>
+      <c r="C31" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E31" s="87" t="s">
         <v>58</v>
@@ -19177,9 +19189,7 @@
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="88"/>
-      <c r="I31" s="84" t="s">
-        <v>456</v>
-      </c>
+      <c r="I31" s="85"/>
       <c r="J31" s="89"/>
       <c r="K31" s="82">
         <v>45396.0</v>
@@ -19188,8 +19198,8 @@
       <c r="M31" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="85" t="s">
-        <v>449</v>
+      <c r="N31" s="86" t="s">
+        <v>453</v>
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="88"/>
@@ -19211,17 +19221,17 @@
       <c r="AF31" s="73"/>
     </row>
     <row r="32">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="D32" s="86" t="s">
-        <v>447</v>
+      <c r="D32" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E32" s="87" t="s">
         <v>58</v>
@@ -19229,7 +19239,7 @@
       <c r="F32" s="88"/>
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
-      <c r="I32" s="84" t="s">
+      <c r="I32" s="85" t="s">
         <v>460</v>
       </c>
       <c r="J32" s="89"/>
@@ -19240,8 +19250,8 @@
       <c r="M32" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="71" t="s">
-        <v>53</v>
+      <c r="N32" s="86" t="s">
+        <v>453</v>
       </c>
       <c r="O32" s="89"/>
       <c r="P32" s="88"/>
@@ -19263,56 +19273,56 @@
       <c r="AF32" s="73"/>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="92" t="s">
         <v>462</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D33" s="86" t="s">
-        <v>447</v>
+      <c r="D33" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E33" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="84" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="89"/>
       <c r="K33" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L33" s="20"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
@@ -19321,11 +19331,11 @@
       <c r="B34" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="85" t="s">
         <v>467</v>
       </c>
-      <c r="D34" s="86" t="s">
-        <v>447</v>
+      <c r="D34" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E34" s="87" t="s">
         <v>58</v>
@@ -19333,7 +19343,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="93" t="s">
+      <c r="I34" s="85" t="s">
         <v>468</v>
       </c>
       <c r="J34" s="17"/>
@@ -19367,79 +19377,81 @@
       <c r="AF34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="I35" s="93"/>
+      <c r="A35" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="93" t="s">
+        <v>472</v>
+      </c>
       <c r="J35" s="17"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="82">
+        <v>45396.0</v>
+      </c>
       <c r="L35" s="20"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="M35" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="O35" s="28"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="78" t="s">
-        <v>469</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="14">
-        <v>44797.0</v>
-      </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
-        <v>472</v>
+      <c r="A37" s="78" t="s">
+        <v>473</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C37" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="32" t="s">
         <v>475</v>
       </c>
+      <c r="D37" s="12"/>
       <c r="E37" s="32" t="s">
         <v>58</v>
       </c>
@@ -19447,22 +19459,18 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="34" t="s">
-        <v>476</v>
-      </c>
+      <c r="J37" s="12"/>
       <c r="K37" s="14">
-        <v>44790.0</v>
+        <v>44797.0</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="N37" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="34" t="s">
-        <v>115</v>
-      </c>
+      <c r="O37" s="12"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
@@ -19482,71 +19490,71 @@
       <c r="AF37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="93" t="s">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="17" t="s">
+      <c r="K38" s="14">
+        <v>44790.0</v>
+      </c>
+      <c r="L38" s="33"/>
+      <c r="M38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
+      <c r="N38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="18" t="s">
         <v>482</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>483</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>58</v>
@@ -19554,22 +19562,22 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="31" t="s">
+      <c r="I39" s="93" t="s">
         <v>484</v>
       </c>
+      <c r="J39" s="17"/>
       <c r="K39" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="29" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>115</v>
+        <v>28</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -19593,14 +19601,14 @@
       <c r="A40" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="22" t="s">
         <v>486</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>487</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>58</v>
@@ -19609,19 +19617,21 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="J40" s="31" t="s">
+        <v>488</v>
+      </c>
       <c r="K40" s="20">
-        <v>44727.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L40" s="19"/>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="29" t="s">
         <v>20</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -19645,14 +19655,14 @@
       <c r="A41" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="17" t="s">
         <v>490</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>491</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>58</v>
@@ -19661,21 +19671,19 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="17" t="s">
-        <v>114</v>
-      </c>
+      <c r="J41" s="19"/>
       <c r="K41" s="20">
-        <v>44790.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L41" s="19"/>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -19697,16 +19705,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>58</v>
@@ -19715,8 +19723,8 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="31" t="s">
-        <v>495</v>
+      <c r="J42" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="K42" s="20">
         <v>44790.0</v>
@@ -19750,120 +19758,122 @@
       <c r="AF42" s="19"/>
     </row>
     <row r="43">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="K43" s="82">
+      <c r="K43" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="K44" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L43" s="73"/>
-      <c r="M43" s="71" t="s">
+      <c r="L44" s="73"/>
+      <c r="M44" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N44" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-      <c r="AF43" s="73"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="s">
-        <v>503</v>
+      <c r="A46" s="8" t="s">
+        <v>504</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>505</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="17" t="s">
         <v>58</v>
       </c>
@@ -19905,16 +19915,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19956,80 +19966,80 @@
       <c r="AF47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="8"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20">
+        <v>43560.0</v>
+      </c>
       <c r="L48" s="20"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="28"/>
+      <c r="M48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="20">
-        <v>43560.0</v>
-      </c>
+      <c r="K49" s="20"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50">
-      <c r="A50" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="8" t="s">
         <v>512</v>
       </c>
+      <c r="B50" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="C50" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D50" s="17" t="s">
         <v>514</v>
       </c>
+      <c r="D50" s="19"/>
       <c r="E50" s="17" t="s">
         <v>58</v>
       </c>
@@ -20073,14 +20083,14 @@
       <c r="A51" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>515</v>
+      <c r="B51" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>58</v>
@@ -20088,21 +20098,21 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="17" t="s">
-        <v>517</v>
-      </c>
+      <c r="I51" s="19"/>
       <c r="J51" s="17"/>
       <c r="K51" s="20">
-        <v>45627.0</v>
+        <v>43560.0</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="O51" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
@@ -20125,14 +20135,14 @@
       <c r="A52" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>521</v>
-      </c>
       <c r="D52" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>58</v>
@@ -20140,21 +20150,21 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="17" t="s">
+        <v>521</v>
+      </c>
       <c r="J52" s="17"/>
       <c r="K52" s="20">
-        <v>43560.0</v>
+        <v>45627.0</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>22</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O52" s="28"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -20177,14 +20187,14 @@
       <c r="A53" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="17" t="s">
         <v>525</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>58</v>
@@ -20195,16 +20205,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="17"/>
       <c r="K53" s="20">
-        <v>45627.0</v>
+        <v>43560.0</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O53" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -20225,16 +20237,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>529</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>526</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="C54" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>522</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -20275,16 +20287,16 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="B55" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="B55" s="17" t="s">
         <v>531</v>
       </c>
+      <c r="C55" s="95" t="s">
+        <v>532</v>
+      </c>
       <c r="D55" s="17" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>58</v>
@@ -20295,20 +20307,16 @@
       <c r="I55" s="19"/>
       <c r="J55" s="17"/>
       <c r="K55" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L55" s="14">
-        <v>45396.0</v>
-      </c>
+        <v>45627.0</v>
+      </c>
+      <c r="L55" s="20"/>
       <c r="M55" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>22</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O55" s="28"/>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -20328,119 +20336,123 @@
       <c r="AF55" s="19"/>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" s="51" t="s">
+      <c r="A56" s="17" t="s">
         <v>533</v>
       </c>
+      <c r="B56" s="18" t="s">
+        <v>534</v>
+      </c>
       <c r="C56" s="52" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E56" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="14">
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L56" s="33"/>
-      <c r="M56" s="13" t="s">
+      <c r="L56" s="14">
+        <v>45396.0</v>
+      </c>
+      <c r="M56" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="13" t="s">
+      <c r="N56" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="53" t="s">
+      <c r="O56" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
     </row>
     <row r="57">
-      <c r="A57" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="A57" s="13" t="s">
         <v>536</v>
       </c>
+      <c r="B57" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>538</v>
+      </c>
       <c r="D57" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20">
-        <v>45424.0</v>
-      </c>
-      <c r="L57" s="19"/>
-      <c r="M57" s="17" t="s">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14">
+        <v>43560.0</v>
+      </c>
+      <c r="L57" s="33"/>
+      <c r="M57" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
+      <c r="N57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>58</v>
@@ -20479,248 +20491,246 @@
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
     </row>
-    <row r="60">
-      <c r="A60" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="17" t="s">
+    <row r="59">
+      <c r="A59" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E59" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L60" s="19"/>
-      <c r="M60" s="17" t="s">
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20">
+        <v>45424.0</v>
+      </c>
+      <c r="L59" s="19"/>
+      <c r="M59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="O60" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
+      <c r="N59" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="63" t="s">
-        <v>542</v>
-      </c>
-      <c r="B61" s="64" t="s">
+      <c r="A61" s="96" t="s">
         <v>543</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="B61" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="D61" s="63" t="s">
-        <v>74</v>
-      </c>
+      <c r="D61" s="19"/>
       <c r="E61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="66">
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="20">
         <v>44447.0</v>
       </c>
-      <c r="L61" s="20"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="29" t="s">
-        <v>545</v>
+      <c r="N61" s="17" t="s">
+        <v>424</v>
       </c>
       <c r="O61" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="65"/>
-      <c r="AA61" s="65"/>
-      <c r="AB61" s="65"/>
-      <c r="AC61" s="65"/>
-      <c r="AD61" s="65"/>
-      <c r="AE61" s="65"/>
-      <c r="AF61" s="65"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>549</v>
+      <c r="D62" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L62" s="19"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="66">
+        <v>44447.0</v>
+      </c>
+      <c r="L62" s="20"/>
       <c r="M62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
+      <c r="N62" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="O62" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
+      <c r="Z62" s="65"/>
+      <c r="AA62" s="65"/>
+      <c r="AB62" s="65"/>
+      <c r="AC62" s="65"/>
+      <c r="AD62" s="65"/>
+      <c r="AE62" s="65"/>
+      <c r="AF62" s="65"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="C63" s="97" t="s">
+      <c r="C63" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="D63" s="74" t="s">
-        <v>74</v>
+      <c r="D63" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L63" s="73"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="20">
+        <v>44733.0</v>
+      </c>
+      <c r="L63" s="19"/>
       <c r="M63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="O63" s="74"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="73"/>
-      <c r="R63" s="73"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="73"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
-      <c r="Z63" s="73"/>
-      <c r="AA63" s="73"/>
-      <c r="AB63" s="73"/>
-      <c r="AC63" s="73"/>
-      <c r="AD63" s="73"/>
-      <c r="AE63" s="73"/>
-      <c r="AF63" s="73"/>
+      <c r="N63" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
     </row>
     <row r="64">
-      <c r="A64" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="B64" s="85" t="s">
+      <c r="A64" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="C64" s="98" t="s">
+      <c r="B64" s="71" t="s">
         <v>555</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="C64" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="E64" s="87" t="s">
+      <c r="D64" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="99" t="s">
-        <v>557</v>
-      </c>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
       <c r="K64" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L64" s="88"/>
+      <c r="L64" s="73"/>
       <c r="M64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="O64" s="89"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
+      <c r="N64" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64" s="74"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
       <c r="R64" s="73"/>
       <c r="S64" s="73"/>
       <c r="T64" s="73"/>
@@ -20738,41 +20748,41 @@
       <c r="AF64" s="73"/>
     </row>
     <row r="65">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="86" t="s">
+        <v>557</v>
+      </c>
+      <c r="B65" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="D65" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="E65" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="99" t="s">
         <v>561</v>
-      </c>
-      <c r="D65" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73" t="s">
-        <v>562</v>
       </c>
       <c r="K65" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L65" s="73"/>
+      <c r="L65" s="88"/>
       <c r="M65" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
+        <v>562</v>
+      </c>
+      <c r="O65" s="89"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
       <c r="R65" s="73"/>
       <c r="S65" s="73"/>
       <c r="T65" s="73"/>
@@ -20786,17 +20796,17 @@
       <c r="AB65" s="73"/>
       <c r="AC65" s="73"/>
       <c r="AD65" s="73"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="19"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
     </row>
     <row r="66">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="74" t="s">
         <v>563</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="100" t="s">
         <v>565</v>
       </c>
       <c r="D66" s="74" t="s">
@@ -20805,187 +20815,187 @@
       <c r="E66" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="20">
-        <v>45627.0</v>
-      </c>
-      <c r="L66" s="19"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K66" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L66" s="73"/>
       <c r="M66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="O66" s="17"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
+      <c r="N66" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="73"/>
+      <c r="V66" s="73"/>
+      <c r="W66" s="73"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="73"/>
+      <c r="Z66" s="73"/>
+      <c r="AA66" s="73"/>
+      <c r="AB66" s="73"/>
+      <c r="AC66" s="73"/>
+      <c r="AD66" s="73"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
     </row>
     <row r="67">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="K67" s="20"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
+      <c r="A67" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="20">
+        <v>45627.0</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="O67" s="17"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>567</v>
-      </c>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="J68" s="19"/>
-      <c r="K68" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L68" s="19"/>
-      <c r="M68" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="E68" s="17"/>
+      <c r="K68" s="20"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="74" t="s">
-        <v>569</v>
-      </c>
-      <c r="B69" s="74" t="s">
+      <c r="A69" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C69" s="101" t="s">
+      <c r="B69" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="D69" s="71" t="s">
-        <v>572</v>
-      </c>
+      <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="J69" s="19"/>
       <c r="K69" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L69" s="73"/>
+      <c r="L69" s="19"/>
       <c r="M69" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="71" t="s">
+      <c r="N69" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O69" s="74"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="73"/>
-      <c r="W69" s="73"/>
-      <c r="X69" s="73"/>
-      <c r="Y69" s="73"/>
-      <c r="Z69" s="73"/>
-      <c r="AA69" s="73"/>
-      <c r="AB69" s="73"/>
-      <c r="AC69" s="73"/>
-      <c r="AD69" s="73"/>
-      <c r="AE69" s="73"/>
-      <c r="AF69" s="73"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
     </row>
     <row r="70">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="C70" s="102" t="s">
+      <c r="C70" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="99" t="s">
-        <v>557</v>
-      </c>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
       <c r="K70" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L70" s="88"/>
+      <c r="L70" s="73"/>
       <c r="M70" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="84" t="s">
+      <c r="N70" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="O70" s="89"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
       <c r="R70" s="73"/>
       <c r="S70" s="73"/>
       <c r="T70" s="73"/>
@@ -21003,72 +21013,70 @@
       <c r="AF70" s="73"/>
     </row>
     <row r="71">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="K71" s="20"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
+      <c r="A71" s="84" t="s">
+        <v>577</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="C71" s="102" t="s">
+        <v>579</v>
+      </c>
+      <c r="D71" s="84" t="s">
+        <v>580</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="K71" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L71" s="88"/>
+      <c r="M71" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="O71" s="89"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="73"/>
+      <c r="W71" s="73"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="73"/>
+      <c r="Z71" s="73"/>
+      <c r="AA71" s="73"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="73"/>
+      <c r="AD71" s="73"/>
+      <c r="AE71" s="73"/>
+      <c r="AF71" s="73"/>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L72" s="20">
-        <v>45417.0</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O72" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="K72" s="20"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
     </row>
     <row r="73">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="8" t="s">
         <v>581</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -21077,26 +21085,28 @@
       <c r="C73" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="D73" s="19"/>
       <c r="E73" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="I73" s="17" t="s">
+        <v>584</v>
+      </c>
       <c r="J73" s="19"/>
       <c r="K73" s="20">
         <v>44447.0</v>
       </c>
-      <c r="L73" s="19"/>
+      <c r="L73" s="20">
+        <v>45417.0</v>
+      </c>
       <c r="M73" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="O73" s="68" t="s">
         <v>361</v>
@@ -21121,16 +21131,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B74" s="17" t="s">
         <v>585</v>
       </c>
+      <c r="B74" s="22" t="s">
+        <v>586</v>
+      </c>
       <c r="C74" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>587</v>
+        <v>97</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -21141,17 +21151,17 @@
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
       <c r="K74" s="20">
-        <v>44734.0</v>
+        <v>44447.0</v>
       </c>
       <c r="L74" s="19"/>
       <c r="M74" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="O74" s="68" t="s">
+        <v>361</v>
       </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
@@ -21175,7 +21185,7 @@
       <c r="A75" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="17" t="s">
         <v>589</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -21190,17 +21200,17 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="49"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="19"/>
       <c r="K75" s="20">
         <v>44734.0</v>
       </c>
-      <c r="L75" s="20"/>
+      <c r="L75" s="19"/>
       <c r="M75" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O75" s="27" t="s">
         <v>77</v>
@@ -21234,7 +21244,7 @@
         <v>594</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>58</v>
@@ -21242,24 +21252,20 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="31" t="s">
-        <v>595</v>
-      </c>
+      <c r="I76" s="49"/>
       <c r="J76" s="19"/>
       <c r="K76" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L76" s="20">
-        <v>45396.0</v>
-      </c>
+        <v>44734.0</v>
+      </c>
+      <c r="L76" s="20"/>
       <c r="M76" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O76" s="31" t="s">
-        <v>361</v>
+        <v>53</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
@@ -21290,7 +21296,7 @@
         <v>598</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>97</v>
+        <v>591</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>58</v>
@@ -21298,19 +21304,25 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="40">
+      <c r="I77" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" s="19"/>
+      <c r="K77" s="20">
+        <v>44447.0</v>
+      </c>
+      <c r="L77" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L77" s="20"/>
       <c r="M77" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="O77" s="17"/>
+      <c r="N77" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="O77" s="31" t="s">
+        <v>361</v>
+      </c>
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
@@ -21331,13 +21343,13 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>97</v>
@@ -21381,16 +21393,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>587</v>
+        <v>97</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -21430,80 +21442,78 @@
       <c r="AF79" s="19"/>
     </row>
     <row r="80">
-      <c r="A80" s="8"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="A80" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="40"/>
+      <c r="K80" s="40">
+        <v>45396.0</v>
+      </c>
       <c r="L80" s="20"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="29"/>
+      <c r="M80" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="O80" s="17"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="17"/>
+      <c r="E81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="40">
-        <v>44139.0</v>
-      </c>
+      <c r="K81" s="40"/>
       <c r="L81" s="20"/>
-      <c r="M81" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N81" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="17" t="s">
-        <v>607</v>
+      <c r="A82" s="8" t="s">
+        <v>609</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="D82" s="17" t="s">
         <v>610</v>
       </c>
+      <c r="D82" s="19"/>
       <c r="E82" s="17" t="s">
         <v>58</v>
       </c>
@@ -21516,7 +21526,7 @@
         <v>44139.0</v>
       </c>
       <c r="L82" s="20"/>
-      <c r="M82" s="19" t="s">
+      <c r="M82" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N82" s="29" t="s">
@@ -21550,11 +21560,11 @@
       <c r="B83" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="17" t="s">
         <v>613</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>58</v>
@@ -21564,18 +21574,18 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="20">
-        <v>44727.0</v>
+      <c r="K83" s="40">
+        <v>44139.0</v>
       </c>
       <c r="L83" s="20"/>
-      <c r="M83" s="17" t="s">
+      <c r="M83" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N83" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="O83" s="21" t="s">
-        <v>221</v>
+      <c r="N83" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="O83" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
@@ -21597,16 +21607,16 @@
     </row>
     <row r="84">
       <c r="A84" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>617</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>614</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C84" s="79" t="s">
-        <v>616</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>58</v>
@@ -21617,7 +21627,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="17"/>
       <c r="K84" s="20">
-        <v>44856.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="17" t="s">
@@ -21626,7 +21636,9 @@
       <c r="N84" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="O84" s="28"/>
+      <c r="O84" s="21" t="s">
+        <v>221</v>
+      </c>
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
@@ -21656,7 +21668,7 @@
         <v>620</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>58</v>
@@ -21667,7 +21679,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="17"/>
       <c r="K85" s="20">
-        <v>44727.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="17" t="s">
@@ -21676,9 +21688,7 @@
       <c r="N85" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="O85" s="21" t="s">
-        <v>221</v>
-      </c>
+      <c r="O85" s="28"/>
       <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
@@ -21698,116 +21708,114 @@
       <c r="AF85" s="19"/>
     </row>
     <row r="86">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="K86" s="20"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
+      <c r="A86" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C86" s="79" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="20">
+        <v>44727.0</v>
+      </c>
+      <c r="L86" s="20"/>
+      <c r="M86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B87" s="18"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="17"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="17"/>
       <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
-      <c r="O87" s="28"/>
+      <c r="O87" s="17"/>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
+        <v>625</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="17"/>
+      <c r="E88" s="17"/>
       <c r="I88" s="79"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="20">
-        <v>43560.0</v>
-      </c>
+      <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O88" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
-      <c r="AB88" s="19"/>
-      <c r="AC88" s="19"/>
-      <c r="AD88" s="19"/>
-      <c r="AE88" s="19"/>
-      <c r="AF88" s="19"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="28"/>
     </row>
     <row r="89">
-      <c r="A89" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="8" t="s">
         <v>626</v>
       </c>
+      <c r="B89" s="18" t="s">
+        <v>627</v>
+      </c>
       <c r="C89" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="D89" s="17" t="s">
         <v>628</v>
       </c>
+      <c r="D89" s="19"/>
       <c r="E89" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="31" t="s">
-        <v>629</v>
-      </c>
+      <c r="I89" s="79"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L89" s="19"/>
-      <c r="M89" s="29" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L89" s="20"/>
+      <c r="M89" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>115</v>
+        <v>28</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
@@ -21829,16 +21837,16 @@
     </row>
     <row r="90">
       <c r="A90" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="C90" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="D90" s="17" t="s">
         <v>632</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>628</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21847,8 +21855,8 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
-      <c r="J90" s="17" t="s">
-        <v>114</v>
+      <c r="J90" s="31" t="s">
+        <v>633</v>
       </c>
       <c r="K90" s="20">
         <v>44790.0</v>
@@ -21883,16 +21891,16 @@
     </row>
     <row r="91">
       <c r="A91" s="17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21937,16 +21945,16 @@
     </row>
     <row r="92">
       <c r="A92" s="17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21955,8 +21963,8 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
-      <c r="J92" s="31" t="s">
-        <v>639</v>
+      <c r="J92" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="K92" s="20">
         <v>44790.0</v>
@@ -22000,7 +22008,7 @@
         <v>642</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>58</v>
@@ -22009,8 +22017,8 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="17" t="s">
-        <v>114</v>
+      <c r="J93" s="31" t="s">
+        <v>643</v>
       </c>
       <c r="K93" s="20">
         <v>44790.0</v>
@@ -22044,94 +22052,96 @@
       <c r="AF93" s="19"/>
     </row>
     <row r="94">
-      <c r="B94" s="22"/>
-      <c r="C94" s="69"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="20"/>
-      <c r="M94" s="29"/>
+      <c r="A94" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K94" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L94" s="19"/>
+      <c r="M94" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O94" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
     </row>
     <row r="95">
-      <c r="A95" s="103" t="s">
-        <v>643</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>644</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="52" t="s">
-        <v>645</v>
-      </c>
-      <c r="J95" s="12"/>
-      <c r="K95" s="14">
-        <v>44461.0</v>
-      </c>
-      <c r="L95" s="33"/>
-      <c r="M95" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="O95" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
-      <c r="AA95" s="13"/>
-      <c r="AB95" s="13"/>
-      <c r="AC95" s="13"/>
-      <c r="AD95" s="13"/>
-      <c r="AE95" s="13"/>
-      <c r="AF95" s="13"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="69"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="20"/>
+      <c r="M95" s="29"/>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="103" t="s">
         <v>647</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C96" s="52" t="s">
         <v>648</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>650</v>
-      </c>
+      <c r="D96" s="13"/>
       <c r="E96" s="52" t="s">
         <v>58</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+      <c r="I96" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="J96" s="12"/>
       <c r="K96" s="14">
         <v>44461.0</v>
       </c>
       <c r="L96" s="33"/>
-      <c r="M96" s="13" t="s">
+      <c r="M96" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="O96" s="53" t="s">
         <v>361</v>
@@ -22155,177 +22165,175 @@
       <c r="AF96" s="13"/>
     </row>
     <row r="97">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="13" t="s">
         <v>653</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E97" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="31" t="s">
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="14">
+        <v>44461.0</v>
+      </c>
+      <c r="L97" s="33"/>
+      <c r="M97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="O97" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="13"/>
+      <c r="Z97" s="13"/>
+      <c r="AA97" s="13"/>
+      <c r="AB97" s="13"/>
+      <c r="AC97" s="13"/>
+      <c r="AD97" s="13"/>
+      <c r="AE97" s="13"/>
+      <c r="AF97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="K97" s="20">
+      <c r="E98" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="K98" s="20">
         <v>45429.0</v>
       </c>
-      <c r="L97" s="19"/>
-      <c r="M97" s="17" t="s">
+      <c r="L98" s="19"/>
+      <c r="M98" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N97" s="17" t="s">
+      <c r="N98" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O97" s="63"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="19"/>
-      <c r="W97" s="19"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="19"/>
-      <c r="AA97" s="19"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="19"/>
-      <c r="AD97" s="19"/>
-      <c r="AE97" s="19"/>
-      <c r="AF97" s="19"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="22"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="20"/>
-      <c r="M98" s="29"/>
+      <c r="O98" s="63"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="20">
-        <v>45396.0</v>
-      </c>
-      <c r="L99" s="20"/>
-      <c r="M99" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N99" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="O99" s="28"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="19"/>
-      <c r="W99" s="19"/>
-      <c r="X99" s="19"/>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="19"/>
-      <c r="AA99" s="19"/>
-      <c r="AB99" s="19"/>
-      <c r="AC99" s="19"/>
-      <c r="AD99" s="19"/>
-      <c r="AE99" s="19"/>
-      <c r="AF99" s="19"/>
+      <c r="B99" s="22"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="20"/>
+      <c r="M99" s="29"/>
     </row>
     <row r="100">
-      <c r="A100" s="104" t="s">
+      <c r="A100" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="B100" s="94" t="s">
+      <c r="B100" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="C100" s="81" t="s">
+      <c r="C100" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="D100" s="104" t="s">
-        <v>662</v>
-      </c>
+      <c r="D100" s="19"/>
       <c r="E100" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F100" s="73"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="71" t="s">
-        <v>663</v>
-      </c>
-      <c r="J100" s="94" t="s">
-        <v>664</v>
-      </c>
-      <c r="K100" s="82">
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L100" s="73"/>
+      <c r="L100" s="20"/>
       <c r="M100" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N100" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="O100" s="73"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="73"/>
-      <c r="S100" s="73"/>
-      <c r="T100" s="73"/>
-      <c r="U100" s="73"/>
-      <c r="V100" s="73"/>
-      <c r="W100" s="73"/>
-      <c r="X100" s="73"/>
-      <c r="Y100" s="73"/>
-      <c r="Z100" s="73"/>
-      <c r="AA100" s="73"/>
-      <c r="AB100" s="73"/>
-      <c r="AC100" s="73"/>
-      <c r="AD100" s="73"/>
-      <c r="AE100" s="73"/>
-      <c r="AF100" s="73"/>
+        <v>662</v>
+      </c>
+      <c r="O100" s="28"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="19"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19"/>
+      <c r="AE100" s="19"/>
+      <c r="AF100" s="19"/>
     </row>
     <row r="101">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="104" t="s">
+        <v>663</v>
+      </c>
+      <c r="B101" s="94" t="s">
+        <v>664</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>665</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="D101" s="104" t="s">
         <v>666</v>
-      </c>
-      <c r="C101" s="105" t="s">
-        <v>667</v>
-      </c>
-      <c r="D101" s="104" t="s">
-        <v>662</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -22333,7 +22341,9 @@
       <c r="F101" s="73"/>
       <c r="G101" s="94"/>
       <c r="H101" s="73"/>
-      <c r="I101" s="73"/>
+      <c r="I101" s="71" t="s">
+        <v>667</v>
+      </c>
       <c r="J101" s="94" t="s">
         <v>668</v>
       </c>
@@ -22345,7 +22355,7 @@
         <v>20</v>
       </c>
       <c r="N101" s="71" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="O101" s="73"/>
       <c r="P101" s="73"/>
@@ -22373,11 +22383,11 @@
       <c r="B102" s="94" t="s">
         <v>670</v>
       </c>
-      <c r="C102" s="106" t="s">
+      <c r="C102" s="105" t="s">
         <v>671</v>
       </c>
       <c r="D102" s="104" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -22385,11 +22395,9 @@
       <c r="F102" s="73"/>
       <c r="G102" s="94"/>
       <c r="H102" s="73"/>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="73"/>
+      <c r="J102" s="94" t="s">
         <v>672</v>
-      </c>
-      <c r="J102" s="94" t="s">
-        <v>673</v>
       </c>
       <c r="K102" s="82">
         <v>45396.0</v>
@@ -22399,7 +22407,7 @@
         <v>20</v>
       </c>
       <c r="N102" s="71" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="O102" s="73"/>
       <c r="P102" s="73"/>
@@ -22421,118 +22429,122 @@
       <c r="AF102" s="73"/>
     </row>
     <row r="103">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="83" t="s">
+        <v>673</v>
+      </c>
+      <c r="B103" s="94" t="s">
         <v>674</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="C103" s="106" t="s">
         <v>675</v>
       </c>
-      <c r="C103" s="106" t="s">
-        <v>676</v>
-      </c>
-      <c r="D103" s="109" t="s">
-        <v>677</v>
+      <c r="D103" s="104" t="s">
+        <v>666</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="110"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="110"/>
-      <c r="I103" s="110"/>
-      <c r="J103" s="108" t="s">
-        <v>673</v>
-      </c>
-      <c r="K103" s="111">
+      <c r="F103" s="73"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="71" t="s">
+        <v>676</v>
+      </c>
+      <c r="J103" s="94" t="s">
+        <v>677</v>
+      </c>
+      <c r="K103" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L103" s="110"/>
+      <c r="L103" s="73"/>
       <c r="M103" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N103" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="O103" s="110"/>
-      <c r="P103" s="110"/>
-      <c r="Q103" s="110"/>
-      <c r="R103" s="110"/>
-      <c r="S103" s="110"/>
-      <c r="T103" s="110"/>
-      <c r="U103" s="110"/>
-      <c r="V103" s="110"/>
-      <c r="W103" s="110"/>
-      <c r="X103" s="110"/>
-      <c r="Y103" s="110"/>
-      <c r="Z103" s="110"/>
-      <c r="AA103" s="110"/>
-      <c r="AB103" s="110"/>
-      <c r="AC103" s="110"/>
-      <c r="AD103" s="110"/>
+        <v>662</v>
+      </c>
+      <c r="O103" s="73"/>
+      <c r="P103" s="73"/>
+      <c r="Q103" s="73"/>
+      <c r="R103" s="73"/>
+      <c r="S103" s="73"/>
+      <c r="T103" s="73"/>
+      <c r="U103" s="73"/>
+      <c r="V103" s="73"/>
+      <c r="W103" s="73"/>
+      <c r="X103" s="73"/>
+      <c r="Y103" s="73"/>
+      <c r="Z103" s="73"/>
+      <c r="AA103" s="73"/>
+      <c r="AB103" s="73"/>
+      <c r="AC103" s="73"/>
+      <c r="AD103" s="73"/>
       <c r="AE103" s="73"/>
       <c r="AF103" s="73"/>
     </row>
-    <row r="105">
-      <c r="A105" s="103" t="s">
+    <row r="104">
+      <c r="A104" s="107" t="s">
         <v>678</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B104" s="108" t="s">
         <v>679</v>
       </c>
-      <c r="C105" s="112" t="s">
+      <c r="C104" s="106" t="s">
         <v>680</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D104" s="109" t="s">
         <v>681</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E104" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="36">
+      <c r="F104" s="110"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="108" t="s">
+        <v>677</v>
+      </c>
+      <c r="K104" s="111">
         <v>45396.0</v>
       </c>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13" t="s">
+      <c r="L104" s="110"/>
+      <c r="M104" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N105" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="13"/>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="13"/>
-      <c r="AC105" s="13"/>
-      <c r="AD105" s="13"/>
-      <c r="AE105" s="13"/>
-      <c r="AF105" s="13"/>
+      <c r="N104" s="71" t="s">
+        <v>662</v>
+      </c>
+      <c r="O104" s="110"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="110"/>
+      <c r="R104" s="110"/>
+      <c r="S104" s="110"/>
+      <c r="T104" s="110"/>
+      <c r="U104" s="110"/>
+      <c r="V104" s="110"/>
+      <c r="W104" s="110"/>
+      <c r="X104" s="110"/>
+      <c r="Y104" s="110"/>
+      <c r="Z104" s="110"/>
+      <c r="AA104" s="110"/>
+      <c r="AB104" s="110"/>
+      <c r="AC104" s="110"/>
+      <c r="AD104" s="110"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="73"/>
     </row>
     <row r="106">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="103" t="s">
         <v>682</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="112" t="s">
         <v>684</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="13" t="s">
         <v>685</v>
       </c>
       <c r="E106" s="17" t="s">
@@ -22541,9 +22553,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
-      <c r="I106" s="52" t="s">
-        <v>686</v>
-      </c>
+      <c r="I106" s="13"/>
       <c r="J106" s="13"/>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -22576,16 +22586,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="C107" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>690</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22593,7 +22603,9 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="I107" s="52" t="s">
+        <v>690</v>
+      </c>
       <c r="J107" s="13"/>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -22634,7 +22646,7 @@
       <c r="C108" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="13" t="s">
         <v>694</v>
       </c>
       <c r="E108" s="17" t="s">
@@ -22684,7 +22696,7 @@
       <c r="C109" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="9" t="s">
         <v>698</v>
       </c>
       <c r="E109" s="17" t="s">
@@ -22735,7 +22747,7 @@
         <v>701</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>58</v>
@@ -22743,9 +22755,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="52" t="s">
-        <v>702</v>
-      </c>
+      <c r="I110" s="13"/>
       <c r="J110" s="13"/>
       <c r="K110" s="36">
         <v>45396.0</v>
@@ -22787,7 +22797,7 @@
         <v>705</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>58</v>
@@ -22795,7 +22805,9 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
+      <c r="I111" s="52" t="s">
+        <v>706</v>
+      </c>
       <c r="J111" s="13"/>
       <c r="K111" s="36">
         <v>45396.0</v>
@@ -22828,16 +22840,16 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="D112" s="9" t="s">
         <v>709</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>694</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>58</v>
@@ -22886,7 +22898,7 @@
       <c r="C113" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="9" t="s">
         <v>713</v>
       </c>
       <c r="E113" s="17" t="s">
@@ -22896,9 +22908,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="13" t="s">
-        <v>401</v>
-      </c>
+      <c r="J113" s="13"/>
       <c r="K113" s="36">
         <v>45396.0</v>
       </c>
@@ -22906,8 +22916,8 @@
       <c r="M113" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N113" s="95" t="s">
-        <v>402</v>
+      <c r="N113" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="O113" s="13"/>
       <c r="P113" s="13"/>
@@ -22929,122 +22939,122 @@
       <c r="AF113" s="13"/>
     </row>
     <row r="114">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="9" t="s">
         <v>716</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="20">
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K114" s="36">
         <v>45396.0</v>
       </c>
-      <c r="L114" s="19"/>
-      <c r="M114" s="17" t="s">
+      <c r="L114" s="13"/>
+      <c r="M114" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N114" s="52" t="s">
+      <c r="N114" s="95" t="s">
+        <v>402</v>
+      </c>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="13"/>
+      <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
+      <c r="AA114" s="13"/>
+      <c r="AB114" s="13"/>
+      <c r="AC114" s="13"/>
+      <c r="AD114" s="13"/>
+      <c r="AE114" s="13"/>
+      <c r="AF114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="20">
+        <v>45396.0</v>
+      </c>
+      <c r="L115" s="19"/>
+      <c r="M115" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N115" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
-      <c r="V114" s="19"/>
-      <c r="W114" s="19"/>
-      <c r="X114" s="19"/>
-      <c r="Y114" s="19"/>
-      <c r="Z114" s="19"/>
-      <c r="AA114" s="19"/>
-      <c r="AB114" s="19"/>
-      <c r="AC114" s="19"/>
-      <c r="AD114" s="19"/>
-      <c r="AE114" s="19"/>
-      <c r="AF114" s="19"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="22"/>
-      <c r="K115" s="20"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="19"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="19"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
     </row>
     <row r="116">
-      <c r="A116" s="103" t="s">
-        <v>717</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="C116" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="K116" s="36">
-        <v>45396.0</v>
-      </c>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N116" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="13"/>
-      <c r="AA116" s="13"/>
-      <c r="AB116" s="13"/>
-      <c r="AC116" s="13"/>
-      <c r="AD116" s="13"/>
-      <c r="AE116" s="13"/>
-      <c r="AF116" s="13"/>
+      <c r="B116" s="22"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="103" t="s">
         <v>721</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C117" s="112" t="s">
+      <c r="C117" s="70" t="s">
         <v>723</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>724</v>
-      </c>
+      <c r="D117" s="13"/>
       <c r="E117" s="17" t="s">
         <v>58</v>
       </c>
@@ -23053,7 +23063,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K117" s="36">
         <v>45396.0</v>
@@ -23091,11 +23101,11 @@
       <c r="B118" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="112" t="s">
         <v>727</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>58</v>
@@ -23105,7 +23115,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K118" s="36">
         <v>45396.0</v>
@@ -23138,16 +23148,16 @@
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>731</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>728</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="C119" s="70" t="s">
-        <v>730</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>58</v>
@@ -23157,7 +23167,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K119" s="36">
         <v>45396.0</v>
@@ -23188,67 +23198,69 @@
       <c r="AE119" s="13"/>
       <c r="AF119" s="13"/>
     </row>
-    <row r="121">
-      <c r="A121" s="86" t="s">
-        <v>731</v>
-      </c>
-      <c r="B121" s="86" t="s">
-        <v>731</v>
-      </c>
-      <c r="C121" s="81" t="s">
+    <row r="120">
+      <c r="A120" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="D121" s="86"/>
-      <c r="E121" s="17" t="s">
+      <c r="B120" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="E120" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F121" s="73"/>
-      <c r="G121" s="94"/>
-      <c r="H121" s="73"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="94"/>
-      <c r="K121" s="82">
-        <v>45643.0</v>
-      </c>
-      <c r="L121" s="73"/>
-      <c r="M121" s="17" t="s">
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="K120" s="36">
+        <v>45396.0</v>
+      </c>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N121" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="O121" s="73"/>
-      <c r="P121" s="73"/>
-      <c r="Q121" s="73"/>
-      <c r="R121" s="73"/>
-      <c r="S121" s="73"/>
-      <c r="T121" s="73"/>
-      <c r="U121" s="73"/>
-      <c r="V121" s="73"/>
-      <c r="W121" s="73"/>
-      <c r="X121" s="73"/>
-      <c r="Y121" s="73"/>
-      <c r="Z121" s="73"/>
-      <c r="AA121" s="73"/>
-      <c r="AB121" s="73"/>
-      <c r="AC121" s="73"/>
-      <c r="AD121" s="73"/>
-      <c r="AE121" s="73"/>
-      <c r="AF121" s="73"/>
+      <c r="N120" s="95" t="s">
+        <v>402</v>
+      </c>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+      <c r="AC120" s="13"/>
+      <c r="AD120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
     </row>
     <row r="122">
-      <c r="A122" s="86" t="s">
-        <v>733</v>
-      </c>
-      <c r="B122" s="86" t="s">
-        <v>734</v>
+      <c r="A122" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>735</v>
       </c>
       <c r="C122" s="81" t="s">
-        <v>735</v>
-      </c>
-      <c r="D122" s="86" t="s">
         <v>736</v>
       </c>
+      <c r="D122" s="80"/>
       <c r="E122" s="17" t="s">
         <v>58</v>
       </c>
@@ -23287,17 +23299,17 @@
       <c r="AF122" s="73"/>
     </row>
     <row r="123">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="80" t="s">
         <v>737</v>
       </c>
-      <c r="B123" s="86" t="s">
+      <c r="B123" s="80" t="s">
         <v>738</v>
       </c>
       <c r="C123" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="D123" s="86" t="s">
-        <v>736</v>
+      <c r="D123" s="80" t="s">
+        <v>740</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>58</v>
@@ -23337,17 +23349,17 @@
       <c r="AF123" s="73"/>
     </row>
     <row r="124">
-      <c r="A124" s="86" t="s">
+      <c r="A124" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="B124" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="D124" s="80" t="s">
         <v>740</v>
-      </c>
-      <c r="B124" s="86" t="s">
-        <v>741</v>
-      </c>
-      <c r="C124" s="81" t="s">
-        <v>742</v>
-      </c>
-      <c r="D124" s="86" t="s">
-        <v>736</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>58</v>
@@ -23365,7 +23377,7 @@
         <v>20</v>
       </c>
       <c r="N124" s="71" t="s">
-        <v>743</v>
+        <v>53</v>
       </c>
       <c r="O124" s="73"/>
       <c r="P124" s="73"/>
@@ -23387,17 +23399,17 @@
       <c r="AF124" s="73"/>
     </row>
     <row r="125">
-      <c r="A125" s="86" t="s">
+      <c r="A125" s="80" t="s">
         <v>744</v>
       </c>
-      <c r="B125" s="86" t="s">
+      <c r="B125" s="80" t="s">
         <v>745</v>
       </c>
       <c r="C125" s="81" t="s">
         <v>746</v>
       </c>
-      <c r="D125" s="86" t="s">
-        <v>747</v>
+      <c r="D125" s="80" t="s">
+        <v>740</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>58</v>
@@ -23405,9 +23417,7 @@
       <c r="F125" s="73"/>
       <c r="G125" s="94"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="71" t="s">
-        <v>748</v>
-      </c>
+      <c r="I125" s="73"/>
       <c r="J125" s="94"/>
       <c r="K125" s="82">
         <v>45643.0</v>
@@ -23417,7 +23427,7 @@
         <v>20</v>
       </c>
       <c r="N125" s="71" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O125" s="73"/>
       <c r="P125" s="73"/>
@@ -23439,18 +23449,38 @@
       <c r="AF125" s="73"/>
     </row>
     <row r="126">
-      <c r="A126" s="104"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="86"/>
+      <c r="A126" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="B126" s="80" t="s">
+        <v>749</v>
+      </c>
+      <c r="C126" s="81" t="s">
+        <v>750</v>
+      </c>
+      <c r="D126" s="80" t="s">
+        <v>751</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F126" s="73"/>
       <c r="G126" s="94"/>
       <c r="H126" s="73"/>
-      <c r="I126" s="73"/>
+      <c r="I126" s="71" t="s">
+        <v>752</v>
+      </c>
       <c r="J126" s="94"/>
-      <c r="K126" s="73"/>
+      <c r="K126" s="82">
+        <v>45643.0</v>
+      </c>
       <c r="L126" s="73"/>
-      <c r="N126" s="73"/>
+      <c r="M126" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N126" s="71" t="s">
+        <v>747</v>
+      </c>
       <c r="O126" s="73"/>
       <c r="P126" s="73"/>
       <c r="Q126" s="73"/>
@@ -23471,29 +23501,17 @@
       <c r="AF126" s="73"/>
     </row>
     <row r="127">
-      <c r="A127" s="73" t="s">
-        <v>749</v>
-      </c>
-      <c r="B127" s="73" t="s">
-        <v>750</v>
-      </c>
-      <c r="C127" s="100" t="s">
-        <v>751</v>
-      </c>
-      <c r="D127" s="73"/>
-      <c r="E127" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A127" s="104"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="80"/>
       <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
+      <c r="G127" s="94"/>
       <c r="H127" s="73"/>
       <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
+      <c r="J127" s="94"/>
       <c r="K127" s="73"/>
       <c r="L127" s="73"/>
-      <c r="M127" s="17" t="s">
-        <v>752</v>
-      </c>
       <c r="N127" s="73"/>
       <c r="O127" s="73"/>
       <c r="P127" s="73"/>
@@ -23511,39 +23529,37 @@
       <c r="AB127" s="73"/>
       <c r="AC127" s="73"/>
       <c r="AD127" s="73"/>
+      <c r="AE127" s="73"/>
+      <c r="AF127" s="73"/>
     </row>
     <row r="128">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="73" t="s">
         <v>753</v>
       </c>
-      <c r="B128" s="89"/>
-      <c r="C128" s="85" t="s">
+      <c r="B128" s="73" t="s">
         <v>754</v>
       </c>
-      <c r="D128" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E128" s="87" t="s">
+      <c r="C128" s="100" t="s">
+        <v>755</v>
+      </c>
+      <c r="D128" s="73"/>
+      <c r="E128" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F128" s="88"/>
-      <c r="G128" s="88"/>
-      <c r="H128" s="88"/>
-      <c r="I128" s="89"/>
-      <c r="J128" s="89"/>
-      <c r="K128" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L128" s="90"/>
-      <c r="M128" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="N128" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="O128" s="89"/>
-      <c r="P128" s="88"/>
-      <c r="Q128" s="88"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="73"/>
+      <c r="H128" s="73"/>
+      <c r="I128" s="73"/>
+      <c r="J128" s="73"/>
+      <c r="K128" s="73"/>
+      <c r="L128" s="73"/>
+      <c r="M128" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="N128" s="73"/>
+      <c r="O128" s="73"/>
+      <c r="P128" s="73"/>
+      <c r="Q128" s="73"/>
       <c r="R128" s="73"/>
       <c r="S128" s="73"/>
       <c r="T128" s="73"/>
@@ -23557,74 +23573,70 @@
       <c r="AB128" s="73"/>
       <c r="AC128" s="73"/>
       <c r="AD128" s="73"/>
-      <c r="AE128" s="73"/>
-      <c r="AF128" s="73"/>
     </row>
     <row r="129">
-      <c r="B129" s="22"/>
-      <c r="N129" s="114"/>
+      <c r="A129" s="84" t="s">
+        <v>757</v>
+      </c>
+      <c r="B129" s="89"/>
+      <c r="C129" s="86" t="s">
+        <v>758</v>
+      </c>
+      <c r="D129" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="89"/>
+      <c r="J129" s="89"/>
+      <c r="K129" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L129" s="90"/>
+      <c r="M129" s="71" t="s">
+        <v>756</v>
+      </c>
+      <c r="N129" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="O129" s="89"/>
+      <c r="P129" s="88"/>
+      <c r="Q129" s="88"/>
+      <c r="R129" s="73"/>
+      <c r="S129" s="73"/>
+      <c r="T129" s="73"/>
+      <c r="U129" s="73"/>
+      <c r="V129" s="73"/>
+      <c r="W129" s="73"/>
+      <c r="X129" s="73"/>
+      <c r="Y129" s="73"/>
+      <c r="Z129" s="73"/>
+      <c r="AA129" s="73"/>
+      <c r="AB129" s="73"/>
+      <c r="AC129" s="73"/>
+      <c r="AD129" s="73"/>
+      <c r="AE129" s="73"/>
+      <c r="AF129" s="73"/>
     </row>
     <row r="130">
-      <c r="A130" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="20">
-        <v>45429.0</v>
-      </c>
-      <c r="L130" s="19"/>
-      <c r="M130" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N130" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O130" s="19"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
-      <c r="T130" s="19"/>
-      <c r="U130" s="19"/>
-      <c r="V130" s="19"/>
-      <c r="W130" s="19"/>
-      <c r="X130" s="19"/>
-      <c r="Y130" s="19"/>
-      <c r="Z130" s="19"/>
-      <c r="AA130" s="19"/>
-      <c r="AB130" s="19"/>
-      <c r="AC130" s="19"/>
-      <c r="AD130" s="19"/>
-      <c r="AE130" s="19"/>
-      <c r="AF130" s="19"/>
+      <c r="B130" s="22"/>
+      <c r="N130" s="114"/>
     </row>
     <row r="131">
       <c r="A131" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="D131" s="17" t="s">
         <v>761</v>
       </c>
+      <c r="D131" s="19"/>
       <c r="E131" s="87" t="s">
         <v>58</v>
       </c>
@@ -23673,7 +23685,7 @@
         <v>764</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E132" s="87" t="s">
         <v>58</v>
@@ -23712,55 +23724,67 @@
       <c r="AE132" s="19"/>
       <c r="AF132" s="19"/>
     </row>
-    <row r="134">
-      <c r="A134" s="8" t="s">
+    <row r="133">
+      <c r="A133" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>765</v>
       </c>
+      <c r="E133" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L133" s="19"/>
+      <c r="M133" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N133" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
     </row>
     <row r="135">
-      <c r="A135" s="115" t="s">
-        <v>766</v>
-      </c>
-      <c r="B135" s="73"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="73"/>
-      <c r="K135" s="76"/>
-      <c r="L135" s="76"/>
-      <c r="M135" s="73"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="73"/>
-      <c r="Q135" s="73"/>
-      <c r="R135" s="73"/>
-      <c r="S135" s="73"/>
-      <c r="T135" s="73"/>
-      <c r="U135" s="73"/>
-      <c r="V135" s="73"/>
-      <c r="W135" s="73"/>
-      <c r="X135" s="73"/>
-      <c r="Y135" s="73"/>
-      <c r="Z135" s="73"/>
-      <c r="AA135" s="73"/>
-      <c r="AB135" s="73"/>
-      <c r="AC135" s="73"/>
-      <c r="AD135" s="73"/>
+      <c r="A135" s="8" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="73" t="s">
-        <v>425</v>
-      </c>
-      <c r="B136" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C136" s="73" t="s">
-        <v>768</v>
-      </c>
+      <c r="A136" s="115" t="s">
+        <v>770</v>
+      </c>
+      <c r="B136" s="73"/>
+      <c r="C136" s="73"/>
       <c r="D136" s="73"/>
       <c r="E136" s="73"/>
       <c r="F136" s="73"/>
@@ -23791,17 +23815,15 @@
     </row>
     <row r="137">
       <c r="A137" s="73" t="s">
-        <v>769</v>
+        <v>425</v>
       </c>
       <c r="B137" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C137" s="73" t="s">
-        <v>770</v>
-      </c>
-      <c r="D137" s="73" t="s">
-        <v>767</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="D137" s="73"/>
       <c r="E137" s="73"/>
       <c r="F137" s="73"/>
       <c r="G137" s="73"/>
@@ -23831,15 +23853,17 @@
     </row>
     <row r="138">
       <c r="A138" s="73" t="s">
+        <v>773</v>
+      </c>
+      <c r="B138" s="73" t="s">
         <v>771</v>
       </c>
-      <c r="B138" s="73" t="s">
-        <v>767</v>
-      </c>
       <c r="C138" s="73" t="s">
-        <v>772</v>
-      </c>
-      <c r="D138" s="73"/>
+        <v>774</v>
+      </c>
+      <c r="D138" s="73" t="s">
+        <v>771</v>
+      </c>
       <c r="E138" s="73"/>
       <c r="F138" s="73"/>
       <c r="G138" s="73"/>
@@ -23869,13 +23893,13 @@
     </row>
     <row r="139">
       <c r="A139" s="73" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B139" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C139" s="73" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
@@ -23907,12 +23931,14 @@
     </row>
     <row r="140">
       <c r="A140" s="73" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B140" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C140" s="73"/>
+        <v>771</v>
+      </c>
+      <c r="C140" s="73" t="s">
+        <v>778</v>
+      </c>
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="73"/>
@@ -23943,10 +23969,10 @@
     </row>
     <row r="141">
       <c r="A141" s="73" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
@@ -23979,10 +24005,10 @@
     </row>
     <row r="142">
       <c r="A142" s="73" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
@@ -24015,10 +24041,10 @@
     </row>
     <row r="143">
       <c r="A143" s="73" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C143" s="73"/>
       <c r="D143" s="73"/>
@@ -24051,10 +24077,10 @@
     </row>
     <row r="144">
       <c r="A144" s="73" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B144" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C144" s="73"/>
       <c r="D144" s="73"/>
@@ -24087,10 +24113,10 @@
     </row>
     <row r="145">
       <c r="A145" s="73" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B145" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -24123,10 +24149,10 @@
     </row>
     <row r="146">
       <c r="A146" s="73" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B146" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C146" s="73"/>
       <c r="D146" s="73"/>
@@ -24159,10 +24185,10 @@
     </row>
     <row r="147">
       <c r="A147" s="73" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B147" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C147" s="73"/>
       <c r="D147" s="73"/>
@@ -24195,10 +24221,10 @@
     </row>
     <row r="148">
       <c r="A148" s="73" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B148" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
@@ -24231,10 +24257,10 @@
     </row>
     <row r="149">
       <c r="A149" s="73" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
@@ -24267,10 +24293,10 @@
     </row>
     <row r="150">
       <c r="A150" s="73" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B150" s="73" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C150" s="73"/>
       <c r="D150" s="73"/>
@@ -24303,10 +24329,10 @@
     </row>
     <row r="151">
       <c r="A151" s="73" t="s">
-        <v>36</v>
+        <v>789</v>
       </c>
       <c r="B151" s="73" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="73"/>
@@ -24339,9 +24365,11 @@
     </row>
     <row r="152">
       <c r="A152" s="73" t="s">
-        <v>788</v>
-      </c>
-      <c r="B152" s="73"/>
+        <v>36</v>
+      </c>
+      <c r="B152" s="73" t="s">
+        <v>791</v>
+      </c>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
       <c r="E152" s="73"/>
@@ -24373,7 +24401,7 @@
     </row>
     <row r="153">
       <c r="A153" s="73" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B153" s="73"/>
       <c r="C153" s="73"/>
@@ -24407,7 +24435,7 @@
     </row>
     <row r="154">
       <c r="A154" s="73" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B154" s="73"/>
       <c r="C154" s="73"/>
@@ -24441,7 +24469,7 @@
     </row>
     <row r="155">
       <c r="A155" s="73" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B155" s="73"/>
       <c r="C155" s="73"/>
@@ -24475,7 +24503,7 @@
     </row>
     <row r="156">
       <c r="A156" s="73" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B156" s="73"/>
       <c r="C156" s="73"/>
@@ -24508,7 +24536,9 @@
       <c r="AD156" s="73"/>
     </row>
     <row r="157">
-      <c r="A157" s="73"/>
+      <c r="A157" s="73" t="s">
+        <v>796</v>
+      </c>
       <c r="B157" s="73"/>
       <c r="C157" s="73"/>
       <c r="D157" s="73"/>
@@ -24540,13 +24570,9 @@
       <c r="AD157" s="73"/>
     </row>
     <row r="158">
-      <c r="A158" s="73" t="s">
-        <v>793</v>
-      </c>
+      <c r="A158" s="73"/>
       <c r="B158" s="73"/>
-      <c r="C158" s="73" t="s">
-        <v>794</v>
-      </c>
+      <c r="C158" s="73"/>
       <c r="D158" s="73"/>
       <c r="E158" s="73"/>
       <c r="F158" s="73"/>
@@ -24576,7 +24602,40 @@
       <c r="AD158" s="73"/>
     </row>
     <row r="159">
-      <c r="B159" s="23"/>
+      <c r="A159" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="B159" s="73"/>
+      <c r="C159" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="76"/>
+      <c r="L159" s="76"/>
+      <c r="M159" s="73"/>
+      <c r="N159" s="73"/>
+      <c r="O159" s="73"/>
+      <c r="P159" s="73"/>
+      <c r="Q159" s="73"/>
+      <c r="R159" s="73"/>
+      <c r="S159" s="73"/>
+      <c r="T159" s="73"/>
+      <c r="U159" s="73"/>
+      <c r="V159" s="73"/>
+      <c r="W159" s="73"/>
+      <c r="X159" s="73"/>
+      <c r="Y159" s="73"/>
+      <c r="Z159" s="73"/>
+      <c r="AA159" s="73"/>
+      <c r="AB159" s="73"/>
+      <c r="AC159" s="73"/>
+      <c r="AD159" s="73"/>
     </row>
     <row r="160">
       <c r="B160" s="23"/>
@@ -27082,6 +27141,9 @@
     </row>
     <row r="994">
       <c r="B994" s="23"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AF3">
@@ -27094,17 +27156,17 @@
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:AF224">
+  <conditionalFormatting sqref="A4:AF225">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M4="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q1 A4:Q227">
+  <conditionalFormatting sqref="A1:Q1 A4:Q228">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q1 A4:Q227">
+  <conditionalFormatting sqref="A1:Q1 A4:Q228">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -27136,47 +27198,47 @@
     <hyperlink r:id="rId24" ref="J26"/>
     <hyperlink r:id="rId25" ref="O26"/>
     <hyperlink r:id="rId26" ref="O27"/>
-    <hyperlink r:id="rId27" ref="J37"/>
-    <hyperlink r:id="rId28" ref="O37"/>
-    <hyperlink r:id="rId29" ref="O38"/>
-    <hyperlink r:id="rId30" ref="J39"/>
-    <hyperlink r:id="rId31" ref="O39"/>
-    <hyperlink r:id="rId32" ref="O40"/>
-    <hyperlink r:id="rId33" ref="O41"/>
-    <hyperlink r:id="rId34" ref="J42"/>
-    <hyperlink r:id="rId35" ref="O42"/>
-    <hyperlink r:id="rId36" ref="O45"/>
-    <hyperlink r:id="rId37" ref="O46"/>
-    <hyperlink r:id="rId38" ref="O47"/>
-    <hyperlink r:id="rId39" ref="O49"/>
-    <hyperlink r:id="rId40" ref="O50"/>
-    <hyperlink r:id="rId41" ref="O52"/>
-    <hyperlink r:id="rId42" ref="O55"/>
-    <hyperlink r:id="rId43" ref="O56"/>
-    <hyperlink r:id="rId44" ref="O60"/>
-    <hyperlink r:id="rId45" ref="O61"/>
-    <hyperlink r:id="rId46" ref="O62"/>
-    <hyperlink r:id="rId47" ref="O72"/>
-    <hyperlink r:id="rId48" ref="O73"/>
-    <hyperlink r:id="rId49" ref="O74"/>
-    <hyperlink r:id="rId50" ref="O75"/>
-    <hyperlink r:id="rId51" ref="I76"/>
-    <hyperlink r:id="rId52" ref="O76"/>
-    <hyperlink r:id="rId53" ref="O81"/>
-    <hyperlink r:id="rId54" ref="O82"/>
-    <hyperlink r:id="rId55" ref="O83"/>
-    <hyperlink r:id="rId56" ref="O85"/>
-    <hyperlink r:id="rId57" ref="O88"/>
-    <hyperlink r:id="rId58" ref="J89"/>
-    <hyperlink r:id="rId59" ref="O89"/>
-    <hyperlink r:id="rId60" ref="O90"/>
-    <hyperlink r:id="rId61" ref="O91"/>
-    <hyperlink r:id="rId62" ref="J92"/>
-    <hyperlink r:id="rId63" ref="O92"/>
-    <hyperlink r:id="rId64" ref="O93"/>
-    <hyperlink r:id="rId65" ref="O95"/>
-    <hyperlink r:id="rId66" ref="O96"/>
-    <hyperlink r:id="rId67" ref="J97"/>
+    <hyperlink r:id="rId27" ref="J38"/>
+    <hyperlink r:id="rId28" ref="O38"/>
+    <hyperlink r:id="rId29" ref="O39"/>
+    <hyperlink r:id="rId30" ref="J40"/>
+    <hyperlink r:id="rId31" ref="O40"/>
+    <hyperlink r:id="rId32" ref="O41"/>
+    <hyperlink r:id="rId33" ref="O42"/>
+    <hyperlink r:id="rId34" ref="J43"/>
+    <hyperlink r:id="rId35" ref="O43"/>
+    <hyperlink r:id="rId36" ref="O46"/>
+    <hyperlink r:id="rId37" ref="O47"/>
+    <hyperlink r:id="rId38" ref="O48"/>
+    <hyperlink r:id="rId39" ref="O50"/>
+    <hyperlink r:id="rId40" ref="O51"/>
+    <hyperlink r:id="rId41" ref="O53"/>
+    <hyperlink r:id="rId42" ref="O56"/>
+    <hyperlink r:id="rId43" ref="O57"/>
+    <hyperlink r:id="rId44" ref="O61"/>
+    <hyperlink r:id="rId45" ref="O62"/>
+    <hyperlink r:id="rId46" ref="O63"/>
+    <hyperlink r:id="rId47" ref="O73"/>
+    <hyperlink r:id="rId48" ref="O74"/>
+    <hyperlink r:id="rId49" ref="O75"/>
+    <hyperlink r:id="rId50" ref="O76"/>
+    <hyperlink r:id="rId51" ref="I77"/>
+    <hyperlink r:id="rId52" ref="O77"/>
+    <hyperlink r:id="rId53" ref="O82"/>
+    <hyperlink r:id="rId54" ref="O83"/>
+    <hyperlink r:id="rId55" ref="O84"/>
+    <hyperlink r:id="rId56" ref="O86"/>
+    <hyperlink r:id="rId57" ref="O89"/>
+    <hyperlink r:id="rId58" ref="J90"/>
+    <hyperlink r:id="rId59" ref="O90"/>
+    <hyperlink r:id="rId60" ref="O91"/>
+    <hyperlink r:id="rId61" ref="O92"/>
+    <hyperlink r:id="rId62" ref="J93"/>
+    <hyperlink r:id="rId63" ref="O93"/>
+    <hyperlink r:id="rId64" ref="O94"/>
+    <hyperlink r:id="rId65" ref="O96"/>
+    <hyperlink r:id="rId66" ref="O97"/>
+    <hyperlink r:id="rId67" ref="J98"/>
   </hyperlinks>
   <drawing r:id="rId68"/>
 </worksheet>
@@ -27251,13 +27313,13 @@
     </row>
     <row r="2">
       <c r="A2" s="96" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -27267,7 +27329,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -27303,13 +27365,13 @@
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>74</v>
@@ -27330,7 +27392,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="O3" s="68" t="s">
         <v>361</v>
@@ -27355,16 +27417,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>58</v>
@@ -27407,13 +27469,13 @@
     </row>
     <row r="5">
       <c r="A5" s="71" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>74</v>
@@ -27456,17 +27518,17 @@
       <c r="AF5" s="73"/>
     </row>
     <row r="6">
-      <c r="A6" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>554</v>
+      <c r="A6" s="86" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>558</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>556</v>
+        <v>559</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>560</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>58</v>
@@ -27476,7 +27538,7 @@
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
       <c r="J6" s="99" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K6" s="82">
         <v>45396.0</v>
@@ -27486,7 +27548,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="O6" s="89"/>
       <c r="P6" s="88"/>
@@ -27509,13 +27571,13 @@
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>74</v>
@@ -27528,7 +27590,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K7" s="82">
         <v>45396.0</v>
@@ -27538,7 +27600,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
@@ -27564,7 +27626,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -27573,13 +27635,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>74</v>
@@ -27592,7 +27654,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K10" s="82">
         <v>45521.0</v>
@@ -27623,13 +27685,13 @@
     </row>
     <row r="11">
       <c r="A11" s="71" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>74</v>
@@ -27642,7 +27704,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K11" s="82">
         <v>45521.0</v>
@@ -27673,13 +27735,13 @@
     </row>
     <row r="12">
       <c r="A12" s="71" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>74</v>
@@ -27692,7 +27754,7 @@
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
       <c r="J12" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K12" s="82">
         <v>45521.0</v>
@@ -27723,13 +27785,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>74</v>
@@ -27742,7 +27804,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K13" s="82">
         <v>45521.0</v>
@@ -27773,13 +27835,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>74</v>
@@ -27792,7 +27854,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K14" s="82">
         <v>45521.0</v>
@@ -27823,13 +27885,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>74</v>
@@ -27842,7 +27904,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K15" s="82">
         <v>45521.0</v>
@@ -27873,13 +27935,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D16" s="74" t="s">
         <v>74</v>
@@ -27892,7 +27954,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K16" s="82">
         <v>45521.0</v>
@@ -27923,13 +27985,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>74</v>
@@ -27942,7 +28004,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="49"/>
       <c r="J17" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K17" s="82">
         <v>45521.0</v>
@@ -27981,13 +28043,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
@@ -28000,7 +28062,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K19" s="82">
         <v>45521.0</v>
@@ -28031,13 +28093,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>18</v>
@@ -28050,7 +28112,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K20" s="82">
         <v>45521.0</v>
@@ -28087,16 +28149,16 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>27</v>
@@ -28137,17 +28199,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -28185,17 +28247,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -28233,17 +28295,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -28281,17 +28343,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -28329,17 +28391,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -28377,17 +28439,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -28425,17 +28487,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -28636,7 +28698,7 @@
       <c r="AF42" s="73"/>
     </row>
     <row r="43">
-      <c r="A43" s="86"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="94"/>
       <c r="C43" s="105"/>
       <c r="D43" s="104"/>
@@ -28668,7 +28730,7 @@
       <c r="AF43" s="73"/>
     </row>
     <row r="44">
-      <c r="A44" s="80"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="94"/>
       <c r="C44" s="81"/>
       <c r="D44" s="104"/>
@@ -28703,7 +28765,7 @@
       <c r="A45" s="104"/>
       <c r="B45" s="94"/>
       <c r="C45" s="81"/>
-      <c r="D45" s="86"/>
+      <c r="D45" s="80"/>
       <c r="F45" s="73"/>
       <c r="G45" s="94"/>
       <c r="H45" s="73"/>
@@ -29173,7 +29235,7 @@
       <c r="A63" s="104"/>
       <c r="B63" s="94"/>
       <c r="C63" s="105"/>
-      <c r="D63" s="86"/>
+      <c r="D63" s="80"/>
       <c r="F63" s="73"/>
       <c r="G63" s="94"/>
       <c r="H63" s="73"/>
@@ -32700,19 +32762,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -32744,19 +32806,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -32788,19 +32850,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -35824,13 +35886,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
@@ -35843,7 +35905,7 @@
         <v>45531.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -35854,13 +35916,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -35873,7 +35935,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -35884,16 +35946,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>81</v>
@@ -35931,16 +35993,16 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>81</v>
@@ -35949,7 +36011,7 @@
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
       <c r="I5" s="128" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="130">
@@ -35958,7 +36020,7 @@
       <c r="L5" s="129"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O5" s="131" t="s">
         <v>63</v>
@@ -35982,16 +36044,16 @@
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E6" s="128" t="s">
         <v>81</v>
@@ -36007,7 +36069,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O6" s="131" t="s">
         <v>63</v>
@@ -36031,16 +36093,16 @@
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>81</v>
@@ -36056,7 +36118,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O7" s="131" t="s">
         <v>63</v>
@@ -36080,16 +36142,16 @@
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>894</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>895</v>
+      </c>
+      <c r="D8" s="128" t="s">
         <v>889</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>890</v>
-      </c>
-      <c r="C8" s="128" t="s">
-        <v>891</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>885</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>81</v>
@@ -36105,7 +36167,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O8" s="131" t="s">
         <v>63</v>
@@ -36129,16 +36191,16 @@
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>81</v>
@@ -36180,7 +36242,7 @@
       <c r="A10" s="104"/>
       <c r="B10" s="94"/>
       <c r="C10" s="105"/>
-      <c r="D10" s="86"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="17"/>
       <c r="F10" s="73"/>
       <c r="G10" s="94"/>
@@ -36211,16 +36273,16 @@
     </row>
     <row r="11">
       <c r="A11" s="133" t="s">
-        <v>895</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>896</v>
+        <v>899</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>900</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>897</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>879</v>
+        <v>901</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>883</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -36230,7 +36292,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="94" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -36262,16 +36324,16 @@
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>879</v>
+        <v>905</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>883</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -36311,16 +36373,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>879</v>
+        <v>908</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>883</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -36367,30 +36429,30 @@
     </row>
     <row r="15">
       <c r="A15" s="135" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="138" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="138" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="K15" s="130">
         <v>44601.0</v>
@@ -39126,13 +39188,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>113</v>
@@ -39145,7 +39207,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -39179,13 +39241,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -39196,7 +39258,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -39228,13 +39290,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -39245,7 +39307,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="93"/>
       <c r="J4" s="17" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -39277,13 +39339,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -39294,7 +39356,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -39326,13 +39388,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -39343,7 +39405,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -39375,13 +39437,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -39392,7 +39454,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -39424,13 +39486,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -39441,7 +39503,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -39473,13 +39535,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -39490,7 +39552,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -39522,13 +39584,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -39539,7 +39601,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -39571,13 +39633,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -39588,7 +39650,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -39620,13 +39682,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -39637,7 +39699,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -1689,7 +1689,7 @@
     <t>Acceptable Use Policy (AUP) refers to conditions, contexts, or uses which are considered acceptable with the implication that those not covered by such a policy are to be considered unacceptable</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Fernandez</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez</t>
   </si>
   <si>
     <t>DataProcessingPolicy</t>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -1219,7 +1219,7 @@
     <t>Use of Synthetic Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Use of synthetic data to preserve privacy, security, or other effects and side-effects </t>
+    <t>Use of synthetic data to preserve privacy, security, or other effects and side-effects</t>
   </si>
   <si>
     <r>
@@ -1602,7 +1602,7 @@
     <t>Information Security Policy</t>
   </si>
   <si>
-    <t xml:space="preserve">Policy regarding security of information </t>
+    <t>Policy regarding security of information</t>
   </si>
   <si>
     <r>
@@ -2089,7 +2089,7 @@
     <t>Data Transfer Notice</t>
   </si>
   <si>
-    <t xml:space="preserve">Notice for the legal entity for the transfer of its data </t>
+    <t>Notice for the legal entity for the transfer of its data</t>
   </si>
   <si>
     <t>DGA 5.9</t>
@@ -2146,7 +2146,7 @@
     <t>Records of activities within some context such as maintenance tasks or governance functions</t>
   </si>
   <si>
-    <t xml:space="preserve">Records can be any information associated with the activity e.g. logs, summaries. </t>
+    <t>Records can be any information associated with the activity e.g. logs, summaries.</t>
   </si>
   <si>
     <t>DataProcessingRecord</t>
@@ -2435,7 +2435,7 @@
     <t>dpv:RightsManagement</t>
   </si>
   <si>
-    <t xml:space="preserve">This concept only concerns the organisational management of rights, and does not represent the rights themselves - especially where such 'rights' are legally recognised or defined for the data subject or individual. The concept dpv:DataSubjectRight is provided to represent such legal rights. </t>
+    <t>This concept only concerns the organisational management of rights, and does not represent the rights themselves - especially where such 'rights' are legally recognised or defined for the data subject or individual. The concept dpv:DataSubjectRight is provided to represent such legal rights.</t>
   </si>
   <si>
     <t>DGA 12.m</t>
@@ -2690,7 +2690,7 @@
     <t>dpv:InformationAudit</t>
   </si>
   <si>
-    <t>This concept is the same as "Data Mapping" and "Data Flow Mapping Exercise" used by the Information Comissioner's Office as "to document the data that flows in, around, and out of information processing systems or services"</t>
+    <t>This concept is the same as "Data Mapping" and "Data Flow Mapping Exercise" used by the Information Commissioner's Office as "to document the data that flows in, around, and out of information processing systems or services"</t>
   </si>
   <si>
     <t>EnforceTransferControl</t>
@@ -2753,7 +2753,7 @@
     <t>Management functions</t>
   </si>
   <si>
-    <t>ResonsibilityAllocation</t>
+    <t>ResponsibilityAllocation</t>
   </si>
   <si>
     <t>Review</t>
@@ -2819,7 +2819,7 @@
     <t>PhysicalEquipmentProtection</t>
   </si>
   <si>
-    <t>PhysicalEquipmentMaintainence</t>
+    <t>PhysicalEquipmentMaintenance</t>
   </si>
   <si>
     <t>PhysicalEquipmentSecureDisposal</t>
@@ -3068,7 +3068,7 @@
     <t>Data Handling Clause</t>
   </si>
   <si>
-    <t>Conctractual clauses governing handling of data within or by an entity</t>
+    <t>Contractual clauses governing handling of data within or by an entity</t>
   </si>
   <si>
     <t>dpv:ContractualTerms</t>
@@ -3278,7 +3278,7 @@
     <t>Physical Interception Protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Physical protection against interception e.g. by posting a guard </t>
+    <t>Physical protection against interception e.g. by posting a guard</t>
   </si>
   <si>
     <t>NIST SP 800-20</t>
@@ -3943,7 +3943,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3981,6 +3981,9 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3989,9 +3992,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -14605,7 +14605,7 @@
       <c r="B78" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="9" t="s">
         <v>329</v>
       </c>
       <c r="D78" s="13" t="s">
@@ -18803,7 +18803,7 @@
       <c r="B24" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>427</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -23539,7 +23539,7 @@
       <c r="B128" s="73" t="s">
         <v>754</v>
       </c>
-      <c r="C128" s="100" t="s">
+      <c r="C128" s="113" t="s">
         <v>755</v>
       </c>
       <c r="D128" s="73"/>
@@ -23582,7 +23582,7 @@
       <c r="C129" s="86" t="s">
         <v>758</v>
       </c>
-      <c r="D129" s="113" t="s">
+      <c r="D129" s="114" t="s">
         <v>51</v>
       </c>
       <c r="E129" s="87" t="s">
@@ -23624,7 +23624,7 @@
     </row>
     <row r="130">
       <c r="B130" s="22"/>
-      <c r="N130" s="114"/>
+      <c r="N130" s="115"/>
     </row>
     <row r="131">
       <c r="A131" s="17" t="s">
@@ -23780,7 +23780,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="115" t="s">
+      <c r="A136" s="116" t="s">
         <v>770</v>
       </c>
       <c r="B136" s="73"/>
@@ -23852,7 +23852,7 @@
       <c r="AD137" s="73"/>
     </row>
     <row r="138">
-      <c r="A138" s="73" t="s">
+      <c r="A138" s="71" t="s">
         <v>773</v>
       </c>
       <c r="B138" s="73" t="s">
@@ -24502,7 +24502,7 @@
       <c r="AD155" s="73"/>
     </row>
     <row r="156">
-      <c r="A156" s="73" t="s">
+      <c r="A156" s="71" t="s">
         <v>795</v>
       </c>
       <c r="B156" s="73"/>
@@ -27740,7 +27740,7 @@
       <c r="B12" s="71" t="s">
         <v>808</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="100" t="s">
         <v>809</v>
       </c>
       <c r="D12" s="74" t="s">
@@ -28576,7 +28576,7 @@
       <c r="M36" s="29"/>
     </row>
     <row r="37">
-      <c r="A37" s="115"/>
+      <c r="A37" s="116"/>
       <c r="B37" s="118"/>
       <c r="C37" s="119"/>
       <c r="D37" s="73"/>
@@ -28794,9 +28794,9 @@
       <c r="AF45" s="73"/>
     </row>
     <row r="47">
-      <c r="A47" s="115"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="73"/>
-      <c r="C47" s="116"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="73"/>
       <c r="F47" s="73"/>
       <c r="G47" s="73"/>
@@ -29100,9 +29100,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="115"/>
+      <c r="A58" s="116"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="100"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="73"/>
       <c r="F58" s="73"/>
       <c r="G58" s="73"/>
@@ -29135,7 +29135,7 @@
     <row r="59">
       <c r="A59" s="73"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="116"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="73"/>
       <c r="F59" s="73"/>
       <c r="G59" s="73"/>
@@ -29168,7 +29168,7 @@
     <row r="60">
       <c r="A60" s="73"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="100"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="73"/>
       <c r="F60" s="73"/>
       <c r="G60" s="73"/>
@@ -29201,7 +29201,7 @@
     <row r="61">
       <c r="A61" s="73"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="100"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="73"/>
@@ -29266,7 +29266,7 @@
     <row r="64">
       <c r="A64" s="73"/>
       <c r="B64" s="73"/>
-      <c r="C64" s="100"/>
+      <c r="C64" s="113"/>
       <c r="D64" s="73"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -29329,7 +29329,7 @@
     </row>
     <row r="66">
       <c r="B66" s="22"/>
-      <c r="N66" s="114"/>
+      <c r="N66" s="115"/>
     </row>
     <row r="67">
       <c r="E67" s="125"/>
@@ -29344,7 +29344,7 @@
       <c r="K69" s="20"/>
     </row>
     <row r="72">
-      <c r="A72" s="115"/>
+      <c r="A72" s="116"/>
       <c r="B72" s="73"/>
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
@@ -40251,7 +40251,7 @@
     <row r="73">
       <c r="A73" s="74"/>
       <c r="B73" s="73"/>
-      <c r="C73" s="100"/>
+      <c r="C73" s="113"/>
       <c r="D73" s="74"/>
       <c r="F73" s="73"/>
       <c r="G73" s="73"/>
@@ -40280,7 +40280,7 @@
     </row>
     <row r="74">
       <c r="B74" s="23"/>
-      <c r="N74" s="114"/>
+      <c r="N74" s="115"/>
     </row>
     <row r="75">
       <c r="A75" s="134"/>
@@ -40289,11 +40289,11 @@
     </row>
     <row r="76">
       <c r="B76" s="23"/>
-      <c r="N76" s="114"/>
+      <c r="N76" s="115"/>
     </row>
     <row r="77">
       <c r="B77" s="23"/>
-      <c r="N77" s="114"/>
+      <c r="N77" s="115"/>
     </row>
     <row r="78">
       <c r="A78" s="104"/>
@@ -40334,7 +40334,7 @@
     </row>
     <row r="80">
       <c r="B80" s="23"/>
-      <c r="N80" s="114"/>
+      <c r="N80" s="115"/>
     </row>
     <row r="81">
       <c r="A81" s="104"/>
@@ -40370,7 +40370,7 @@
     <row r="82">
       <c r="A82" s="74"/>
       <c r="B82" s="73"/>
-      <c r="C82" s="100"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="74"/>
       <c r="F82" s="73"/>
       <c r="G82" s="73"/>
@@ -40403,7 +40403,7 @@
     <row r="84">
       <c r="A84" s="73"/>
       <c r="B84" s="73"/>
-      <c r="C84" s="100"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="73"/>
       <c r="F84" s="73"/>
       <c r="G84" s="73"/>
@@ -40464,7 +40464,7 @@
     <row r="86">
       <c r="A86" s="73"/>
       <c r="B86" s="73"/>
-      <c r="C86" s="100"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="73"/>
       <c r="F86" s="73"/>
       <c r="G86" s="73"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="957">
   <si>
     <t>Term</t>
   </si>
@@ -1219,7 +1219,7 @@
     <t>Use of Synthetic Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Use of synthetic data to preserve privacy, security, or other effects and side-effects </t>
+    <t>Use of synthetic data to preserve privacy, security, or other effects and side-effects</t>
   </si>
   <si>
     <r>
@@ -1602,7 +1602,7 @@
     <t>Information Security Policy</t>
   </si>
   <si>
-    <t xml:space="preserve">Policy regarding security of information </t>
+    <t>Policy regarding security of information</t>
   </si>
   <si>
     <r>
@@ -1678,6 +1678,18 @@
   </si>
   <si>
     <t>Policy regarding repetition or renewal of existing certification(s)</t>
+  </si>
+  <si>
+    <t>AcceptableUsePolicy</t>
+  </si>
+  <si>
+    <t>Acceptable Use Policy</t>
+  </si>
+  <si>
+    <t>Acceptable Use Policy (AUP) refers to conditions, contexts, or uses which are considered acceptable with the implication that those not covered by such a policy are to be considered unacceptable</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez</t>
   </si>
   <si>
     <t>DataProcessingPolicy</t>
@@ -2077,7 +2089,7 @@
     <t>Data Transfer Notice</t>
   </si>
   <si>
-    <t xml:space="preserve">Notice for the legal entity for the transfer of its data </t>
+    <t>Notice for the legal entity for the transfer of its data</t>
   </si>
   <si>
     <t>DGA 5.9</t>
@@ -2134,7 +2146,7 @@
     <t>Records of activities within some context such as maintenance tasks or governance functions</t>
   </si>
   <si>
-    <t xml:space="preserve">Records can be any information associated with the activity e.g. logs, summaries. </t>
+    <t>Records can be any information associated with the activity e.g. logs, summaries.</t>
   </si>
   <si>
     <t>DataProcessingRecord</t>
@@ -2423,7 +2435,7 @@
     <t>dpv:RightsManagement</t>
   </si>
   <si>
-    <t xml:space="preserve">This concept only concerns the organisational management of rights, and does not represent the rights themselves - especially where such 'rights' are legally recognised or defined for the data subject or individual. The concept dpv:DataSubjectRight is provided to represent such legal rights. </t>
+    <t>This concept only concerns the organisational management of rights, and does not represent the rights themselves - especially where such 'rights' are legally recognised or defined for the data subject or individual. The concept dpv:DataSubjectRight is provided to represent such legal rights.</t>
   </si>
   <si>
     <t>DGA 12.m</t>
@@ -2678,7 +2690,7 @@
     <t>dpv:InformationAudit</t>
   </si>
   <si>
-    <t>This concept is the same as "Data Mapping" and "Data Flow Mapping Exercise" used by the Information Comissioner's Office as "to document the data that flows in, around, and out of information processing systems or services"</t>
+    <t>This concept is the same as "Data Mapping" and "Data Flow Mapping Exercise" used by the Information Commissioner's Office as "to document the data that flows in, around, and out of information processing systems or services"</t>
   </si>
   <si>
     <t>EnforceTransferControl</t>
@@ -2741,7 +2753,7 @@
     <t>Management functions</t>
   </si>
   <si>
-    <t>ResonsibilityAllocation</t>
+    <t>ResponsibilityAllocation</t>
   </si>
   <si>
     <t>Review</t>
@@ -2807,7 +2819,7 @@
     <t>PhysicalEquipmentProtection</t>
   </si>
   <si>
-    <t>PhysicalEquipmentMaintainence</t>
+    <t>PhysicalEquipmentMaintenance</t>
   </si>
   <si>
     <t>PhysicalEquipmentSecureDisposal</t>
@@ -3056,7 +3068,7 @@
     <t>Data Handling Clause</t>
   </si>
   <si>
-    <t>Conctractual clauses governing handling of data within or by an entity</t>
+    <t>Contractual clauses governing handling of data within or by an entity</t>
   </si>
   <si>
     <t>dpv:ContractualTerms</t>
@@ -3266,7 +3278,7 @@
     <t>Physical Interception Protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Physical protection against interception e.g. by posting a guard </t>
+    <t>Physical protection against interception e.g. by posting a guard</t>
   </si>
   <si>
     <t>NIST SP 800-20</t>
@@ -3471,12 +3483,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3873,13 +3885,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3888,9 +3903,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3914,7 +3926,7 @@
     <xf borderId="0" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3931,7 +3943,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3942,22 +3954,22 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3969,6 +3981,9 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3977,9 +3992,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4027,7 +4039,7 @@
     <xf borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4056,7 +4068,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14593,7 +14605,7 @@
       <c r="B78" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="9" t="s">
         <v>329</v>
       </c>
       <c r="D78" s="13" t="s">
@@ -18791,7 +18803,7 @@
       <c r="B24" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>427</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -19017,25 +19029,23 @@
       <c r="D28" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
       <c r="H28" s="73"/>
-      <c r="I28" s="71" t="s">
-        <v>443</v>
-      </c>
+      <c r="I28" s="71"/>
       <c r="J28" s="74"/>
       <c r="K28" s="82">
-        <v>45396.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L28" s="76"/>
       <c r="M28" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N28" s="71" t="s">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="O28" s="74"/>
       <c r="P28" s="73"/>
@@ -19060,38 +19070,38 @@
       <c r="A29" s="83" t="s">
         <v>444</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="84" t="s">
-        <v>448</v>
-      </c>
-      <c r="J29" s="89"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="76"/>
       <c r="M29" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="85" t="s">
-        <v>449</v>
-      </c>
-      <c r="O29" s="89"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
+      <c r="N29" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="74"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="73"/>
       <c r="T29" s="73"/>
@@ -19109,17 +19119,17 @@
       <c r="AF29" s="73"/>
     </row>
     <row r="30">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="D30" s="80" t="s">
         <v>451</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>447</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>58</v>
@@ -19127,7 +19137,9 @@
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
-      <c r="I30" s="84"/>
+      <c r="I30" s="85" t="s">
+        <v>452</v>
+      </c>
       <c r="J30" s="89"/>
       <c r="K30" s="82">
         <v>45396.0</v>
@@ -19136,8 +19148,8 @@
       <c r="M30" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="85" t="s">
-        <v>449</v>
+      <c r="N30" s="86" t="s">
+        <v>453</v>
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="88"/>
@@ -19159,17 +19171,17 @@
       <c r="AF30" s="73"/>
     </row>
     <row r="31">
-      <c r="A31" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="B31" s="91" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>447</v>
+      <c r="C31" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E31" s="87" t="s">
         <v>58</v>
@@ -19177,9 +19189,7 @@
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="88"/>
-      <c r="I31" s="84" t="s">
-        <v>456</v>
-      </c>
+      <c r="I31" s="85"/>
       <c r="J31" s="89"/>
       <c r="K31" s="82">
         <v>45396.0</v>
@@ -19188,8 +19198,8 @@
       <c r="M31" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="85" t="s">
-        <v>449</v>
+      <c r="N31" s="86" t="s">
+        <v>453</v>
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="88"/>
@@ -19211,17 +19221,17 @@
       <c r="AF31" s="73"/>
     </row>
     <row r="32">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="D32" s="86" t="s">
-        <v>447</v>
+      <c r="D32" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E32" s="87" t="s">
         <v>58</v>
@@ -19229,7 +19239,7 @@
       <c r="F32" s="88"/>
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
-      <c r="I32" s="84" t="s">
+      <c r="I32" s="85" t="s">
         <v>460</v>
       </c>
       <c r="J32" s="89"/>
@@ -19240,8 +19250,8 @@
       <c r="M32" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="71" t="s">
-        <v>53</v>
+      <c r="N32" s="86" t="s">
+        <v>453</v>
       </c>
       <c r="O32" s="89"/>
       <c r="P32" s="88"/>
@@ -19263,56 +19273,56 @@
       <c r="AF32" s="73"/>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="92" t="s">
         <v>462</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D33" s="86" t="s">
-        <v>447</v>
+      <c r="D33" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E33" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="84" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="89"/>
       <c r="K33" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L33" s="20"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
@@ -19321,11 +19331,11 @@
       <c r="B34" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="85" t="s">
         <v>467</v>
       </c>
-      <c r="D34" s="86" t="s">
-        <v>447</v>
+      <c r="D34" s="80" t="s">
+        <v>451</v>
       </c>
       <c r="E34" s="87" t="s">
         <v>58</v>
@@ -19333,7 +19343,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="93" t="s">
+      <c r="I34" s="85" t="s">
         <v>468</v>
       </c>
       <c r="J34" s="17"/>
@@ -19367,79 +19377,81 @@
       <c r="AF34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="I35" s="93"/>
+      <c r="A35" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="93" t="s">
+        <v>472</v>
+      </c>
       <c r="J35" s="17"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="82">
+        <v>45396.0</v>
+      </c>
       <c r="L35" s="20"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="M35" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="O35" s="28"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="78" t="s">
-        <v>469</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="14">
-        <v>44797.0</v>
-      </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
-        <v>472</v>
+      <c r="A37" s="78" t="s">
+        <v>473</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C37" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="32" t="s">
         <v>475</v>
       </c>
+      <c r="D37" s="12"/>
       <c r="E37" s="32" t="s">
         <v>58</v>
       </c>
@@ -19447,22 +19459,18 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="34" t="s">
-        <v>476</v>
-      </c>
+      <c r="J37" s="12"/>
       <c r="K37" s="14">
-        <v>44790.0</v>
+        <v>44797.0</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="N37" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="34" t="s">
-        <v>115</v>
-      </c>
+      <c r="O37" s="12"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
@@ -19482,71 +19490,71 @@
       <c r="AF37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="93" t="s">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="17" t="s">
+      <c r="K38" s="14">
+        <v>44790.0</v>
+      </c>
+      <c r="L38" s="33"/>
+      <c r="M38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
+      <c r="N38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="18" t="s">
         <v>482</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>483</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>58</v>
@@ -19554,22 +19562,22 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="31" t="s">
+      <c r="I39" s="93" t="s">
         <v>484</v>
       </c>
+      <c r="J39" s="17"/>
       <c r="K39" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="29" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>115</v>
+        <v>28</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -19593,14 +19601,14 @@
       <c r="A40" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="22" t="s">
         <v>486</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>487</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>58</v>
@@ -19609,19 +19617,21 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="J40" s="31" t="s">
+        <v>488</v>
+      </c>
       <c r="K40" s="20">
-        <v>44727.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L40" s="19"/>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="29" t="s">
         <v>20</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -19645,14 +19655,14 @@
       <c r="A41" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="17" t="s">
         <v>490</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>491</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>58</v>
@@ -19661,21 +19671,19 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="17" t="s">
-        <v>114</v>
-      </c>
+      <c r="J41" s="19"/>
       <c r="K41" s="20">
-        <v>44790.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L41" s="19"/>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -19697,16 +19705,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>58</v>
@@ -19715,8 +19723,8 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="31" t="s">
-        <v>495</v>
+      <c r="J42" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="K42" s="20">
         <v>44790.0</v>
@@ -19750,120 +19758,122 @@
       <c r="AF42" s="19"/>
     </row>
     <row r="43">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="K43" s="82">
+      <c r="K43" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="K44" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L43" s="73"/>
-      <c r="M43" s="71" t="s">
+      <c r="L44" s="73"/>
+      <c r="M44" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N44" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-      <c r="AF43" s="73"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="s">
-        <v>503</v>
+      <c r="A46" s="8" t="s">
+        <v>504</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>505</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="17" t="s">
         <v>58</v>
       </c>
@@ -19905,16 +19915,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19956,80 +19966,80 @@
       <c r="AF47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="8"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20">
+        <v>43560.0</v>
+      </c>
       <c r="L48" s="20"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="28"/>
+      <c r="M48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="20">
-        <v>43560.0</v>
-      </c>
+      <c r="K49" s="20"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50">
-      <c r="A50" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="8" t="s">
         <v>512</v>
       </c>
+      <c r="B50" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="C50" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D50" s="17" t="s">
         <v>514</v>
       </c>
+      <c r="D50" s="19"/>
       <c r="E50" s="17" t="s">
         <v>58</v>
       </c>
@@ -20073,14 +20083,14 @@
       <c r="A51" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>515</v>
+      <c r="B51" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>58</v>
@@ -20088,21 +20098,21 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="17" t="s">
-        <v>517</v>
-      </c>
+      <c r="I51" s="19"/>
       <c r="J51" s="17"/>
       <c r="K51" s="20">
-        <v>45627.0</v>
+        <v>43560.0</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="O51" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
@@ -20125,14 +20135,14 @@
       <c r="A52" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>521</v>
-      </c>
       <c r="D52" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>58</v>
@@ -20140,21 +20150,21 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="17" t="s">
+        <v>521</v>
+      </c>
       <c r="J52" s="17"/>
       <c r="K52" s="20">
-        <v>43560.0</v>
+        <v>45627.0</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>22</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O52" s="28"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -20177,14 +20187,14 @@
       <c r="A53" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="17" t="s">
         <v>525</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>58</v>
@@ -20195,16 +20205,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="17"/>
       <c r="K53" s="20">
-        <v>45627.0</v>
+        <v>43560.0</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O53" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -20225,16 +20237,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>529</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>526</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="C54" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>522</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -20275,16 +20287,16 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="B55" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="B55" s="17" t="s">
         <v>531</v>
       </c>
+      <c r="C55" s="95" t="s">
+        <v>532</v>
+      </c>
       <c r="D55" s="17" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>58</v>
@@ -20295,20 +20307,16 @@
       <c r="I55" s="19"/>
       <c r="J55" s="17"/>
       <c r="K55" s="20">
-        <v>43560.0</v>
-      </c>
-      <c r="L55" s="14">
-        <v>45396.0</v>
-      </c>
+        <v>45627.0</v>
+      </c>
+      <c r="L55" s="20"/>
       <c r="M55" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>22</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O55" s="28"/>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -20328,119 +20336,123 @@
       <c r="AF55" s="19"/>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" s="51" t="s">
+      <c r="A56" s="17" t="s">
         <v>533</v>
       </c>
+      <c r="B56" s="18" t="s">
+        <v>534</v>
+      </c>
       <c r="C56" s="52" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E56" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="14">
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L56" s="33"/>
-      <c r="M56" s="13" t="s">
+      <c r="L56" s="14">
+        <v>45396.0</v>
+      </c>
+      <c r="M56" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="13" t="s">
+      <c r="N56" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="53" t="s">
+      <c r="O56" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
     </row>
     <row r="57">
-      <c r="A57" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="A57" s="13" t="s">
         <v>536</v>
       </c>
+      <c r="B57" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>538</v>
+      </c>
       <c r="D57" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20">
-        <v>45424.0</v>
-      </c>
-      <c r="L57" s="19"/>
-      <c r="M57" s="17" t="s">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14">
+        <v>43560.0</v>
+      </c>
+      <c r="L57" s="33"/>
+      <c r="M57" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
+      <c r="N57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>58</v>
@@ -20479,248 +20491,246 @@
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
     </row>
-    <row r="60">
-      <c r="A60" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="17" t="s">
+    <row r="59">
+      <c r="A59" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E59" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L60" s="19"/>
-      <c r="M60" s="17" t="s">
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20">
+        <v>45424.0</v>
+      </c>
+      <c r="L59" s="19"/>
+      <c r="M59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="O60" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
+      <c r="N59" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="63" t="s">
-        <v>542</v>
-      </c>
-      <c r="B61" s="64" t="s">
+      <c r="A61" s="96" t="s">
         <v>543</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="B61" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="D61" s="63" t="s">
-        <v>74</v>
-      </c>
+      <c r="D61" s="19"/>
       <c r="E61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="66">
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="20">
         <v>44447.0</v>
       </c>
-      <c r="L61" s="20"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="29" t="s">
-        <v>545</v>
+      <c r="N61" s="17" t="s">
+        <v>424</v>
       </c>
       <c r="O61" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="65"/>
-      <c r="AA61" s="65"/>
-      <c r="AB61" s="65"/>
-      <c r="AC61" s="65"/>
-      <c r="AD61" s="65"/>
-      <c r="AE61" s="65"/>
-      <c r="AF61" s="65"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>549</v>
+      <c r="D62" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L62" s="19"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="66">
+        <v>44447.0</v>
+      </c>
+      <c r="L62" s="20"/>
       <c r="M62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
+      <c r="N62" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="O62" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
+      <c r="Z62" s="65"/>
+      <c r="AA62" s="65"/>
+      <c r="AB62" s="65"/>
+      <c r="AC62" s="65"/>
+      <c r="AD62" s="65"/>
+      <c r="AE62" s="65"/>
+      <c r="AF62" s="65"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="C63" s="97" t="s">
+      <c r="C63" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="D63" s="74" t="s">
-        <v>74</v>
+      <c r="D63" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L63" s="73"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="20">
+        <v>44733.0</v>
+      </c>
+      <c r="L63" s="19"/>
       <c r="M63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="O63" s="74"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="73"/>
-      <c r="R63" s="73"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="73"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
-      <c r="Z63" s="73"/>
-      <c r="AA63" s="73"/>
-      <c r="AB63" s="73"/>
-      <c r="AC63" s="73"/>
-      <c r="AD63" s="73"/>
-      <c r="AE63" s="73"/>
-      <c r="AF63" s="73"/>
+      <c r="N63" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
     </row>
     <row r="64">
-      <c r="A64" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="B64" s="85" t="s">
+      <c r="A64" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="C64" s="98" t="s">
+      <c r="B64" s="71" t="s">
         <v>555</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="C64" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="E64" s="87" t="s">
+      <c r="D64" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="99" t="s">
-        <v>557</v>
-      </c>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
       <c r="K64" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L64" s="88"/>
+      <c r="L64" s="73"/>
       <c r="M64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="O64" s="89"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
+      <c r="N64" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64" s="74"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
       <c r="R64" s="73"/>
       <c r="S64" s="73"/>
       <c r="T64" s="73"/>
@@ -20738,41 +20748,41 @@
       <c r="AF64" s="73"/>
     </row>
     <row r="65">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="86" t="s">
+        <v>557</v>
+      </c>
+      <c r="B65" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="D65" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="E65" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="99" t="s">
         <v>561</v>
-      </c>
-      <c r="D65" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73" t="s">
-        <v>562</v>
       </c>
       <c r="K65" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L65" s="73"/>
+      <c r="L65" s="88"/>
       <c r="M65" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
+        <v>562</v>
+      </c>
+      <c r="O65" s="89"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
       <c r="R65" s="73"/>
       <c r="S65" s="73"/>
       <c r="T65" s="73"/>
@@ -20786,17 +20796,17 @@
       <c r="AB65" s="73"/>
       <c r="AC65" s="73"/>
       <c r="AD65" s="73"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="19"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
     </row>
     <row r="66">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="74" t="s">
         <v>563</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="100" t="s">
         <v>565</v>
       </c>
       <c r="D66" s="74" t="s">
@@ -20805,187 +20815,187 @@
       <c r="E66" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="20">
-        <v>45627.0</v>
-      </c>
-      <c r="L66" s="19"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K66" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L66" s="73"/>
       <c r="M66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="O66" s="17"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
+      <c r="N66" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="73"/>
+      <c r="V66" s="73"/>
+      <c r="W66" s="73"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="73"/>
+      <c r="Z66" s="73"/>
+      <c r="AA66" s="73"/>
+      <c r="AB66" s="73"/>
+      <c r="AC66" s="73"/>
+      <c r="AD66" s="73"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
     </row>
     <row r="67">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="K67" s="20"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
+      <c r="A67" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="20">
+        <v>45627.0</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="O67" s="17"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>567</v>
-      </c>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="J68" s="19"/>
-      <c r="K68" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L68" s="19"/>
-      <c r="M68" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="E68" s="17"/>
+      <c r="K68" s="20"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="74" t="s">
-        <v>569</v>
-      </c>
-      <c r="B69" s="74" t="s">
+      <c r="A69" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C69" s="101" t="s">
+      <c r="B69" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="D69" s="71" t="s">
-        <v>572</v>
-      </c>
+      <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="J69" s="19"/>
       <c r="K69" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L69" s="73"/>
+      <c r="L69" s="19"/>
       <c r="M69" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="71" t="s">
+      <c r="N69" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O69" s="74"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="73"/>
-      <c r="W69" s="73"/>
-      <c r="X69" s="73"/>
-      <c r="Y69" s="73"/>
-      <c r="Z69" s="73"/>
-      <c r="AA69" s="73"/>
-      <c r="AB69" s="73"/>
-      <c r="AC69" s="73"/>
-      <c r="AD69" s="73"/>
-      <c r="AE69" s="73"/>
-      <c r="AF69" s="73"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
     </row>
     <row r="70">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="C70" s="102" t="s">
+      <c r="C70" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="99" t="s">
-        <v>557</v>
-      </c>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
       <c r="K70" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L70" s="88"/>
+      <c r="L70" s="73"/>
       <c r="M70" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="84" t="s">
+      <c r="N70" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="O70" s="89"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
       <c r="R70" s="73"/>
       <c r="S70" s="73"/>
       <c r="T70" s="73"/>
@@ -21003,72 +21013,70 @@
       <c r="AF70" s="73"/>
     </row>
     <row r="71">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="K71" s="20"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
+      <c r="A71" s="84" t="s">
+        <v>577</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="C71" s="102" t="s">
+        <v>579</v>
+      </c>
+      <c r="D71" s="84" t="s">
+        <v>580</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="K71" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L71" s="88"/>
+      <c r="M71" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="O71" s="89"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="73"/>
+      <c r="W71" s="73"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="73"/>
+      <c r="Z71" s="73"/>
+      <c r="AA71" s="73"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="73"/>
+      <c r="AD71" s="73"/>
+      <c r="AE71" s="73"/>
+      <c r="AF71" s="73"/>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L72" s="20">
-        <v>45417.0</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O72" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="K72" s="20"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
     </row>
     <row r="73">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="8" t="s">
         <v>581</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -21077,26 +21085,28 @@
       <c r="C73" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="D73" s="19"/>
       <c r="E73" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="I73" s="17" t="s">
+        <v>584</v>
+      </c>
       <c r="J73" s="19"/>
       <c r="K73" s="20">
         <v>44447.0</v>
       </c>
-      <c r="L73" s="19"/>
+      <c r="L73" s="20">
+        <v>45417.0</v>
+      </c>
       <c r="M73" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="O73" s="68" t="s">
         <v>361</v>
@@ -21121,16 +21131,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B74" s="17" t="s">
         <v>585</v>
       </c>
+      <c r="B74" s="22" t="s">
+        <v>586</v>
+      </c>
       <c r="C74" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>587</v>
+        <v>97</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -21141,17 +21151,17 @@
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
       <c r="K74" s="20">
-        <v>44734.0</v>
+        <v>44447.0</v>
       </c>
       <c r="L74" s="19"/>
       <c r="M74" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="O74" s="68" t="s">
+        <v>361</v>
       </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
@@ -21175,7 +21185,7 @@
       <c r="A75" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="17" t="s">
         <v>589</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -21190,17 +21200,17 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="49"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="19"/>
       <c r="K75" s="20">
         <v>44734.0</v>
       </c>
-      <c r="L75" s="20"/>
+      <c r="L75" s="19"/>
       <c r="M75" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O75" s="27" t="s">
         <v>77</v>
@@ -21234,7 +21244,7 @@
         <v>594</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>58</v>
@@ -21242,24 +21252,20 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="31" t="s">
-        <v>595</v>
-      </c>
+      <c r="I76" s="49"/>
       <c r="J76" s="19"/>
       <c r="K76" s="20">
-        <v>44447.0</v>
-      </c>
-      <c r="L76" s="20">
-        <v>45396.0</v>
-      </c>
+        <v>44734.0</v>
+      </c>
+      <c r="L76" s="20"/>
       <c r="M76" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O76" s="31" t="s">
-        <v>361</v>
+        <v>53</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
@@ -21290,7 +21296,7 @@
         <v>598</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>97</v>
+        <v>591</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>58</v>
@@ -21298,19 +21304,25 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="40">
+      <c r="I77" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" s="19"/>
+      <c r="K77" s="20">
+        <v>44447.0</v>
+      </c>
+      <c r="L77" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L77" s="20"/>
       <c r="M77" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="O77" s="17"/>
+      <c r="N77" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="O77" s="31" t="s">
+        <v>361</v>
+      </c>
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
@@ -21331,13 +21343,13 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>97</v>
@@ -21381,16 +21393,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>587</v>
+        <v>97</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -21430,80 +21442,78 @@
       <c r="AF79" s="19"/>
     </row>
     <row r="80">
-      <c r="A80" s="8"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="A80" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="40"/>
+      <c r="K80" s="40">
+        <v>45396.0</v>
+      </c>
       <c r="L80" s="20"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="29"/>
+      <c r="M80" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="O80" s="17"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="17"/>
+      <c r="E81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="40">
-        <v>44139.0</v>
-      </c>
+      <c r="K81" s="40"/>
       <c r="L81" s="20"/>
-      <c r="M81" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N81" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="17" t="s">
-        <v>607</v>
+      <c r="A82" s="8" t="s">
+        <v>609</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="D82" s="17" t="s">
         <v>610</v>
       </c>
+      <c r="D82" s="19"/>
       <c r="E82" s="17" t="s">
         <v>58</v>
       </c>
@@ -21516,7 +21526,7 @@
         <v>44139.0</v>
       </c>
       <c r="L82" s="20"/>
-      <c r="M82" s="19" t="s">
+      <c r="M82" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N82" s="29" t="s">
@@ -21550,11 +21560,11 @@
       <c r="B83" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="17" t="s">
         <v>613</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>58</v>
@@ -21564,18 +21574,18 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="20">
-        <v>44727.0</v>
+      <c r="K83" s="40">
+        <v>44139.0</v>
       </c>
       <c r="L83" s="20"/>
-      <c r="M83" s="17" t="s">
+      <c r="M83" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N83" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="O83" s="21" t="s">
-        <v>221</v>
+      <c r="N83" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="O83" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
@@ -21597,16 +21607,16 @@
     </row>
     <row r="84">
       <c r="A84" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>617</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>614</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C84" s="79" t="s">
-        <v>616</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>58</v>
@@ -21617,7 +21627,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="17"/>
       <c r="K84" s="20">
-        <v>44856.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="17" t="s">
@@ -21626,7 +21636,9 @@
       <c r="N84" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="O84" s="28"/>
+      <c r="O84" s="21" t="s">
+        <v>221</v>
+      </c>
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
@@ -21656,7 +21668,7 @@
         <v>620</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>58</v>
@@ -21667,7 +21679,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="17"/>
       <c r="K85" s="20">
-        <v>44727.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="17" t="s">
@@ -21676,9 +21688,7 @@
       <c r="N85" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="O85" s="21" t="s">
-        <v>221</v>
-      </c>
+      <c r="O85" s="28"/>
       <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
@@ -21698,116 +21708,114 @@
       <c r="AF85" s="19"/>
     </row>
     <row r="86">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="K86" s="20"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
+      <c r="A86" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C86" s="79" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="20">
+        <v>44727.0</v>
+      </c>
+      <c r="L86" s="20"/>
+      <c r="M86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B87" s="18"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="17"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="17"/>
       <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
-      <c r="O87" s="28"/>
+      <c r="O87" s="17"/>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
+        <v>625</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="17"/>
+      <c r="E88" s="17"/>
       <c r="I88" s="79"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="20">
-        <v>43560.0</v>
-      </c>
+      <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O88" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
-      <c r="AB88" s="19"/>
-      <c r="AC88" s="19"/>
-      <c r="AD88" s="19"/>
-      <c r="AE88" s="19"/>
-      <c r="AF88" s="19"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="28"/>
     </row>
     <row r="89">
-      <c r="A89" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="8" t="s">
         <v>626</v>
       </c>
+      <c r="B89" s="18" t="s">
+        <v>627</v>
+      </c>
       <c r="C89" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="D89" s="17" t="s">
         <v>628</v>
       </c>
+      <c r="D89" s="19"/>
       <c r="E89" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="31" t="s">
-        <v>629</v>
-      </c>
+      <c r="I89" s="79"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="20">
-        <v>44790.0</v>
-      </c>
-      <c r="L89" s="19"/>
-      <c r="M89" s="29" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L89" s="20"/>
+      <c r="M89" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>115</v>
+        <v>28</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
@@ -21829,16 +21837,16 @@
     </row>
     <row r="90">
       <c r="A90" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="C90" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="D90" s="17" t="s">
         <v>632</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>628</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21847,8 +21855,8 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
-      <c r="J90" s="17" t="s">
-        <v>114</v>
+      <c r="J90" s="31" t="s">
+        <v>633</v>
       </c>
       <c r="K90" s="20">
         <v>44790.0</v>
@@ -21883,16 +21891,16 @@
     </row>
     <row r="91">
       <c r="A91" s="17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21937,16 +21945,16 @@
     </row>
     <row r="92">
       <c r="A92" s="17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21955,8 +21963,8 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
-      <c r="J92" s="31" t="s">
-        <v>639</v>
+      <c r="J92" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="K92" s="20">
         <v>44790.0</v>
@@ -22000,7 +22008,7 @@
         <v>642</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>58</v>
@@ -22009,8 +22017,8 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="17" t="s">
-        <v>114</v>
+      <c r="J93" s="31" t="s">
+        <v>643</v>
       </c>
       <c r="K93" s="20">
         <v>44790.0</v>
@@ -22044,94 +22052,96 @@
       <c r="AF93" s="19"/>
     </row>
     <row r="94">
-      <c r="B94" s="22"/>
-      <c r="C94" s="69"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="20"/>
-      <c r="M94" s="29"/>
+      <c r="A94" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K94" s="20">
+        <v>44790.0</v>
+      </c>
+      <c r="L94" s="19"/>
+      <c r="M94" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O94" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
     </row>
     <row r="95">
-      <c r="A95" s="103" t="s">
-        <v>643</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>644</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="52" t="s">
-        <v>645</v>
-      </c>
-      <c r="J95" s="12"/>
-      <c r="K95" s="14">
-        <v>44461.0</v>
-      </c>
-      <c r="L95" s="33"/>
-      <c r="M95" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="O95" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
-      <c r="AA95" s="13"/>
-      <c r="AB95" s="13"/>
-      <c r="AC95" s="13"/>
-      <c r="AD95" s="13"/>
-      <c r="AE95" s="13"/>
-      <c r="AF95" s="13"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="69"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="20"/>
+      <c r="M95" s="29"/>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="103" t="s">
         <v>647</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C96" s="52" t="s">
         <v>648</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>650</v>
-      </c>
+      <c r="D96" s="13"/>
       <c r="E96" s="52" t="s">
         <v>58</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+      <c r="I96" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="J96" s="12"/>
       <c r="K96" s="14">
         <v>44461.0</v>
       </c>
       <c r="L96" s="33"/>
-      <c r="M96" s="13" t="s">
+      <c r="M96" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="O96" s="53" t="s">
         <v>361</v>
@@ -22155,177 +22165,175 @@
       <c r="AF96" s="13"/>
     </row>
     <row r="97">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="13" t="s">
         <v>653</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E97" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="31" t="s">
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="14">
+        <v>44461.0</v>
+      </c>
+      <c r="L97" s="33"/>
+      <c r="M97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="O97" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="13"/>
+      <c r="Z97" s="13"/>
+      <c r="AA97" s="13"/>
+      <c r="AB97" s="13"/>
+      <c r="AC97" s="13"/>
+      <c r="AD97" s="13"/>
+      <c r="AE97" s="13"/>
+      <c r="AF97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="K97" s="20">
+      <c r="E98" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="K98" s="20">
         <v>45429.0</v>
       </c>
-      <c r="L97" s="19"/>
-      <c r="M97" s="17" t="s">
+      <c r="L98" s="19"/>
+      <c r="M98" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N97" s="17" t="s">
+      <c r="N98" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O97" s="63"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="19"/>
-      <c r="W97" s="19"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="19"/>
-      <c r="AA97" s="19"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="19"/>
-      <c r="AD97" s="19"/>
-      <c r="AE97" s="19"/>
-      <c r="AF97" s="19"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="22"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="20"/>
-      <c r="M98" s="29"/>
+      <c r="O98" s="63"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="20">
-        <v>45396.0</v>
-      </c>
-      <c r="L99" s="20"/>
-      <c r="M99" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N99" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="O99" s="28"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="19"/>
-      <c r="W99" s="19"/>
-      <c r="X99" s="19"/>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="19"/>
-      <c r="AA99" s="19"/>
-      <c r="AB99" s="19"/>
-      <c r="AC99" s="19"/>
-      <c r="AD99" s="19"/>
-      <c r="AE99" s="19"/>
-      <c r="AF99" s="19"/>
+      <c r="B99" s="22"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="20"/>
+      <c r="M99" s="29"/>
     </row>
     <row r="100">
-      <c r="A100" s="104" t="s">
+      <c r="A100" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="B100" s="94" t="s">
+      <c r="B100" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="C100" s="81" t="s">
+      <c r="C100" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="D100" s="104" t="s">
-        <v>662</v>
-      </c>
+      <c r="D100" s="19"/>
       <c r="E100" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F100" s="73"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="71" t="s">
-        <v>663</v>
-      </c>
-      <c r="J100" s="94" t="s">
-        <v>664</v>
-      </c>
-      <c r="K100" s="82">
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L100" s="73"/>
+      <c r="L100" s="20"/>
       <c r="M100" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N100" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="O100" s="73"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="73"/>
-      <c r="S100" s="73"/>
-      <c r="T100" s="73"/>
-      <c r="U100" s="73"/>
-      <c r="V100" s="73"/>
-      <c r="W100" s="73"/>
-      <c r="X100" s="73"/>
-      <c r="Y100" s="73"/>
-      <c r="Z100" s="73"/>
-      <c r="AA100" s="73"/>
-      <c r="AB100" s="73"/>
-      <c r="AC100" s="73"/>
-      <c r="AD100" s="73"/>
-      <c r="AE100" s="73"/>
-      <c r="AF100" s="73"/>
+        <v>662</v>
+      </c>
+      <c r="O100" s="28"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="19"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19"/>
+      <c r="AE100" s="19"/>
+      <c r="AF100" s="19"/>
     </row>
     <row r="101">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="104" t="s">
+        <v>663</v>
+      </c>
+      <c r="B101" s="94" t="s">
+        <v>664</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>665</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="D101" s="104" t="s">
         <v>666</v>
-      </c>
-      <c r="C101" s="105" t="s">
-        <v>667</v>
-      </c>
-      <c r="D101" s="104" t="s">
-        <v>662</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -22333,7 +22341,9 @@
       <c r="F101" s="73"/>
       <c r="G101" s="94"/>
       <c r="H101" s="73"/>
-      <c r="I101" s="73"/>
+      <c r="I101" s="71" t="s">
+        <v>667</v>
+      </c>
       <c r="J101" s="94" t="s">
         <v>668</v>
       </c>
@@ -22345,7 +22355,7 @@
         <v>20</v>
       </c>
       <c r="N101" s="71" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="O101" s="73"/>
       <c r="P101" s="73"/>
@@ -22373,11 +22383,11 @@
       <c r="B102" s="94" t="s">
         <v>670</v>
       </c>
-      <c r="C102" s="106" t="s">
+      <c r="C102" s="105" t="s">
         <v>671</v>
       </c>
       <c r="D102" s="104" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -22385,11 +22395,9 @@
       <c r="F102" s="73"/>
       <c r="G102" s="94"/>
       <c r="H102" s="73"/>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="73"/>
+      <c r="J102" s="94" t="s">
         <v>672</v>
-      </c>
-      <c r="J102" s="94" t="s">
-        <v>673</v>
       </c>
       <c r="K102" s="82">
         <v>45396.0</v>
@@ -22399,7 +22407,7 @@
         <v>20</v>
       </c>
       <c r="N102" s="71" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="O102" s="73"/>
       <c r="P102" s="73"/>
@@ -22421,118 +22429,122 @@
       <c r="AF102" s="73"/>
     </row>
     <row r="103">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="83" t="s">
+        <v>673</v>
+      </c>
+      <c r="B103" s="94" t="s">
         <v>674</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="C103" s="106" t="s">
         <v>675</v>
       </c>
-      <c r="C103" s="106" t="s">
-        <v>676</v>
-      </c>
-      <c r="D103" s="109" t="s">
-        <v>677</v>
+      <c r="D103" s="104" t="s">
+        <v>666</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="110"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="110"/>
-      <c r="I103" s="110"/>
-      <c r="J103" s="108" t="s">
-        <v>673</v>
-      </c>
-      <c r="K103" s="111">
+      <c r="F103" s="73"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="71" t="s">
+        <v>676</v>
+      </c>
+      <c r="J103" s="94" t="s">
+        <v>677</v>
+      </c>
+      <c r="K103" s="82">
         <v>45396.0</v>
       </c>
-      <c r="L103" s="110"/>
+      <c r="L103" s="73"/>
       <c r="M103" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N103" s="71" t="s">
-        <v>658</v>
-      </c>
-      <c r="O103" s="110"/>
-      <c r="P103" s="110"/>
-      <c r="Q103" s="110"/>
-      <c r="R103" s="110"/>
-      <c r="S103" s="110"/>
-      <c r="T103" s="110"/>
-      <c r="U103" s="110"/>
-      <c r="V103" s="110"/>
-      <c r="W103" s="110"/>
-      <c r="X103" s="110"/>
-      <c r="Y103" s="110"/>
-      <c r="Z103" s="110"/>
-      <c r="AA103" s="110"/>
-      <c r="AB103" s="110"/>
-      <c r="AC103" s="110"/>
-      <c r="AD103" s="110"/>
+        <v>662</v>
+      </c>
+      <c r="O103" s="73"/>
+      <c r="P103" s="73"/>
+      <c r="Q103" s="73"/>
+      <c r="R103" s="73"/>
+      <c r="S103" s="73"/>
+      <c r="T103" s="73"/>
+      <c r="U103" s="73"/>
+      <c r="V103" s="73"/>
+      <c r="W103" s="73"/>
+      <c r="X103" s="73"/>
+      <c r="Y103" s="73"/>
+      <c r="Z103" s="73"/>
+      <c r="AA103" s="73"/>
+      <c r="AB103" s="73"/>
+      <c r="AC103" s="73"/>
+      <c r="AD103" s="73"/>
       <c r="AE103" s="73"/>
       <c r="AF103" s="73"/>
     </row>
-    <row r="105">
-      <c r="A105" s="103" t="s">
+    <row r="104">
+      <c r="A104" s="107" t="s">
         <v>678</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B104" s="108" t="s">
         <v>679</v>
       </c>
-      <c r="C105" s="112" t="s">
+      <c r="C104" s="106" t="s">
         <v>680</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D104" s="109" t="s">
         <v>681</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E104" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="36">
+      <c r="F104" s="110"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="108" t="s">
+        <v>677</v>
+      </c>
+      <c r="K104" s="111">
         <v>45396.0</v>
       </c>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13" t="s">
+      <c r="L104" s="110"/>
+      <c r="M104" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N105" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="13"/>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="13"/>
-      <c r="AC105" s="13"/>
-      <c r="AD105" s="13"/>
-      <c r="AE105" s="13"/>
-      <c r="AF105" s="13"/>
+      <c r="N104" s="71" t="s">
+        <v>662</v>
+      </c>
+      <c r="O104" s="110"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="110"/>
+      <c r="R104" s="110"/>
+      <c r="S104" s="110"/>
+      <c r="T104" s="110"/>
+      <c r="U104" s="110"/>
+      <c r="V104" s="110"/>
+      <c r="W104" s="110"/>
+      <c r="X104" s="110"/>
+      <c r="Y104" s="110"/>
+      <c r="Z104" s="110"/>
+      <c r="AA104" s="110"/>
+      <c r="AB104" s="110"/>
+      <c r="AC104" s="110"/>
+      <c r="AD104" s="110"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="73"/>
     </row>
     <row r="106">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="103" t="s">
         <v>682</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="112" t="s">
         <v>684</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="13" t="s">
         <v>685</v>
       </c>
       <c r="E106" s="17" t="s">
@@ -22541,9 +22553,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
-      <c r="I106" s="52" t="s">
-        <v>686</v>
-      </c>
+      <c r="I106" s="13"/>
       <c r="J106" s="13"/>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -22576,16 +22586,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="C107" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>690</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22593,7 +22603,9 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="I107" s="52" t="s">
+        <v>690</v>
+      </c>
       <c r="J107" s="13"/>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -22634,7 +22646,7 @@
       <c r="C108" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="13" t="s">
         <v>694</v>
       </c>
       <c r="E108" s="17" t="s">
@@ -22684,7 +22696,7 @@
       <c r="C109" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="9" t="s">
         <v>698</v>
       </c>
       <c r="E109" s="17" t="s">
@@ -22735,7 +22747,7 @@
         <v>701</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>58</v>
@@ -22743,9 +22755,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="52" t="s">
-        <v>702</v>
-      </c>
+      <c r="I110" s="13"/>
       <c r="J110" s="13"/>
       <c r="K110" s="36">
         <v>45396.0</v>
@@ -22787,7 +22797,7 @@
         <v>705</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>58</v>
@@ -22795,7 +22805,9 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
+      <c r="I111" s="52" t="s">
+        <v>706</v>
+      </c>
       <c r="J111" s="13"/>
       <c r="K111" s="36">
         <v>45396.0</v>
@@ -22828,16 +22840,16 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="D112" s="9" t="s">
         <v>709</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>694</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>58</v>
@@ -22886,7 +22898,7 @@
       <c r="C113" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="9" t="s">
         <v>713</v>
       </c>
       <c r="E113" s="17" t="s">
@@ -22896,9 +22908,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="13" t="s">
-        <v>401</v>
-      </c>
+      <c r="J113" s="13"/>
       <c r="K113" s="36">
         <v>45396.0</v>
       </c>
@@ -22906,8 +22916,8 @@
       <c r="M113" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N113" s="95" t="s">
-        <v>402</v>
+      <c r="N113" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="O113" s="13"/>
       <c r="P113" s="13"/>
@@ -22929,122 +22939,122 @@
       <c r="AF113" s="13"/>
     </row>
     <row r="114">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="9" t="s">
         <v>716</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="20">
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K114" s="36">
         <v>45396.0</v>
       </c>
-      <c r="L114" s="19"/>
-      <c r="M114" s="17" t="s">
+      <c r="L114" s="13"/>
+      <c r="M114" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N114" s="52" t="s">
+      <c r="N114" s="95" t="s">
+        <v>402</v>
+      </c>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="13"/>
+      <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
+      <c r="AA114" s="13"/>
+      <c r="AB114" s="13"/>
+      <c r="AC114" s="13"/>
+      <c r="AD114" s="13"/>
+      <c r="AE114" s="13"/>
+      <c r="AF114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="20">
+        <v>45396.0</v>
+      </c>
+      <c r="L115" s="19"/>
+      <c r="M115" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N115" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
-      <c r="V114" s="19"/>
-      <c r="W114" s="19"/>
-      <c r="X114" s="19"/>
-      <c r="Y114" s="19"/>
-      <c r="Z114" s="19"/>
-      <c r="AA114" s="19"/>
-      <c r="AB114" s="19"/>
-      <c r="AC114" s="19"/>
-      <c r="AD114" s="19"/>
-      <c r="AE114" s="19"/>
-      <c r="AF114" s="19"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="22"/>
-      <c r="K115" s="20"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="19"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="19"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
     </row>
     <row r="116">
-      <c r="A116" s="103" t="s">
-        <v>717</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="C116" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="K116" s="36">
-        <v>45396.0</v>
-      </c>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N116" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="13"/>
-      <c r="AA116" s="13"/>
-      <c r="AB116" s="13"/>
-      <c r="AC116" s="13"/>
-      <c r="AD116" s="13"/>
-      <c r="AE116" s="13"/>
-      <c r="AF116" s="13"/>
+      <c r="B116" s="22"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="103" t="s">
         <v>721</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C117" s="112" t="s">
+      <c r="C117" s="70" t="s">
         <v>723</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>724</v>
-      </c>
+      <c r="D117" s="13"/>
       <c r="E117" s="17" t="s">
         <v>58</v>
       </c>
@@ -23053,7 +23063,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K117" s="36">
         <v>45396.0</v>
@@ -23091,11 +23101,11 @@
       <c r="B118" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="112" t="s">
         <v>727</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>58</v>
@@ -23105,7 +23115,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K118" s="36">
         <v>45396.0</v>
@@ -23138,16 +23148,16 @@
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>731</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>728</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="C119" s="70" t="s">
-        <v>730</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>58</v>
@@ -23157,7 +23167,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K119" s="36">
         <v>45396.0</v>
@@ -23188,67 +23198,69 @@
       <c r="AE119" s="13"/>
       <c r="AF119" s="13"/>
     </row>
-    <row r="121">
-      <c r="A121" s="86" t="s">
-        <v>731</v>
-      </c>
-      <c r="B121" s="86" t="s">
-        <v>731</v>
-      </c>
-      <c r="C121" s="81" t="s">
+    <row r="120">
+      <c r="A120" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="D121" s="86"/>
-      <c r="E121" s="17" t="s">
+      <c r="B120" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="E120" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F121" s="73"/>
-      <c r="G121" s="94"/>
-      <c r="H121" s="73"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="94"/>
-      <c r="K121" s="82">
-        <v>45643.0</v>
-      </c>
-      <c r="L121" s="73"/>
-      <c r="M121" s="17" t="s">
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="K120" s="36">
+        <v>45396.0</v>
+      </c>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N121" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="O121" s="73"/>
-      <c r="P121" s="73"/>
-      <c r="Q121" s="73"/>
-      <c r="R121" s="73"/>
-      <c r="S121" s="73"/>
-      <c r="T121" s="73"/>
-      <c r="U121" s="73"/>
-      <c r="V121" s="73"/>
-      <c r="W121" s="73"/>
-      <c r="X121" s="73"/>
-      <c r="Y121" s="73"/>
-      <c r="Z121" s="73"/>
-      <c r="AA121" s="73"/>
-      <c r="AB121" s="73"/>
-      <c r="AC121" s="73"/>
-      <c r="AD121" s="73"/>
-      <c r="AE121" s="73"/>
-      <c r="AF121" s="73"/>
+      <c r="N120" s="95" t="s">
+        <v>402</v>
+      </c>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+      <c r="AC120" s="13"/>
+      <c r="AD120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
     </row>
     <row r="122">
-      <c r="A122" s="86" t="s">
-        <v>733</v>
-      </c>
-      <c r="B122" s="86" t="s">
-        <v>734</v>
+      <c r="A122" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>735</v>
       </c>
       <c r="C122" s="81" t="s">
-        <v>735</v>
-      </c>
-      <c r="D122" s="86" t="s">
         <v>736</v>
       </c>
+      <c r="D122" s="80"/>
       <c r="E122" s="17" t="s">
         <v>58</v>
       </c>
@@ -23287,17 +23299,17 @@
       <c r="AF122" s="73"/>
     </row>
     <row r="123">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="80" t="s">
         <v>737</v>
       </c>
-      <c r="B123" s="86" t="s">
+      <c r="B123" s="80" t="s">
         <v>738</v>
       </c>
       <c r="C123" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="D123" s="86" t="s">
-        <v>736</v>
+      <c r="D123" s="80" t="s">
+        <v>740</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>58</v>
@@ -23337,17 +23349,17 @@
       <c r="AF123" s="73"/>
     </row>
     <row r="124">
-      <c r="A124" s="86" t="s">
+      <c r="A124" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="B124" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="D124" s="80" t="s">
         <v>740</v>
-      </c>
-      <c r="B124" s="86" t="s">
-        <v>741</v>
-      </c>
-      <c r="C124" s="81" t="s">
-        <v>742</v>
-      </c>
-      <c r="D124" s="86" t="s">
-        <v>736</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>58</v>
@@ -23365,7 +23377,7 @@
         <v>20</v>
       </c>
       <c r="N124" s="71" t="s">
-        <v>743</v>
+        <v>53</v>
       </c>
       <c r="O124" s="73"/>
       <c r="P124" s="73"/>
@@ -23387,17 +23399,17 @@
       <c r="AF124" s="73"/>
     </row>
     <row r="125">
-      <c r="A125" s="86" t="s">
+      <c r="A125" s="80" t="s">
         <v>744</v>
       </c>
-      <c r="B125" s="86" t="s">
+      <c r="B125" s="80" t="s">
         <v>745</v>
       </c>
       <c r="C125" s="81" t="s">
         <v>746</v>
       </c>
-      <c r="D125" s="86" t="s">
-        <v>747</v>
+      <c r="D125" s="80" t="s">
+        <v>740</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>58</v>
@@ -23405,9 +23417,7 @@
       <c r="F125" s="73"/>
       <c r="G125" s="94"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="71" t="s">
-        <v>748</v>
-      </c>
+      <c r="I125" s="73"/>
       <c r="J125" s="94"/>
       <c r="K125" s="82">
         <v>45643.0</v>
@@ -23417,7 +23427,7 @@
         <v>20</v>
       </c>
       <c r="N125" s="71" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O125" s="73"/>
       <c r="P125" s="73"/>
@@ -23439,18 +23449,38 @@
       <c r="AF125" s="73"/>
     </row>
     <row r="126">
-      <c r="A126" s="104"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="86"/>
+      <c r="A126" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="B126" s="80" t="s">
+        <v>749</v>
+      </c>
+      <c r="C126" s="81" t="s">
+        <v>750</v>
+      </c>
+      <c r="D126" s="80" t="s">
+        <v>751</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F126" s="73"/>
       <c r="G126" s="94"/>
       <c r="H126" s="73"/>
-      <c r="I126" s="73"/>
+      <c r="I126" s="71" t="s">
+        <v>752</v>
+      </c>
       <c r="J126" s="94"/>
-      <c r="K126" s="73"/>
+      <c r="K126" s="82">
+        <v>45643.0</v>
+      </c>
       <c r="L126" s="73"/>
-      <c r="N126" s="73"/>
+      <c r="M126" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N126" s="71" t="s">
+        <v>747</v>
+      </c>
       <c r="O126" s="73"/>
       <c r="P126" s="73"/>
       <c r="Q126" s="73"/>
@@ -23471,29 +23501,17 @@
       <c r="AF126" s="73"/>
     </row>
     <row r="127">
-      <c r="A127" s="73" t="s">
-        <v>749</v>
-      </c>
-      <c r="B127" s="73" t="s">
-        <v>750</v>
-      </c>
-      <c r="C127" s="100" t="s">
-        <v>751</v>
-      </c>
-      <c r="D127" s="73"/>
-      <c r="E127" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A127" s="104"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="80"/>
       <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
+      <c r="G127" s="94"/>
       <c r="H127" s="73"/>
       <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
+      <c r="J127" s="94"/>
       <c r="K127" s="73"/>
       <c r="L127" s="73"/>
-      <c r="M127" s="17" t="s">
-        <v>752</v>
-      </c>
       <c r="N127" s="73"/>
       <c r="O127" s="73"/>
       <c r="P127" s="73"/>
@@ -23511,39 +23529,37 @@
       <c r="AB127" s="73"/>
       <c r="AC127" s="73"/>
       <c r="AD127" s="73"/>
+      <c r="AE127" s="73"/>
+      <c r="AF127" s="73"/>
     </row>
     <row r="128">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="73" t="s">
         <v>753</v>
       </c>
-      <c r="B128" s="89"/>
-      <c r="C128" s="85" t="s">
+      <c r="B128" s="73" t="s">
         <v>754</v>
       </c>
-      <c r="D128" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E128" s="87" t="s">
+      <c r="C128" s="113" t="s">
+        <v>755</v>
+      </c>
+      <c r="D128" s="73"/>
+      <c r="E128" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F128" s="88"/>
-      <c r="G128" s="88"/>
-      <c r="H128" s="88"/>
-      <c r="I128" s="89"/>
-      <c r="J128" s="89"/>
-      <c r="K128" s="82">
-        <v>45396.0</v>
-      </c>
-      <c r="L128" s="90"/>
-      <c r="M128" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="N128" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="O128" s="89"/>
-      <c r="P128" s="88"/>
-      <c r="Q128" s="88"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="73"/>
+      <c r="H128" s="73"/>
+      <c r="I128" s="73"/>
+      <c r="J128" s="73"/>
+      <c r="K128" s="73"/>
+      <c r="L128" s="73"/>
+      <c r="M128" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="N128" s="73"/>
+      <c r="O128" s="73"/>
+      <c r="P128" s="73"/>
+      <c r="Q128" s="73"/>
       <c r="R128" s="73"/>
       <c r="S128" s="73"/>
       <c r="T128" s="73"/>
@@ -23557,74 +23573,70 @@
       <c r="AB128" s="73"/>
       <c r="AC128" s="73"/>
       <c r="AD128" s="73"/>
-      <c r="AE128" s="73"/>
-      <c r="AF128" s="73"/>
     </row>
     <row r="129">
-      <c r="B129" s="22"/>
-      <c r="N129" s="114"/>
+      <c r="A129" s="84" t="s">
+        <v>757</v>
+      </c>
+      <c r="B129" s="89"/>
+      <c r="C129" s="86" t="s">
+        <v>758</v>
+      </c>
+      <c r="D129" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="89"/>
+      <c r="J129" s="89"/>
+      <c r="K129" s="82">
+        <v>45396.0</v>
+      </c>
+      <c r="L129" s="90"/>
+      <c r="M129" s="71" t="s">
+        <v>756</v>
+      </c>
+      <c r="N129" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="O129" s="89"/>
+      <c r="P129" s="88"/>
+      <c r="Q129" s="88"/>
+      <c r="R129" s="73"/>
+      <c r="S129" s="73"/>
+      <c r="T129" s="73"/>
+      <c r="U129" s="73"/>
+      <c r="V129" s="73"/>
+      <c r="W129" s="73"/>
+      <c r="X129" s="73"/>
+      <c r="Y129" s="73"/>
+      <c r="Z129" s="73"/>
+      <c r="AA129" s="73"/>
+      <c r="AB129" s="73"/>
+      <c r="AC129" s="73"/>
+      <c r="AD129" s="73"/>
+      <c r="AE129" s="73"/>
+      <c r="AF129" s="73"/>
     </row>
     <row r="130">
-      <c r="A130" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="20">
-        <v>45429.0</v>
-      </c>
-      <c r="L130" s="19"/>
-      <c r="M130" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N130" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O130" s="19"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
-      <c r="T130" s="19"/>
-      <c r="U130" s="19"/>
-      <c r="V130" s="19"/>
-      <c r="W130" s="19"/>
-      <c r="X130" s="19"/>
-      <c r="Y130" s="19"/>
-      <c r="Z130" s="19"/>
-      <c r="AA130" s="19"/>
-      <c r="AB130" s="19"/>
-      <c r="AC130" s="19"/>
-      <c r="AD130" s="19"/>
-      <c r="AE130" s="19"/>
-      <c r="AF130" s="19"/>
+      <c r="B130" s="22"/>
+      <c r="N130" s="115"/>
     </row>
     <row r="131">
       <c r="A131" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="D131" s="17" t="s">
         <v>761</v>
       </c>
+      <c r="D131" s="19"/>
       <c r="E131" s="87" t="s">
         <v>58</v>
       </c>
@@ -23673,7 +23685,7 @@
         <v>764</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E132" s="87" t="s">
         <v>58</v>
@@ -23712,55 +23724,67 @@
       <c r="AE132" s="19"/>
       <c r="AF132" s="19"/>
     </row>
-    <row r="134">
-      <c r="A134" s="8" t="s">
+    <row r="133">
+      <c r="A133" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>765</v>
       </c>
+      <c r="E133" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="20">
+        <v>45429.0</v>
+      </c>
+      <c r="L133" s="19"/>
+      <c r="M133" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N133" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
     </row>
     <row r="135">
-      <c r="A135" s="115" t="s">
-        <v>766</v>
-      </c>
-      <c r="B135" s="73"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="73"/>
-      <c r="K135" s="76"/>
-      <c r="L135" s="76"/>
-      <c r="M135" s="73"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="73"/>
-      <c r="Q135" s="73"/>
-      <c r="R135" s="73"/>
-      <c r="S135" s="73"/>
-      <c r="T135" s="73"/>
-      <c r="U135" s="73"/>
-      <c r="V135" s="73"/>
-      <c r="W135" s="73"/>
-      <c r="X135" s="73"/>
-      <c r="Y135" s="73"/>
-      <c r="Z135" s="73"/>
-      <c r="AA135" s="73"/>
-      <c r="AB135" s="73"/>
-      <c r="AC135" s="73"/>
-      <c r="AD135" s="73"/>
+      <c r="A135" s="8" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="73" t="s">
-        <v>425</v>
-      </c>
-      <c r="B136" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C136" s="73" t="s">
-        <v>768</v>
-      </c>
+      <c r="A136" s="116" t="s">
+        <v>770</v>
+      </c>
+      <c r="B136" s="73"/>
+      <c r="C136" s="73"/>
       <c r="D136" s="73"/>
       <c r="E136" s="73"/>
       <c r="F136" s="73"/>
@@ -23791,17 +23815,15 @@
     </row>
     <row r="137">
       <c r="A137" s="73" t="s">
-        <v>769</v>
+        <v>425</v>
       </c>
       <c r="B137" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C137" s="73" t="s">
-        <v>770</v>
-      </c>
-      <c r="D137" s="73" t="s">
-        <v>767</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="D137" s="73"/>
       <c r="E137" s="73"/>
       <c r="F137" s="73"/>
       <c r="G137" s="73"/>
@@ -23830,16 +23852,18 @@
       <c r="AD137" s="73"/>
     </row>
     <row r="138">
-      <c r="A138" s="73" t="s">
+      <c r="A138" s="71" t="s">
+        <v>773</v>
+      </c>
+      <c r="B138" s="73" t="s">
         <v>771</v>
       </c>
-      <c r="B138" s="73" t="s">
-        <v>767</v>
-      </c>
       <c r="C138" s="73" t="s">
-        <v>772</v>
-      </c>
-      <c r="D138" s="73"/>
+        <v>774</v>
+      </c>
+      <c r="D138" s="73" t="s">
+        <v>771</v>
+      </c>
       <c r="E138" s="73"/>
       <c r="F138" s="73"/>
       <c r="G138" s="73"/>
@@ -23869,13 +23893,13 @@
     </row>
     <row r="139">
       <c r="A139" s="73" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B139" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C139" s="73" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
@@ -23907,12 +23931,14 @@
     </row>
     <row r="140">
       <c r="A140" s="73" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B140" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C140" s="73"/>
+        <v>771</v>
+      </c>
+      <c r="C140" s="73" t="s">
+        <v>778</v>
+      </c>
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="73"/>
@@ -23943,10 +23969,10 @@
     </row>
     <row r="141">
       <c r="A141" s="73" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
@@ -23979,10 +24005,10 @@
     </row>
     <row r="142">
       <c r="A142" s="73" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
@@ -24015,10 +24041,10 @@
     </row>
     <row r="143">
       <c r="A143" s="73" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C143" s="73"/>
       <c r="D143" s="73"/>
@@ -24051,10 +24077,10 @@
     </row>
     <row r="144">
       <c r="A144" s="73" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B144" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C144" s="73"/>
       <c r="D144" s="73"/>
@@ -24087,10 +24113,10 @@
     </row>
     <row r="145">
       <c r="A145" s="73" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B145" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -24123,10 +24149,10 @@
     </row>
     <row r="146">
       <c r="A146" s="73" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B146" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C146" s="73"/>
       <c r="D146" s="73"/>
@@ -24159,10 +24185,10 @@
     </row>
     <row r="147">
       <c r="A147" s="73" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B147" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C147" s="73"/>
       <c r="D147" s="73"/>
@@ -24195,10 +24221,10 @@
     </row>
     <row r="148">
       <c r="A148" s="73" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B148" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
@@ -24231,10 +24257,10 @@
     </row>
     <row r="149">
       <c r="A149" s="73" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
@@ -24267,10 +24293,10 @@
     </row>
     <row r="150">
       <c r="A150" s="73" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B150" s="73" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C150" s="73"/>
       <c r="D150" s="73"/>
@@ -24303,10 +24329,10 @@
     </row>
     <row r="151">
       <c r="A151" s="73" t="s">
-        <v>36</v>
+        <v>789</v>
       </c>
       <c r="B151" s="73" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="73"/>
@@ -24339,9 +24365,11 @@
     </row>
     <row r="152">
       <c r="A152" s="73" t="s">
-        <v>788</v>
-      </c>
-      <c r="B152" s="73"/>
+        <v>36</v>
+      </c>
+      <c r="B152" s="73" t="s">
+        <v>791</v>
+      </c>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
       <c r="E152" s="73"/>
@@ -24373,7 +24401,7 @@
     </row>
     <row r="153">
       <c r="A153" s="73" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B153" s="73"/>
       <c r="C153" s="73"/>
@@ -24407,7 +24435,7 @@
     </row>
     <row r="154">
       <c r="A154" s="73" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B154" s="73"/>
       <c r="C154" s="73"/>
@@ -24441,7 +24469,7 @@
     </row>
     <row r="155">
       <c r="A155" s="73" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B155" s="73"/>
       <c r="C155" s="73"/>
@@ -24474,8 +24502,8 @@
       <c r="AD155" s="73"/>
     </row>
     <row r="156">
-      <c r="A156" s="73" t="s">
-        <v>792</v>
+      <c r="A156" s="71" t="s">
+        <v>795</v>
       </c>
       <c r="B156" s="73"/>
       <c r="C156" s="73"/>
@@ -24508,7 +24536,9 @@
       <c r="AD156" s="73"/>
     </row>
     <row r="157">
-      <c r="A157" s="73"/>
+      <c r="A157" s="73" t="s">
+        <v>796</v>
+      </c>
       <c r="B157" s="73"/>
       <c r="C157" s="73"/>
       <c r="D157" s="73"/>
@@ -24540,13 +24570,9 @@
       <c r="AD157" s="73"/>
     </row>
     <row r="158">
-      <c r="A158" s="73" t="s">
-        <v>793</v>
-      </c>
+      <c r="A158" s="73"/>
       <c r="B158" s="73"/>
-      <c r="C158" s="73" t="s">
-        <v>794</v>
-      </c>
+      <c r="C158" s="73"/>
       <c r="D158" s="73"/>
       <c r="E158" s="73"/>
       <c r="F158" s="73"/>
@@ -24576,7 +24602,40 @@
       <c r="AD158" s="73"/>
     </row>
     <row r="159">
-      <c r="B159" s="23"/>
+      <c r="A159" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="B159" s="73"/>
+      <c r="C159" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="76"/>
+      <c r="L159" s="76"/>
+      <c r="M159" s="73"/>
+      <c r="N159" s="73"/>
+      <c r="O159" s="73"/>
+      <c r="P159" s="73"/>
+      <c r="Q159" s="73"/>
+      <c r="R159" s="73"/>
+      <c r="S159" s="73"/>
+      <c r="T159" s="73"/>
+      <c r="U159" s="73"/>
+      <c r="V159" s="73"/>
+      <c r="W159" s="73"/>
+      <c r="X159" s="73"/>
+      <c r="Y159" s="73"/>
+      <c r="Z159" s="73"/>
+      <c r="AA159" s="73"/>
+      <c r="AB159" s="73"/>
+      <c r="AC159" s="73"/>
+      <c r="AD159" s="73"/>
     </row>
     <row r="160">
       <c r="B160" s="23"/>
@@ -27082,6 +27141,9 @@
     </row>
     <row r="994">
       <c r="B994" s="23"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AF3">
@@ -27094,17 +27156,17 @@
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:AF224">
+  <conditionalFormatting sqref="A4:AF225">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M4="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q1 A4:Q227">
+  <conditionalFormatting sqref="A1:Q1 A4:Q228">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Q1 A4:Q227">
+  <conditionalFormatting sqref="A1:Q1 A4:Q228">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -27136,47 +27198,47 @@
     <hyperlink r:id="rId24" ref="J26"/>
     <hyperlink r:id="rId25" ref="O26"/>
     <hyperlink r:id="rId26" ref="O27"/>
-    <hyperlink r:id="rId27" ref="J37"/>
-    <hyperlink r:id="rId28" ref="O37"/>
-    <hyperlink r:id="rId29" ref="O38"/>
-    <hyperlink r:id="rId30" ref="J39"/>
-    <hyperlink r:id="rId31" ref="O39"/>
-    <hyperlink r:id="rId32" ref="O40"/>
-    <hyperlink r:id="rId33" ref="O41"/>
-    <hyperlink r:id="rId34" ref="J42"/>
-    <hyperlink r:id="rId35" ref="O42"/>
-    <hyperlink r:id="rId36" ref="O45"/>
-    <hyperlink r:id="rId37" ref="O46"/>
-    <hyperlink r:id="rId38" ref="O47"/>
-    <hyperlink r:id="rId39" ref="O49"/>
-    <hyperlink r:id="rId40" ref="O50"/>
-    <hyperlink r:id="rId41" ref="O52"/>
-    <hyperlink r:id="rId42" ref="O55"/>
-    <hyperlink r:id="rId43" ref="O56"/>
-    <hyperlink r:id="rId44" ref="O60"/>
-    <hyperlink r:id="rId45" ref="O61"/>
-    <hyperlink r:id="rId46" ref="O62"/>
-    <hyperlink r:id="rId47" ref="O72"/>
-    <hyperlink r:id="rId48" ref="O73"/>
-    <hyperlink r:id="rId49" ref="O74"/>
-    <hyperlink r:id="rId50" ref="O75"/>
-    <hyperlink r:id="rId51" ref="I76"/>
-    <hyperlink r:id="rId52" ref="O76"/>
-    <hyperlink r:id="rId53" ref="O81"/>
-    <hyperlink r:id="rId54" ref="O82"/>
-    <hyperlink r:id="rId55" ref="O83"/>
-    <hyperlink r:id="rId56" ref="O85"/>
-    <hyperlink r:id="rId57" ref="O88"/>
-    <hyperlink r:id="rId58" ref="J89"/>
-    <hyperlink r:id="rId59" ref="O89"/>
-    <hyperlink r:id="rId60" ref="O90"/>
-    <hyperlink r:id="rId61" ref="O91"/>
-    <hyperlink r:id="rId62" ref="J92"/>
-    <hyperlink r:id="rId63" ref="O92"/>
-    <hyperlink r:id="rId64" ref="O93"/>
-    <hyperlink r:id="rId65" ref="O95"/>
-    <hyperlink r:id="rId66" ref="O96"/>
-    <hyperlink r:id="rId67" ref="J97"/>
+    <hyperlink r:id="rId27" ref="J38"/>
+    <hyperlink r:id="rId28" ref="O38"/>
+    <hyperlink r:id="rId29" ref="O39"/>
+    <hyperlink r:id="rId30" ref="J40"/>
+    <hyperlink r:id="rId31" ref="O40"/>
+    <hyperlink r:id="rId32" ref="O41"/>
+    <hyperlink r:id="rId33" ref="O42"/>
+    <hyperlink r:id="rId34" ref="J43"/>
+    <hyperlink r:id="rId35" ref="O43"/>
+    <hyperlink r:id="rId36" ref="O46"/>
+    <hyperlink r:id="rId37" ref="O47"/>
+    <hyperlink r:id="rId38" ref="O48"/>
+    <hyperlink r:id="rId39" ref="O50"/>
+    <hyperlink r:id="rId40" ref="O51"/>
+    <hyperlink r:id="rId41" ref="O53"/>
+    <hyperlink r:id="rId42" ref="O56"/>
+    <hyperlink r:id="rId43" ref="O57"/>
+    <hyperlink r:id="rId44" ref="O61"/>
+    <hyperlink r:id="rId45" ref="O62"/>
+    <hyperlink r:id="rId46" ref="O63"/>
+    <hyperlink r:id="rId47" ref="O73"/>
+    <hyperlink r:id="rId48" ref="O74"/>
+    <hyperlink r:id="rId49" ref="O75"/>
+    <hyperlink r:id="rId50" ref="O76"/>
+    <hyperlink r:id="rId51" ref="I77"/>
+    <hyperlink r:id="rId52" ref="O77"/>
+    <hyperlink r:id="rId53" ref="O82"/>
+    <hyperlink r:id="rId54" ref="O83"/>
+    <hyperlink r:id="rId55" ref="O84"/>
+    <hyperlink r:id="rId56" ref="O86"/>
+    <hyperlink r:id="rId57" ref="O89"/>
+    <hyperlink r:id="rId58" ref="J90"/>
+    <hyperlink r:id="rId59" ref="O90"/>
+    <hyperlink r:id="rId60" ref="O91"/>
+    <hyperlink r:id="rId61" ref="O92"/>
+    <hyperlink r:id="rId62" ref="J93"/>
+    <hyperlink r:id="rId63" ref="O93"/>
+    <hyperlink r:id="rId64" ref="O94"/>
+    <hyperlink r:id="rId65" ref="O96"/>
+    <hyperlink r:id="rId66" ref="O97"/>
+    <hyperlink r:id="rId67" ref="J98"/>
   </hyperlinks>
   <drawing r:id="rId68"/>
 </worksheet>
@@ -27251,13 +27313,13 @@
     </row>
     <row r="2">
       <c r="A2" s="96" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -27267,7 +27329,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -27303,13 +27365,13 @@
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>74</v>
@@ -27330,7 +27392,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="O3" s="68" t="s">
         <v>361</v>
@@ -27355,16 +27417,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>58</v>
@@ -27407,13 +27469,13 @@
     </row>
     <row r="5">
       <c r="A5" s="71" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>74</v>
@@ -27456,17 +27518,17 @@
       <c r="AF5" s="73"/>
     </row>
     <row r="6">
-      <c r="A6" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>554</v>
+      <c r="A6" s="86" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>558</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>556</v>
+        <v>559</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>560</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>58</v>
@@ -27476,7 +27538,7 @@
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
       <c r="J6" s="99" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K6" s="82">
         <v>45396.0</v>
@@ -27486,7 +27548,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="O6" s="89"/>
       <c r="P6" s="88"/>
@@ -27509,13 +27571,13 @@
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>74</v>
@@ -27528,7 +27590,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K7" s="82">
         <v>45396.0</v>
@@ -27538,7 +27600,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
@@ -27564,7 +27626,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -27573,13 +27635,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>74</v>
@@ -27592,7 +27654,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K10" s="82">
         <v>45521.0</v>
@@ -27623,13 +27685,13 @@
     </row>
     <row r="11">
       <c r="A11" s="71" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>74</v>
@@ -27642,7 +27704,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K11" s="82">
         <v>45521.0</v>
@@ -27673,13 +27735,13 @@
     </row>
     <row r="12">
       <c r="A12" s="71" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>804</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>805</v>
+        <v>808</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>809</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>74</v>
@@ -27692,7 +27754,7 @@
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
       <c r="J12" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K12" s="82">
         <v>45521.0</v>
@@ -27723,13 +27785,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>74</v>
@@ -27742,7 +27804,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K13" s="82">
         <v>45521.0</v>
@@ -27773,13 +27835,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>74</v>
@@ -27792,7 +27854,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K14" s="82">
         <v>45521.0</v>
@@ -27823,13 +27885,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>74</v>
@@ -27842,7 +27904,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K15" s="82">
         <v>45521.0</v>
@@ -27873,13 +27935,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D16" s="74" t="s">
         <v>74</v>
@@ -27892,7 +27954,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K16" s="82">
         <v>45521.0</v>
@@ -27923,13 +27985,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>74</v>
@@ -27942,7 +28004,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="49"/>
       <c r="J17" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K17" s="82">
         <v>45521.0</v>
@@ -27981,13 +28043,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
@@ -28000,7 +28062,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K19" s="82">
         <v>45521.0</v>
@@ -28031,13 +28093,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>18</v>
@@ -28050,7 +28112,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="17" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K20" s="82">
         <v>45521.0</v>
@@ -28087,16 +28149,16 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>27</v>
@@ -28137,17 +28199,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -28185,17 +28247,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -28233,17 +28295,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -28281,17 +28343,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -28329,17 +28391,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -28377,17 +28439,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -28425,17 +28487,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -28514,7 +28576,7 @@
       <c r="M36" s="29"/>
     </row>
     <row r="37">
-      <c r="A37" s="115"/>
+      <c r="A37" s="116"/>
       <c r="B37" s="118"/>
       <c r="C37" s="119"/>
       <c r="D37" s="73"/>
@@ -28636,7 +28698,7 @@
       <c r="AF42" s="73"/>
     </row>
     <row r="43">
-      <c r="A43" s="86"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="94"/>
       <c r="C43" s="105"/>
       <c r="D43" s="104"/>
@@ -28668,7 +28730,7 @@
       <c r="AF43" s="73"/>
     </row>
     <row r="44">
-      <c r="A44" s="80"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="94"/>
       <c r="C44" s="81"/>
       <c r="D44" s="104"/>
@@ -28703,7 +28765,7 @@
       <c r="A45" s="104"/>
       <c r="B45" s="94"/>
       <c r="C45" s="81"/>
-      <c r="D45" s="86"/>
+      <c r="D45" s="80"/>
       <c r="F45" s="73"/>
       <c r="G45" s="94"/>
       <c r="H45" s="73"/>
@@ -28732,9 +28794,9 @@
       <c r="AF45" s="73"/>
     </row>
     <row r="47">
-      <c r="A47" s="115"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="73"/>
-      <c r="C47" s="116"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="73"/>
       <c r="F47" s="73"/>
       <c r="G47" s="73"/>
@@ -29038,9 +29100,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="115"/>
+      <c r="A58" s="116"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="100"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="73"/>
       <c r="F58" s="73"/>
       <c r="G58" s="73"/>
@@ -29073,7 +29135,7 @@
     <row r="59">
       <c r="A59" s="73"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="116"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="73"/>
       <c r="F59" s="73"/>
       <c r="G59" s="73"/>
@@ -29106,7 +29168,7 @@
     <row r="60">
       <c r="A60" s="73"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="100"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="73"/>
       <c r="F60" s="73"/>
       <c r="G60" s="73"/>
@@ -29139,7 +29201,7 @@
     <row r="61">
       <c r="A61" s="73"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="100"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="73"/>
@@ -29173,7 +29235,7 @@
       <c r="A63" s="104"/>
       <c r="B63" s="94"/>
       <c r="C63" s="105"/>
-      <c r="D63" s="86"/>
+      <c r="D63" s="80"/>
       <c r="F63" s="73"/>
       <c r="G63" s="94"/>
       <c r="H63" s="73"/>
@@ -29204,7 +29266,7 @@
     <row r="64">
       <c r="A64" s="73"/>
       <c r="B64" s="73"/>
-      <c r="C64" s="100"/>
+      <c r="C64" s="113"/>
       <c r="D64" s="73"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -29267,7 +29329,7 @@
     </row>
     <row r="66">
       <c r="B66" s="22"/>
-      <c r="N66" s="114"/>
+      <c r="N66" s="115"/>
     </row>
     <row r="67">
       <c r="E67" s="125"/>
@@ -29282,7 +29344,7 @@
       <c r="K69" s="20"/>
     </row>
     <row r="72">
-      <c r="A72" s="115"/>
+      <c r="A72" s="116"/>
       <c r="B72" s="73"/>
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
@@ -32700,19 +32762,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -32744,19 +32806,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -32788,19 +32850,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -35824,13 +35886,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
@@ -35843,7 +35905,7 @@
         <v>45531.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -35854,13 +35916,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -35873,7 +35935,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -35884,16 +35946,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>81</v>
@@ -35931,16 +35993,16 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>81</v>
@@ -35949,7 +36011,7 @@
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
       <c r="I5" s="128" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="130">
@@ -35958,7 +36020,7 @@
       <c r="L5" s="129"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O5" s="131" t="s">
         <v>63</v>
@@ -35982,16 +36044,16 @@
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E6" s="128" t="s">
         <v>81</v>
@@ -36007,7 +36069,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O6" s="131" t="s">
         <v>63</v>
@@ -36031,16 +36093,16 @@
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>81</v>
@@ -36056,7 +36118,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O7" s="131" t="s">
         <v>63</v>
@@ -36080,16 +36142,16 @@
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>894</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>895</v>
+      </c>
+      <c r="D8" s="128" t="s">
         <v>889</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>890</v>
-      </c>
-      <c r="C8" s="128" t="s">
-        <v>891</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>885</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>81</v>
@@ -36105,7 +36167,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O8" s="131" t="s">
         <v>63</v>
@@ -36129,16 +36191,16 @@
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>81</v>
@@ -36180,7 +36242,7 @@
       <c r="A10" s="104"/>
       <c r="B10" s="94"/>
       <c r="C10" s="105"/>
-      <c r="D10" s="86"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="17"/>
       <c r="F10" s="73"/>
       <c r="G10" s="94"/>
@@ -36211,16 +36273,16 @@
     </row>
     <row r="11">
       <c r="A11" s="133" t="s">
-        <v>895</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>896</v>
+        <v>899</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>900</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>897</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>879</v>
+        <v>901</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>883</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -36230,7 +36292,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="94" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -36262,16 +36324,16 @@
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>879</v>
+        <v>905</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>883</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -36311,16 +36373,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>879</v>
+        <v>908</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>883</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -36367,30 +36429,30 @@
     </row>
     <row r="15">
       <c r="A15" s="135" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="138" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="138" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="K15" s="130">
         <v>44601.0</v>
@@ -39126,13 +39188,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>113</v>
@@ -39145,7 +39207,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -39179,13 +39241,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -39196,7 +39258,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -39228,13 +39290,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -39245,7 +39307,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="93"/>
       <c r="J4" s="17" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -39277,13 +39339,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -39294,7 +39356,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -39326,13 +39388,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -39343,7 +39405,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -39375,13 +39437,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -39392,7 +39454,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -39424,13 +39486,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -39441,7 +39503,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -39473,13 +39535,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -39490,7 +39552,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -39522,13 +39584,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -39539,7 +39601,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -39571,13 +39633,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -39588,7 +39650,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -39620,13 +39682,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -39637,7 +39699,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>
@@ -40189,7 +40251,7 @@
     <row r="73">
       <c r="A73" s="74"/>
       <c r="B73" s="73"/>
-      <c r="C73" s="100"/>
+      <c r="C73" s="113"/>
       <c r="D73" s="74"/>
       <c r="F73" s="73"/>
       <c r="G73" s="73"/>
@@ -40218,7 +40280,7 @@
     </row>
     <row r="74">
       <c r="B74" s="23"/>
-      <c r="N74" s="114"/>
+      <c r="N74" s="115"/>
     </row>
     <row r="75">
       <c r="A75" s="134"/>
@@ -40227,11 +40289,11 @@
     </row>
     <row r="76">
       <c r="B76" s="23"/>
-      <c r="N76" s="114"/>
+      <c r="N76" s="115"/>
     </row>
     <row r="77">
       <c r="B77" s="23"/>
-      <c r="N77" s="114"/>
+      <c r="N77" s="115"/>
     </row>
     <row r="78">
       <c r="A78" s="104"/>
@@ -40272,7 +40334,7 @@
     </row>
     <row r="80">
       <c r="B80" s="23"/>
-      <c r="N80" s="114"/>
+      <c r="N80" s="115"/>
     </row>
     <row r="81">
       <c r="A81" s="104"/>
@@ -40308,7 +40370,7 @@
     <row r="82">
       <c r="A82" s="74"/>
       <c r="B82" s="73"/>
-      <c r="C82" s="100"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="74"/>
       <c r="F82" s="73"/>
       <c r="G82" s="73"/>
@@ -40341,7 +40403,7 @@
     <row r="84">
       <c r="A84" s="73"/>
       <c r="B84" s="73"/>
-      <c r="C84" s="100"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="73"/>
       <c r="F84" s="73"/>
       <c r="G84" s="73"/>
@@ -40402,7 +40464,7 @@
     <row r="86">
       <c r="A86" s="73"/>
       <c r="B86" s="73"/>
-      <c r="C86" s="100"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="73"/>
       <c r="F86" s="73"/>
       <c r="G86" s="73"/>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="958">
   <si>
     <t>Term</t>
   </si>
@@ -288,7 +288,10 @@
     <t>Indicates a control or measure provided for an entity to perform the specified action</t>
   </si>
   <si>
-    <t>dpv:EntityControl</t>
+    <t>dpv:EntityInvolvement</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
   <si>
     <t>hasAssessment</t>
@@ -8036,9 +8039,11 @@
       <c r="K11" s="20">
         <v>45396.0</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="20">
+        <v>45961.0</v>
+      </c>
       <c r="M11" s="17" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>53</v>
@@ -8060,19 +8065,19 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>75</v>
@@ -8108,19 +8113,19 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>75</v>
@@ -11165,13 +11170,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>51</v>
@@ -11179,13 +11184,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>51</v>
@@ -11193,13 +11198,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>51</v>
@@ -11219,13 +11224,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -11269,16 +11274,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>51</v>
@@ -11288,7 +11293,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7" s="20">
         <v>44790.0</v>
@@ -11301,7 +11306,7 @@
         <v>53</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -11334,13 +11339,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -11351,7 +11356,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K9" s="20">
         <v>44790.0</v>
@@ -11364,7 +11369,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -11399,13 +11404,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -11416,7 +11421,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11" s="20">
         <v>44790.0</v>
@@ -11429,7 +11434,7 @@
         <v>53</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -11451,16 +11456,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>51</v>
@@ -11470,7 +11475,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12" s="20">
         <v>44790.0</v>
@@ -11483,7 +11488,7 @@
         <v>53</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -11505,16 +11510,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>51</v>
@@ -11524,7 +11529,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" s="20">
         <v>44790.0</v>
@@ -11537,7 +11542,7 @@
         <v>53</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -11559,16 +11564,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>51</v>
@@ -11578,7 +11583,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K14" s="20">
         <v>44790.0</v>
@@ -11591,7 +11596,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -11613,16 +11618,16 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>51</v>
@@ -11632,7 +11637,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K15" s="20">
         <v>44790.0</v>
@@ -11645,7 +11650,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -11667,16 +11672,16 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>51</v>
@@ -11686,7 +11691,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" s="20">
         <v>44790.0</v>
@@ -11699,7 +11704,7 @@
         <v>53</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -11721,16 +11726,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>51</v>
@@ -11740,7 +11745,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="20">
         <v>44790.0</v>
@@ -11753,7 +11758,7 @@
         <v>53</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -11775,16 +11780,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>51</v>
@@ -11794,7 +11799,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="20">
         <v>44790.0</v>
@@ -11807,7 +11812,7 @@
         <v>53</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -11829,16 +11834,16 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>51</v>
@@ -11848,7 +11853,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -11861,7 +11866,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -11883,16 +11888,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>51</v>
@@ -11902,7 +11907,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -11915,7 +11920,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -11937,16 +11942,16 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>51</v>
@@ -11956,7 +11961,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K21" s="14">
         <v>44790.0</v>
@@ -11969,7 +11974,7 @@
         <v>53</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -11991,16 +11996,16 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>51</v>
@@ -12010,7 +12015,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K22" s="14">
         <v>44790.0</v>
@@ -12023,7 +12028,7 @@
         <v>53</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -12045,16 +12050,16 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>51</v>
@@ -12064,7 +12069,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23" s="14">
         <v>44790.0</v>
@@ -12077,7 +12082,7 @@
         <v>53</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -12099,16 +12104,16 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>51</v>
@@ -12118,7 +12123,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K24" s="14">
         <v>44790.0</v>
@@ -12131,7 +12136,7 @@
         <v>53</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -12153,16 +12158,16 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>51</v>
@@ -12172,7 +12177,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25" s="14">
         <v>44790.0</v>
@@ -12185,7 +12190,7 @@
         <v>53</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -12207,16 +12212,16 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>51</v>
@@ -12226,7 +12231,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="14">
         <v>44790.0</v>
@@ -12241,7 +12246,7 @@
         <v>53</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -12275,13 +12280,13 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
@@ -12325,16 +12330,16 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>51</v>
@@ -12344,7 +12349,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="20">
         <v>44790.0</v>
@@ -12357,7 +12362,7 @@
         <v>53</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -12379,16 +12384,16 @@
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>51</v>
@@ -12398,7 +12403,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K30" s="20">
         <v>44790.0</v>
@@ -12411,7 +12416,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -12433,16 +12438,16 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>51</v>
@@ -12452,7 +12457,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K31" s="14">
         <v>44790.0</v>
@@ -12465,7 +12470,7 @@
         <v>53</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -12487,16 +12492,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>51</v>
@@ -12506,7 +12511,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K32" s="14">
         <v>44790.0</v>
@@ -12519,7 +12524,7 @@
         <v>53</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -12541,16 +12546,16 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>51</v>
@@ -12560,7 +12565,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" s="20">
         <v>44790.0</v>
@@ -12573,7 +12578,7 @@
         <v>53</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
@@ -12595,16 +12600,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>51</v>
@@ -12614,7 +12619,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K34" s="20">
         <v>44790.0</v>
@@ -12627,7 +12632,7 @@
         <v>53</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -12649,16 +12654,16 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>51</v>
@@ -12668,7 +12673,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K35" s="20">
         <v>44790.0</v>
@@ -12681,7 +12686,7 @@
         <v>53</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -12703,16 +12708,16 @@
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>51</v>
@@ -12722,7 +12727,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36" s="20">
         <v>44790.0</v>
@@ -12735,7 +12740,7 @@
         <v>53</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -12757,16 +12762,16 @@
     </row>
     <row r="37">
       <c r="A37" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>51</v>
@@ -12784,10 +12789,10 @@
         <v>20</v>
       </c>
       <c r="N37" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O37" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="38"/>
@@ -12809,16 +12814,16 @@
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>51</v>
@@ -12828,7 +12833,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K38" s="20">
         <v>44790.0</v>
@@ -12841,7 +12846,7 @@
         <v>53</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -12863,13 +12868,13 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="17" t="s">
@@ -12880,7 +12885,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K40" s="20">
         <v>44790.0</v>
@@ -12893,7 +12898,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -12926,13 +12931,13 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="17" t="s">
@@ -12951,10 +12956,10 @@
         <v>20</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -12976,13 +12981,13 @@
     </row>
     <row r="44">
       <c r="A44" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D44" s="44"/>
       <c r="E44" s="43" t="s">
@@ -12993,7 +12998,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
       <c r="J44" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K44" s="45">
         <v>44790.0</v>
@@ -13006,7 +13011,7 @@
         <v>53</v>
       </c>
       <c r="O44" s="47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P44" s="48"/>
       <c r="Q44" s="48"/>
@@ -13028,16 +13033,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>51</v>
@@ -13078,16 +13083,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>51</v>
@@ -13097,7 +13102,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K46" s="20">
         <v>43560.0</v>
@@ -13134,16 +13139,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>51</v>
@@ -13153,7 +13158,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K47" s="20">
         <v>43560.0</v>
@@ -13165,7 +13170,7 @@
         <v>20</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O47" s="21" t="s">
         <v>22</v>
@@ -13190,16 +13195,16 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>51</v>
@@ -13209,7 +13214,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K48" s="20">
         <v>43560.0</v>
@@ -13221,7 +13226,7 @@
         <v>20</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O48" s="21" t="s">
         <v>22</v>
@@ -13246,16 +13251,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>51</v>
@@ -13265,7 +13270,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K49" s="20">
         <v>44790.0</v>
@@ -13278,7 +13283,7 @@
         <v>53</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -13300,16 +13305,16 @@
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>51</v>
@@ -13319,7 +13324,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K50" s="20">
         <v>44790.0</v>
@@ -13332,7 +13337,7 @@
         <v>53</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -13354,16 +13359,16 @@
     </row>
     <row r="51">
       <c r="A51" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>51</v>
@@ -13373,7 +13378,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K51" s="20">
         <v>44790.0</v>
@@ -13388,7 +13393,7 @@
         <v>53</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -13410,16 +13415,16 @@
     </row>
     <row r="52">
       <c r="A52" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>51</v>
@@ -13429,7 +13434,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K52" s="20">
         <v>44790.0</v>
@@ -13444,7 +13449,7 @@
         <v>53</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -13466,16 +13471,16 @@
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>51</v>
@@ -13485,7 +13490,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K53" s="20">
         <v>44790.0</v>
@@ -13498,7 +13503,7 @@
         <v>53</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -13531,13 +13536,13 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="17" t="s">
@@ -13548,7 +13553,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K55" s="20">
         <v>44790.0</v>
@@ -13561,7 +13566,7 @@
         <v>53</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -13583,13 +13588,13 @@
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="17" t="s">
@@ -13633,16 +13638,16 @@
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>51</v>
@@ -13685,16 +13690,16 @@
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -13737,16 +13742,16 @@
     </row>
     <row r="60">
       <c r="A60" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>51</v>
@@ -13787,16 +13792,16 @@
     </row>
     <row r="61">
       <c r="A61" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>51</v>
@@ -13806,7 +13811,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K61" s="20">
         <v>44790.0</v>
@@ -13819,7 +13824,7 @@
         <v>53</v>
       </c>
       <c r="O61" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -13841,16 +13846,16 @@
     </row>
     <row r="62">
       <c r="A62" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>51</v>
@@ -13860,7 +13865,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K62" s="20">
         <v>44790.0</v>
@@ -13873,7 +13878,7 @@
         <v>53</v>
       </c>
       <c r="O62" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -13895,16 +13900,16 @@
     </row>
     <row r="63">
       <c r="A63" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>51</v>
@@ -13914,7 +13919,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K63" s="20">
         <v>44790.0</v>
@@ -13927,7 +13932,7 @@
         <v>53</v>
       </c>
       <c r="O63" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -13960,13 +13965,13 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="17" t="s">
@@ -13977,7 +13982,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K65" s="20">
         <v>44790.0</v>
@@ -13990,7 +13995,7 @@
         <v>53</v>
       </c>
       <c r="O65" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
@@ -14012,13 +14017,13 @@
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="17" t="s">
@@ -14060,16 +14065,16 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>51</v>
@@ -14079,7 +14084,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K68" s="14">
         <v>44790.0</v>
@@ -14092,7 +14097,7 @@
         <v>53</v>
       </c>
       <c r="O68" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
@@ -14114,16 +14119,16 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>51</v>
@@ -14133,7 +14138,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K69" s="14">
         <v>44790.0</v>
@@ -14146,7 +14151,7 @@
         <v>53</v>
       </c>
       <c r="O69" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
@@ -14168,16 +14173,16 @@
     </row>
     <row r="70">
       <c r="A70" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>51</v>
@@ -14187,7 +14192,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K70" s="20">
         <v>44790.0</v>
@@ -14200,7 +14205,7 @@
         <v>53</v>
       </c>
       <c r="O70" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P70" s="19"/>
       <c r="Q70" s="19"/>
@@ -14222,16 +14227,16 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>51</v>
@@ -14241,7 +14246,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K71" s="14">
         <v>44790.0</v>
@@ -14254,7 +14259,7 @@
         <v>53</v>
       </c>
       <c r="O71" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
@@ -14276,16 +14281,16 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>51</v>
@@ -14295,7 +14300,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K72" s="14">
         <v>44790.0</v>
@@ -14308,7 +14313,7 @@
         <v>53</v>
       </c>
       <c r="O72" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -14330,16 +14335,16 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E73" s="52" t="s">
         <v>51</v>
@@ -14349,7 +14354,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K73" s="14">
         <v>44790.0</v>
@@ -14362,7 +14367,7 @@
         <v>53</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
@@ -14384,16 +14389,16 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E74" s="52" t="s">
         <v>51</v>
@@ -14403,7 +14408,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K74" s="14">
         <v>44790.0</v>
@@ -14416,7 +14421,7 @@
         <v>53</v>
       </c>
       <c r="O74" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
@@ -14438,16 +14443,16 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E75" s="52" t="s">
         <v>51</v>
@@ -14457,7 +14462,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K75" s="14">
         <v>44790.0</v>
@@ -14470,7 +14475,7 @@
         <v>53</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
@@ -14492,16 +14497,16 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E76" s="52" t="s">
         <v>51</v>
@@ -14511,7 +14516,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K76" s="14">
         <v>44790.0</v>
@@ -14524,7 +14529,7 @@
         <v>53</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
@@ -14546,16 +14551,16 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E77" s="52" t="s">
         <v>51</v>
@@ -14565,7 +14570,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K77" s="14">
         <v>44790.0</v>
@@ -14578,7 +14583,7 @@
         <v>53</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
@@ -14600,16 +14605,16 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E78" s="52" t="s">
         <v>51</v>
@@ -14619,7 +14624,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K78" s="14">
         <v>44790.0</v>
@@ -14632,7 +14637,7 @@
         <v>53</v>
       </c>
       <c r="O78" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
@@ -14654,16 +14659,16 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>51</v>
@@ -14673,7 +14678,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K79" s="14">
         <v>44790.0</v>
@@ -14686,7 +14691,7 @@
         <v>53</v>
       </c>
       <c r="O79" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
@@ -14708,16 +14713,16 @@
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E80" s="52" t="s">
         <v>51</v>
@@ -14727,7 +14732,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K80" s="14">
         <v>44790.0</v>
@@ -14740,7 +14745,7 @@
         <v>53</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
@@ -14762,16 +14767,16 @@
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E81" s="52" t="s">
         <v>51</v>
@@ -14781,7 +14786,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K81" s="14">
         <v>44790.0</v>
@@ -14794,7 +14799,7 @@
         <v>53</v>
       </c>
       <c r="O81" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
@@ -14816,16 +14821,16 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E82" s="52" t="s">
         <v>51</v>
@@ -14835,7 +14840,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K82" s="14">
         <v>44790.0</v>
@@ -14848,7 +14853,7 @@
         <v>53</v>
       </c>
       <c r="O82" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
@@ -14870,16 +14875,16 @@
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E83" s="52" t="s">
         <v>51</v>
@@ -14889,7 +14894,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K83" s="14">
         <v>44790.0</v>
@@ -14902,7 +14907,7 @@
         <v>53</v>
       </c>
       <c r="O83" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
@@ -14924,16 +14929,16 @@
     </row>
     <row r="85">
       <c r="A85" s="55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E85" s="58" t="s">
         <v>51</v>
@@ -14948,7 +14953,7 @@
       </c>
       <c r="L85" s="59"/>
       <c r="M85" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N85" s="58" t="s">
         <v>53</v>
@@ -14974,16 +14979,16 @@
     </row>
     <row r="86">
       <c r="A86" s="55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E86" s="58" t="s">
         <v>51</v>
@@ -14993,20 +14998,20 @@
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K86" s="60">
         <v>44790.0</v>
       </c>
       <c r="L86" s="59"/>
       <c r="M86" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N86" s="55" t="s">
         <v>53</v>
       </c>
       <c r="O86" s="62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P86" s="59"/>
       <c r="Q86" s="59"/>
@@ -17809,11 +17814,11 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>58</v>
@@ -17821,11 +17826,11 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>58</v>
@@ -17833,7 +17838,7 @@
     </row>
     <row r="4">
       <c r="A4" s="63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="63"/>
@@ -17901,13 +17906,13 @@
     </row>
     <row r="6">
       <c r="A6" s="67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="17" t="s">
@@ -17929,7 +17934,7 @@
         <v>53</v>
       </c>
       <c r="O6" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -17951,16 +17956,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>58</v>
@@ -17970,7 +17975,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K7" s="20">
         <v>44790.0</v>
@@ -17983,7 +17988,7 @@
         <v>53</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -18005,16 +18010,16 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>58</v>
@@ -18032,10 +18037,10 @@
         <v>20</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -18057,16 +18062,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>58</v>
@@ -18084,10 +18089,10 @@
         <v>20</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -18109,16 +18114,16 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>58</v>
@@ -18136,7 +18141,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="19"/>
@@ -18159,16 +18164,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>58</v>
@@ -18186,7 +18191,7 @@
         <v>20</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="19"/>
@@ -18209,16 +18214,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>58</v>
@@ -18236,7 +18241,7 @@
         <v>20</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="19"/>
@@ -18270,13 +18275,13 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">
@@ -18287,7 +18292,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K14" s="20">
         <v>44790.0</v>
@@ -18300,7 +18305,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -18322,16 +18327,16 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>58</v>
@@ -18341,7 +18346,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K15" s="20">
         <v>44790.0</v>
@@ -18354,7 +18359,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -18376,16 +18381,16 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>58</v>
@@ -18395,7 +18400,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K16" s="20">
         <v>44790.0</v>
@@ -18408,7 +18413,7 @@
         <v>53</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -18430,16 +18435,16 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>58</v>
@@ -18449,7 +18454,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K17" s="36">
         <v>45396.0</v>
@@ -18459,7 +18464,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="52" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -18482,16 +18487,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>58</v>
@@ -18501,7 +18506,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K18" s="20">
         <v>44790.0</v>
@@ -18514,7 +18519,7 @@
         <v>53</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -18536,16 +18541,16 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>58</v>
@@ -18555,7 +18560,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -18568,7 +18573,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -18590,16 +18595,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>58</v>
@@ -18609,7 +18614,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="12"/>
       <c r="J20" s="34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -18622,7 +18627,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -18644,16 +18649,16 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>58</v>
@@ -18671,10 +18676,10 @@
         <v>20</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -18696,16 +18701,16 @@
     </row>
     <row r="22">
       <c r="A22" s="71" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>58</v>
@@ -18723,7 +18728,7 @@
         <v>20</v>
       </c>
       <c r="N22" s="71" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O22" s="77"/>
       <c r="P22" s="73"/>
@@ -18746,16 +18751,16 @@
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>58</v>
@@ -18773,10 +18778,10 @@
         <v>20</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -18798,13 +18803,13 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>62</v>
@@ -18817,7 +18822,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="12"/>
       <c r="J24" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K24" s="14">
         <v>44790.0</v>
@@ -18832,7 +18837,7 @@
         <v>53</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -18854,13 +18859,13 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>62</v>
@@ -18873,7 +18878,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
       <c r="J25" s="34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K25" s="14">
         <v>44790.0</v>
@@ -18888,7 +18893,7 @@
         <v>53</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -18910,13 +18915,13 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>62</v>
@@ -18929,7 +18934,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
       <c r="J26" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K26" s="14">
         <v>44790.0</v>
@@ -18944,7 +18949,7 @@
         <v>53</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -18966,13 +18971,13 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>62</v>
@@ -19018,13 +19023,13 @@
     </row>
     <row r="28">
       <c r="A28" s="80" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D28" s="71" t="s">
         <v>62</v>
@@ -19045,7 +19050,7 @@
         <v>20</v>
       </c>
       <c r="N28" s="71" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O28" s="74"/>
       <c r="P28" s="73"/>
@@ -19068,13 +19073,13 @@
     </row>
     <row r="29">
       <c r="A29" s="83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>62</v>
@@ -19086,7 +19091,7 @@
       <c r="G29" s="73"/>
       <c r="H29" s="73"/>
       <c r="I29" s="71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J29" s="74"/>
       <c r="K29" s="82">
@@ -19120,16 +19125,16 @@
     </row>
     <row r="30">
       <c r="A30" s="84" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D30" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>58</v>
@@ -19138,7 +19143,7 @@
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
       <c r="I30" s="85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J30" s="89"/>
       <c r="K30" s="82">
@@ -19149,7 +19154,7 @@
         <v>20</v>
       </c>
       <c r="N30" s="86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="88"/>
@@ -19172,16 +19177,16 @@
     </row>
     <row r="31">
       <c r="A31" s="86" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D31" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E31" s="87" t="s">
         <v>58</v>
@@ -19199,7 +19204,7 @@
         <v>20</v>
       </c>
       <c r="N31" s="86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="88"/>
@@ -19222,16 +19227,16 @@
     </row>
     <row r="32">
       <c r="A32" s="84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E32" s="87" t="s">
         <v>58</v>
@@ -19240,7 +19245,7 @@
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
       <c r="I32" s="85" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J32" s="89"/>
       <c r="K32" s="82">
@@ -19251,7 +19256,7 @@
         <v>20</v>
       </c>
       <c r="N32" s="86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O32" s="89"/>
       <c r="P32" s="88"/>
@@ -19274,16 +19279,16 @@
     </row>
     <row r="33">
       <c r="A33" s="92" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E33" s="87" t="s">
         <v>58</v>
@@ -19292,7 +19297,7 @@
       <c r="G33" s="88"/>
       <c r="H33" s="88"/>
       <c r="I33" s="85" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J33" s="89"/>
       <c r="K33" s="82">
@@ -19326,16 +19331,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E34" s="87" t="s">
         <v>58</v>
@@ -19344,7 +19349,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="82">
@@ -19378,16 +19383,16 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E35" s="87" t="s">
         <v>58</v>
@@ -19396,7 +19401,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="93" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="82">
@@ -19443,13 +19448,13 @@
     </row>
     <row r="37">
       <c r="A37" s="78" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="32" t="s">
@@ -19491,16 +19496,16 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>58</v>
@@ -19510,7 +19515,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="12"/>
       <c r="J38" s="34" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K38" s="14">
         <v>44790.0</v>
@@ -19523,7 +19528,7 @@
         <v>53</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -19545,16 +19550,16 @@
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>58</v>
@@ -19563,7 +19568,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="93" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="20">
@@ -19599,16 +19604,16 @@
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>58</v>
@@ -19618,7 +19623,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="31" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K40" s="20">
         <v>44790.0</v>
@@ -19631,7 +19636,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -19653,16 +19658,16 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>58</v>
@@ -19680,10 +19685,10 @@
         <v>20</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -19705,16 +19710,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>493</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>492</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>58</v>
@@ -19724,7 +19729,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K42" s="20">
         <v>44790.0</v>
@@ -19737,7 +19742,7 @@
         <v>53</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -19759,16 +19764,16 @@
     </row>
     <row r="43">
       <c r="A43" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>58</v>
@@ -19778,7 +19783,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="31" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K43" s="20">
         <v>44790.0</v>
@@ -19791,7 +19796,7 @@
         <v>53</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -19813,16 +19818,16 @@
     </row>
     <row r="44">
       <c r="A44" s="94" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B44" s="94" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>58</v>
@@ -19832,7 +19837,7 @@
       <c r="H44" s="73"/>
       <c r="I44" s="73"/>
       <c r="J44" s="73" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K44" s="82">
         <v>45396.0</v>
@@ -19842,7 +19847,7 @@
         <v>20</v>
       </c>
       <c r="N44" s="71" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
@@ -19865,13 +19870,13 @@
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="17" t="s">
@@ -19915,16 +19920,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19967,16 +19972,16 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>509</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>58</v>
@@ -20031,13 +20036,13 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="17" t="s">
@@ -20081,16 +20086,16 @@
     </row>
     <row r="51">
       <c r="A51" s="17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>58</v>
@@ -20133,16 +20138,16 @@
     </row>
     <row r="52">
       <c r="A52" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>519</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>518</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>58</v>
@@ -20151,7 +20156,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="20">
@@ -20162,7 +20167,7 @@
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O52" s="28"/>
       <c r="P52" s="19"/>
@@ -20185,16 +20190,16 @@
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>58</v>
@@ -20237,16 +20242,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>527</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="C54" s="95" t="s">
-        <v>529</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>526</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -20287,16 +20292,16 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C55" s="95" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>58</v>
@@ -20337,16 +20342,16 @@
     </row>
     <row r="56">
       <c r="A56" s="17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>58</v>
@@ -20391,16 +20396,16 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>58</v>
@@ -20443,16 +20448,16 @@
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>58</v>
@@ -20493,16 +20498,16 @@
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>58</v>
@@ -20543,13 +20548,13 @@
     </row>
     <row r="61">
       <c r="A61" s="96" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="17" t="s">
@@ -20559,7 +20564,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="20">
@@ -20570,10 +20575,10 @@
         <v>20</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O61" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -20595,13 +20600,13 @@
     </row>
     <row r="62">
       <c r="A62" s="63" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D62" s="63" t="s">
         <v>74</v>
@@ -20622,10 +20627,10 @@
         <v>20</v>
       </c>
       <c r="N62" s="29" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O62" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P62" s="65"/>
       <c r="Q62" s="65"/>
@@ -20647,16 +20652,16 @@
     </row>
     <row r="63">
       <c r="A63" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>58</v>
@@ -20699,13 +20704,13 @@
     </row>
     <row r="64">
       <c r="A64" s="71" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D64" s="74" t="s">
         <v>74</v>
@@ -20749,16 +20754,16 @@
     </row>
     <row r="65">
       <c r="A65" s="86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B65" s="86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D65" s="86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E65" s="87" t="s">
         <v>58</v>
@@ -20768,7 +20773,7 @@
       <c r="H65" s="88"/>
       <c r="I65" s="88"/>
       <c r="J65" s="99" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K65" s="82">
         <v>45396.0</v>
@@ -20778,7 +20783,7 @@
         <v>20</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O65" s="89"/>
       <c r="P65" s="88"/>
@@ -20801,13 +20806,13 @@
     </row>
     <row r="66">
       <c r="A66" s="74" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B66" s="73" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C66" s="100" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D66" s="74" t="s">
         <v>74</v>
@@ -20820,7 +20825,7 @@
       <c r="H66" s="73"/>
       <c r="I66" s="73"/>
       <c r="J66" s="73" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K66" s="82">
         <v>45396.0</v>
@@ -20830,7 +20835,7 @@
         <v>20</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O66" s="73"/>
       <c r="P66" s="73"/>
@@ -20853,13 +20858,13 @@
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D67" s="74" t="s">
         <v>74</v>
@@ -20880,7 +20885,7 @@
         <v>20</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O67" s="17"/>
       <c r="P67" s="19"/>
@@ -20914,13 +20919,13 @@
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
@@ -20930,7 +20935,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J69" s="19"/>
       <c r="K69" s="82">
@@ -20964,16 +20969,16 @@
     </row>
     <row r="70">
       <c r="A70" s="74" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C70" s="101" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D70" s="71" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>58</v>
@@ -21014,16 +21019,16 @@
     </row>
     <row r="71">
       <c r="A71" s="84" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B71" s="84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C71" s="102" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D71" s="84" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E71" s="87" t="s">
         <v>58</v>
@@ -21033,7 +21038,7 @@
       <c r="H71" s="88"/>
       <c r="I71" s="88"/>
       <c r="J71" s="99" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K71" s="82">
         <v>45396.0</v>
@@ -21077,13 +21082,13 @@
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="17" t="s">
@@ -21093,7 +21098,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J73" s="19"/>
       <c r="K73" s="20">
@@ -21106,10 +21111,10 @@
         <v>20</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
@@ -21131,16 +21136,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -21161,7 +21166,7 @@
         <v>53</v>
       </c>
       <c r="O74" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
@@ -21183,16 +21188,16 @@
     </row>
     <row r="75">
       <c r="A75" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
@@ -21235,16 +21240,16 @@
     </row>
     <row r="76">
       <c r="A76" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>58</v>
@@ -21287,16 +21292,16 @@
     </row>
     <row r="77">
       <c r="A77" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>58</v>
@@ -21305,7 +21310,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J77" s="19"/>
       <c r="K77" s="20">
@@ -21318,10 +21323,10 @@
         <v>20</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
@@ -21343,16 +21348,16 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>58</v>
@@ -21393,16 +21398,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -21443,16 +21448,16 @@
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>58</v>
@@ -21505,13 +21510,13 @@
     </row>
     <row r="82">
       <c r="A82" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="17" t="s">
@@ -21530,10 +21535,10 @@
         <v>20</v>
       </c>
       <c r="N82" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O82" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P82" s="19"/>
       <c r="Q82" s="19"/>
@@ -21555,16 +21560,16 @@
     </row>
     <row r="83">
       <c r="A83" s="17" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>58</v>
@@ -21582,10 +21587,10 @@
         <v>20</v>
       </c>
       <c r="N83" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O83" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
@@ -21607,16 +21612,16 @@
     </row>
     <row r="84">
       <c r="A84" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>618</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>615</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="C84" s="79" t="s">
-        <v>617</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>614</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>58</v>
@@ -21634,10 +21639,10 @@
         <v>20</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
@@ -21659,16 +21664,16 @@
     </row>
     <row r="85">
       <c r="A85" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C85" s="79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>58</v>
@@ -21686,7 +21691,7 @@
         <v>20</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O85" s="28"/>
       <c r="P85" s="19"/>
@@ -21709,16 +21714,16 @@
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>58</v>
@@ -21736,10 +21741,10 @@
         <v>20</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
@@ -21772,7 +21777,7 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
@@ -21787,13 +21792,13 @@
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="17" t="s">
@@ -21837,16 +21842,16 @@
     </row>
     <row r="90">
       <c r="A90" s="17" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21856,7 +21861,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="31" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K90" s="20">
         <v>44790.0</v>
@@ -21869,7 +21874,7 @@
         <v>53</v>
       </c>
       <c r="O90" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P90" s="19"/>
       <c r="Q90" s="19"/>
@@ -21891,16 +21896,16 @@
     </row>
     <row r="91">
       <c r="A91" s="17" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21910,7 +21915,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K91" s="20">
         <v>44790.0</v>
@@ -21923,7 +21928,7 @@
         <v>53</v>
       </c>
       <c r="O91" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P91" s="19"/>
       <c r="Q91" s="19"/>
@@ -21945,16 +21950,16 @@
     </row>
     <row r="92">
       <c r="A92" s="17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21964,7 +21969,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K92" s="20">
         <v>44790.0</v>
@@ -21977,7 +21982,7 @@
         <v>53</v>
       </c>
       <c r="O92" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P92" s="19"/>
       <c r="Q92" s="19"/>
@@ -21999,16 +22004,16 @@
     </row>
     <row r="93">
       <c r="A93" s="17" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>58</v>
@@ -22018,7 +22023,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="31" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K93" s="20">
         <v>44790.0</v>
@@ -22031,7 +22036,7 @@
         <v>53</v>
       </c>
       <c r="O93" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P93" s="19"/>
       <c r="Q93" s="19"/>
@@ -22053,16 +22058,16 @@
     </row>
     <row r="94">
       <c r="A94" s="17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>58</v>
@@ -22072,7 +22077,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K94" s="20">
         <v>44790.0</v>
@@ -22085,7 +22090,7 @@
         <v>53</v>
       </c>
       <c r="O94" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P94" s="19"/>
       <c r="Q94" s="19"/>
@@ -22114,13 +22119,13 @@
     </row>
     <row r="96">
       <c r="A96" s="103" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="52" t="s">
@@ -22130,7 +22135,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
       <c r="I96" s="52" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J96" s="12"/>
       <c r="K96" s="14">
@@ -22141,10 +22146,10 @@
         <v>20</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O96" s="53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P96" s="13"/>
       <c r="Q96" s="13"/>
@@ -22166,16 +22171,16 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E97" s="52" t="s">
         <v>58</v>
@@ -22193,10 +22198,10 @@
         <v>20</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O97" s="53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P97" s="13"/>
       <c r="Q97" s="13"/>
@@ -22218,16 +22223,16 @@
     </row>
     <row r="98">
       <c r="A98" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>654</v>
       </c>
       <c r="E98" s="52" t="s">
         <v>58</v>
@@ -22237,7 +22242,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="31" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K98" s="20">
         <v>45429.0</v>
@@ -22276,13 +22281,13 @@
     </row>
     <row r="100">
       <c r="A100" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="17" t="s">
@@ -22301,7 +22306,7 @@
         <v>20</v>
       </c>
       <c r="N100" s="71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O100" s="28"/>
       <c r="P100" s="19"/>
@@ -22324,16 +22329,16 @@
     </row>
     <row r="101">
       <c r="A101" s="104" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B101" s="94" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C101" s="81" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D101" s="104" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -22342,10 +22347,10 @@
       <c r="G101" s="94"/>
       <c r="H101" s="73"/>
       <c r="I101" s="71" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J101" s="94" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K101" s="82">
         <v>45396.0</v>
@@ -22355,7 +22360,7 @@
         <v>20</v>
       </c>
       <c r="N101" s="71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O101" s="73"/>
       <c r="P101" s="73"/>
@@ -22378,16 +22383,16 @@
     </row>
     <row r="102">
       <c r="A102" s="80" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B102" s="94" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C102" s="105" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D102" s="104" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -22397,7 +22402,7 @@
       <c r="H102" s="73"/>
       <c r="I102" s="73"/>
       <c r="J102" s="94" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K102" s="82">
         <v>45396.0</v>
@@ -22407,7 +22412,7 @@
         <v>20</v>
       </c>
       <c r="N102" s="71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O102" s="73"/>
       <c r="P102" s="73"/>
@@ -22430,16 +22435,16 @@
     </row>
     <row r="103">
       <c r="A103" s="83" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B103" s="94" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C103" s="106" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D103" s="104" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
@@ -22448,10 +22453,10 @@
       <c r="G103" s="94"/>
       <c r="H103" s="73"/>
       <c r="I103" s="71" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J103" s="94" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K103" s="82">
         <v>45396.0</v>
@@ -22461,7 +22466,7 @@
         <v>20</v>
       </c>
       <c r="N103" s="71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O103" s="73"/>
       <c r="P103" s="73"/>
@@ -22484,16 +22489,16 @@
     </row>
     <row r="104">
       <c r="A104" s="107" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B104" s="108" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C104" s="106" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>58</v>
@@ -22503,7 +22508,7 @@
       <c r="H104" s="110"/>
       <c r="I104" s="110"/>
       <c r="J104" s="108" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K104" s="111">
         <v>45396.0</v>
@@ -22513,7 +22518,7 @@
         <v>20</v>
       </c>
       <c r="N104" s="71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O104" s="110"/>
       <c r="P104" s="110"/>
@@ -22536,16 +22541,16 @@
     </row>
     <row r="106">
       <c r="A106" s="103" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C106" s="112" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -22586,16 +22591,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22604,7 +22609,7 @@
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="52" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J107" s="13"/>
       <c r="K107" s="36">
@@ -22638,16 +22643,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -22688,16 +22693,16 @@
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>58</v>
@@ -22738,16 +22743,16 @@
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>58</v>
@@ -22788,16 +22793,16 @@
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>58</v>
@@ -22806,7 +22811,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
       <c r="I111" s="52" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="36">
@@ -22840,16 +22845,16 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>58</v>
@@ -22890,16 +22895,16 @@
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>58</v>
@@ -22940,16 +22945,16 @@
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>58</v>
@@ -22959,7 +22964,7 @@
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K114" s="36">
         <v>45396.0</v>
@@ -22969,7 +22974,7 @@
         <v>20</v>
       </c>
       <c r="N114" s="95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
@@ -22992,16 +22997,16 @@
     </row>
     <row r="115">
       <c r="A115" s="17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>58</v>
@@ -23046,13 +23051,13 @@
     </row>
     <row r="117">
       <c r="A117" s="103" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="17" t="s">
@@ -23063,7 +23068,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K117" s="36">
         <v>45396.0</v>
@@ -23073,7 +23078,7 @@
         <v>20</v>
       </c>
       <c r="N117" s="95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
@@ -23096,16 +23101,16 @@
     </row>
     <row r="118">
       <c r="A118" s="13" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C118" s="112" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>58</v>
@@ -23115,7 +23120,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K118" s="36">
         <v>45396.0</v>
@@ -23125,7 +23130,7 @@
         <v>20</v>
       </c>
       <c r="N118" s="95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O118" s="13"/>
       <c r="P118" s="13"/>
@@ -23148,16 +23153,16 @@
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>732</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>729</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="C119" s="70" t="s">
-        <v>731</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>728</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>58</v>
@@ -23167,7 +23172,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K119" s="36">
         <v>45396.0</v>
@@ -23177,7 +23182,7 @@
         <v>20</v>
       </c>
       <c r="N119" s="95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O119" s="13"/>
       <c r="P119" s="13"/>
@@ -23200,16 +23205,16 @@
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>58</v>
@@ -23219,7 +23224,7 @@
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K120" s="36">
         <v>45396.0</v>
@@ -23229,7 +23234,7 @@
         <v>20</v>
       </c>
       <c r="N120" s="95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O120" s="13"/>
       <c r="P120" s="13"/>
@@ -23252,13 +23257,13 @@
     </row>
     <row r="122">
       <c r="A122" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B122" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C122" s="81" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D122" s="80"/>
       <c r="E122" s="17" t="s">
@@ -23300,16 +23305,16 @@
     </row>
     <row r="123">
       <c r="A123" s="80" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D123" s="80" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>58</v>
@@ -23350,16 +23355,16 @@
     </row>
     <row r="124">
       <c r="A124" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="B124" s="80" t="s">
+        <v>743</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>744</v>
+      </c>
+      <c r="D124" s="80" t="s">
         <v>741</v>
-      </c>
-      <c r="B124" s="80" t="s">
-        <v>742</v>
-      </c>
-      <c r="C124" s="81" t="s">
-        <v>743</v>
-      </c>
-      <c r="D124" s="80" t="s">
-        <v>740</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>58</v>
@@ -23400,16 +23405,16 @@
     </row>
     <row r="125">
       <c r="A125" s="80" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B125" s="80" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C125" s="81" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>58</v>
@@ -23427,7 +23432,7 @@
         <v>20</v>
       </c>
       <c r="N125" s="71" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O125" s="73"/>
       <c r="P125" s="73"/>
@@ -23450,16 +23455,16 @@
     </row>
     <row r="126">
       <c r="A126" s="80" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B126" s="80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C126" s="81" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D126" s="80" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>58</v>
@@ -23468,7 +23473,7 @@
       <c r="G126" s="94"/>
       <c r="H126" s="73"/>
       <c r="I126" s="71" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J126" s="94"/>
       <c r="K126" s="82">
@@ -23479,7 +23484,7 @@
         <v>20</v>
       </c>
       <c r="N126" s="71" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O126" s="73"/>
       <c r="P126" s="73"/>
@@ -23534,13 +23539,13 @@
     </row>
     <row r="128">
       <c r="A128" s="73" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B128" s="73" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C128" s="113" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D128" s="73"/>
       <c r="E128" s="17" t="s">
@@ -23554,7 +23559,7 @@
       <c r="K128" s="73"/>
       <c r="L128" s="73"/>
       <c r="M128" s="17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N128" s="73"/>
       <c r="O128" s="73"/>
@@ -23576,11 +23581,11 @@
     </row>
     <row r="129">
       <c r="A129" s="84" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B129" s="89"/>
       <c r="C129" s="86" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D129" s="114" t="s">
         <v>51</v>
@@ -23598,10 +23603,10 @@
       </c>
       <c r="L129" s="90"/>
       <c r="M129" s="71" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N129" s="86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O129" s="89"/>
       <c r="P129" s="88"/>
@@ -23628,13 +23633,13 @@
     </row>
     <row r="131">
       <c r="A131" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="87" t="s">
@@ -23676,16 +23681,16 @@
     </row>
     <row r="132">
       <c r="A132" s="17" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E132" s="87" t="s">
         <v>58</v>
@@ -23726,16 +23731,16 @@
     </row>
     <row r="133">
       <c r="A133" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>766</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>765</v>
       </c>
       <c r="E133" s="87" t="s">
         <v>58</v>
@@ -23776,12 +23781,12 @@
     </row>
     <row r="135">
       <c r="A135" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="116" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B136" s="73"/>
       <c r="C136" s="73"/>
@@ -23815,13 +23820,13 @@
     </row>
     <row r="137">
       <c r="A137" s="73" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B137" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C137" s="73" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D137" s="73"/>
       <c r="E137" s="73"/>
@@ -23853,16 +23858,16 @@
     </row>
     <row r="138">
       <c r="A138" s="71" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B138" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C138" s="73" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D138" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E138" s="73"/>
       <c r="F138" s="73"/>
@@ -23893,13 +23898,13 @@
     </row>
     <row r="139">
       <c r="A139" s="73" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B139" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C139" s="73" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
@@ -23931,13 +23936,13 @@
     </row>
     <row r="140">
       <c r="A140" s="73" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B140" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C140" s="73" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
@@ -23969,10 +23974,10 @@
     </row>
     <row r="141">
       <c r="A141" s="73" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
@@ -24005,10 +24010,10 @@
     </row>
     <row r="142">
       <c r="A142" s="73" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
@@ -24041,10 +24046,10 @@
     </row>
     <row r="143">
       <c r="A143" s="73" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C143" s="73"/>
       <c r="D143" s="73"/>
@@ -24077,10 +24082,10 @@
     </row>
     <row r="144">
       <c r="A144" s="73" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B144" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C144" s="73"/>
       <c r="D144" s="73"/>
@@ -24113,10 +24118,10 @@
     </row>
     <row r="145">
       <c r="A145" s="73" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B145" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -24149,10 +24154,10 @@
     </row>
     <row r="146">
       <c r="A146" s="73" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B146" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C146" s="73"/>
       <c r="D146" s="73"/>
@@ -24185,10 +24190,10 @@
     </row>
     <row r="147">
       <c r="A147" s="73" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B147" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C147" s="73"/>
       <c r="D147" s="73"/>
@@ -24221,10 +24226,10 @@
     </row>
     <row r="148">
       <c r="A148" s="73" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B148" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
@@ -24257,10 +24262,10 @@
     </row>
     <row r="149">
       <c r="A149" s="73" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
@@ -24293,10 +24298,10 @@
     </row>
     <row r="150">
       <c r="A150" s="73" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B150" s="73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C150" s="73"/>
       <c r="D150" s="73"/>
@@ -24329,10 +24334,10 @@
     </row>
     <row r="151">
       <c r="A151" s="73" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B151" s="73" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="73"/>
@@ -24368,7 +24373,7 @@
         <v>36</v>
       </c>
       <c r="B152" s="73" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
@@ -24401,7 +24406,7 @@
     </row>
     <row r="153">
       <c r="A153" s="73" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B153" s="73"/>
       <c r="C153" s="73"/>
@@ -24435,7 +24440,7 @@
     </row>
     <row r="154">
       <c r="A154" s="73" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B154" s="73"/>
       <c r="C154" s="73"/>
@@ -24469,7 +24474,7 @@
     </row>
     <row r="155">
       <c r="A155" s="73" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B155" s="73"/>
       <c r="C155" s="73"/>
@@ -24503,7 +24508,7 @@
     </row>
     <row r="156">
       <c r="A156" s="71" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B156" s="73"/>
       <c r="C156" s="73"/>
@@ -24537,7 +24542,7 @@
     </row>
     <row r="157">
       <c r="A157" s="73" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B157" s="73"/>
       <c r="C157" s="73"/>
@@ -24603,11 +24608,11 @@
     </row>
     <row r="159">
       <c r="A159" s="73" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B159" s="73"/>
       <c r="C159" s="73" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D159" s="73"/>
       <c r="E159" s="73"/>
@@ -27313,13 +27318,13 @@
     </row>
     <row r="2">
       <c r="A2" s="96" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -27329,7 +27334,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -27340,10 +27345,10 @@
         <v>20</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O2" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -27365,13 +27370,13 @@
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>74</v>
@@ -27392,10 +27397,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O3" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -27417,16 +27422,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>58</v>
@@ -27469,13 +27474,13 @@
     </row>
     <row r="5">
       <c r="A5" s="71" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>74</v>
@@ -27519,16 +27524,16 @@
     </row>
     <row r="6">
       <c r="A6" s="86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>58</v>
@@ -27538,7 +27543,7 @@
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
       <c r="J6" s="99" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K6" s="82">
         <v>45396.0</v>
@@ -27548,7 +27553,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O6" s="89"/>
       <c r="P6" s="88"/>
@@ -27571,13 +27576,13 @@
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>74</v>
@@ -27590,7 +27595,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K7" s="82">
         <v>45396.0</v>
@@ -27600,7 +27605,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
@@ -27626,7 +27631,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -27635,13 +27640,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>74</v>
@@ -27654,7 +27659,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K10" s="82">
         <v>45521.0</v>
@@ -27685,13 +27690,13 @@
     </row>
     <row r="11">
       <c r="A11" s="71" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>74</v>
@@ -27704,7 +27709,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K11" s="82">
         <v>45521.0</v>
@@ -27735,13 +27740,13 @@
     </row>
     <row r="12">
       <c r="A12" s="71" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>74</v>
@@ -27754,7 +27759,7 @@
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
       <c r="J12" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K12" s="82">
         <v>45521.0</v>
@@ -27785,13 +27790,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>74</v>
@@ -27804,7 +27809,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K13" s="82">
         <v>45521.0</v>
@@ -27835,13 +27840,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>74</v>
@@ -27854,7 +27859,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K14" s="82">
         <v>45521.0</v>
@@ -27885,13 +27890,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>74</v>
@@ -27904,7 +27909,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K15" s="82">
         <v>45521.0</v>
@@ -27935,13 +27940,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D16" s="74" t="s">
         <v>74</v>
@@ -27954,7 +27959,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K16" s="82">
         <v>45521.0</v>
@@ -27985,13 +27990,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>74</v>
@@ -28004,7 +28009,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="49"/>
       <c r="J17" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K17" s="82">
         <v>45521.0</v>
@@ -28043,13 +28048,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
@@ -28062,7 +28067,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K19" s="82">
         <v>45521.0</v>
@@ -28093,13 +28098,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>18</v>
@@ -28112,7 +28117,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K20" s="82">
         <v>45521.0</v>
@@ -28149,16 +28154,16 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>27</v>
@@ -28176,7 +28181,7 @@
         <v>20</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
@@ -28199,17 +28204,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -28224,7 +28229,7 @@
         <v>20</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
@@ -28247,17 +28252,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -28272,7 +28277,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
@@ -28295,17 +28300,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -28320,7 +28325,7 @@
         <v>20</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O25" s="28"/>
       <c r="P25" s="19"/>
@@ -28343,17 +28348,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -28368,7 +28373,7 @@
         <v>20</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="19"/>
@@ -28391,17 +28396,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -28416,7 +28421,7 @@
         <v>20</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="19"/>
@@ -28439,17 +28444,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -28464,7 +28469,7 @@
         <v>20</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="19"/>
@@ -28487,17 +28492,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -28512,7 +28517,7 @@
         <v>20</v>
       </c>
       <c r="N29" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
@@ -32762,19 +32767,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -32806,19 +32811,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -32850,19 +32855,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -32877,7 +32882,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -35886,13 +35891,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>81</v>
@@ -35905,7 +35910,7 @@
         <v>45531.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>28</v>
@@ -35916,13 +35921,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -35935,7 +35940,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>28</v>
@@ -35946,16 +35951,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>81</v>
@@ -35993,16 +35998,16 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>81</v>
@@ -36011,7 +36016,7 @@
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
       <c r="I5" s="128" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="130">
@@ -36020,7 +36025,7 @@
       <c r="L5" s="129"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O5" s="131" t="s">
         <v>63</v>
@@ -36044,16 +36049,16 @@
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E6" s="128" t="s">
         <v>81</v>
@@ -36069,7 +36074,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O6" s="131" t="s">
         <v>63</v>
@@ -36093,16 +36098,16 @@
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
+        <v>891</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>892</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>893</v>
+      </c>
+      <c r="D7" s="128" t="s">
         <v>890</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>891</v>
-      </c>
-      <c r="C7" s="128" t="s">
-        <v>892</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>889</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>81</v>
@@ -36118,7 +36123,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O7" s="131" t="s">
         <v>63</v>
@@ -36142,16 +36147,16 @@
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>81</v>
@@ -36167,7 +36172,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O8" s="131" t="s">
         <v>63</v>
@@ -36191,16 +36196,16 @@
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>81</v>
@@ -36273,16 +36278,16 @@
     </row>
     <row r="11">
       <c r="A11" s="133" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -36292,7 +36297,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="94" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -36324,16 +36329,16 @@
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -36373,16 +36378,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -36429,30 +36434,30 @@
     </row>
     <row r="15">
       <c r="A15" s="135" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="138" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="138" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K15" s="130">
         <v>44601.0</v>
@@ -36460,7 +36465,7 @@
       <c r="L15" s="139"/>
       <c r="M15" s="128"/>
       <c r="N15" s="140" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O15" s="139"/>
       <c r="P15" s="139"/>
@@ -39188,16 +39193,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>85</v>
@@ -39207,7 +39212,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -39217,10 +39222,10 @@
         <v>20</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -39241,13 +39246,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -39258,7 +39263,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K3" s="66">
         <v>45396.0</v>
@@ -39290,13 +39295,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -39307,7 +39312,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="93"/>
       <c r="J4" s="17" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K4" s="66">
         <v>45396.0</v>
@@ -39339,13 +39344,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -39356,7 +39361,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="K5" s="66">
         <v>45396.0</v>
@@ -39388,13 +39393,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -39405,7 +39410,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K6" s="66">
         <v>45396.0</v>
@@ -39437,13 +39442,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -39454,7 +39459,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K7" s="66">
         <v>45396.0</v>
@@ -39486,13 +39491,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -39503,7 +39508,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K8" s="66">
         <v>45396.0</v>
@@ -39535,13 +39540,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -39552,7 +39557,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K9" s="66">
         <v>45396.0</v>
@@ -39584,13 +39589,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -39601,7 +39606,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="K10" s="66">
         <v>45396.0</v>
@@ -39633,13 +39638,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -39650,7 +39655,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K11" s="66">
         <v>45396.0</v>
@@ -39682,13 +39687,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -39699,7 +39704,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K12" s="66">
         <v>45396.0</v>

--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -2589,7 +2589,7 @@
     <t>Data Suitability Assessment</t>
   </si>
   <si>
-    <t>Measures associated with assessment of suitability of data</t>
+    <t>Measures associated with assessment of suitability of data for specific task(s)</t>
   </si>
   <si>
     <t>dpv:DataQualityAssessment</t>
@@ -2601,7 +2601,7 @@
     <t>Data Availability Assessment</t>
   </si>
   <si>
-    <t>Measures associated with assessment of availability of data</t>
+    <t>Measures associated with assessment of availability of data for specific task(s)</t>
   </si>
   <si>
     <t>MetadataManagement</t>
